--- a/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
+++ b/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911EB9CC-991E-480D-A27A-7D013F1689AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3122851-3950-4032-99D6-ABDA65ACBA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="620" yWindow="410" windowWidth="11870" windowHeight="8960" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="クラス概要_プルダウン項目クラス" sheetId="2" r:id="rId1"/>
+    <sheet name="クラス概要_コントローラ基底クラス" sheetId="2" r:id="rId1"/>
     <sheet name="ログインID存在確認" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">クラス概要_プルダウン項目クラス!$A$1:$BQ$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">クラス概要_コントローラ基底クラス!$A$1:$BQ$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ログインID存在確認!$A$1:$BQ$32</definedName>
     <definedName name="範囲１" localSheetId="1">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>public</t>
   </si>
@@ -429,16 +429,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>コントローラ基底クラス設計書</t>
-    <rPh sb="6" eb="8">
-      <t>キテイ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>コントローラ基底クラス</t>
     <rPh sb="6" eb="8">
       <t>キテイ</t>
@@ -524,6 +514,23 @@
   </si>
   <si>
     <t>protected</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コントローラ基底クラス_設計書</t>
+    <rPh sb="6" eb="8">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>システム名</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1037,6 +1044,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,9 +1098,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1064,73 +1107,14 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1152,6 +1136,29 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1486,247 +1493,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43" t="s">
+      <c r="A1" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="44" t="s">
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44"/>
-      <c r="BP1" s="44"/>
-      <c r="BQ1" s="44"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="47" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47" t="s">
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47" t="s">
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="47"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="48" t="s">
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="48"/>
-      <c r="BM2" s="48"/>
-      <c r="BN2" s="48"/>
-      <c r="BO2" s="48"/>
-      <c r="BP2" s="48"/>
-      <c r="BQ2" s="48"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
+      <c r="BQ2" s="60"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="49">
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="61">
         <v>45519</v>
       </c>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="46" t="s">
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="46"/>
-      <c r="BG3" s="46"/>
-      <c r="BH3" s="46"/>
-      <c r="BI3" s="46"/>
-      <c r="BJ3" s="50">
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="59"/>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59"/>
+      <c r="BJ3" s="62">
         <v>45518</v>
       </c>
-      <c r="BK3" s="50"/>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="50"/>
-      <c r="BO3" s="50"/>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -1793,215 +1800,215 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="C6" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="51"/>
-      <c r="BA6" s="51"/>
-      <c r="BB6" s="51"/>
-      <c r="BC6" s="51"/>
-      <c r="BD6" s="51"/>
-      <c r="BE6" s="51"/>
-      <c r="BF6" s="51"/>
-      <c r="BG6" s="51"/>
-      <c r="BH6" s="51"/>
-      <c r="BI6" s="51"/>
-      <c r="BJ6" s="51"/>
-      <c r="BK6" s="51"/>
-      <c r="BL6" s="51"/>
-      <c r="BM6" s="51"/>
-      <c r="BN6" s="51"/>
-      <c r="BO6" s="51"/>
+      <c r="C6" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="53"/>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="6"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="51"/>
-      <c r="AK7" s="51"/>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="51"/>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="51"/>
-      <c r="AV7" s="51"/>
-      <c r="AW7" s="51"/>
-      <c r="AX7" s="51"/>
-      <c r="AY7" s="51"/>
-      <c r="AZ7" s="51"/>
-      <c r="BA7" s="51"/>
-      <c r="BB7" s="51"/>
-      <c r="BC7" s="51"/>
-      <c r="BD7" s="51"/>
-      <c r="BE7" s="51"/>
-      <c r="BF7" s="51"/>
-      <c r="BG7" s="51"/>
-      <c r="BH7" s="51"/>
-      <c r="BI7" s="51"/>
-      <c r="BJ7" s="51"/>
-      <c r="BK7" s="51"/>
-      <c r="BL7" s="51"/>
-      <c r="BM7" s="51"/>
-      <c r="BN7" s="51"/>
-      <c r="BO7" s="51"/>
+      <c r="C7" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="53"/>
+      <c r="BA7" s="53"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="53"/>
+      <c r="BD7" s="53"/>
+      <c r="BE7" s="53"/>
+      <c r="BF7" s="53"/>
+      <c r="BG7" s="53"/>
+      <c r="BH7" s="53"/>
+      <c r="BI7" s="53"/>
+      <c r="BJ7" s="53"/>
+      <c r="BK7" s="53"/>
+      <c r="BL7" s="53"/>
+      <c r="BM7" s="53"/>
+      <c r="BN7" s="53"/>
+      <c r="BO7" s="53"/>
       <c r="BP7" s="8"/>
       <c r="BQ7" s="6"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="51"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
-      <c r="AT8" s="51"/>
-      <c r="AU8" s="51"/>
-      <c r="AV8" s="51"/>
-      <c r="AW8" s="51"/>
-      <c r="AX8" s="51"/>
-      <c r="AY8" s="51"/>
-      <c r="AZ8" s="51"/>
-      <c r="BA8" s="51"/>
-      <c r="BB8" s="51"/>
-      <c r="BC8" s="51"/>
-      <c r="BD8" s="51"/>
-      <c r="BE8" s="51"/>
-      <c r="BF8" s="51"/>
-      <c r="BG8" s="51"/>
-      <c r="BH8" s="51"/>
-      <c r="BI8" s="51"/>
-      <c r="BJ8" s="51"/>
-      <c r="BK8" s="51"/>
-      <c r="BL8" s="51"/>
-      <c r="BM8" s="51"/>
-      <c r="BN8" s="51"/>
-      <c r="BO8" s="51"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="53"/>
+      <c r="BC8" s="53"/>
+      <c r="BD8" s="53"/>
+      <c r="BE8" s="53"/>
+      <c r="BF8" s="53"/>
+      <c r="BG8" s="53"/>
+      <c r="BH8" s="53"/>
+      <c r="BI8" s="53"/>
+      <c r="BJ8" s="53"/>
+      <c r="BK8" s="53"/>
+      <c r="BL8" s="53"/>
+      <c r="BM8" s="53"/>
+      <c r="BN8" s="53"/>
+      <c r="BO8" s="53"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="6"/>
     </row>
@@ -2054,787 +2061,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="53" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="54"/>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="54"/>
-      <c r="AW11" s="54"/>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="54"/>
-      <c r="BA11" s="54"/>
-      <c r="BB11" s="54"/>
-      <c r="BC11" s="54"/>
-      <c r="BD11" s="54"/>
-      <c r="BE11" s="54"/>
-      <c r="BF11" s="54"/>
-      <c r="BG11" s="54"/>
-      <c r="BH11" s="54"/>
-      <c r="BI11" s="54"/>
-      <c r="BJ11" s="54"/>
-      <c r="BK11" s="54"/>
-      <c r="BL11" s="54"/>
-      <c r="BM11" s="54"/>
-      <c r="BN11" s="54"/>
-      <c r="BO11" s="54"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="44"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="44"/>
+      <c r="BC11" s="44"/>
+      <c r="BD11" s="44"/>
+      <c r="BE11" s="44"/>
+      <c r="BF11" s="44"/>
+      <c r="BG11" s="44"/>
+      <c r="BH11" s="44"/>
+      <c r="BI11" s="44"/>
+      <c r="BJ11" s="44"/>
+      <c r="BK11" s="44"/>
+      <c r="BL11" s="44"/>
+      <c r="BM11" s="44"/>
+      <c r="BN11" s="44"/>
+      <c r="BO11" s="44"/>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="54"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="54"/>
-      <c r="AP12" s="54"/>
-      <c r="AQ12" s="54"/>
-      <c r="AR12" s="54"/>
-      <c r="AS12" s="54"/>
-      <c r="AT12" s="54"/>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="54"/>
-      <c r="AW12" s="54"/>
-      <c r="AX12" s="54"/>
-      <c r="AY12" s="54"/>
-      <c r="AZ12" s="54"/>
-      <c r="BA12" s="54"/>
-      <c r="BB12" s="54"/>
-      <c r="BC12" s="54"/>
-      <c r="BD12" s="54"/>
-      <c r="BE12" s="54"/>
-      <c r="BF12" s="54"/>
-      <c r="BG12" s="54"/>
-      <c r="BH12" s="54"/>
-      <c r="BI12" s="54"/>
-      <c r="BJ12" s="54"/>
-      <c r="BK12" s="54"/>
-      <c r="BL12" s="54"/>
-      <c r="BM12" s="54"/>
-      <c r="BN12" s="54"/>
-      <c r="BO12" s="54"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="44"/>
+      <c r="BC12" s="44"/>
+      <c r="BD12" s="44"/>
+      <c r="BE12" s="44"/>
+      <c r="BF12" s="44"/>
+      <c r="BG12" s="44"/>
+      <c r="BH12" s="44"/>
+      <c r="BI12" s="44"/>
+      <c r="BJ12" s="44"/>
+      <c r="BK12" s="44"/>
+      <c r="BL12" s="44"/>
+      <c r="BM12" s="44"/>
+      <c r="BN12" s="44"/>
+      <c r="BO12" s="44"/>
       <c r="BP12" s="8"/>
       <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="54"/>
-      <c r="AW13" s="54"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="54"/>
-      <c r="BA13" s="54"/>
-      <c r="BB13" s="54"/>
-      <c r="BC13" s="54"/>
-      <c r="BD13" s="54"/>
-      <c r="BE13" s="54"/>
-      <c r="BF13" s="54"/>
-      <c r="BG13" s="54"/>
-      <c r="BH13" s="54"/>
-      <c r="BI13" s="54"/>
-      <c r="BJ13" s="54"/>
-      <c r="BK13" s="54"/>
-      <c r="BL13" s="54"/>
-      <c r="BM13" s="54"/>
-      <c r="BN13" s="54"/>
-      <c r="BO13" s="54"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="44"/>
+      <c r="BD13" s="44"/>
+      <c r="BE13" s="44"/>
+      <c r="BF13" s="44"/>
+      <c r="BG13" s="44"/>
+      <c r="BH13" s="44"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="44"/>
+      <c r="BK13" s="44"/>
+      <c r="BL13" s="44"/>
+      <c r="BM13" s="44"/>
+      <c r="BN13" s="44"/>
+      <c r="BO13" s="44"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="61" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="61"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="61"/>
-      <c r="AN14" s="61"/>
-      <c r="AO14" s="61"/>
-      <c r="AP14" s="61"/>
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="61"/>
-      <c r="AS14" s="61"/>
-      <c r="AT14" s="61"/>
-      <c r="AU14" s="61"/>
-      <c r="AV14" s="61"/>
-      <c r="AW14" s="61"/>
-      <c r="AX14" s="61"/>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="61"/>
-      <c r="BA14" s="61"/>
-      <c r="BB14" s="61"/>
-      <c r="BC14" s="61"/>
-      <c r="BD14" s="61"/>
-      <c r="BE14" s="61"/>
-      <c r="BF14" s="61"/>
-      <c r="BG14" s="61"/>
-      <c r="BH14" s="61"/>
-      <c r="BI14" s="61"/>
-      <c r="BJ14" s="61"/>
-      <c r="BK14" s="61"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="61"/>
-      <c r="BN14" s="61"/>
-      <c r="BO14" s="61"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="51"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="51"/>
+      <c r="BL14" s="51"/>
+      <c r="BM14" s="51"/>
+      <c r="BN14" s="51"/>
+      <c r="BO14" s="51"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="6"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="62"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="62"/>
-      <c r="BA15" s="62"/>
-      <c r="BB15" s="62"/>
-      <c r="BC15" s="62"/>
-      <c r="BD15" s="62"/>
-      <c r="BE15" s="62"/>
-      <c r="BF15" s="62"/>
-      <c r="BG15" s="62"/>
-      <c r="BH15" s="62"/>
-      <c r="BI15" s="62"/>
-      <c r="BJ15" s="62"/>
-      <c r="BK15" s="62"/>
-      <c r="BL15" s="62"/>
-      <c r="BM15" s="62"/>
-      <c r="BN15" s="62"/>
-      <c r="BO15" s="62"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="52"/>
+      <c r="AP15" s="52"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="52"/>
+      <c r="AS15" s="52"/>
+      <c r="AT15" s="52"/>
+      <c r="AU15" s="52"/>
+      <c r="AV15" s="52"/>
+      <c r="AW15" s="52"/>
+      <c r="AX15" s="52"/>
+      <c r="AY15" s="52"/>
+      <c r="AZ15" s="52"/>
+      <c r="BA15" s="52"/>
+      <c r="BB15" s="52"/>
+      <c r="BC15" s="52"/>
+      <c r="BD15" s="52"/>
+      <c r="BE15" s="52"/>
+      <c r="BF15" s="52"/>
+      <c r="BG15" s="52"/>
+      <c r="BH15" s="52"/>
+      <c r="BI15" s="52"/>
+      <c r="BJ15" s="52"/>
+      <c r="BK15" s="52"/>
+      <c r="BL15" s="52"/>
+      <c r="BM15" s="52"/>
+      <c r="BN15" s="52"/>
+      <c r="BO15" s="52"/>
       <c r="BP15" s="8"/>
       <c r="BQ15" s="6"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="62"/>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="62"/>
-      <c r="AZ16" s="62"/>
-      <c r="BA16" s="62"/>
-      <c r="BB16" s="62"/>
-      <c r="BC16" s="62"/>
-      <c r="BD16" s="62"/>
-      <c r="BE16" s="62"/>
-      <c r="BF16" s="62"/>
-      <c r="BG16" s="62"/>
-      <c r="BH16" s="62"/>
-      <c r="BI16" s="62"/>
-      <c r="BJ16" s="62"/>
-      <c r="BK16" s="62"/>
-      <c r="BL16" s="62"/>
-      <c r="BM16" s="62"/>
-      <c r="BN16" s="62"/>
-      <c r="BO16" s="62"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="52"/>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="52"/>
+      <c r="AT16" s="52"/>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="52"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="52"/>
+      <c r="AY16" s="52"/>
+      <c r="AZ16" s="52"/>
+      <c r="BA16" s="52"/>
+      <c r="BB16" s="52"/>
+      <c r="BC16" s="52"/>
+      <c r="BD16" s="52"/>
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="52"/>
+      <c r="BG16" s="52"/>
+      <c r="BH16" s="52"/>
+      <c r="BI16" s="52"/>
+      <c r="BJ16" s="52"/>
+      <c r="BK16" s="52"/>
+      <c r="BL16" s="52"/>
+      <c r="BM16" s="52"/>
+      <c r="BN16" s="52"/>
+      <c r="BO16" s="52"/>
       <c r="BP16" s="8"/>
       <c r="BQ16" s="6"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="62"/>
-      <c r="AL17" s="62"/>
-      <c r="AM17" s="62"/>
-      <c r="AN17" s="62"/>
-      <c r="AO17" s="62"/>
-      <c r="AP17" s="62"/>
-      <c r="AQ17" s="62"/>
-      <c r="AR17" s="62"/>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="62"/>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="62"/>
-      <c r="AY17" s="62"/>
-      <c r="AZ17" s="62"/>
-      <c r="BA17" s="62"/>
-      <c r="BB17" s="62"/>
-      <c r="BC17" s="62"/>
-      <c r="BD17" s="62"/>
-      <c r="BE17" s="62"/>
-      <c r="BF17" s="62"/>
-      <c r="BG17" s="62"/>
-      <c r="BH17" s="62"/>
-      <c r="BI17" s="62"/>
-      <c r="BJ17" s="62"/>
-      <c r="BK17" s="62"/>
-      <c r="BL17" s="62"/>
-      <c r="BM17" s="62"/>
-      <c r="BN17" s="62"/>
-      <c r="BO17" s="62"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="52"/>
+      <c r="AM17" s="52"/>
+      <c r="AN17" s="52"/>
+      <c r="AO17" s="52"/>
+      <c r="AP17" s="52"/>
+      <c r="AQ17" s="52"/>
+      <c r="AR17" s="52"/>
+      <c r="AS17" s="52"/>
+      <c r="AT17" s="52"/>
+      <c r="AU17" s="52"/>
+      <c r="AV17" s="52"/>
+      <c r="AW17" s="52"/>
+      <c r="AX17" s="52"/>
+      <c r="AY17" s="52"/>
+      <c r="AZ17" s="52"/>
+      <c r="BA17" s="52"/>
+      <c r="BB17" s="52"/>
+      <c r="BC17" s="52"/>
+      <c r="BD17" s="52"/>
+      <c r="BE17" s="52"/>
+      <c r="BF17" s="52"/>
+      <c r="BG17" s="52"/>
+      <c r="BH17" s="52"/>
+      <c r="BI17" s="52"/>
+      <c r="BJ17" s="52"/>
+      <c r="BK17" s="52"/>
+      <c r="BL17" s="52"/>
+      <c r="BM17" s="52"/>
+      <c r="BN17" s="52"/>
+      <c r="BO17" s="52"/>
       <c r="BP17" s="8"/>
       <c r="BQ17" s="6"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="62"/>
-      <c r="AM18" s="62"/>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="62"/>
-      <c r="AX18" s="62"/>
-      <c r="AY18" s="62"/>
-      <c r="AZ18" s="62"/>
-      <c r="BA18" s="62"/>
-      <c r="BB18" s="62"/>
-      <c r="BC18" s="62"/>
-      <c r="BD18" s="62"/>
-      <c r="BE18" s="62"/>
-      <c r="BF18" s="62"/>
-      <c r="BG18" s="62"/>
-      <c r="BH18" s="62"/>
-      <c r="BI18" s="62"/>
-      <c r="BJ18" s="62"/>
-      <c r="BK18" s="62"/>
-      <c r="BL18" s="62"/>
-      <c r="BM18" s="62"/>
-      <c r="BN18" s="62"/>
-      <c r="BO18" s="62"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="52"/>
+      <c r="AQ18" s="52"/>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="52"/>
+      <c r="AT18" s="52"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="52"/>
+      <c r="AW18" s="52"/>
+      <c r="AX18" s="52"/>
+      <c r="AY18" s="52"/>
+      <c r="AZ18" s="52"/>
+      <c r="BA18" s="52"/>
+      <c r="BB18" s="52"/>
+      <c r="BC18" s="52"/>
+      <c r="BD18" s="52"/>
+      <c r="BE18" s="52"/>
+      <c r="BF18" s="52"/>
+      <c r="BG18" s="52"/>
+      <c r="BH18" s="52"/>
+      <c r="BI18" s="52"/>
+      <c r="BJ18" s="52"/>
+      <c r="BK18" s="52"/>
+      <c r="BL18" s="52"/>
+      <c r="BM18" s="52"/>
+      <c r="BN18" s="52"/>
+      <c r="BO18" s="52"/>
       <c r="BP18" s="8"/>
       <c r="BQ18" s="6"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62"/>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="62"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="62"/>
-      <c r="BG19" s="62"/>
-      <c r="BH19" s="62"/>
-      <c r="BI19" s="62"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="62"/>
-      <c r="BL19" s="62"/>
-      <c r="BM19" s="62"/>
-      <c r="BN19" s="62"/>
-      <c r="BO19" s="62"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="52"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="52"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="52"/>
+      <c r="AV19" s="52"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="52"/>
+      <c r="AY19" s="52"/>
+      <c r="AZ19" s="52"/>
+      <c r="BA19" s="52"/>
+      <c r="BB19" s="52"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="52"/>
+      <c r="BF19" s="52"/>
+      <c r="BG19" s="52"/>
+      <c r="BH19" s="52"/>
+      <c r="BI19" s="52"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="52"/>
+      <c r="BL19" s="52"/>
+      <c r="BM19" s="52"/>
+      <c r="BN19" s="52"/>
+      <c r="BO19" s="52"/>
       <c r="BP19" s="8"/>
       <c r="BQ19" s="6"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="62"/>
-      <c r="AY20" s="62"/>
-      <c r="AZ20" s="62"/>
-      <c r="BA20" s="62"/>
-      <c r="BB20" s="62"/>
-      <c r="BC20" s="62"/>
-      <c r="BD20" s="62"/>
-      <c r="BE20" s="62"/>
-      <c r="BF20" s="62"/>
-      <c r="BG20" s="62"/>
-      <c r="BH20" s="62"/>
-      <c r="BI20" s="62"/>
-      <c r="BJ20" s="62"/>
-      <c r="BK20" s="62"/>
-      <c r="BL20" s="62"/>
-      <c r="BM20" s="62"/>
-      <c r="BN20" s="62"/>
-      <c r="BO20" s="62"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="52"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="52"/>
+      <c r="AT20" s="52"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="52"/>
+      <c r="AW20" s="52"/>
+      <c r="AX20" s="52"/>
+      <c r="AY20" s="52"/>
+      <c r="AZ20" s="52"/>
+      <c r="BA20" s="52"/>
+      <c r="BB20" s="52"/>
+      <c r="BC20" s="52"/>
+      <c r="BD20" s="52"/>
+      <c r="BE20" s="52"/>
+      <c r="BF20" s="52"/>
+      <c r="BG20" s="52"/>
+      <c r="BH20" s="52"/>
+      <c r="BI20" s="52"/>
+      <c r="BJ20" s="52"/>
+      <c r="BK20" s="52"/>
+      <c r="BL20" s="52"/>
+      <c r="BM20" s="52"/>
+      <c r="BN20" s="52"/>
+      <c r="BO20" s="52"/>
       <c r="BP20" s="8"/>
       <c r="BQ20" s="6"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="52"/>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="52"/>
-      <c r="AP21" s="52"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="52"/>
-      <c r="AS21" s="52"/>
-      <c r="AT21" s="52"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="52"/>
-      <c r="AY21" s="52"/>
-      <c r="AZ21" s="52"/>
-      <c r="BA21" s="52"/>
-      <c r="BB21" s="52"/>
-      <c r="BC21" s="52"/>
-      <c r="BD21" s="52"/>
-      <c r="BE21" s="52"/>
-      <c r="BF21" s="52"/>
-      <c r="BG21" s="52"/>
-      <c r="BH21" s="52"/>
-      <c r="BI21" s="52"/>
-      <c r="BJ21" s="52"/>
-      <c r="BK21" s="52"/>
-      <c r="BL21" s="52"/>
-      <c r="BM21" s="52"/>
-      <c r="BN21" s="52"/>
-      <c r="BO21" s="52"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="54"/>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="54"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="54"/>
+      <c r="AV21" s="54"/>
+      <c r="AW21" s="54"/>
+      <c r="AX21" s="54"/>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="54"/>
+      <c r="BA21" s="54"/>
+      <c r="BB21" s="54"/>
+      <c r="BC21" s="54"/>
+      <c r="BD21" s="54"/>
+      <c r="BE21" s="54"/>
+      <c r="BF21" s="54"/>
+      <c r="BG21" s="54"/>
+      <c r="BH21" s="54"/>
+      <c r="BI21" s="54"/>
+      <c r="BJ21" s="54"/>
+      <c r="BK21" s="54"/>
+      <c r="BL21" s="54"/>
+      <c r="BM21" s="54"/>
+      <c r="BN21" s="54"/>
+      <c r="BO21" s="54"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="6"/>
     </row>
@@ -2864,738 +2871,738 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="54" t="s">
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="53" t="s">
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="53"/>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="53"/>
-      <c r="AL25" s="53"/>
-      <c r="AM25" s="53"/>
-      <c r="AN25" s="53"/>
-      <c r="AO25" s="53"/>
-      <c r="AP25" s="53"/>
-      <c r="AQ25" s="53"/>
-      <c r="AR25" s="53"/>
-      <c r="AS25" s="53"/>
-      <c r="AT25" s="53"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
-      <c r="BB25" s="53"/>
-      <c r="BC25" s="53"/>
-      <c r="BD25" s="53" t="s">
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="42"/>
+      <c r="AM25" s="42"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="42"/>
+      <c r="AR25" s="42"/>
+      <c r="AS25" s="42"/>
+      <c r="AT25" s="42"/>
+      <c r="AU25" s="42"/>
+      <c r="AV25" s="42"/>
+      <c r="AW25" s="42"/>
+      <c r="AX25" s="42"/>
+      <c r="AY25" s="42"/>
+      <c r="AZ25" s="42"/>
+      <c r="BA25" s="42"/>
+      <c r="BB25" s="42"/>
+      <c r="BC25" s="42"/>
+      <c r="BD25" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="BE25" s="53"/>
-      <c r="BF25" s="53"/>
-      <c r="BG25" s="53"/>
-      <c r="BH25" s="53"/>
-      <c r="BI25" s="53"/>
-      <c r="BJ25" s="53"/>
-      <c r="BK25" s="53"/>
-      <c r="BL25" s="53"/>
-      <c r="BM25" s="53"/>
-      <c r="BN25" s="53"/>
-      <c r="BO25" s="53"/>
+      <c r="BE25" s="42"/>
+      <c r="BF25" s="42"/>
+      <c r="BG25" s="42"/>
+      <c r="BH25" s="42"/>
+      <c r="BI25" s="42"/>
+      <c r="BJ25" s="42"/>
+      <c r="BK25" s="42"/>
+      <c r="BL25" s="42"/>
+      <c r="BM25" s="42"/>
+      <c r="BN25" s="42"/>
+      <c r="BO25" s="42"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="C26" s="47">
+      <c r="C26" s="43">
         <v>1</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="58" t="s">
+      <c r="D26" s="43"/>
+      <c r="E26" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="58" t="s">
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="59"/>
-      <c r="AV26" s="59"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="59"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="59"/>
-      <c r="BC26" s="60"/>
-      <c r="BD26" s="58"/>
-      <c r="BE26" s="59"/>
-      <c r="BF26" s="59"/>
-      <c r="BG26" s="59"/>
-      <c r="BH26" s="59"/>
-      <c r="BI26" s="59"/>
-      <c r="BJ26" s="59"/>
-      <c r="BK26" s="59"/>
-      <c r="BL26" s="59"/>
-      <c r="BM26" s="59"/>
-      <c r="BN26" s="59"/>
-      <c r="BO26" s="60"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="46"/>
+      <c r="AS26" s="46"/>
+      <c r="AT26" s="46"/>
+      <c r="AU26" s="46"/>
+      <c r="AV26" s="46"/>
+      <c r="AW26" s="46"/>
+      <c r="AX26" s="46"/>
+      <c r="AY26" s="46"/>
+      <c r="AZ26" s="46"/>
+      <c r="BA26" s="46"/>
+      <c r="BB26" s="46"/>
+      <c r="BC26" s="47"/>
+      <c r="BD26" s="45"/>
+      <c r="BE26" s="46"/>
+      <c r="BF26" s="46"/>
+      <c r="BG26" s="46"/>
+      <c r="BH26" s="46"/>
+      <c r="BI26" s="46"/>
+      <c r="BJ26" s="46"/>
+      <c r="BK26" s="46"/>
+      <c r="BL26" s="46"/>
+      <c r="BM26" s="46"/>
+      <c r="BN26" s="46"/>
+      <c r="BO26" s="47"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="C27" s="47">
+      <c r="C27" s="43">
         <v>2</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="53"/>
-      <c r="AF27" s="53"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="53"/>
-      <c r="AJ27" s="53"/>
-      <c r="AK27" s="53"/>
-      <c r="AL27" s="53"/>
-      <c r="AM27" s="53"/>
-      <c r="AN27" s="53"/>
-      <c r="AO27" s="53"/>
-      <c r="AP27" s="53"/>
-      <c r="AQ27" s="53"/>
-      <c r="AR27" s="53"/>
-      <c r="AS27" s="53"/>
-      <c r="AT27" s="53"/>
-      <c r="AU27" s="53"/>
-      <c r="AV27" s="53"/>
-      <c r="AW27" s="53"/>
-      <c r="AX27" s="53"/>
-      <c r="AY27" s="53"/>
-      <c r="AZ27" s="53"/>
-      <c r="BA27" s="53"/>
-      <c r="BB27" s="53"/>
-      <c r="BC27" s="53"/>
-      <c r="BD27" s="53"/>
-      <c r="BE27" s="53"/>
-      <c r="BF27" s="53"/>
-      <c r="BG27" s="53"/>
-      <c r="BH27" s="53"/>
-      <c r="BI27" s="53"/>
-      <c r="BJ27" s="53"/>
-      <c r="BK27" s="53"/>
-      <c r="BL27" s="53"/>
-      <c r="BM27" s="53"/>
-      <c r="BN27" s="53"/>
-      <c r="BO27" s="53"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="42"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+      <c r="AT27" s="42"/>
+      <c r="AU27" s="42"/>
+      <c r="AV27" s="42"/>
+      <c r="AW27" s="42"/>
+      <c r="AX27" s="42"/>
+      <c r="AY27" s="42"/>
+      <c r="AZ27" s="42"/>
+      <c r="BA27" s="42"/>
+      <c r="BB27" s="42"/>
+      <c r="BC27" s="42"/>
+      <c r="BD27" s="42"/>
+      <c r="BE27" s="42"/>
+      <c r="BF27" s="42"/>
+      <c r="BG27" s="42"/>
+      <c r="BH27" s="42"/>
+      <c r="BI27" s="42"/>
+      <c r="BJ27" s="42"/>
+      <c r="BK27" s="42"/>
+      <c r="BL27" s="42"/>
+      <c r="BM27" s="42"/>
+      <c r="BN27" s="42"/>
+      <c r="BO27" s="42"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="C28" s="47">
+      <c r="C28" s="43">
         <v>3</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="53"/>
-      <c r="AF28" s="53"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
-      <c r="AM28" s="53"/>
-      <c r="AN28" s="53"/>
-      <c r="AO28" s="53"/>
-      <c r="AP28" s="53"/>
-      <c r="AQ28" s="53"/>
-      <c r="AR28" s="53"/>
-      <c r="AS28" s="53"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="53"/>
-      <c r="AV28" s="53"/>
-      <c r="AW28" s="53"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="53"/>
-      <c r="AZ28" s="53"/>
-      <c r="BA28" s="53"/>
-      <c r="BB28" s="53"/>
-      <c r="BC28" s="53"/>
-      <c r="BD28" s="53"/>
-      <c r="BE28" s="53"/>
-      <c r="BF28" s="53"/>
-      <c r="BG28" s="53"/>
-      <c r="BH28" s="53"/>
-      <c r="BI28" s="53"/>
-      <c r="BJ28" s="53"/>
-      <c r="BK28" s="53"/>
-      <c r="BL28" s="53"/>
-      <c r="BM28" s="53"/>
-      <c r="BN28" s="53"/>
-      <c r="BO28" s="53"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="42"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="42"/>
+      <c r="AU28" s="42"/>
+      <c r="AV28" s="42"/>
+      <c r="AW28" s="42"/>
+      <c r="AX28" s="42"/>
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="42"/>
+      <c r="BA28" s="42"/>
+      <c r="BB28" s="42"/>
+      <c r="BC28" s="42"/>
+      <c r="BD28" s="42"/>
+      <c r="BE28" s="42"/>
+      <c r="BF28" s="42"/>
+      <c r="BG28" s="42"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="42"/>
+      <c r="BJ28" s="42"/>
+      <c r="BK28" s="42"/>
+      <c r="BL28" s="42"/>
+      <c r="BM28" s="42"/>
+      <c r="BN28" s="42"/>
+      <c r="BO28" s="42"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="6"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="C29" s="47">
+      <c r="C29" s="43">
         <v>4</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="53"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="53"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="53"/>
-      <c r="AN29" s="53"/>
-      <c r="AO29" s="53"/>
-      <c r="AP29" s="53"/>
-      <c r="AQ29" s="53"/>
-      <c r="AR29" s="53"/>
-      <c r="AS29" s="53"/>
-      <c r="AT29" s="53"/>
-      <c r="AU29" s="53"/>
-      <c r="AV29" s="53"/>
-      <c r="AW29" s="53"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="53"/>
-      <c r="AZ29" s="53"/>
-      <c r="BA29" s="53"/>
-      <c r="BB29" s="53"/>
-      <c r="BC29" s="53"/>
-      <c r="BD29" s="53"/>
-      <c r="BE29" s="53"/>
-      <c r="BF29" s="53"/>
-      <c r="BG29" s="53"/>
-      <c r="BH29" s="53"/>
-      <c r="BI29" s="53"/>
-      <c r="BJ29" s="53"/>
-      <c r="BK29" s="53"/>
-      <c r="BL29" s="53"/>
-      <c r="BM29" s="53"/>
-      <c r="BN29" s="53"/>
-      <c r="BO29" s="53"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="42"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="42"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="42"/>
+      <c r="AT29" s="42"/>
+      <c r="AU29" s="42"/>
+      <c r="AV29" s="42"/>
+      <c r="AW29" s="42"/>
+      <c r="AX29" s="42"/>
+      <c r="AY29" s="42"/>
+      <c r="AZ29" s="42"/>
+      <c r="BA29" s="42"/>
+      <c r="BB29" s="42"/>
+      <c r="BC29" s="42"/>
+      <c r="BD29" s="42"/>
+      <c r="BE29" s="42"/>
+      <c r="BF29" s="42"/>
+      <c r="BG29" s="42"/>
+      <c r="BH29" s="42"/>
+      <c r="BI29" s="42"/>
+      <c r="BJ29" s="42"/>
+      <c r="BK29" s="42"/>
+      <c r="BL29" s="42"/>
+      <c r="BM29" s="42"/>
+      <c r="BN29" s="42"/>
+      <c r="BO29" s="42"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="6"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="C30" s="47">
+      <c r="C30" s="43">
         <v>5</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="53"/>
-      <c r="AF30" s="53"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="53"/>
-      <c r="AJ30" s="53"/>
-      <c r="AK30" s="53"/>
-      <c r="AL30" s="53"/>
-      <c r="AM30" s="53"/>
-      <c r="AN30" s="53"/>
-      <c r="AO30" s="53"/>
-      <c r="AP30" s="53"/>
-      <c r="AQ30" s="53"/>
-      <c r="AR30" s="53"/>
-      <c r="AS30" s="53"/>
-      <c r="AT30" s="53"/>
-      <c r="AU30" s="53"/>
-      <c r="AV30" s="53"/>
-      <c r="AW30" s="53"/>
-      <c r="AX30" s="53"/>
-      <c r="AY30" s="53"/>
-      <c r="AZ30" s="53"/>
-      <c r="BA30" s="53"/>
-      <c r="BB30" s="53"/>
-      <c r="BC30" s="53"/>
-      <c r="BD30" s="53"/>
-      <c r="BE30" s="53"/>
-      <c r="BF30" s="53"/>
-      <c r="BG30" s="53"/>
-      <c r="BH30" s="53"/>
-      <c r="BI30" s="53"/>
-      <c r="BJ30" s="53"/>
-      <c r="BK30" s="53"/>
-      <c r="BL30" s="53"/>
-      <c r="BM30" s="53"/>
-      <c r="BN30" s="53"/>
-      <c r="BO30" s="53"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="42"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="42"/>
+      <c r="AT30" s="42"/>
+      <c r="AU30" s="42"/>
+      <c r="AV30" s="42"/>
+      <c r="AW30" s="42"/>
+      <c r="AX30" s="42"/>
+      <c r="AY30" s="42"/>
+      <c r="AZ30" s="42"/>
+      <c r="BA30" s="42"/>
+      <c r="BB30" s="42"/>
+      <c r="BC30" s="42"/>
+      <c r="BD30" s="42"/>
+      <c r="BE30" s="42"/>
+      <c r="BF30" s="42"/>
+      <c r="BG30" s="42"/>
+      <c r="BH30" s="42"/>
+      <c r="BI30" s="42"/>
+      <c r="BJ30" s="42"/>
+      <c r="BK30" s="42"/>
+      <c r="BL30" s="42"/>
+      <c r="BM30" s="42"/>
+      <c r="BN30" s="42"/>
+      <c r="BO30" s="42"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="6"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="C31" s="47">
+      <c r="C31" s="43">
         <v>6</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="54"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
-      <c r="AP31" s="53"/>
-      <c r="AQ31" s="53"/>
-      <c r="AR31" s="53"/>
-      <c r="AS31" s="53"/>
-      <c r="AT31" s="53"/>
-      <c r="AU31" s="53"/>
-      <c r="AV31" s="53"/>
-      <c r="AW31" s="53"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="53"/>
-      <c r="AZ31" s="53"/>
-      <c r="BA31" s="53"/>
-      <c r="BB31" s="53"/>
-      <c r="BC31" s="53"/>
-      <c r="BD31" s="53"/>
-      <c r="BE31" s="53"/>
-      <c r="BF31" s="53"/>
-      <c r="BG31" s="53"/>
-      <c r="BH31" s="53"/>
-      <c r="BI31" s="53"/>
-      <c r="BJ31" s="53"/>
-      <c r="BK31" s="53"/>
-      <c r="BL31" s="53"/>
-      <c r="BM31" s="53"/>
-      <c r="BN31" s="53"/>
-      <c r="BO31" s="53"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="42"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="42"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="42"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="42"/>
+      <c r="BA31" s="42"/>
+      <c r="BB31" s="42"/>
+      <c r="BC31" s="42"/>
+      <c r="BD31" s="42"/>
+      <c r="BE31" s="42"/>
+      <c r="BF31" s="42"/>
+      <c r="BG31" s="42"/>
+      <c r="BH31" s="42"/>
+      <c r="BI31" s="42"/>
+      <c r="BJ31" s="42"/>
+      <c r="BK31" s="42"/>
+      <c r="BL31" s="42"/>
+      <c r="BM31" s="42"/>
+      <c r="BN31" s="42"/>
+      <c r="BO31" s="42"/>
       <c r="BP31" s="8"/>
       <c r="BQ31" s="6"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="C32" s="47">
+      <c r="C32" s="43">
         <v>7</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="53"/>
-      <c r="AF32" s="53"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="53"/>
-      <c r="AJ32" s="53"/>
-      <c r="AK32" s="53"/>
-      <c r="AL32" s="53"/>
-      <c r="AM32" s="53"/>
-      <c r="AN32" s="53"/>
-      <c r="AO32" s="53"/>
-      <c r="AP32" s="53"/>
-      <c r="AQ32" s="53"/>
-      <c r="AR32" s="53"/>
-      <c r="AS32" s="53"/>
-      <c r="AT32" s="53"/>
-      <c r="AU32" s="53"/>
-      <c r="AV32" s="53"/>
-      <c r="AW32" s="53"/>
-      <c r="AX32" s="53"/>
-      <c r="AY32" s="53"/>
-      <c r="AZ32" s="53"/>
-      <c r="BA32" s="53"/>
-      <c r="BB32" s="53"/>
-      <c r="BC32" s="53"/>
-      <c r="BD32" s="53"/>
-      <c r="BE32" s="53"/>
-      <c r="BF32" s="53"/>
-      <c r="BG32" s="53"/>
-      <c r="BH32" s="53"/>
-      <c r="BI32" s="53"/>
-      <c r="BJ32" s="53"/>
-      <c r="BK32" s="53"/>
-      <c r="BL32" s="53"/>
-      <c r="BM32" s="53"/>
-      <c r="BN32" s="53"/>
-      <c r="BO32" s="53"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="42"/>
+      <c r="AK32" s="42"/>
+      <c r="AL32" s="42"/>
+      <c r="AM32" s="42"/>
+      <c r="AN32" s="42"/>
+      <c r="AO32" s="42"/>
+      <c r="AP32" s="42"/>
+      <c r="AQ32" s="42"/>
+      <c r="AR32" s="42"/>
+      <c r="AS32" s="42"/>
+      <c r="AT32" s="42"/>
+      <c r="AU32" s="42"/>
+      <c r="AV32" s="42"/>
+      <c r="AW32" s="42"/>
+      <c r="AX32" s="42"/>
+      <c r="AY32" s="42"/>
+      <c r="AZ32" s="42"/>
+      <c r="BA32" s="42"/>
+      <c r="BB32" s="42"/>
+      <c r="BC32" s="42"/>
+      <c r="BD32" s="42"/>
+      <c r="BE32" s="42"/>
+      <c r="BF32" s="42"/>
+      <c r="BG32" s="42"/>
+      <c r="BH32" s="42"/>
+      <c r="BI32" s="42"/>
+      <c r="BJ32" s="42"/>
+      <c r="BK32" s="42"/>
+      <c r="BL32" s="42"/>
+      <c r="BM32" s="42"/>
+      <c r="BN32" s="42"/>
+      <c r="BO32" s="42"/>
       <c r="BP32" s="8"/>
       <c r="BQ32" s="6"/>
     </row>
     <row r="33" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="C33" s="47">
+      <c r="C33" s="43">
         <v>8</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="53"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="53"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="53"/>
-      <c r="AN33" s="53"/>
-      <c r="AO33" s="53"/>
-      <c r="AP33" s="53"/>
-      <c r="AQ33" s="53"/>
-      <c r="AR33" s="53"/>
-      <c r="AS33" s="53"/>
-      <c r="AT33" s="53"/>
-      <c r="AU33" s="53"/>
-      <c r="AV33" s="53"/>
-      <c r="AW33" s="53"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="53"/>
-      <c r="AZ33" s="53"/>
-      <c r="BA33" s="53"/>
-      <c r="BB33" s="53"/>
-      <c r="BC33" s="53"/>
-      <c r="BD33" s="53"/>
-      <c r="BE33" s="53"/>
-      <c r="BF33" s="53"/>
-      <c r="BG33" s="53"/>
-      <c r="BH33" s="53"/>
-      <c r="BI33" s="53"/>
-      <c r="BJ33" s="53"/>
-      <c r="BK33" s="53"/>
-      <c r="BL33" s="53"/>
-      <c r="BM33" s="53"/>
-      <c r="BN33" s="53"/>
-      <c r="BO33" s="53"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="42"/>
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="42"/>
+      <c r="AL33" s="42"/>
+      <c r="AM33" s="42"/>
+      <c r="AN33" s="42"/>
+      <c r="AO33" s="42"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="42"/>
+      <c r="AR33" s="42"/>
+      <c r="AS33" s="42"/>
+      <c r="AT33" s="42"/>
+      <c r="AU33" s="42"/>
+      <c r="AV33" s="42"/>
+      <c r="AW33" s="42"/>
+      <c r="AX33" s="42"/>
+      <c r="AY33" s="42"/>
+      <c r="AZ33" s="42"/>
+      <c r="BA33" s="42"/>
+      <c r="BB33" s="42"/>
+      <c r="BC33" s="42"/>
+      <c r="BD33" s="42"/>
+      <c r="BE33" s="42"/>
+      <c r="BF33" s="42"/>
+      <c r="BG33" s="42"/>
+      <c r="BH33" s="42"/>
+      <c r="BI33" s="42"/>
+      <c r="BJ33" s="42"/>
+      <c r="BK33" s="42"/>
+      <c r="BL33" s="42"/>
+      <c r="BM33" s="42"/>
+      <c r="BN33" s="42"/>
+      <c r="BO33" s="42"/>
       <c r="BP33" s="8"/>
       <c r="BQ33" s="6"/>
     </row>
     <row r="34" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="47">
+      <c r="C34" s="43">
         <v>9</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
-      <c r="AE34" s="53"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="53"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="53"/>
-      <c r="AK34" s="53"/>
-      <c r="AL34" s="53"/>
-      <c r="AM34" s="53"/>
-      <c r="AN34" s="53"/>
-      <c r="AO34" s="53"/>
-      <c r="AP34" s="53"/>
-      <c r="AQ34" s="53"/>
-      <c r="AR34" s="53"/>
-      <c r="AS34" s="53"/>
-      <c r="AT34" s="53"/>
-      <c r="AU34" s="53"/>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
-      <c r="BB34" s="53"/>
-      <c r="BC34" s="53"/>
-      <c r="BD34" s="53"/>
-      <c r="BE34" s="53"/>
-      <c r="BF34" s="53"/>
-      <c r="BG34" s="53"/>
-      <c r="BH34" s="53"/>
-      <c r="BI34" s="53"/>
-      <c r="BJ34" s="53"/>
-      <c r="BK34" s="53"/>
-      <c r="BL34" s="53"/>
-      <c r="BM34" s="53"/>
-      <c r="BN34" s="53"/>
-      <c r="BO34" s="53"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="42"/>
+      <c r="AL34" s="42"/>
+      <c r="AM34" s="42"/>
+      <c r="AN34" s="42"/>
+      <c r="AO34" s="42"/>
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="42"/>
+      <c r="AR34" s="42"/>
+      <c r="AS34" s="42"/>
+      <c r="AT34" s="42"/>
+      <c r="AU34" s="42"/>
+      <c r="AV34" s="42"/>
+      <c r="AW34" s="42"/>
+      <c r="AX34" s="42"/>
+      <c r="AY34" s="42"/>
+      <c r="AZ34" s="42"/>
+      <c r="BA34" s="42"/>
+      <c r="BB34" s="42"/>
+      <c r="BC34" s="42"/>
+      <c r="BD34" s="42"/>
+      <c r="BE34" s="42"/>
+      <c r="BF34" s="42"/>
+      <c r="BG34" s="42"/>
+      <c r="BH34" s="42"/>
+      <c r="BI34" s="42"/>
+      <c r="BJ34" s="42"/>
+      <c r="BK34" s="42"/>
+      <c r="BL34" s="42"/>
+      <c r="BM34" s="42"/>
+      <c r="BN34" s="42"/>
+      <c r="BO34" s="42"/>
       <c r="BP34" s="8"/>
       <c r="BQ34" s="6"/>
     </row>
@@ -4194,42 +4201,48 @@
     <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="BD34:BO34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BO33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD32:BO32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BO31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="BD29:BO29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BO30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="BD25:BO25"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="O28:AD28"/>
     <mergeCell ref="AE28:BC28"/>
     <mergeCell ref="BD26:BO26"/>
@@ -4246,48 +4259,42 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="BD25:BO25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="BD29:BO29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BO30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="BD32:BO32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BO31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD34:BO34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BO33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4326,247 +4333,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="77" t="s">
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="77"/>
-      <c r="BN1" s="77"/>
-      <c r="BO1" s="77"/>
-      <c r="BP1" s="77"/>
-      <c r="BQ1" s="77"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="68"/>
+      <c r="BO1" s="68"/>
+      <c r="BP1" s="68"/>
+      <c r="BQ1" s="68"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="74" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="67" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67" t="s">
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="67" t="s">
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="67"/>
-      <c r="BH2" s="67"/>
-      <c r="BI2" s="67"/>
-      <c r="BJ2" s="79" t="s">
+      <c r="BC2" s="65"/>
+      <c r="BD2" s="65"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="65"/>
+      <c r="BG2" s="65"/>
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="65"/>
+      <c r="BJ2" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="79"/>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="79"/>
-      <c r="BP2" s="79"/>
-      <c r="BQ2" s="79"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="73" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="81">
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="72">
         <v>45510</v>
       </c>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="81"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="73" t="s">
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="80">
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="71">
         <v>45533</v>
       </c>
-      <c r="BK3" s="80"/>
-      <c r="BL3" s="80"/>
-      <c r="BM3" s="80"/>
-      <c r="BN3" s="80"/>
-      <c r="BO3" s="80"/>
-      <c r="BP3" s="80"/>
-      <c r="BQ3" s="80"/>
+      <c r="BK3" s="71"/>
+      <c r="BL3" s="71"/>
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="71"/>
+      <c r="BO3" s="71"/>
+      <c r="BP3" s="71"/>
+      <c r="BQ3" s="71"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4591,96 +4598,96 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="72" t="s">
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="70" t="s">
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="70"/>
-      <c r="AQ6" s="70"/>
-      <c r="AR6" s="70"/>
-      <c r="AS6" s="70"/>
-      <c r="AT6" s="70"/>
-      <c r="AU6" s="70"/>
-      <c r="AV6" s="70"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="70"/>
-      <c r="BA6" s="70"/>
-      <c r="BB6" s="70"/>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="70"/>
-      <c r="BE6" s="70"/>
-      <c r="BF6" s="70"/>
-      <c r="BG6" s="70"/>
-      <c r="BH6" s="70"/>
-      <c r="BI6" s="70"/>
-      <c r="BJ6" s="70"/>
-      <c r="BK6" s="70"/>
-      <c r="BL6" s="70"/>
-      <c r="BM6" s="70"/>
-      <c r="BN6" s="70"/>
-      <c r="BO6" s="70"/>
-      <c r="BP6" s="70"/>
+      <c r="AP6" s="74"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="74"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="74"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="74"/>
+      <c r="BC6" s="74"/>
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="74"/>
+      <c r="BF6" s="74"/>
+      <c r="BG6" s="74"/>
+      <c r="BH6" s="74"/>
+      <c r="BI6" s="74"/>
+      <c r="BJ6" s="74"/>
+      <c r="BK6" s="74"/>
+      <c r="BL6" s="74"/>
+      <c r="BM6" s="74"/>
+      <c r="BN6" s="74"/>
+      <c r="BO6" s="74"/>
+      <c r="BP6" s="74"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
+      <c r="C7" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
       <c r="M7" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
@@ -4709,34 +4716,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="70"/>
-      <c r="AP7" s="70"/>
-      <c r="AQ7" s="70"/>
-      <c r="AR7" s="70"/>
-      <c r="AS7" s="70"/>
-      <c r="AT7" s="70"/>
-      <c r="AU7" s="70"/>
-      <c r="AV7" s="70"/>
-      <c r="AW7" s="70"/>
-      <c r="AX7" s="70"/>
-      <c r="AY7" s="70"/>
-      <c r="AZ7" s="70"/>
-      <c r="BA7" s="70"/>
-      <c r="BB7" s="70"/>
-      <c r="BC7" s="70"/>
-      <c r="BD7" s="70"/>
-      <c r="BE7" s="70"/>
-      <c r="BF7" s="70"/>
-      <c r="BG7" s="70"/>
-      <c r="BH7" s="70"/>
-      <c r="BI7" s="70"/>
-      <c r="BJ7" s="70"/>
-      <c r="BK7" s="70"/>
-      <c r="BL7" s="70"/>
-      <c r="BM7" s="70"/>
-      <c r="BN7" s="70"/>
-      <c r="BO7" s="70"/>
-      <c r="BP7" s="70"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="74"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="74"/>
+      <c r="BE7" s="74"/>
+      <c r="BF7" s="74"/>
+      <c r="BG7" s="74"/>
+      <c r="BH7" s="74"/>
+      <c r="BI7" s="74"/>
+      <c r="BJ7" s="74"/>
+      <c r="BK7" s="74"/>
+      <c r="BL7" s="74"/>
+      <c r="BM7" s="74"/>
+      <c r="BN7" s="74"/>
+      <c r="BO7" s="74"/>
+      <c r="BP7" s="74"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -4750,89 +4757,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="67" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="65" t="s">
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="65"/>
-      <c r="BJ10" s="65" t="s">
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="76"/>
+      <c r="BB10" s="76"/>
+      <c r="BC10" s="76"/>
+      <c r="BD10" s="76"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="76"/>
+      <c r="BG10" s="76"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="76"/>
+      <c r="BJ10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="65"/>
-      <c r="BL10" s="65"/>
-      <c r="BM10" s="65"/>
-      <c r="BN10" s="65"/>
-      <c r="BO10" s="65"/>
-      <c r="BP10" s="65"/>
+      <c r="BK10" s="76"/>
+      <c r="BL10" s="76"/>
+      <c r="BM10" s="76"/>
+      <c r="BN10" s="76"/>
+      <c r="BO10" s="76"/>
+      <c r="BP10" s="76"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
@@ -4848,11 +4855,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="67" t="s">
+      <c r="T11" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -4902,12 +4909,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -4921,9 +4928,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -4972,12 +4979,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -4991,9 +4998,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -5042,12 +5049,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5061,9 +5068,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -5112,12 +5119,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5131,9 +5138,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -5193,90 +5200,90 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="65" t="s">
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65" t="s">
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="76"/>
+      <c r="AZ18" s="76"/>
+      <c r="BA18" s="76"/>
+      <c r="BB18" s="76"/>
+      <c r="BC18" s="76"/>
+      <c r="BD18" s="76"/>
+      <c r="BE18" s="76"/>
+      <c r="BF18" s="76"/>
+      <c r="BG18" s="76"/>
+      <c r="BH18" s="76"/>
+      <c r="BI18" s="76"/>
+      <c r="BJ18" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="65"/>
-      <c r="BL18" s="65"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
-      <c r="BO18" s="65"/>
-      <c r="BP18" s="65"/>
+      <c r="BK18" s="76"/>
+      <c r="BL18" s="76"/>
+      <c r="BM18" s="76"/>
+      <c r="BN18" s="76"/>
+      <c r="BO18" s="76"/>
+      <c r="BP18" s="76"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -5290,11 +5297,11 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
       <c r="W19" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -5576,270 +5583,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="68" t="s">
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="68"/>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="68"/>
-      <c r="AG26" s="68"/>
-      <c r="AH26" s="68"/>
-      <c r="AI26" s="68"/>
-      <c r="AJ26" s="68"/>
-      <c r="AK26" s="68"/>
-      <c r="AL26" s="68"/>
-      <c r="AM26" s="68"/>
-      <c r="AN26" s="68"/>
-      <c r="AO26" s="68"/>
-      <c r="AP26" s="68"/>
-      <c r="AQ26" s="68"/>
-      <c r="AR26" s="68"/>
-      <c r="AS26" s="68"/>
-      <c r="AT26" s="68"/>
-      <c r="AU26" s="68"/>
-      <c r="AV26" s="68"/>
-      <c r="AW26" s="68"/>
-      <c r="AX26" s="68"/>
-      <c r="AY26" s="68"/>
-      <c r="AZ26" s="68"/>
-      <c r="BA26" s="68"/>
-      <c r="BB26" s="68"/>
-      <c r="BC26" s="68"/>
-      <c r="BD26" s="68"/>
-      <c r="BE26" s="68"/>
-      <c r="BF26" s="68"/>
-      <c r="BG26" s="68"/>
-      <c r="BH26" s="68"/>
-      <c r="BI26" s="68"/>
-      <c r="BJ26" s="68"/>
-      <c r="BK26" s="68"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="81"/>
+      <c r="AH26" s="81"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="81"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="81"/>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="81"/>
+      <c r="AO26" s="81"/>
+      <c r="AP26" s="81"/>
+      <c r="AQ26" s="81"/>
+      <c r="AR26" s="81"/>
+      <c r="AS26" s="81"/>
+      <c r="AT26" s="81"/>
+      <c r="AU26" s="81"/>
+      <c r="AV26" s="81"/>
+      <c r="AW26" s="81"/>
+      <c r="AX26" s="81"/>
+      <c r="AY26" s="81"/>
+      <c r="AZ26" s="81"/>
+      <c r="BA26" s="81"/>
+      <c r="BB26" s="81"/>
+      <c r="BC26" s="81"/>
+      <c r="BD26" s="81"/>
+      <c r="BE26" s="81"/>
+      <c r="BF26" s="81"/>
+      <c r="BG26" s="81"/>
+      <c r="BH26" s="81"/>
+      <c r="BI26" s="81"/>
+      <c r="BJ26" s="81"/>
+      <c r="BK26" s="81"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="64" t="s">
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="64"/>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="64"/>
-      <c r="AH27" s="64"/>
-      <c r="AI27" s="64"/>
-      <c r="AJ27" s="64"/>
-      <c r="AK27" s="64"/>
-      <c r="AL27" s="64"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="64"/>
-      <c r="AO27" s="64"/>
-      <c r="AP27" s="64"/>
-      <c r="AQ27" s="64"/>
-      <c r="AR27" s="64"/>
-      <c r="AS27" s="64"/>
-      <c r="AT27" s="64"/>
-      <c r="AU27" s="64"/>
-      <c r="AV27" s="64"/>
-      <c r="AW27" s="64"/>
-      <c r="AX27" s="64"/>
-      <c r="AY27" s="64"/>
-      <c r="AZ27" s="64"/>
-      <c r="BA27" s="64"/>
-      <c r="BB27" s="64"/>
-      <c r="BC27" s="64"/>
-      <c r="BD27" s="64"/>
-      <c r="BE27" s="64"/>
-      <c r="BF27" s="64"/>
-      <c r="BG27" s="64"/>
-      <c r="BH27" s="64"/>
-      <c r="BI27" s="64"/>
-      <c r="BJ27" s="64"/>
-      <c r="BK27" s="64"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="80"/>
+      <c r="AL27" s="80"/>
+      <c r="AM27" s="80"/>
+      <c r="AN27" s="80"/>
+      <c r="AO27" s="80"/>
+      <c r="AP27" s="80"/>
+      <c r="AQ27" s="80"/>
+      <c r="AR27" s="80"/>
+      <c r="AS27" s="80"/>
+      <c r="AT27" s="80"/>
+      <c r="AU27" s="80"/>
+      <c r="AV27" s="80"/>
+      <c r="AW27" s="80"/>
+      <c r="AX27" s="80"/>
+      <c r="AY27" s="80"/>
+      <c r="AZ27" s="80"/>
+      <c r="BA27" s="80"/>
+      <c r="BB27" s="80"/>
+      <c r="BC27" s="80"/>
+      <c r="BD27" s="80"/>
+      <c r="BE27" s="80"/>
+      <c r="BF27" s="80"/>
+      <c r="BG27" s="80"/>
+      <c r="BH27" s="80"/>
+      <c r="BI27" s="80"/>
+      <c r="BJ27" s="80"/>
+      <c r="BK27" s="80"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="64"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="64"/>
-      <c r="AO28" s="64"/>
-      <c r="AP28" s="64"/>
-      <c r="AQ28" s="64"/>
-      <c r="AR28" s="64"/>
-      <c r="AS28" s="64"/>
-      <c r="AT28" s="64"/>
-      <c r="AU28" s="64"/>
-      <c r="AV28" s="64"/>
-      <c r="AW28" s="64"/>
-      <c r="AX28" s="64"/>
-      <c r="AY28" s="64"/>
-      <c r="AZ28" s="64"/>
-      <c r="BA28" s="64"/>
-      <c r="BB28" s="64"/>
-      <c r="BC28" s="64"/>
-      <c r="BD28" s="64"/>
-      <c r="BE28" s="64"/>
-      <c r="BF28" s="64"/>
-      <c r="BG28" s="64"/>
-      <c r="BH28" s="64"/>
-      <c r="BI28" s="64"/>
-      <c r="BJ28" s="64"/>
-      <c r="BK28" s="64"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="80"/>
+      <c r="AD28" s="80"/>
+      <c r="AE28" s="80"/>
+      <c r="AF28" s="80"/>
+      <c r="AG28" s="80"/>
+      <c r="AH28" s="80"/>
+      <c r="AI28" s="80"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="80"/>
+      <c r="AL28" s="80"/>
+      <c r="AM28" s="80"/>
+      <c r="AN28" s="80"/>
+      <c r="AO28" s="80"/>
+      <c r="AP28" s="80"/>
+      <c r="AQ28" s="80"/>
+      <c r="AR28" s="80"/>
+      <c r="AS28" s="80"/>
+      <c r="AT28" s="80"/>
+      <c r="AU28" s="80"/>
+      <c r="AV28" s="80"/>
+      <c r="AW28" s="80"/>
+      <c r="AX28" s="80"/>
+      <c r="AY28" s="80"/>
+      <c r="AZ28" s="80"/>
+      <c r="BA28" s="80"/>
+      <c r="BB28" s="80"/>
+      <c r="BC28" s="80"/>
+      <c r="BD28" s="80"/>
+      <c r="BE28" s="80"/>
+      <c r="BF28" s="80"/>
+      <c r="BG28" s="80"/>
+      <c r="BH28" s="80"/>
+      <c r="BI28" s="80"/>
+      <c r="BJ28" s="80"/>
+      <c r="BK28" s="80"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="64" t="s">
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="64"/>
-      <c r="AR29" s="64"/>
-      <c r="AS29" s="64"/>
-      <c r="AT29" s="64"/>
-      <c r="AU29" s="64"/>
-      <c r="AV29" s="64"/>
-      <c r="AW29" s="64"/>
-      <c r="AX29" s="64"/>
-      <c r="AY29" s="64"/>
-      <c r="AZ29" s="64"/>
-      <c r="BA29" s="64"/>
-      <c r="BB29" s="64"/>
-      <c r="BC29" s="64"/>
-      <c r="BD29" s="64"/>
-      <c r="BE29" s="64"/>
-      <c r="BF29" s="64"/>
-      <c r="BG29" s="64"/>
-      <c r="BH29" s="64"/>
-      <c r="BI29" s="64"/>
-      <c r="BJ29" s="64"/>
-      <c r="BK29" s="64"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="80"/>
+      <c r="AD29" s="80"/>
+      <c r="AE29" s="80"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="80"/>
+      <c r="AH29" s="80"/>
+      <c r="AI29" s="80"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="80"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="80"/>
+      <c r="AN29" s="80"/>
+      <c r="AO29" s="80"/>
+      <c r="AP29" s="80"/>
+      <c r="AQ29" s="80"/>
+      <c r="AR29" s="80"/>
+      <c r="AS29" s="80"/>
+      <c r="AT29" s="80"/>
+      <c r="AU29" s="80"/>
+      <c r="AV29" s="80"/>
+      <c r="AW29" s="80"/>
+      <c r="AX29" s="80"/>
+      <c r="AY29" s="80"/>
+      <c r="AZ29" s="80"/>
+      <c r="BA29" s="80"/>
+      <c r="BB29" s="80"/>
+      <c r="BC29" s="80"/>
+      <c r="BD29" s="80"/>
+      <c r="BE29" s="80"/>
+      <c r="BF29" s="80"/>
+      <c r="BG29" s="80"/>
+      <c r="BH29" s="80"/>
+      <c r="BI29" s="80"/>
+      <c r="BJ29" s="80"/>
+      <c r="BK29" s="80"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -6363,26 +6370,21 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
     <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="AO6:BP6"/>
     <mergeCell ref="C7:G7"/>
@@ -6399,21 +6401,26 @@
     <mergeCell ref="W10:BI10"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
+++ b/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911EB9CC-991E-480D-A27A-7D013F1689AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67870E2D-9EEE-4025-B86E-EC7FC297EE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="4110" yWindow="480" windowWidth="12090" windowHeight="9780" firstSheet="2" activeTab="2" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_プルダウン項目クラス" sheetId="2" r:id="rId1"/>
     <sheet name="ログインID存在確認" sheetId="8" r:id="rId2"/>
+    <sheet name="ユーザマスタ全件取得" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス概要_プルダウン項目クラス!$A$1:$BQ$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ユーザマスタ全件取得!$A$1:$BQ$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ログインID存在確認!$A$1:$BQ$32</definedName>
+    <definedName name="範囲１" localSheetId="2">#REF!</definedName>
     <definedName name="範囲１" localSheetId="1">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>public</t>
   </si>
@@ -524,6 +527,77 @@
   </si>
   <si>
     <t>protected</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザマスタ全件取得</t>
+    <rPh sb="6" eb="10">
+      <t>ゼンケンシュトク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユーザマスタ全件取得</t>
+    <rPh sb="6" eb="8">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザマスタ全件取得</t>
+    <rPh sb="6" eb="8">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リスト&lt;全社員ID情報取得クラス&gt;オブジェクト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リスト&lt;全社員ID情報取得クラス&gt;オブジェクト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全社員IDのテーブル検索結果</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理後、リスト&lt;全社員ID情報取得クラス&gt;オブジェクトを戻り値として処理を終了する</t>
+    <rPh sb="0" eb="3">
+      <t>ショリゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザマスタ全件取得</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1116,21 +1190,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1144,13 +1221,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1474,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B701B7-1A2D-4688-A075-62F16DBEF55F}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -3028,17 +3102,21 @@
         <v>2</v>
       </c>
       <c r="D27" s="47"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
+      <c r="E27" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
       <c r="J27" s="53"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="53"/>
       <c r="N27" s="53"/>
-      <c r="O27" s="54"/>
+      <c r="O27" s="54" t="s">
+        <v>80</v>
+      </c>
       <c r="P27" s="54"/>
       <c r="Q27" s="54"/>
       <c r="R27" s="54"/>
@@ -3054,31 +3132,33 @@
       <c r="AB27" s="54"/>
       <c r="AC27" s="54"/>
       <c r="AD27" s="54"/>
-      <c r="AE27" s="53"/>
-      <c r="AF27" s="53"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="53"/>
-      <c r="AJ27" s="53"/>
-      <c r="AK27" s="53"/>
-      <c r="AL27" s="53"/>
-      <c r="AM27" s="53"/>
-      <c r="AN27" s="53"/>
-      <c r="AO27" s="53"/>
-      <c r="AP27" s="53"/>
-      <c r="AQ27" s="53"/>
-      <c r="AR27" s="53"/>
-      <c r="AS27" s="53"/>
-      <c r="AT27" s="53"/>
-      <c r="AU27" s="53"/>
-      <c r="AV27" s="53"/>
-      <c r="AW27" s="53"/>
-      <c r="AX27" s="53"/>
-      <c r="AY27" s="53"/>
-      <c r="AZ27" s="53"/>
-      <c r="BA27" s="53"/>
-      <c r="BB27" s="53"/>
-      <c r="BC27" s="53"/>
+      <c r="AE27" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="59"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="59"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="59"/>
+      <c r="AU27" s="59"/>
+      <c r="AV27" s="59"/>
+      <c r="AW27" s="59"/>
+      <c r="AX27" s="59"/>
+      <c r="AY27" s="59"/>
+      <c r="AZ27" s="59"/>
+      <c r="BA27" s="59"/>
+      <c r="BB27" s="59"/>
+      <c r="BC27" s="60"/>
       <c r="BD27" s="53"/>
       <c r="BE27" s="53"/>
       <c r="BF27" s="53"/>
@@ -4310,7 +4390,7 @@
   <dimension ref="A1:AMK56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4326,125 +4406,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76" t="s">
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="77" t="s">
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="77"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="77"/>
-      <c r="BC1" s="77"/>
-      <c r="BD1" s="77"/>
-      <c r="BE1" s="77"/>
-      <c r="BF1" s="77"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="77"/>
-      <c r="BJ1" s="77"/>
-      <c r="BK1" s="77"/>
-      <c r="BL1" s="77"/>
-      <c r="BM1" s="77"/>
-      <c r="BN1" s="77"/>
-      <c r="BO1" s="77"/>
-      <c r="BP1" s="77"/>
-      <c r="BQ1" s="77"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="78"/>
+      <c r="BN1" s="78"/>
+      <c r="BO1" s="78"/>
+      <c r="BP1" s="78"/>
+      <c r="BQ1" s="78"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="74" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
       <c r="AK2" s="67" t="s">
         <v>23</v>
       </c>
@@ -4476,97 +4556,97 @@
       <c r="BG2" s="67"/>
       <c r="BH2" s="67"/>
       <c r="BI2" s="67"/>
-      <c r="BJ2" s="79" t="s">
+      <c r="BJ2" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="79"/>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="79"/>
-      <c r="BP2" s="79"/>
-      <c r="BQ2" s="79"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="81"/>
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="81"/>
+      <c r="BQ2" s="81"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="73" t="s">
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="81">
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="73">
         <v>45510</v>
       </c>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="81"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="73" t="s">
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="80">
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="74">
         <v>45533</v>
       </c>
-      <c r="BK3" s="80"/>
-      <c r="BL3" s="80"/>
-      <c r="BM3" s="80"/>
-      <c r="BN3" s="80"/>
-      <c r="BO3" s="80"/>
-      <c r="BP3" s="80"/>
-      <c r="BQ3" s="80"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="74"/>
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="74"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4605,80 +4685,80 @@
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
-      <c r="M6" s="72" t="s">
+      <c r="M6" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="72"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="70" t="s">
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="75"/>
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="70"/>
-      <c r="AQ6" s="70"/>
-      <c r="AR6" s="70"/>
-      <c r="AS6" s="70"/>
-      <c r="AT6" s="70"/>
-      <c r="AU6" s="70"/>
-      <c r="AV6" s="70"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="70"/>
-      <c r="BA6" s="70"/>
-      <c r="BB6" s="70"/>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="70"/>
-      <c r="BE6" s="70"/>
-      <c r="BF6" s="70"/>
-      <c r="BG6" s="70"/>
-      <c r="BH6" s="70"/>
-      <c r="BI6" s="70"/>
-      <c r="BJ6" s="70"/>
-      <c r="BK6" s="70"/>
-      <c r="BL6" s="70"/>
-      <c r="BM6" s="70"/>
-      <c r="BN6" s="70"/>
-      <c r="BO6" s="70"/>
-      <c r="BP6" s="70"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
+      <c r="AS6" s="71"/>
+      <c r="AT6" s="71"/>
+      <c r="AU6" s="71"/>
+      <c r="AV6" s="71"/>
+      <c r="AW6" s="71"/>
+      <c r="AX6" s="71"/>
+      <c r="AY6" s="71"/>
+      <c r="AZ6" s="71"/>
+      <c r="BA6" s="71"/>
+      <c r="BB6" s="71"/>
+      <c r="BC6" s="71"/>
+      <c r="BD6" s="71"/>
+      <c r="BE6" s="71"/>
+      <c r="BF6" s="71"/>
+      <c r="BG6" s="71"/>
+      <c r="BH6" s="71"/>
+      <c r="BI6" s="71"/>
+      <c r="BJ6" s="71"/>
+      <c r="BK6" s="71"/>
+      <c r="BL6" s="71"/>
+      <c r="BM6" s="71"/>
+      <c r="BN6" s="71"/>
+      <c r="BO6" s="71"/>
+      <c r="BP6" s="71"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="41" t="s">
         <v>66</v>
       </c>
@@ -4709,34 +4789,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="70"/>
-      <c r="AP7" s="70"/>
-      <c r="AQ7" s="70"/>
-      <c r="AR7" s="70"/>
-      <c r="AS7" s="70"/>
-      <c r="AT7" s="70"/>
-      <c r="AU7" s="70"/>
-      <c r="AV7" s="70"/>
-      <c r="AW7" s="70"/>
-      <c r="AX7" s="70"/>
-      <c r="AY7" s="70"/>
-      <c r="AZ7" s="70"/>
-      <c r="BA7" s="70"/>
-      <c r="BB7" s="70"/>
-      <c r="BC7" s="70"/>
-      <c r="BD7" s="70"/>
-      <c r="BE7" s="70"/>
-      <c r="BF7" s="70"/>
-      <c r="BG7" s="70"/>
-      <c r="BH7" s="70"/>
-      <c r="BI7" s="70"/>
-      <c r="BJ7" s="70"/>
-      <c r="BK7" s="70"/>
-      <c r="BL7" s="70"/>
-      <c r="BM7" s="70"/>
-      <c r="BN7" s="70"/>
-      <c r="BO7" s="70"/>
-      <c r="BP7" s="70"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
+      <c r="AS7" s="71"/>
+      <c r="AT7" s="71"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="71"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="71"/>
+      <c r="AY7" s="71"/>
+      <c r="AZ7" s="71"/>
+      <c r="BA7" s="71"/>
+      <c r="BB7" s="71"/>
+      <c r="BC7" s="71"/>
+      <c r="BD7" s="71"/>
+      <c r="BE7" s="71"/>
+      <c r="BF7" s="71"/>
+      <c r="BG7" s="71"/>
+      <c r="BH7" s="71"/>
+      <c r="BI7" s="71"/>
+      <c r="BJ7" s="71"/>
+      <c r="BK7" s="71"/>
+      <c r="BL7" s="71"/>
+      <c r="BM7" s="71"/>
+      <c r="BN7" s="71"/>
+      <c r="BO7" s="71"/>
+      <c r="BP7" s="71"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -4750,10 +4830,10 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="67" t="s">
         <v>40</v>
       </c>
@@ -4902,12 +4982,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -4972,12 +5052,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -5042,12 +5122,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5112,12 +5192,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5193,10 +5273,10 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="67" t="s">
         <v>32</v>
       </c>
@@ -6429,4 +6509,2110 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E6ABAF-D949-47FF-9313-6927E9CF6184}">
+  <dimension ref="A1:AMK54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.9140625" style="17" customWidth="1"/>
+    <col min="2" max="29" width="1.9140625" style="14" customWidth="1"/>
+    <col min="30" max="30" width="1.9140625" style="16" customWidth="1"/>
+    <col min="31" max="68" width="1.9140625" style="14" customWidth="1"/>
+    <col min="69" max="69" width="1.9140625" style="15" customWidth="1"/>
+    <col min="70" max="70" width="1.9140625" style="14" customWidth="1"/>
+    <col min="71" max="1025" width="1.9140625" style="14" hidden="1" customWidth="1"/>
+    <col min="1026" max="16384" width="7.75" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="78"/>
+      <c r="BN1" s="78"/>
+      <c r="BO1" s="78"/>
+      <c r="BP1" s="78"/>
+      <c r="BQ1" s="78"/>
+    </row>
+    <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="67"/>
+      <c r="BH2" s="67"/>
+      <c r="BI2" s="67"/>
+      <c r="BJ2" s="81"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="81"/>
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="81"/>
+      <c r="BQ2" s="81"/>
+    </row>
+    <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="73">
+        <v>45553</v>
+      </c>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="74"/>
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="74"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+    </row>
+    <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD4" s="14"/>
+      <c r="AG4" s="23"/>
+    </row>
+    <row r="5" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="AD5" s="14"/>
+      <c r="AG5" s="23"/>
+    </row>
+    <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="75"/>
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
+      <c r="AS6" s="71"/>
+      <c r="AT6" s="71"/>
+      <c r="AU6" s="71"/>
+      <c r="AV6" s="71"/>
+      <c r="AW6" s="71"/>
+      <c r="AX6" s="71"/>
+      <c r="AY6" s="71"/>
+      <c r="AZ6" s="71"/>
+      <c r="BA6" s="71"/>
+      <c r="BB6" s="71"/>
+      <c r="BC6" s="71"/>
+      <c r="BD6" s="71"/>
+      <c r="BE6" s="71"/>
+      <c r="BF6" s="71"/>
+      <c r="BG6" s="71"/>
+      <c r="BH6" s="71"/>
+      <c r="BI6" s="71"/>
+      <c r="BJ6" s="71"/>
+      <c r="BK6" s="71"/>
+      <c r="BL6" s="71"/>
+      <c r="BM6" s="71"/>
+      <c r="BN6" s="71"/>
+      <c r="BO6" s="71"/>
+      <c r="BP6" s="71"/>
+    </row>
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C7" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
+      <c r="AS7" s="71"/>
+      <c r="AT7" s="71"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="71"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="71"/>
+      <c r="AY7" s="71"/>
+      <c r="AZ7" s="71"/>
+      <c r="BA7" s="71"/>
+      <c r="BB7" s="71"/>
+      <c r="BC7" s="71"/>
+      <c r="BD7" s="71"/>
+      <c r="BE7" s="71"/>
+      <c r="BF7" s="71"/>
+      <c r="BG7" s="71"/>
+      <c r="BH7" s="71"/>
+      <c r="BI7" s="71"/>
+      <c r="BJ7" s="71"/>
+      <c r="BK7" s="71"/>
+      <c r="BL7" s="71"/>
+      <c r="BM7" s="71"/>
+      <c r="BN7" s="71"/>
+      <c r="BO7" s="71"/>
+      <c r="BP7" s="71"/>
+    </row>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AD8" s="14"/>
+      <c r="AG8" s="23"/>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD9" s="14"/>
+      <c r="AG9" s="23"/>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="65"/>
+      <c r="BJ10" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="65"/>
+      <c r="BL10" s="65"/>
+      <c r="BM10" s="65"/>
+      <c r="BN10" s="65"/>
+      <c r="BO10" s="65"/>
+      <c r="BP10" s="65"/>
+    </row>
+    <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="C11" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="36"/>
+      <c r="BK11" s="35"/>
+      <c r="BL11" s="35"/>
+      <c r="BM11" s="35"/>
+      <c r="BN11" s="35"/>
+      <c r="BO11" s="35"/>
+      <c r="BP11" s="34"/>
+      <c r="BQ11" s="15"/>
+    </row>
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C12" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
+      <c r="AY12" s="38"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
+      <c r="BB12" s="38"/>
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="38"/>
+      <c r="BE12" s="38"/>
+      <c r="BF12" s="38"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="37"/>
+      <c r="BJ12" s="36"/>
+      <c r="BK12" s="35"/>
+      <c r="BL12" s="35"/>
+      <c r="BM12" s="35"/>
+      <c r="BN12" s="35"/>
+      <c r="BO12" s="35"/>
+      <c r="BP12" s="34"/>
+    </row>
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C13" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="38"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
+      <c r="BB13" s="38"/>
+      <c r="BC13" s="38"/>
+      <c r="BD13" s="38"/>
+      <c r="BE13" s="38"/>
+      <c r="BF13" s="38"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="38"/>
+      <c r="BI13" s="37"/>
+      <c r="BJ13" s="36"/>
+      <c r="BK13" s="35"/>
+      <c r="BL13" s="35"/>
+      <c r="BM13" s="35"/>
+      <c r="BN13" s="35"/>
+      <c r="BO13" s="35"/>
+      <c r="BP13" s="34"/>
+    </row>
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C14" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="38"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="38"/>
+      <c r="BF14" s="38"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="37"/>
+      <c r="BJ14" s="36"/>
+      <c r="BK14" s="35"/>
+      <c r="BL14" s="35"/>
+      <c r="BM14" s="35"/>
+      <c r="BN14" s="35"/>
+      <c r="BO14" s="35"/>
+      <c r="BP14" s="34"/>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C15" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="38"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="38"/>
+      <c r="BC15" s="38"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="BF15" s="38"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="37"/>
+      <c r="BJ15" s="36"/>
+      <c r="BK15" s="35"/>
+      <c r="BL15" s="35"/>
+      <c r="BM15" s="35"/>
+      <c r="BN15" s="35"/>
+      <c r="BO15" s="35"/>
+      <c r="BP15" s="34"/>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AD16" s="14"/>
+      <c r="AG16" s="23"/>
+    </row>
+    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD17" s="14"/>
+      <c r="AG17" s="23"/>
+    </row>
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="65"/>
+      <c r="BN18" s="65"/>
+      <c r="BO18" s="65"/>
+      <c r="BP18" s="65"/>
+    </row>
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C19" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="37"/>
+      <c r="BJ19" s="36"/>
+      <c r="BK19" s="35"/>
+      <c r="BL19" s="35"/>
+      <c r="BM19" s="35"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="35"/>
+      <c r="BP19" s="34"/>
+    </row>
+    <row r="20" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="AG20" s="23"/>
+      <c r="BQ20" s="15"/>
+    </row>
+    <row r="21" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="13"/>
+      <c r="BE21" s="13"/>
+      <c r="BF21" s="13"/>
+      <c r="BG21" s="13"/>
+      <c r="BH21" s="13"/>
+      <c r="BI21" s="13"/>
+      <c r="BJ21" s="13"/>
+      <c r="BK21" s="13"/>
+      <c r="BL21" s="13"/>
+      <c r="BM21" s="13"/>
+      <c r="BN21" s="13"/>
+      <c r="BO21" s="13"/>
+      <c r="BP21" s="13"/>
+      <c r="BQ21" s="15"/>
+    </row>
+    <row r="22" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="13"/>
+      <c r="BE22" s="13"/>
+      <c r="BF22" s="13"/>
+      <c r="BG22" s="13"/>
+      <c r="BH22" s="13"/>
+      <c r="BI22" s="13"/>
+      <c r="BJ22" s="13"/>
+      <c r="BK22" s="13"/>
+      <c r="BL22" s="13"/>
+      <c r="BM22" s="13"/>
+      <c r="BN22" s="13"/>
+      <c r="BO22" s="13"/>
+      <c r="BP22" s="13"/>
+      <c r="BQ22" s="15"/>
+    </row>
+    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C23" s="33"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="31"/>
+      <c r="AO23" s="31"/>
+      <c r="AP23" s="31"/>
+      <c r="AQ23" s="31"/>
+      <c r="AR23" s="31"/>
+      <c r="AS23" s="31"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="31"/>
+      <c r="AW23" s="31"/>
+      <c r="AX23" s="31"/>
+      <c r="AY23" s="31"/>
+      <c r="AZ23" s="31"/>
+      <c r="BA23" s="31"/>
+      <c r="BB23" s="31"/>
+      <c r="BC23" s="31"/>
+      <c r="BD23" s="31"/>
+      <c r="BE23" s="31"/>
+      <c r="BF23" s="31"/>
+      <c r="BG23" s="31"/>
+      <c r="BH23" s="31"/>
+      <c r="BI23" s="31"/>
+      <c r="BJ23" s="31"/>
+      <c r="BK23" s="31"/>
+      <c r="BL23" s="31"/>
+      <c r="BM23" s="31"/>
+      <c r="BN23" s="31"/>
+      <c r="BO23" s="31"/>
+      <c r="BP23" s="30"/>
+    </row>
+    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C24" s="24"/>
+      <c r="D24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD24" s="14"/>
+      <c r="AG24" s="23"/>
+      <c r="BP24" s="22"/>
+    </row>
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C25" s="24"/>
+      <c r="E25" s="28"/>
+      <c r="AD25" s="14"/>
+      <c r="AG25" s="23"/>
+      <c r="BP25" s="22"/>
+    </row>
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C26" s="24"/>
+      <c r="E26" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="68"/>
+      <c r="AG26" s="68"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="68"/>
+      <c r="AK26" s="68"/>
+      <c r="AL26" s="68"/>
+      <c r="AM26" s="68"/>
+      <c r="AN26" s="68"/>
+      <c r="AO26" s="68"/>
+      <c r="AP26" s="68"/>
+      <c r="AQ26" s="68"/>
+      <c r="AR26" s="68"/>
+      <c r="AS26" s="68"/>
+      <c r="AT26" s="68"/>
+      <c r="AU26" s="68"/>
+      <c r="AV26" s="68"/>
+      <c r="AW26" s="68"/>
+      <c r="AX26" s="68"/>
+      <c r="AY26" s="68"/>
+      <c r="AZ26" s="68"/>
+      <c r="BA26" s="68"/>
+      <c r="BB26" s="68"/>
+      <c r="BC26" s="68"/>
+      <c r="BD26" s="68"/>
+      <c r="BE26" s="68"/>
+      <c r="BF26" s="68"/>
+      <c r="BG26" s="68"/>
+      <c r="BH26" s="68"/>
+      <c r="BI26" s="68"/>
+      <c r="BJ26" s="68"/>
+      <c r="BK26" s="68"/>
+      <c r="BP26" s="22"/>
+    </row>
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C27" s="24"/>
+      <c r="E27" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="64"/>
+      <c r="AX27" s="64"/>
+      <c r="AY27" s="64"/>
+      <c r="AZ27" s="64"/>
+      <c r="BA27" s="64"/>
+      <c r="BB27" s="64"/>
+      <c r="BC27" s="64"/>
+      <c r="BD27" s="64"/>
+      <c r="BE27" s="64"/>
+      <c r="BF27" s="64"/>
+      <c r="BG27" s="64"/>
+      <c r="BH27" s="64"/>
+      <c r="BI27" s="64"/>
+      <c r="BJ27" s="64"/>
+      <c r="BK27" s="64"/>
+      <c r="BP27" s="22"/>
+    </row>
+    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C28" s="24"/>
+      <c r="E28" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="64"/>
+      <c r="AZ28" s="64"/>
+      <c r="BA28" s="64"/>
+      <c r="BB28" s="64"/>
+      <c r="BC28" s="64"/>
+      <c r="BD28" s="64"/>
+      <c r="BE28" s="64"/>
+      <c r="BF28" s="64"/>
+      <c r="BG28" s="64"/>
+      <c r="BH28" s="64"/>
+      <c r="BI28" s="64"/>
+      <c r="BJ28" s="64"/>
+      <c r="BK28" s="64"/>
+      <c r="BP28" s="22"/>
+    </row>
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C29" s="24"/>
+      <c r="E29" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+      <c r="AT29" s="64"/>
+      <c r="AU29" s="64"/>
+      <c r="AV29" s="64"/>
+      <c r="AW29" s="64"/>
+      <c r="AX29" s="64"/>
+      <c r="AY29" s="64"/>
+      <c r="AZ29" s="64"/>
+      <c r="BA29" s="64"/>
+      <c r="BB29" s="64"/>
+      <c r="BC29" s="64"/>
+      <c r="BD29" s="64"/>
+      <c r="BE29" s="64"/>
+      <c r="BF29" s="64"/>
+      <c r="BG29" s="64"/>
+      <c r="BH29" s="64"/>
+      <c r="BI29" s="64"/>
+      <c r="BJ29" s="64"/>
+      <c r="BK29" s="64"/>
+      <c r="BP29" s="22"/>
+    </row>
+    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C30" s="24"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="29"/>
+      <c r="AS30" s="29"/>
+      <c r="AT30" s="29"/>
+      <c r="AU30" s="29"/>
+      <c r="AV30" s="29"/>
+      <c r="AW30" s="29"/>
+      <c r="AX30" s="29"/>
+      <c r="AY30" s="29"/>
+      <c r="AZ30" s="29"/>
+      <c r="BA30" s="29"/>
+      <c r="BB30" s="29"/>
+      <c r="BC30" s="29"/>
+      <c r="BD30" s="29"/>
+      <c r="BE30" s="29"/>
+      <c r="BF30" s="29"/>
+      <c r="BG30" s="29"/>
+      <c r="BH30" s="29"/>
+      <c r="BI30" s="29"/>
+      <c r="BJ30" s="29"/>
+      <c r="BK30" s="29"/>
+      <c r="BP30" s="22"/>
+    </row>
+    <row r="31" spans="1:69" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="24"/>
+      <c r="AD31" s="14"/>
+      <c r="AG31" s="23"/>
+      <c r="BP31" s="22"/>
+    </row>
+    <row r="32" spans="1:69" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="24"/>
+      <c r="AD32" s="14"/>
+      <c r="AG32" s="23"/>
+      <c r="BP32" s="22"/>
+    </row>
+    <row r="33" spans="3:68" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="24"/>
+      <c r="AD33" s="14"/>
+      <c r="AG33" s="23"/>
+      <c r="BP33" s="22"/>
+    </row>
+    <row r="34" spans="3:68" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="24"/>
+      <c r="AD34" s="14"/>
+      <c r="AG34" s="23"/>
+      <c r="BP34" s="22"/>
+    </row>
+    <row r="35" spans="3:68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="24"/>
+      <c r="AD35" s="14"/>
+      <c r="AG35" s="23"/>
+      <c r="BP35" s="22"/>
+    </row>
+    <row r="36" spans="3:68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="24"/>
+      <c r="AD36" s="14"/>
+      <c r="AG36" s="23"/>
+      <c r="BP36" s="22"/>
+    </row>
+    <row r="37" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C37" s="24"/>
+      <c r="D37" s="25">
+        <v>3</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="28"/>
+      <c r="AK37" s="28"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="28"/>
+      <c r="AN37" s="28"/>
+      <c r="AO37" s="28"/>
+      <c r="AP37" s="28"/>
+      <c r="AQ37" s="28"/>
+      <c r="AR37" s="28"/>
+      <c r="AS37" s="28"/>
+      <c r="AT37" s="28"/>
+      <c r="AU37" s="28"/>
+      <c r="AV37" s="28"/>
+      <c r="AW37" s="28"/>
+      <c r="AX37" s="28"/>
+      <c r="AY37" s="28"/>
+      <c r="AZ37" s="28"/>
+      <c r="BA37" s="28"/>
+      <c r="BB37" s="28"/>
+      <c r="BC37" s="28"/>
+      <c r="BD37" s="28"/>
+      <c r="BE37" s="28"/>
+      <c r="BF37" s="28"/>
+      <c r="BG37" s="28"/>
+      <c r="BH37" s="28"/>
+      <c r="BI37" s="28"/>
+      <c r="BJ37" s="28"/>
+      <c r="BK37" s="28"/>
+      <c r="BP37" s="22"/>
+    </row>
+    <row r="38" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C38" s="24"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="25"/>
+      <c r="AJ38" s="25"/>
+      <c r="AK38" s="25"/>
+      <c r="AL38" s="25"/>
+      <c r="AM38" s="25"/>
+      <c r="AN38" s="25"/>
+      <c r="AO38" s="25"/>
+      <c r="AP38" s="25"/>
+      <c r="AQ38" s="25"/>
+      <c r="AR38" s="25"/>
+      <c r="AS38" s="25"/>
+      <c r="AT38" s="25"/>
+      <c r="AU38" s="25"/>
+      <c r="AV38" s="25"/>
+      <c r="AW38" s="25"/>
+      <c r="AX38" s="25"/>
+      <c r="AY38" s="25"/>
+      <c r="AZ38" s="25"/>
+      <c r="BA38" s="25"/>
+      <c r="BB38" s="25"/>
+      <c r="BC38" s="25"/>
+      <c r="BD38" s="25"/>
+      <c r="BE38" s="25"/>
+      <c r="BF38" s="25"/>
+      <c r="BG38" s="25"/>
+      <c r="BH38" s="25"/>
+      <c r="BI38" s="25"/>
+      <c r="BJ38" s="25"/>
+      <c r="BK38" s="25"/>
+      <c r="BP38" s="22"/>
+    </row>
+    <row r="39" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="25"/>
+      <c r="AJ39" s="25"/>
+      <c r="AK39" s="25"/>
+      <c r="AL39" s="25"/>
+      <c r="AM39" s="25"/>
+      <c r="AN39" s="25"/>
+      <c r="AO39" s="25"/>
+      <c r="AP39" s="25"/>
+      <c r="AQ39" s="25"/>
+      <c r="AR39" s="25"/>
+      <c r="AS39" s="25"/>
+      <c r="AT39" s="25"/>
+      <c r="AU39" s="25"/>
+      <c r="AV39" s="25"/>
+      <c r="AW39" s="25"/>
+      <c r="AX39" s="25"/>
+      <c r="AY39" s="25"/>
+      <c r="AZ39" s="25"/>
+      <c r="BA39" s="25"/>
+      <c r="BB39" s="25"/>
+      <c r="BC39" s="25"/>
+      <c r="BD39" s="25"/>
+      <c r="BE39" s="25"/>
+      <c r="BF39" s="25"/>
+      <c r="BG39" s="25"/>
+      <c r="BH39" s="25"/>
+      <c r="BI39" s="25"/>
+      <c r="BJ39" s="25"/>
+      <c r="BK39" s="25"/>
+      <c r="BP39" s="22"/>
+    </row>
+    <row r="40" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="25"/>
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
+      <c r="AL40" s="25"/>
+      <c r="AM40" s="25"/>
+      <c r="AN40" s="25"/>
+      <c r="AO40" s="25"/>
+      <c r="AP40" s="25"/>
+      <c r="AQ40" s="25"/>
+      <c r="AR40" s="25"/>
+      <c r="AS40" s="25"/>
+      <c r="AT40" s="25"/>
+      <c r="AU40" s="25"/>
+      <c r="AV40" s="25"/>
+      <c r="AW40" s="25"/>
+      <c r="AX40" s="25"/>
+      <c r="AY40" s="25"/>
+      <c r="AZ40" s="25"/>
+      <c r="BA40" s="25"/>
+      <c r="BB40" s="25"/>
+      <c r="BC40" s="25"/>
+      <c r="BD40" s="25"/>
+      <c r="BE40" s="25"/>
+      <c r="BF40" s="25"/>
+      <c r="BG40" s="25"/>
+      <c r="BH40" s="25"/>
+      <c r="BI40" s="25"/>
+      <c r="BJ40" s="25"/>
+      <c r="BK40" s="25"/>
+      <c r="BP40" s="22"/>
+    </row>
+    <row r="41" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C41" s="24"/>
+      <c r="AD41" s="14"/>
+      <c r="AG41" s="23"/>
+      <c r="BP41" s="22"/>
+    </row>
+    <row r="42" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C42" s="24"/>
+      <c r="D42" s="13"/>
+      <c r="AD42" s="14"/>
+      <c r="AG42" s="23"/>
+      <c r="BP42" s="22"/>
+    </row>
+    <row r="43" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C43" s="24"/>
+      <c r="AD43" s="14"/>
+      <c r="AG43" s="23"/>
+      <c r="BP43" s="22"/>
+    </row>
+    <row r="44" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C44" s="24"/>
+      <c r="AD44" s="14"/>
+      <c r="AG44" s="23"/>
+      <c r="BP44" s="22"/>
+    </row>
+    <row r="45" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C45" s="24"/>
+      <c r="AD45" s="14"/>
+      <c r="AG45" s="23"/>
+      <c r="BP45" s="22"/>
+    </row>
+    <row r="46" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C46" s="24"/>
+      <c r="AD46" s="14"/>
+      <c r="AG46" s="23"/>
+      <c r="BP46" s="22"/>
+    </row>
+    <row r="47" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C47" s="24"/>
+      <c r="AD47" s="14"/>
+      <c r="AG47" s="23"/>
+      <c r="BP47" s="22"/>
+    </row>
+    <row r="48" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C48" s="24"/>
+      <c r="AD48" s="14"/>
+      <c r="AG48" s="23"/>
+      <c r="BP48" s="22"/>
+    </row>
+    <row r="49" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C49" s="24"/>
+      <c r="AD49" s="14"/>
+      <c r="AG49" s="23"/>
+      <c r="BP49" s="22"/>
+    </row>
+    <row r="50" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C50" s="24"/>
+      <c r="AD50" s="14"/>
+      <c r="AG50" s="23"/>
+      <c r="BP50" s="22"/>
+    </row>
+    <row r="51" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C51" s="24"/>
+      <c r="AD51" s="14"/>
+      <c r="AG51" s="23"/>
+      <c r="BP51" s="22"/>
+    </row>
+    <row r="52" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C52" s="24"/>
+      <c r="AD52" s="14"/>
+      <c r="AG52" s="23"/>
+      <c r="BP52" s="22"/>
+    </row>
+    <row r="53" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C53" s="24"/>
+      <c r="AD53" s="14"/>
+      <c r="AG53" s="23"/>
+      <c r="BP53" s="22"/>
+    </row>
+    <row r="54" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C54" s="21"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+      <c r="AF54" s="19"/>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="19"/>
+      <c r="AL54" s="19"/>
+      <c r="AM54" s="19"/>
+      <c r="AN54" s="19"/>
+      <c r="AO54" s="19"/>
+      <c r="AP54" s="19"/>
+      <c r="AQ54" s="19"/>
+      <c r="AR54" s="19"/>
+      <c r="AS54" s="19"/>
+      <c r="AT54" s="19"/>
+      <c r="AU54" s="19"/>
+      <c r="AV54" s="19"/>
+      <c r="AW54" s="19"/>
+      <c r="AX54" s="19"/>
+      <c r="AY54" s="19"/>
+      <c r="AZ54" s="19"/>
+      <c r="BA54" s="19"/>
+      <c r="BB54" s="19"/>
+      <c r="BC54" s="19"/>
+      <c r="BD54" s="19"/>
+      <c r="BE54" s="19"/>
+      <c r="BF54" s="19"/>
+      <c r="BG54" s="19"/>
+      <c r="BH54" s="19"/>
+      <c r="BI54" s="19"/>
+      <c r="BJ54" s="19"/>
+      <c r="BK54" s="19"/>
+      <c r="BL54" s="19"/>
+      <c r="BM54" s="19"/>
+      <c r="BN54" s="19"/>
+      <c r="BO54" s="19"/>
+      <c r="BP54" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="T11:T15 T19" xr:uid="{C0BCE62B-BECD-4A08-8F45-908EDC9F17FE}">
+      <formula1>"◯,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
+++ b/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3122851-3950-4032-99D6-ABDA65ACBA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67870E2D-9EEE-4025-B86E-EC7FC297EE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="410" windowWidth="11870" windowHeight="8960" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="4110" yWindow="480" windowWidth="12090" windowHeight="9780" firstSheet="2" activeTab="2" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="クラス概要_コントローラ基底クラス" sheetId="2" r:id="rId1"/>
+    <sheet name="クラス概要_プルダウン項目クラス" sheetId="2" r:id="rId1"/>
     <sheet name="ログインID存在確認" sheetId="8" r:id="rId2"/>
+    <sheet name="ユーザマスタ全件取得" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">クラス概要_コントローラ基底クラス!$A$1:$BQ$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">クラス概要_プルダウン項目クラス!$A$1:$BQ$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ユーザマスタ全件取得!$A$1:$BQ$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ログインID存在確認!$A$1:$BQ$32</definedName>
+    <definedName name="範囲１" localSheetId="2">#REF!</definedName>
     <definedName name="範囲１" localSheetId="1">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
   <si>
     <t>public</t>
   </si>
@@ -429,6 +432,16 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>コントローラ基底クラス設計書</t>
+    <rPh sb="6" eb="8">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>コントローラ基底クラス</t>
     <rPh sb="6" eb="8">
       <t>キテイ</t>
@@ -517,20 +530,74 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>コントローラ基底クラス_設計書</t>
-    <rPh sb="6" eb="8">
-      <t>キテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ショ</t>
+    <t>ユーザマスタ全件取得</t>
+    <rPh sb="6" eb="10">
+      <t>ゼンケンシュトク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>システム名</t>
+    <t>ユーザマスタ全件取得</t>
+    <rPh sb="6" eb="8">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザマスタ全件取得</t>
+    <rPh sb="6" eb="8">
+      <t>ゼンケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リスト&lt;全社員ID情報取得クラス&gt;オブジェクト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リスト&lt;全社員ID情報取得クラス&gt;オブジェクト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全社員IDのテーブル検索結果</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理後、リスト&lt;全社員ID情報取得クラス&gt;オブジェクトを戻り値として処理を終了する</t>
+    <rPh sb="0" eb="3">
+      <t>ショリゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザマスタ全件取得</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1044,45 +1111,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1098,6 +1126,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,14 +1138,76 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1128,37 +1221,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1481,7 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B701B7-1A2D-4688-A075-62F16DBEF55F}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -1493,247 +1560,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56" t="s">
+      <c r="A1" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="57" t="s">
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
+      <c r="BL1" s="44"/>
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="44"/>
+      <c r="BO1" s="44"/>
+      <c r="BP1" s="44"/>
+      <c r="BQ1" s="44"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="43" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43" t="s">
+      <c r="AL2" s="47"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43" t="s">
+      <c r="AU2" s="47"/>
+      <c r="AV2" s="47"/>
+      <c r="AW2" s="47"/>
+      <c r="AX2" s="47"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="47"/>
+      <c r="BA2" s="47"/>
+      <c r="BB2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="60" t="s">
+      <c r="BC2" s="47"/>
+      <c r="BD2" s="47"/>
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="47"/>
+      <c r="BG2" s="47"/>
+      <c r="BH2" s="47"/>
+      <c r="BI2" s="47"/>
+      <c r="BJ2" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
+      <c r="BK2" s="48"/>
+      <c r="BL2" s="48"/>
+      <c r="BM2" s="48"/>
+      <c r="BN2" s="48"/>
+      <c r="BO2" s="48"/>
+      <c r="BP2" s="48"/>
+      <c r="BQ2" s="48"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59" t="s">
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="61">
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="49">
         <v>45519</v>
       </c>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="59" t="s">
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59"/>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="62">
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="46"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46"/>
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="50">
         <v>45518</v>
       </c>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="50"/>
+      <c r="BO3" s="50"/>
+      <c r="BP3" s="50"/>
+      <c r="BQ3" s="50"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -1800,215 +1867,215 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="C6" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
+      <c r="C6" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="51"/>
+      <c r="BA6" s="51"/>
+      <c r="BB6" s="51"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
+      <c r="BF6" s="51"/>
+      <c r="BG6" s="51"/>
+      <c r="BH6" s="51"/>
+      <c r="BI6" s="51"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="51"/>
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="51"/>
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="51"/>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="6"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="53"/>
-      <c r="BJ7" s="53"/>
-      <c r="BK7" s="53"/>
-      <c r="BL7" s="53"/>
-      <c r="BM7" s="53"/>
-      <c r="BN7" s="53"/>
-      <c r="BO7" s="53"/>
+      <c r="C7" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="51"/>
+      <c r="AT7" s="51"/>
+      <c r="AU7" s="51"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="51"/>
+      <c r="AX7" s="51"/>
+      <c r="AY7" s="51"/>
+      <c r="AZ7" s="51"/>
+      <c r="BA7" s="51"/>
+      <c r="BB7" s="51"/>
+      <c r="BC7" s="51"/>
+      <c r="BD7" s="51"/>
+      <c r="BE7" s="51"/>
+      <c r="BF7" s="51"/>
+      <c r="BG7" s="51"/>
+      <c r="BH7" s="51"/>
+      <c r="BI7" s="51"/>
+      <c r="BJ7" s="51"/>
+      <c r="BK7" s="51"/>
+      <c r="BL7" s="51"/>
+      <c r="BM7" s="51"/>
+      <c r="BN7" s="51"/>
+      <c r="BO7" s="51"/>
       <c r="BP7" s="8"/>
       <c r="BQ7" s="6"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="53"/>
-      <c r="AQ8" s="53"/>
-      <c r="AR8" s="53"/>
-      <c r="AS8" s="53"/>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="53"/>
-      <c r="AV8" s="53"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="53"/>
-      <c r="BB8" s="53"/>
-      <c r="BC8" s="53"/>
-      <c r="BD8" s="53"/>
-      <c r="BE8" s="53"/>
-      <c r="BF8" s="53"/>
-      <c r="BG8" s="53"/>
-      <c r="BH8" s="53"/>
-      <c r="BI8" s="53"/>
-      <c r="BJ8" s="53"/>
-      <c r="BK8" s="53"/>
-      <c r="BL8" s="53"/>
-      <c r="BM8" s="53"/>
-      <c r="BN8" s="53"/>
-      <c r="BO8" s="53"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
+      <c r="AO8" s="51"/>
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
+      <c r="AT8" s="51"/>
+      <c r="AU8" s="51"/>
+      <c r="AV8" s="51"/>
+      <c r="AW8" s="51"/>
+      <c r="AX8" s="51"/>
+      <c r="AY8" s="51"/>
+      <c r="AZ8" s="51"/>
+      <c r="BA8" s="51"/>
+      <c r="BB8" s="51"/>
+      <c r="BC8" s="51"/>
+      <c r="BD8" s="51"/>
+      <c r="BE8" s="51"/>
+      <c r="BF8" s="51"/>
+      <c r="BG8" s="51"/>
+      <c r="BH8" s="51"/>
+      <c r="BI8" s="51"/>
+      <c r="BJ8" s="51"/>
+      <c r="BK8" s="51"/>
+      <c r="BL8" s="51"/>
+      <c r="BM8" s="51"/>
+      <c r="BN8" s="51"/>
+      <c r="BO8" s="51"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="6"/>
     </row>
@@ -2061,787 +2128,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44"/>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="44"/>
-      <c r="AX11" s="44"/>
-      <c r="AY11" s="44"/>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="44"/>
-      <c r="BC11" s="44"/>
-      <c r="BD11" s="44"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44"/>
-      <c r="BI11" s="44"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-      <c r="BM11" s="44"/>
-      <c r="BN11" s="44"/>
-      <c r="BO11" s="44"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="54"/>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="54"/>
+      <c r="AR11" s="54"/>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="54"/>
+      <c r="AU11" s="54"/>
+      <c r="AV11" s="54"/>
+      <c r="AW11" s="54"/>
+      <c r="AX11" s="54"/>
+      <c r="AY11" s="54"/>
+      <c r="AZ11" s="54"/>
+      <c r="BA11" s="54"/>
+      <c r="BB11" s="54"/>
+      <c r="BC11" s="54"/>
+      <c r="BD11" s="54"/>
+      <c r="BE11" s="54"/>
+      <c r="BF11" s="54"/>
+      <c r="BG11" s="54"/>
+      <c r="BH11" s="54"/>
+      <c r="BI11" s="54"/>
+      <c r="BJ11" s="54"/>
+      <c r="BK11" s="54"/>
+      <c r="BL11" s="54"/>
+      <c r="BM11" s="54"/>
+      <c r="BN11" s="54"/>
+      <c r="BO11" s="54"/>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="44"/>
-      <c r="BM12" s="44"/>
-      <c r="BN12" s="44"/>
-      <c r="BO12" s="44"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="54"/>
+      <c r="AP12" s="54"/>
+      <c r="AQ12" s="54"/>
+      <c r="AR12" s="54"/>
+      <c r="AS12" s="54"/>
+      <c r="AT12" s="54"/>
+      <c r="AU12" s="54"/>
+      <c r="AV12" s="54"/>
+      <c r="AW12" s="54"/>
+      <c r="AX12" s="54"/>
+      <c r="AY12" s="54"/>
+      <c r="AZ12" s="54"/>
+      <c r="BA12" s="54"/>
+      <c r="BB12" s="54"/>
+      <c r="BC12" s="54"/>
+      <c r="BD12" s="54"/>
+      <c r="BE12" s="54"/>
+      <c r="BF12" s="54"/>
+      <c r="BG12" s="54"/>
+      <c r="BH12" s="54"/>
+      <c r="BI12" s="54"/>
+      <c r="BJ12" s="54"/>
+      <c r="BK12" s="54"/>
+      <c r="BL12" s="54"/>
+      <c r="BM12" s="54"/>
+      <c r="BN12" s="54"/>
+      <c r="BO12" s="54"/>
       <c r="BP12" s="8"/>
       <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="44"/>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="44"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="44"/>
-      <c r="BK13" s="44"/>
-      <c r="BL13" s="44"/>
-      <c r="BM13" s="44"/>
-      <c r="BN13" s="44"/>
-      <c r="BO13" s="44"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="54"/>
+      <c r="AW13" s="54"/>
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="54"/>
+      <c r="BA13" s="54"/>
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="54"/>
+      <c r="BE13" s="54"/>
+      <c r="BF13" s="54"/>
+      <c r="BG13" s="54"/>
+      <c r="BH13" s="54"/>
+      <c r="BI13" s="54"/>
+      <c r="BJ13" s="54"/>
+      <c r="BK13" s="54"/>
+      <c r="BL13" s="54"/>
+      <c r="BM13" s="54"/>
+      <c r="BN13" s="54"/>
+      <c r="BO13" s="54"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="51" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="51"/>
-      <c r="BC14" s="51"/>
-      <c r="BD14" s="51"/>
-      <c r="BE14" s="51"/>
-      <c r="BF14" s="51"/>
-      <c r="BG14" s="51"/>
-      <c r="BH14" s="51"/>
-      <c r="BI14" s="51"/>
-      <c r="BJ14" s="51"/>
-      <c r="BK14" s="51"/>
-      <c r="BL14" s="51"/>
-      <c r="BM14" s="51"/>
-      <c r="BN14" s="51"/>
-      <c r="BO14" s="51"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="61"/>
+      <c r="AK14" s="61"/>
+      <c r="AL14" s="61"/>
+      <c r="AM14" s="61"/>
+      <c r="AN14" s="61"/>
+      <c r="AO14" s="61"/>
+      <c r="AP14" s="61"/>
+      <c r="AQ14" s="61"/>
+      <c r="AR14" s="61"/>
+      <c r="AS14" s="61"/>
+      <c r="AT14" s="61"/>
+      <c r="AU14" s="61"/>
+      <c r="AV14" s="61"/>
+      <c r="AW14" s="61"/>
+      <c r="AX14" s="61"/>
+      <c r="AY14" s="61"/>
+      <c r="AZ14" s="61"/>
+      <c r="BA14" s="61"/>
+      <c r="BB14" s="61"/>
+      <c r="BC14" s="61"/>
+      <c r="BD14" s="61"/>
+      <c r="BE14" s="61"/>
+      <c r="BF14" s="61"/>
+      <c r="BG14" s="61"/>
+      <c r="BH14" s="61"/>
+      <c r="BI14" s="61"/>
+      <c r="BJ14" s="61"/>
+      <c r="BK14" s="61"/>
+      <c r="BL14" s="61"/>
+      <c r="BM14" s="61"/>
+      <c r="BN14" s="61"/>
+      <c r="BO14" s="61"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="6"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="52"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="52"/>
-      <c r="AM15" s="52"/>
-      <c r="AN15" s="52"/>
-      <c r="AO15" s="52"/>
-      <c r="AP15" s="52"/>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="52"/>
-      <c r="AV15" s="52"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="52"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="52"/>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="52"/>
-      <c r="BF15" s="52"/>
-      <c r="BG15" s="52"/>
-      <c r="BH15" s="52"/>
-      <c r="BI15" s="52"/>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="52"/>
-      <c r="BL15" s="52"/>
-      <c r="BM15" s="52"/>
-      <c r="BN15" s="52"/>
-      <c r="BO15" s="52"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="62"/>
+      <c r="AL15" s="62"/>
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="62"/>
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="62"/>
+      <c r="AX15" s="62"/>
+      <c r="AY15" s="62"/>
+      <c r="AZ15" s="62"/>
+      <c r="BA15" s="62"/>
+      <c r="BB15" s="62"/>
+      <c r="BC15" s="62"/>
+      <c r="BD15" s="62"/>
+      <c r="BE15" s="62"/>
+      <c r="BF15" s="62"/>
+      <c r="BG15" s="62"/>
+      <c r="BH15" s="62"/>
+      <c r="BI15" s="62"/>
+      <c r="BJ15" s="62"/>
+      <c r="BK15" s="62"/>
+      <c r="BL15" s="62"/>
+      <c r="BM15" s="62"/>
+      <c r="BN15" s="62"/>
+      <c r="BO15" s="62"/>
       <c r="BP15" s="8"/>
       <c r="BQ15" s="6"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="52"/>
-      <c r="AP16" s="52"/>
-      <c r="AQ16" s="52"/>
-      <c r="AR16" s="52"/>
-      <c r="AS16" s="52"/>
-      <c r="AT16" s="52"/>
-      <c r="AU16" s="52"/>
-      <c r="AV16" s="52"/>
-      <c r="AW16" s="52"/>
-      <c r="AX16" s="52"/>
-      <c r="AY16" s="52"/>
-      <c r="AZ16" s="52"/>
-      <c r="BA16" s="52"/>
-      <c r="BB16" s="52"/>
-      <c r="BC16" s="52"/>
-      <c r="BD16" s="52"/>
-      <c r="BE16" s="52"/>
-      <c r="BF16" s="52"/>
-      <c r="BG16" s="52"/>
-      <c r="BH16" s="52"/>
-      <c r="BI16" s="52"/>
-      <c r="BJ16" s="52"/>
-      <c r="BK16" s="52"/>
-      <c r="BL16" s="52"/>
-      <c r="BM16" s="52"/>
-      <c r="BN16" s="52"/>
-      <c r="BO16" s="52"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="62"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="62"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="62"/>
+      <c r="AT16" s="62"/>
+      <c r="AU16" s="62"/>
+      <c r="AV16" s="62"/>
+      <c r="AW16" s="62"/>
+      <c r="AX16" s="62"/>
+      <c r="AY16" s="62"/>
+      <c r="AZ16" s="62"/>
+      <c r="BA16" s="62"/>
+      <c r="BB16" s="62"/>
+      <c r="BC16" s="62"/>
+      <c r="BD16" s="62"/>
+      <c r="BE16" s="62"/>
+      <c r="BF16" s="62"/>
+      <c r="BG16" s="62"/>
+      <c r="BH16" s="62"/>
+      <c r="BI16" s="62"/>
+      <c r="BJ16" s="62"/>
+      <c r="BK16" s="62"/>
+      <c r="BL16" s="62"/>
+      <c r="BM16" s="62"/>
+      <c r="BN16" s="62"/>
+      <c r="BO16" s="62"/>
       <c r="BP16" s="8"/>
       <c r="BQ16" s="6"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="52"/>
-      <c r="AK17" s="52"/>
-      <c r="AL17" s="52"/>
-      <c r="AM17" s="52"/>
-      <c r="AN17" s="52"/>
-      <c r="AO17" s="52"/>
-      <c r="AP17" s="52"/>
-      <c r="AQ17" s="52"/>
-      <c r="AR17" s="52"/>
-      <c r="AS17" s="52"/>
-      <c r="AT17" s="52"/>
-      <c r="AU17" s="52"/>
-      <c r="AV17" s="52"/>
-      <c r="AW17" s="52"/>
-      <c r="AX17" s="52"/>
-      <c r="AY17" s="52"/>
-      <c r="AZ17" s="52"/>
-      <c r="BA17" s="52"/>
-      <c r="BB17" s="52"/>
-      <c r="BC17" s="52"/>
-      <c r="BD17" s="52"/>
-      <c r="BE17" s="52"/>
-      <c r="BF17" s="52"/>
-      <c r="BG17" s="52"/>
-      <c r="BH17" s="52"/>
-      <c r="BI17" s="52"/>
-      <c r="BJ17" s="52"/>
-      <c r="BK17" s="52"/>
-      <c r="BL17" s="52"/>
-      <c r="BM17" s="52"/>
-      <c r="BN17" s="52"/>
-      <c r="BO17" s="52"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="62"/>
+      <c r="AL17" s="62"/>
+      <c r="AM17" s="62"/>
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="62"/>
+      <c r="AP17" s="62"/>
+      <c r="AQ17" s="62"/>
+      <c r="AR17" s="62"/>
+      <c r="AS17" s="62"/>
+      <c r="AT17" s="62"/>
+      <c r="AU17" s="62"/>
+      <c r="AV17" s="62"/>
+      <c r="AW17" s="62"/>
+      <c r="AX17" s="62"/>
+      <c r="AY17" s="62"/>
+      <c r="AZ17" s="62"/>
+      <c r="BA17" s="62"/>
+      <c r="BB17" s="62"/>
+      <c r="BC17" s="62"/>
+      <c r="BD17" s="62"/>
+      <c r="BE17" s="62"/>
+      <c r="BF17" s="62"/>
+      <c r="BG17" s="62"/>
+      <c r="BH17" s="62"/>
+      <c r="BI17" s="62"/>
+      <c r="BJ17" s="62"/>
+      <c r="BK17" s="62"/>
+      <c r="BL17" s="62"/>
+      <c r="BM17" s="62"/>
+      <c r="BN17" s="62"/>
+      <c r="BO17" s="62"/>
       <c r="BP17" s="8"/>
       <c r="BQ17" s="6"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="52"/>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="52"/>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="52"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="52"/>
-      <c r="AQ18" s="52"/>
-      <c r="AR18" s="52"/>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="52"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="52"/>
-      <c r="AZ18" s="52"/>
-      <c r="BA18" s="52"/>
-      <c r="BB18" s="52"/>
-      <c r="BC18" s="52"/>
-      <c r="BD18" s="52"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="52"/>
-      <c r="BG18" s="52"/>
-      <c r="BH18" s="52"/>
-      <c r="BI18" s="52"/>
-      <c r="BJ18" s="52"/>
-      <c r="BK18" s="52"/>
-      <c r="BL18" s="52"/>
-      <c r="BM18" s="52"/>
-      <c r="BN18" s="52"/>
-      <c r="BO18" s="52"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="62"/>
+      <c r="AL18" s="62"/>
+      <c r="AM18" s="62"/>
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="62"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="62"/>
+      <c r="AT18" s="62"/>
+      <c r="AU18" s="62"/>
+      <c r="AV18" s="62"/>
+      <c r="AW18" s="62"/>
+      <c r="AX18" s="62"/>
+      <c r="AY18" s="62"/>
+      <c r="AZ18" s="62"/>
+      <c r="BA18" s="62"/>
+      <c r="BB18" s="62"/>
+      <c r="BC18" s="62"/>
+      <c r="BD18" s="62"/>
+      <c r="BE18" s="62"/>
+      <c r="BF18" s="62"/>
+      <c r="BG18" s="62"/>
+      <c r="BH18" s="62"/>
+      <c r="BI18" s="62"/>
+      <c r="BJ18" s="62"/>
+      <c r="BK18" s="62"/>
+      <c r="BL18" s="62"/>
+      <c r="BM18" s="62"/>
+      <c r="BN18" s="62"/>
+      <c r="BO18" s="62"/>
       <c r="BP18" s="8"/>
       <c r="BQ18" s="6"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="52"/>
-      <c r="AM19" s="52"/>
-      <c r="AN19" s="52"/>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="52"/>
-      <c r="AQ19" s="52"/>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
-      <c r="AT19" s="52"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="52"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="52"/>
-      <c r="AY19" s="52"/>
-      <c r="AZ19" s="52"/>
-      <c r="BA19" s="52"/>
-      <c r="BB19" s="52"/>
-      <c r="BC19" s="52"/>
-      <c r="BD19" s="52"/>
-      <c r="BE19" s="52"/>
-      <c r="BF19" s="52"/>
-      <c r="BG19" s="52"/>
-      <c r="BH19" s="52"/>
-      <c r="BI19" s="52"/>
-      <c r="BJ19" s="52"/>
-      <c r="BK19" s="52"/>
-      <c r="BL19" s="52"/>
-      <c r="BM19" s="52"/>
-      <c r="BN19" s="52"/>
-      <c r="BO19" s="52"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="62"/>
+      <c r="AT19" s="62"/>
+      <c r="AU19" s="62"/>
+      <c r="AV19" s="62"/>
+      <c r="AW19" s="62"/>
+      <c r="AX19" s="62"/>
+      <c r="AY19" s="62"/>
+      <c r="AZ19" s="62"/>
+      <c r="BA19" s="62"/>
+      <c r="BB19" s="62"/>
+      <c r="BC19" s="62"/>
+      <c r="BD19" s="62"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="62"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="62"/>
+      <c r="BI19" s="62"/>
+      <c r="BJ19" s="62"/>
+      <c r="BK19" s="62"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="62"/>
+      <c r="BN19" s="62"/>
+      <c r="BO19" s="62"/>
       <c r="BP19" s="8"/>
       <c r="BQ19" s="6"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="52"/>
-      <c r="AO20" s="52"/>
-      <c r="AP20" s="52"/>
-      <c r="AQ20" s="52"/>
-      <c r="AR20" s="52"/>
-      <c r="AS20" s="52"/>
-      <c r="AT20" s="52"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="52"/>
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="52"/>
-      <c r="AY20" s="52"/>
-      <c r="AZ20" s="52"/>
-      <c r="BA20" s="52"/>
-      <c r="BB20" s="52"/>
-      <c r="BC20" s="52"/>
-      <c r="BD20" s="52"/>
-      <c r="BE20" s="52"/>
-      <c r="BF20" s="52"/>
-      <c r="BG20" s="52"/>
-      <c r="BH20" s="52"/>
-      <c r="BI20" s="52"/>
-      <c r="BJ20" s="52"/>
-      <c r="BK20" s="52"/>
-      <c r="BL20" s="52"/>
-      <c r="BM20" s="52"/>
-      <c r="BN20" s="52"/>
-      <c r="BO20" s="52"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="62"/>
+      <c r="AT20" s="62"/>
+      <c r="AU20" s="62"/>
+      <c r="AV20" s="62"/>
+      <c r="AW20" s="62"/>
+      <c r="AX20" s="62"/>
+      <c r="AY20" s="62"/>
+      <c r="AZ20" s="62"/>
+      <c r="BA20" s="62"/>
+      <c r="BB20" s="62"/>
+      <c r="BC20" s="62"/>
+      <c r="BD20" s="62"/>
+      <c r="BE20" s="62"/>
+      <c r="BF20" s="62"/>
+      <c r="BG20" s="62"/>
+      <c r="BH20" s="62"/>
+      <c r="BI20" s="62"/>
+      <c r="BJ20" s="62"/>
+      <c r="BK20" s="62"/>
+      <c r="BL20" s="62"/>
+      <c r="BM20" s="62"/>
+      <c r="BN20" s="62"/>
+      <c r="BO20" s="62"/>
       <c r="BP20" s="8"/>
       <c r="BQ20" s="6"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="54"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="54"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="54"/>
-      <c r="AU21" s="54"/>
-      <c r="AV21" s="54"/>
-      <c r="AW21" s="54"/>
-      <c r="AX21" s="54"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="54"/>
-      <c r="BA21" s="54"/>
-      <c r="BB21" s="54"/>
-      <c r="BC21" s="54"/>
-      <c r="BD21" s="54"/>
-      <c r="BE21" s="54"/>
-      <c r="BF21" s="54"/>
-      <c r="BG21" s="54"/>
-      <c r="BH21" s="54"/>
-      <c r="BI21" s="54"/>
-      <c r="BJ21" s="54"/>
-      <c r="BK21" s="54"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BO21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="52"/>
+      <c r="AS21" s="52"/>
+      <c r="AT21" s="52"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="52"/>
+      <c r="AW21" s="52"/>
+      <c r="AX21" s="52"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="52"/>
+      <c r="BA21" s="52"/>
+      <c r="BB21" s="52"/>
+      <c r="BC21" s="52"/>
+      <c r="BD21" s="52"/>
+      <c r="BE21" s="52"/>
+      <c r="BF21" s="52"/>
+      <c r="BG21" s="52"/>
+      <c r="BH21" s="52"/>
+      <c r="BI21" s="52"/>
+      <c r="BJ21" s="52"/>
+      <c r="BK21" s="52"/>
+      <c r="BL21" s="52"/>
+      <c r="BM21" s="52"/>
+      <c r="BN21" s="52"/>
+      <c r="BO21" s="52"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="6"/>
     </row>
@@ -2871,738 +2938,744 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43" t="s">
+      <c r="D25" s="47"/>
+      <c r="E25" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43" t="s">
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="44" t="s">
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="42" t="s">
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="42"/>
-      <c r="AL25" s="42"/>
-      <c r="AM25" s="42"/>
-      <c r="AN25" s="42"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="42"/>
-      <c r="AQ25" s="42"/>
-      <c r="AR25" s="42"/>
-      <c r="AS25" s="42"/>
-      <c r="AT25" s="42"/>
-      <c r="AU25" s="42"/>
-      <c r="AV25" s="42"/>
-      <c r="AW25" s="42"/>
-      <c r="AX25" s="42"/>
-      <c r="AY25" s="42"/>
-      <c r="AZ25" s="42"/>
-      <c r="BA25" s="42"/>
-      <c r="BB25" s="42"/>
-      <c r="BC25" s="42"/>
-      <c r="BD25" s="42" t="s">
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="53"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="53"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
+      <c r="BB25" s="53"/>
+      <c r="BC25" s="53"/>
+      <c r="BD25" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="BE25" s="42"/>
-      <c r="BF25" s="42"/>
-      <c r="BG25" s="42"/>
-      <c r="BH25" s="42"/>
-      <c r="BI25" s="42"/>
-      <c r="BJ25" s="42"/>
-      <c r="BK25" s="42"/>
-      <c r="BL25" s="42"/>
-      <c r="BM25" s="42"/>
-      <c r="BN25" s="42"/>
-      <c r="BO25" s="42"/>
+      <c r="BE25" s="53"/>
+      <c r="BF25" s="53"/>
+      <c r="BG25" s="53"/>
+      <c r="BH25" s="53"/>
+      <c r="BI25" s="53"/>
+      <c r="BJ25" s="53"/>
+      <c r="BK25" s="53"/>
+      <c r="BL25" s="53"/>
+      <c r="BM25" s="53"/>
+      <c r="BN25" s="53"/>
+      <c r="BO25" s="53"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="C26" s="43">
+      <c r="C26" s="47">
         <v>1</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="45" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="48" t="s">
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="46"/>
-      <c r="AN26" s="46"/>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="46"/>
-      <c r="AQ26" s="46"/>
-      <c r="AR26" s="46"/>
-      <c r="AS26" s="46"/>
-      <c r="AT26" s="46"/>
-      <c r="AU26" s="46"/>
-      <c r="AV26" s="46"/>
-      <c r="AW26" s="46"/>
-      <c r="AX26" s="46"/>
-      <c r="AY26" s="46"/>
-      <c r="AZ26" s="46"/>
-      <c r="BA26" s="46"/>
-      <c r="BB26" s="46"/>
-      <c r="BC26" s="47"/>
-      <c r="BD26" s="45"/>
-      <c r="BE26" s="46"/>
-      <c r="BF26" s="46"/>
-      <c r="BG26" s="46"/>
-      <c r="BH26" s="46"/>
-      <c r="BI26" s="46"/>
-      <c r="BJ26" s="46"/>
-      <c r="BK26" s="46"/>
-      <c r="BL26" s="46"/>
-      <c r="BM26" s="46"/>
-      <c r="BN26" s="46"/>
-      <c r="BO26" s="47"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="59"/>
+      <c r="AS26" s="59"/>
+      <c r="AT26" s="59"/>
+      <c r="AU26" s="59"/>
+      <c r="AV26" s="59"/>
+      <c r="AW26" s="59"/>
+      <c r="AX26" s="59"/>
+      <c r="AY26" s="59"/>
+      <c r="AZ26" s="59"/>
+      <c r="BA26" s="59"/>
+      <c r="BB26" s="59"/>
+      <c r="BC26" s="60"/>
+      <c r="BD26" s="58"/>
+      <c r="BE26" s="59"/>
+      <c r="BF26" s="59"/>
+      <c r="BG26" s="59"/>
+      <c r="BH26" s="59"/>
+      <c r="BI26" s="59"/>
+      <c r="BJ26" s="59"/>
+      <c r="BK26" s="59"/>
+      <c r="BL26" s="59"/>
+      <c r="BM26" s="59"/>
+      <c r="BN26" s="59"/>
+      <c r="BO26" s="60"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="C27" s="43">
+      <c r="C27" s="47">
         <v>2</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="42"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="42"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="42"/>
-      <c r="AT27" s="42"/>
-      <c r="AU27" s="42"/>
-      <c r="AV27" s="42"/>
-      <c r="AW27" s="42"/>
-      <c r="AX27" s="42"/>
-      <c r="AY27" s="42"/>
-      <c r="AZ27" s="42"/>
-      <c r="BA27" s="42"/>
-      <c r="BB27" s="42"/>
-      <c r="BC27" s="42"/>
-      <c r="BD27" s="42"/>
-      <c r="BE27" s="42"/>
-      <c r="BF27" s="42"/>
-      <c r="BG27" s="42"/>
-      <c r="BH27" s="42"/>
-      <c r="BI27" s="42"/>
-      <c r="BJ27" s="42"/>
-      <c r="BK27" s="42"/>
-      <c r="BL27" s="42"/>
-      <c r="BM27" s="42"/>
-      <c r="BN27" s="42"/>
-      <c r="BO27" s="42"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="59"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="59"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="59"/>
+      <c r="AU27" s="59"/>
+      <c r="AV27" s="59"/>
+      <c r="AW27" s="59"/>
+      <c r="AX27" s="59"/>
+      <c r="AY27" s="59"/>
+      <c r="AZ27" s="59"/>
+      <c r="BA27" s="59"/>
+      <c r="BB27" s="59"/>
+      <c r="BC27" s="60"/>
+      <c r="BD27" s="53"/>
+      <c r="BE27" s="53"/>
+      <c r="BF27" s="53"/>
+      <c r="BG27" s="53"/>
+      <c r="BH27" s="53"/>
+      <c r="BI27" s="53"/>
+      <c r="BJ27" s="53"/>
+      <c r="BK27" s="53"/>
+      <c r="BL27" s="53"/>
+      <c r="BM27" s="53"/>
+      <c r="BN27" s="53"/>
+      <c r="BO27" s="53"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="C28" s="43">
+      <c r="C28" s="47">
         <v>3</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
-      <c r="AO28" s="42"/>
-      <c r="AP28" s="42"/>
-      <c r="AQ28" s="42"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="42"/>
-      <c r="AU28" s="42"/>
-      <c r="AV28" s="42"/>
-      <c r="AW28" s="42"/>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="42"/>
-      <c r="BA28" s="42"/>
-      <c r="BB28" s="42"/>
-      <c r="BC28" s="42"/>
-      <c r="BD28" s="42"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="42"/>
-      <c r="BG28" s="42"/>
-      <c r="BH28" s="42"/>
-      <c r="BI28" s="42"/>
-      <c r="BJ28" s="42"/>
-      <c r="BK28" s="42"/>
-      <c r="BL28" s="42"/>
-      <c r="BM28" s="42"/>
-      <c r="BN28" s="42"/>
-      <c r="BO28" s="42"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="53"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="53"/>
+      <c r="AS28" s="53"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="53"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="53"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="53"/>
+      <c r="AZ28" s="53"/>
+      <c r="BA28" s="53"/>
+      <c r="BB28" s="53"/>
+      <c r="BC28" s="53"/>
+      <c r="BD28" s="53"/>
+      <c r="BE28" s="53"/>
+      <c r="BF28" s="53"/>
+      <c r="BG28" s="53"/>
+      <c r="BH28" s="53"/>
+      <c r="BI28" s="53"/>
+      <c r="BJ28" s="53"/>
+      <c r="BK28" s="53"/>
+      <c r="BL28" s="53"/>
+      <c r="BM28" s="53"/>
+      <c r="BN28" s="53"/>
+      <c r="BO28" s="53"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="6"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="C29" s="43">
+      <c r="C29" s="47">
         <v>4</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="42"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="42"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="42"/>
-      <c r="AR29" s="42"/>
-      <c r="AS29" s="42"/>
-      <c r="AT29" s="42"/>
-      <c r="AU29" s="42"/>
-      <c r="AV29" s="42"/>
-      <c r="AW29" s="42"/>
-      <c r="AX29" s="42"/>
-      <c r="AY29" s="42"/>
-      <c r="AZ29" s="42"/>
-      <c r="BA29" s="42"/>
-      <c r="BB29" s="42"/>
-      <c r="BC29" s="42"/>
-      <c r="BD29" s="42"/>
-      <c r="BE29" s="42"/>
-      <c r="BF29" s="42"/>
-      <c r="BG29" s="42"/>
-      <c r="BH29" s="42"/>
-      <c r="BI29" s="42"/>
-      <c r="BJ29" s="42"/>
-      <c r="BK29" s="42"/>
-      <c r="BL29" s="42"/>
-      <c r="BM29" s="42"/>
-      <c r="BN29" s="42"/>
-      <c r="BO29" s="42"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="53"/>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="53"/>
+      <c r="AU29" s="53"/>
+      <c r="AV29" s="53"/>
+      <c r="AW29" s="53"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="53"/>
+      <c r="AZ29" s="53"/>
+      <c r="BA29" s="53"/>
+      <c r="BB29" s="53"/>
+      <c r="BC29" s="53"/>
+      <c r="BD29" s="53"/>
+      <c r="BE29" s="53"/>
+      <c r="BF29" s="53"/>
+      <c r="BG29" s="53"/>
+      <c r="BH29" s="53"/>
+      <c r="BI29" s="53"/>
+      <c r="BJ29" s="53"/>
+      <c r="BK29" s="53"/>
+      <c r="BL29" s="53"/>
+      <c r="BM29" s="53"/>
+      <c r="BN29" s="53"/>
+      <c r="BO29" s="53"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="6"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="C30" s="43">
+      <c r="C30" s="47">
         <v>5</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="42"/>
-      <c r="AN30" s="42"/>
-      <c r="AO30" s="42"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
-      <c r="AU30" s="42"/>
-      <c r="AV30" s="42"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="42"/>
-      <c r="BA30" s="42"/>
-      <c r="BB30" s="42"/>
-      <c r="BC30" s="42"/>
-      <c r="BD30" s="42"/>
-      <c r="BE30" s="42"/>
-      <c r="BF30" s="42"/>
-      <c r="BG30" s="42"/>
-      <c r="BH30" s="42"/>
-      <c r="BI30" s="42"/>
-      <c r="BJ30" s="42"/>
-      <c r="BK30" s="42"/>
-      <c r="BL30" s="42"/>
-      <c r="BM30" s="42"/>
-      <c r="BN30" s="42"/>
-      <c r="BO30" s="42"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="53"/>
+      <c r="AP30" s="53"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="53"/>
+      <c r="AS30" s="53"/>
+      <c r="AT30" s="53"/>
+      <c r="AU30" s="53"/>
+      <c r="AV30" s="53"/>
+      <c r="AW30" s="53"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="53"/>
+      <c r="AZ30" s="53"/>
+      <c r="BA30" s="53"/>
+      <c r="BB30" s="53"/>
+      <c r="BC30" s="53"/>
+      <c r="BD30" s="53"/>
+      <c r="BE30" s="53"/>
+      <c r="BF30" s="53"/>
+      <c r="BG30" s="53"/>
+      <c r="BH30" s="53"/>
+      <c r="BI30" s="53"/>
+      <c r="BJ30" s="53"/>
+      <c r="BK30" s="53"/>
+      <c r="BL30" s="53"/>
+      <c r="BM30" s="53"/>
+      <c r="BN30" s="53"/>
+      <c r="BO30" s="53"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="6"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="C31" s="43">
+      <c r="C31" s="47">
         <v>6</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="42"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="42"/>
-      <c r="AN31" s="42"/>
-      <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="42"/>
-      <c r="AU31" s="42"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="42"/>
-      <c r="AZ31" s="42"/>
-      <c r="BA31" s="42"/>
-      <c r="BB31" s="42"/>
-      <c r="BC31" s="42"/>
-      <c r="BD31" s="42"/>
-      <c r="BE31" s="42"/>
-      <c r="BF31" s="42"/>
-      <c r="BG31" s="42"/>
-      <c r="BH31" s="42"/>
-      <c r="BI31" s="42"/>
-      <c r="BJ31" s="42"/>
-      <c r="BK31" s="42"/>
-      <c r="BL31" s="42"/>
-      <c r="BM31" s="42"/>
-      <c r="BN31" s="42"/>
-      <c r="BO31" s="42"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="53"/>
+      <c r="AS31" s="53"/>
+      <c r="AT31" s="53"/>
+      <c r="AU31" s="53"/>
+      <c r="AV31" s="53"/>
+      <c r="AW31" s="53"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="53"/>
+      <c r="AZ31" s="53"/>
+      <c r="BA31" s="53"/>
+      <c r="BB31" s="53"/>
+      <c r="BC31" s="53"/>
+      <c r="BD31" s="53"/>
+      <c r="BE31" s="53"/>
+      <c r="BF31" s="53"/>
+      <c r="BG31" s="53"/>
+      <c r="BH31" s="53"/>
+      <c r="BI31" s="53"/>
+      <c r="BJ31" s="53"/>
+      <c r="BK31" s="53"/>
+      <c r="BL31" s="53"/>
+      <c r="BM31" s="53"/>
+      <c r="BN31" s="53"/>
+      <c r="BO31" s="53"/>
       <c r="BP31" s="8"/>
       <c r="BQ31" s="6"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="C32" s="43">
+      <c r="C32" s="47">
         <v>7</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="42"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="42"/>
-      <c r="AL32" s="42"/>
-      <c r="AM32" s="42"/>
-      <c r="AN32" s="42"/>
-      <c r="AO32" s="42"/>
-      <c r="AP32" s="42"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="42"/>
-      <c r="AT32" s="42"/>
-      <c r="AU32" s="42"/>
-      <c r="AV32" s="42"/>
-      <c r="AW32" s="42"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="42"/>
-      <c r="AZ32" s="42"/>
-      <c r="BA32" s="42"/>
-      <c r="BB32" s="42"/>
-      <c r="BC32" s="42"/>
-      <c r="BD32" s="42"/>
-      <c r="BE32" s="42"/>
-      <c r="BF32" s="42"/>
-      <c r="BG32" s="42"/>
-      <c r="BH32" s="42"/>
-      <c r="BI32" s="42"/>
-      <c r="BJ32" s="42"/>
-      <c r="BK32" s="42"/>
-      <c r="BL32" s="42"/>
-      <c r="BM32" s="42"/>
-      <c r="BN32" s="42"/>
-      <c r="BO32" s="42"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="53"/>
+      <c r="AJ32" s="53"/>
+      <c r="AK32" s="53"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="53"/>
+      <c r="AN32" s="53"/>
+      <c r="AO32" s="53"/>
+      <c r="AP32" s="53"/>
+      <c r="AQ32" s="53"/>
+      <c r="AR32" s="53"/>
+      <c r="AS32" s="53"/>
+      <c r="AT32" s="53"/>
+      <c r="AU32" s="53"/>
+      <c r="AV32" s="53"/>
+      <c r="AW32" s="53"/>
+      <c r="AX32" s="53"/>
+      <c r="AY32" s="53"/>
+      <c r="AZ32" s="53"/>
+      <c r="BA32" s="53"/>
+      <c r="BB32" s="53"/>
+      <c r="BC32" s="53"/>
+      <c r="BD32" s="53"/>
+      <c r="BE32" s="53"/>
+      <c r="BF32" s="53"/>
+      <c r="BG32" s="53"/>
+      <c r="BH32" s="53"/>
+      <c r="BI32" s="53"/>
+      <c r="BJ32" s="53"/>
+      <c r="BK32" s="53"/>
+      <c r="BL32" s="53"/>
+      <c r="BM32" s="53"/>
+      <c r="BN32" s="53"/>
+      <c r="BO32" s="53"/>
       <c r="BP32" s="8"/>
       <c r="BQ32" s="6"/>
     </row>
     <row r="33" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="C33" s="43">
+      <c r="C33" s="47">
         <v>8</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="42"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="42"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="42"/>
-      <c r="AN33" s="42"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="42"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="42"/>
-      <c r="AT33" s="42"/>
-      <c r="AU33" s="42"/>
-      <c r="AV33" s="42"/>
-      <c r="AW33" s="42"/>
-      <c r="AX33" s="42"/>
-      <c r="AY33" s="42"/>
-      <c r="AZ33" s="42"/>
-      <c r="BA33" s="42"/>
-      <c r="BB33" s="42"/>
-      <c r="BC33" s="42"/>
-      <c r="BD33" s="42"/>
-      <c r="BE33" s="42"/>
-      <c r="BF33" s="42"/>
-      <c r="BG33" s="42"/>
-      <c r="BH33" s="42"/>
-      <c r="BI33" s="42"/>
-      <c r="BJ33" s="42"/>
-      <c r="BK33" s="42"/>
-      <c r="BL33" s="42"/>
-      <c r="BM33" s="42"/>
-      <c r="BN33" s="42"/>
-      <c r="BO33" s="42"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="53"/>
+      <c r="AJ33" s="53"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="53"/>
+      <c r="AN33" s="53"/>
+      <c r="AO33" s="53"/>
+      <c r="AP33" s="53"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="53"/>
+      <c r="AS33" s="53"/>
+      <c r="AT33" s="53"/>
+      <c r="AU33" s="53"/>
+      <c r="AV33" s="53"/>
+      <c r="AW33" s="53"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="53"/>
+      <c r="AZ33" s="53"/>
+      <c r="BA33" s="53"/>
+      <c r="BB33" s="53"/>
+      <c r="BC33" s="53"/>
+      <c r="BD33" s="53"/>
+      <c r="BE33" s="53"/>
+      <c r="BF33" s="53"/>
+      <c r="BG33" s="53"/>
+      <c r="BH33" s="53"/>
+      <c r="BI33" s="53"/>
+      <c r="BJ33" s="53"/>
+      <c r="BK33" s="53"/>
+      <c r="BL33" s="53"/>
+      <c r="BM33" s="53"/>
+      <c r="BN33" s="53"/>
+      <c r="BO33" s="53"/>
       <c r="BP33" s="8"/>
       <c r="BQ33" s="6"/>
     </row>
     <row r="34" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="43">
+      <c r="C34" s="47">
         <v>9</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="42"/>
-      <c r="AJ34" s="42"/>
-      <c r="AK34" s="42"/>
-      <c r="AL34" s="42"/>
-      <c r="AM34" s="42"/>
-      <c r="AN34" s="42"/>
-      <c r="AO34" s="42"/>
-      <c r="AP34" s="42"/>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="42"/>
-      <c r="AT34" s="42"/>
-      <c r="AU34" s="42"/>
-      <c r="AV34" s="42"/>
-      <c r="AW34" s="42"/>
-      <c r="AX34" s="42"/>
-      <c r="AY34" s="42"/>
-      <c r="AZ34" s="42"/>
-      <c r="BA34" s="42"/>
-      <c r="BB34" s="42"/>
-      <c r="BC34" s="42"/>
-      <c r="BD34" s="42"/>
-      <c r="BE34" s="42"/>
-      <c r="BF34" s="42"/>
-      <c r="BG34" s="42"/>
-      <c r="BH34" s="42"/>
-      <c r="BI34" s="42"/>
-      <c r="BJ34" s="42"/>
-      <c r="BK34" s="42"/>
-      <c r="BL34" s="42"/>
-      <c r="BM34" s="42"/>
-      <c r="BN34" s="42"/>
-      <c r="BO34" s="42"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="53"/>
+      <c r="AF34" s="53"/>
+      <c r="AG34" s="53"/>
+      <c r="AH34" s="53"/>
+      <c r="AI34" s="53"/>
+      <c r="AJ34" s="53"/>
+      <c r="AK34" s="53"/>
+      <c r="AL34" s="53"/>
+      <c r="AM34" s="53"/>
+      <c r="AN34" s="53"/>
+      <c r="AO34" s="53"/>
+      <c r="AP34" s="53"/>
+      <c r="AQ34" s="53"/>
+      <c r="AR34" s="53"/>
+      <c r="AS34" s="53"/>
+      <c r="AT34" s="53"/>
+      <c r="AU34" s="53"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="53"/>
+      <c r="BB34" s="53"/>
+      <c r="BC34" s="53"/>
+      <c r="BD34" s="53"/>
+      <c r="BE34" s="53"/>
+      <c r="BF34" s="53"/>
+      <c r="BG34" s="53"/>
+      <c r="BH34" s="53"/>
+      <c r="BI34" s="53"/>
+      <c r="BJ34" s="53"/>
+      <c r="BK34" s="53"/>
+      <c r="BL34" s="53"/>
+      <c r="BM34" s="53"/>
+      <c r="BN34" s="53"/>
+      <c r="BO34" s="53"/>
       <c r="BP34" s="8"/>
       <c r="BQ34" s="6"/>
     </row>
@@ -4201,32 +4274,58 @@
     <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="BD34:BO34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BO33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD32:BO32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BO31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="BD29:BO29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BO30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="O28:AD28"/>
+    <mergeCell ref="AE28:BC28"/>
+    <mergeCell ref="BD26:BO26"/>
+    <mergeCell ref="BD28:BO28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:AD27"/>
+    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="BD27:BO27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:N26"/>
     <mergeCell ref="O26:AD26"/>
     <mergeCell ref="AE26:BC26"/>
     <mergeCell ref="O25:AD25"/>
@@ -4243,58 +4342,32 @@
     <mergeCell ref="H20:BO20"/>
     <mergeCell ref="BD25:BO25"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="O28:AD28"/>
-    <mergeCell ref="AE28:BC28"/>
-    <mergeCell ref="BD26:BO26"/>
-    <mergeCell ref="BD28:BO28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:AD27"/>
-    <mergeCell ref="AE27:BC27"/>
-    <mergeCell ref="BD27:BO27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="BD29:BO29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BO30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:AD29"/>
-    <mergeCell ref="BD32:BO32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BO31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD34:BO34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BO33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4317,7 +4390,7 @@
   <dimension ref="A1:AMK56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4333,247 +4406,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67" t="s">
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="68" t="s">
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
-      <c r="BG1" s="68"/>
-      <c r="BH1" s="68"/>
-      <c r="BI1" s="68"/>
-      <c r="BJ1" s="68"/>
-      <c r="BK1" s="68"/>
-      <c r="BL1" s="68"/>
-      <c r="BM1" s="68"/>
-      <c r="BN1" s="68"/>
-      <c r="BO1" s="68"/>
-      <c r="BP1" s="68"/>
-      <c r="BQ1" s="68"/>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="78"/>
+      <c r="BN1" s="78"/>
+      <c r="BO1" s="78"/>
+      <c r="BP1" s="78"/>
+      <c r="BQ1" s="78"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="64" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="65" t="s">
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65" t="s">
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65" t="s">
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="65"/>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="65"/>
-      <c r="BG2" s="65"/>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="65"/>
-      <c r="BJ2" s="70" t="s">
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="67"/>
+      <c r="BH2" s="67"/>
+      <c r="BI2" s="67"/>
+      <c r="BJ2" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="81"/>
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="81"/>
+      <c r="BQ2" s="81"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="63" t="s">
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="72">
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="73">
         <v>45510</v>
       </c>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="63" t="s">
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="71">
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="74">
         <v>45533</v>
       </c>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="74"/>
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="74"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4598,96 +4671,96 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="78" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
-      <c r="AO6" s="74" t="s">
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="75"/>
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="74"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="74"/>
-      <c r="AS6" s="74"/>
-      <c r="AT6" s="74"/>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="74"/>
-      <c r="AW6" s="74"/>
-      <c r="AX6" s="74"/>
-      <c r="AY6" s="74"/>
-      <c r="AZ6" s="74"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="74"/>
-      <c r="BC6" s="74"/>
-      <c r="BD6" s="74"/>
-      <c r="BE6" s="74"/>
-      <c r="BF6" s="74"/>
-      <c r="BG6" s="74"/>
-      <c r="BH6" s="74"/>
-      <c r="BI6" s="74"/>
-      <c r="BJ6" s="74"/>
-      <c r="BK6" s="74"/>
-      <c r="BL6" s="74"/>
-      <c r="BM6" s="74"/>
-      <c r="BN6" s="74"/>
-      <c r="BO6" s="74"/>
-      <c r="BP6" s="74"/>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
+      <c r="AS6" s="71"/>
+      <c r="AT6" s="71"/>
+      <c r="AU6" s="71"/>
+      <c r="AV6" s="71"/>
+      <c r="AW6" s="71"/>
+      <c r="AX6" s="71"/>
+      <c r="AY6" s="71"/>
+      <c r="AZ6" s="71"/>
+      <c r="BA6" s="71"/>
+      <c r="BB6" s="71"/>
+      <c r="BC6" s="71"/>
+      <c r="BD6" s="71"/>
+      <c r="BE6" s="71"/>
+      <c r="BF6" s="71"/>
+      <c r="BG6" s="71"/>
+      <c r="BH6" s="71"/>
+      <c r="BI6" s="71"/>
+      <c r="BJ6" s="71"/>
+      <c r="BK6" s="71"/>
+      <c r="BL6" s="71"/>
+      <c r="BM6" s="71"/>
+      <c r="BN6" s="71"/>
+      <c r="BO6" s="71"/>
+      <c r="BP6" s="71"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
+      <c r="C7" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
@@ -4716,34 +4789,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="74"/>
-      <c r="BA7" s="74"/>
-      <c r="BB7" s="74"/>
-      <c r="BC7" s="74"/>
-      <c r="BD7" s="74"/>
-      <c r="BE7" s="74"/>
-      <c r="BF7" s="74"/>
-      <c r="BG7" s="74"/>
-      <c r="BH7" s="74"/>
-      <c r="BI7" s="74"/>
-      <c r="BJ7" s="74"/>
-      <c r="BK7" s="74"/>
-      <c r="BL7" s="74"/>
-      <c r="BM7" s="74"/>
-      <c r="BN7" s="74"/>
-      <c r="BO7" s="74"/>
-      <c r="BP7" s="74"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
+      <c r="AS7" s="71"/>
+      <c r="AT7" s="71"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="71"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="71"/>
+      <c r="AY7" s="71"/>
+      <c r="AZ7" s="71"/>
+      <c r="BA7" s="71"/>
+      <c r="BB7" s="71"/>
+      <c r="BC7" s="71"/>
+      <c r="BD7" s="71"/>
+      <c r="BE7" s="71"/>
+      <c r="BF7" s="71"/>
+      <c r="BG7" s="71"/>
+      <c r="BH7" s="71"/>
+      <c r="BI7" s="71"/>
+      <c r="BJ7" s="71"/>
+      <c r="BK7" s="71"/>
+      <c r="BL7" s="71"/>
+      <c r="BM7" s="71"/>
+      <c r="BN7" s="71"/>
+      <c r="BO7" s="71"/>
+      <c r="BP7" s="71"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -4757,89 +4830,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="65" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65" t="s">
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="76" t="s">
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="76"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="76"/>
-      <c r="BB10" s="76"/>
-      <c r="BC10" s="76"/>
-      <c r="BD10" s="76"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="76"/>
-      <c r="BG10" s="76"/>
-      <c r="BH10" s="76"/>
-      <c r="BI10" s="76"/>
-      <c r="BJ10" s="76" t="s">
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="65"/>
+      <c r="BJ10" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="76"/>
-      <c r="BL10" s="76"/>
-      <c r="BM10" s="76"/>
-      <c r="BN10" s="76"/>
-      <c r="BO10" s="76"/>
-      <c r="BP10" s="76"/>
+      <c r="BK10" s="65"/>
+      <c r="BL10" s="65"/>
+      <c r="BM10" s="65"/>
+      <c r="BN10" s="65"/>
+      <c r="BO10" s="65"/>
+      <c r="BP10" s="65"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
@@ -4855,11 +4928,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="65" t="s">
+      <c r="T11" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -4909,12 +4982,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -4928,9 +5001,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -4979,12 +5052,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -4998,9 +5071,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -5049,12 +5122,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5068,9 +5141,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -5119,12 +5192,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5138,9 +5211,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -5200,90 +5273,90 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="65" t="s">
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65" t="s">
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="76" t="s">
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="76"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="76"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="76"/>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="76"/>
-      <c r="AS18" s="76"/>
-      <c r="AT18" s="76"/>
-      <c r="AU18" s="76"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="76"/>
-      <c r="AX18" s="76"/>
-      <c r="AY18" s="76"/>
-      <c r="AZ18" s="76"/>
-      <c r="BA18" s="76"/>
-      <c r="BB18" s="76"/>
-      <c r="BC18" s="76"/>
-      <c r="BD18" s="76"/>
-      <c r="BE18" s="76"/>
-      <c r="BF18" s="76"/>
-      <c r="BG18" s="76"/>
-      <c r="BH18" s="76"/>
-      <c r="BI18" s="76"/>
-      <c r="BJ18" s="76" t="s">
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="76"/>
-      <c r="BL18" s="76"/>
-      <c r="BM18" s="76"/>
-      <c r="BN18" s="76"/>
-      <c r="BO18" s="76"/>
-      <c r="BP18" s="76"/>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="65"/>
+      <c r="BN18" s="65"/>
+      <c r="BO18" s="65"/>
+      <c r="BP18" s="65"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
       <c r="G19" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -5297,11 +5370,11 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
       <c r="W19" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -5583,270 +5656,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="81" t="s">
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="81"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="81"/>
-      <c r="AF26" s="81"/>
-      <c r="AG26" s="81"/>
-      <c r="AH26" s="81"/>
-      <c r="AI26" s="81"/>
-      <c r="AJ26" s="81"/>
-      <c r="AK26" s="81"/>
-      <c r="AL26" s="81"/>
-      <c r="AM26" s="81"/>
-      <c r="AN26" s="81"/>
-      <c r="AO26" s="81"/>
-      <c r="AP26" s="81"/>
-      <c r="AQ26" s="81"/>
-      <c r="AR26" s="81"/>
-      <c r="AS26" s="81"/>
-      <c r="AT26" s="81"/>
-      <c r="AU26" s="81"/>
-      <c r="AV26" s="81"/>
-      <c r="AW26" s="81"/>
-      <c r="AX26" s="81"/>
-      <c r="AY26" s="81"/>
-      <c r="AZ26" s="81"/>
-      <c r="BA26" s="81"/>
-      <c r="BB26" s="81"/>
-      <c r="BC26" s="81"/>
-      <c r="BD26" s="81"/>
-      <c r="BE26" s="81"/>
-      <c r="BF26" s="81"/>
-      <c r="BG26" s="81"/>
-      <c r="BH26" s="81"/>
-      <c r="BI26" s="81"/>
-      <c r="BJ26" s="81"/>
-      <c r="BK26" s="81"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="68"/>
+      <c r="AG26" s="68"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="68"/>
+      <c r="AK26" s="68"/>
+      <c r="AL26" s="68"/>
+      <c r="AM26" s="68"/>
+      <c r="AN26" s="68"/>
+      <c r="AO26" s="68"/>
+      <c r="AP26" s="68"/>
+      <c r="AQ26" s="68"/>
+      <c r="AR26" s="68"/>
+      <c r="AS26" s="68"/>
+      <c r="AT26" s="68"/>
+      <c r="AU26" s="68"/>
+      <c r="AV26" s="68"/>
+      <c r="AW26" s="68"/>
+      <c r="AX26" s="68"/>
+      <c r="AY26" s="68"/>
+      <c r="AZ26" s="68"/>
+      <c r="BA26" s="68"/>
+      <c r="BB26" s="68"/>
+      <c r="BC26" s="68"/>
+      <c r="BD26" s="68"/>
+      <c r="BE26" s="68"/>
+      <c r="BF26" s="68"/>
+      <c r="BG26" s="68"/>
+      <c r="BH26" s="68"/>
+      <c r="BI26" s="68"/>
+      <c r="BJ26" s="68"/>
+      <c r="BK26" s="68"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="79" t="s">
+      <c r="E27" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="80" t="s">
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="80"/>
-      <c r="AB27" s="80"/>
-      <c r="AC27" s="80"/>
-      <c r="AD27" s="80"/>
-      <c r="AE27" s="80"/>
-      <c r="AF27" s="80"/>
-      <c r="AG27" s="80"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="80"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="80"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="80"/>
-      <c r="AN27" s="80"/>
-      <c r="AO27" s="80"/>
-      <c r="AP27" s="80"/>
-      <c r="AQ27" s="80"/>
-      <c r="AR27" s="80"/>
-      <c r="AS27" s="80"/>
-      <c r="AT27" s="80"/>
-      <c r="AU27" s="80"/>
-      <c r="AV27" s="80"/>
-      <c r="AW27" s="80"/>
-      <c r="AX27" s="80"/>
-      <c r="AY27" s="80"/>
-      <c r="AZ27" s="80"/>
-      <c r="BA27" s="80"/>
-      <c r="BB27" s="80"/>
-      <c r="BC27" s="80"/>
-      <c r="BD27" s="80"/>
-      <c r="BE27" s="80"/>
-      <c r="BF27" s="80"/>
-      <c r="BG27" s="80"/>
-      <c r="BH27" s="80"/>
-      <c r="BI27" s="80"/>
-      <c r="BJ27" s="80"/>
-      <c r="BK27" s="80"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="64"/>
+      <c r="AX27" s="64"/>
+      <c r="AY27" s="64"/>
+      <c r="AZ27" s="64"/>
+      <c r="BA27" s="64"/>
+      <c r="BB27" s="64"/>
+      <c r="BC27" s="64"/>
+      <c r="BD27" s="64"/>
+      <c r="BE27" s="64"/>
+      <c r="BF27" s="64"/>
+      <c r="BG27" s="64"/>
+      <c r="BH27" s="64"/>
+      <c r="BI27" s="64"/>
+      <c r="BJ27" s="64"/>
+      <c r="BK27" s="64"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="80"/>
-      <c r="AC28" s="80"/>
-      <c r="AD28" s="80"/>
-      <c r="AE28" s="80"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="80"/>
-      <c r="AI28" s="80"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="80"/>
-      <c r="AL28" s="80"/>
-      <c r="AM28" s="80"/>
-      <c r="AN28" s="80"/>
-      <c r="AO28" s="80"/>
-      <c r="AP28" s="80"/>
-      <c r="AQ28" s="80"/>
-      <c r="AR28" s="80"/>
-      <c r="AS28" s="80"/>
-      <c r="AT28" s="80"/>
-      <c r="AU28" s="80"/>
-      <c r="AV28" s="80"/>
-      <c r="AW28" s="80"/>
-      <c r="AX28" s="80"/>
-      <c r="AY28" s="80"/>
-      <c r="AZ28" s="80"/>
-      <c r="BA28" s="80"/>
-      <c r="BB28" s="80"/>
-      <c r="BC28" s="80"/>
-      <c r="BD28" s="80"/>
-      <c r="BE28" s="80"/>
-      <c r="BF28" s="80"/>
-      <c r="BG28" s="80"/>
-      <c r="BH28" s="80"/>
-      <c r="BI28" s="80"/>
-      <c r="BJ28" s="80"/>
-      <c r="BK28" s="80"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="64"/>
+      <c r="AZ28" s="64"/>
+      <c r="BA28" s="64"/>
+      <c r="BB28" s="64"/>
+      <c r="BC28" s="64"/>
+      <c r="BD28" s="64"/>
+      <c r="BE28" s="64"/>
+      <c r="BF28" s="64"/>
+      <c r="BG28" s="64"/>
+      <c r="BH28" s="64"/>
+      <c r="BI28" s="64"/>
+      <c r="BJ28" s="64"/>
+      <c r="BK28" s="64"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="79" t="s">
+      <c r="E29" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="80" t="s">
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="80"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="80"/>
-      <c r="AE29" s="80"/>
-      <c r="AF29" s="80"/>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="80"/>
-      <c r="AI29" s="80"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="80"/>
-      <c r="AL29" s="80"/>
-      <c r="AM29" s="80"/>
-      <c r="AN29" s="80"/>
-      <c r="AO29" s="80"/>
-      <c r="AP29" s="80"/>
-      <c r="AQ29" s="80"/>
-      <c r="AR29" s="80"/>
-      <c r="AS29" s="80"/>
-      <c r="AT29" s="80"/>
-      <c r="AU29" s="80"/>
-      <c r="AV29" s="80"/>
-      <c r="AW29" s="80"/>
-      <c r="AX29" s="80"/>
-      <c r="AY29" s="80"/>
-      <c r="AZ29" s="80"/>
-      <c r="BA29" s="80"/>
-      <c r="BB29" s="80"/>
-      <c r="BC29" s="80"/>
-      <c r="BD29" s="80"/>
-      <c r="BE29" s="80"/>
-      <c r="BF29" s="80"/>
-      <c r="BG29" s="80"/>
-      <c r="BH29" s="80"/>
-      <c r="BI29" s="80"/>
-      <c r="BJ29" s="80"/>
-      <c r="BK29" s="80"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+      <c r="AT29" s="64"/>
+      <c r="AU29" s="64"/>
+      <c r="AV29" s="64"/>
+      <c r="AW29" s="64"/>
+      <c r="AX29" s="64"/>
+      <c r="AY29" s="64"/>
+      <c r="AZ29" s="64"/>
+      <c r="BA29" s="64"/>
+      <c r="BB29" s="64"/>
+      <c r="BC29" s="64"/>
+      <c r="BD29" s="64"/>
+      <c r="BE29" s="64"/>
+      <c r="BF29" s="64"/>
+      <c r="BG29" s="64"/>
+      <c r="BH29" s="64"/>
+      <c r="BI29" s="64"/>
+      <c r="BJ29" s="64"/>
+      <c r="BK29" s="64"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -6370,21 +6443,26 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="AO6:BP6"/>
     <mergeCell ref="C7:G7"/>
@@ -6401,26 +6479,21 @@
     <mergeCell ref="W10:BI10"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -6436,4 +6509,2110 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E6ABAF-D949-47FF-9313-6927E9CF6184}">
+  <dimension ref="A1:AMK54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.9140625" style="17" customWidth="1"/>
+    <col min="2" max="29" width="1.9140625" style="14" customWidth="1"/>
+    <col min="30" max="30" width="1.9140625" style="16" customWidth="1"/>
+    <col min="31" max="68" width="1.9140625" style="14" customWidth="1"/>
+    <col min="69" max="69" width="1.9140625" style="15" customWidth="1"/>
+    <col min="70" max="70" width="1.9140625" style="14" customWidth="1"/>
+    <col min="71" max="1025" width="1.9140625" style="14" hidden="1" customWidth="1"/>
+    <col min="1026" max="16384" width="7.75" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU1" s="78"/>
+      <c r="AV1" s="78"/>
+      <c r="AW1" s="78"/>
+      <c r="AX1" s="78"/>
+      <c r="AY1" s="78"/>
+      <c r="AZ1" s="78"/>
+      <c r="BA1" s="78"/>
+      <c r="BB1" s="78"/>
+      <c r="BC1" s="78"/>
+      <c r="BD1" s="78"/>
+      <c r="BE1" s="78"/>
+      <c r="BF1" s="78"/>
+      <c r="BG1" s="78"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="78"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="78"/>
+      <c r="BM1" s="78"/>
+      <c r="BN1" s="78"/>
+      <c r="BO1" s="78"/>
+      <c r="BP1" s="78"/>
+      <c r="BQ1" s="78"/>
+    </row>
+    <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="67"/>
+      <c r="BH2" s="67"/>
+      <c r="BI2" s="67"/>
+      <c r="BJ2" s="81"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="81"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="81"/>
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="81"/>
+      <c r="BQ2" s="81"/>
+    </row>
+    <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="73">
+        <v>45553</v>
+      </c>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="74"/>
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="74"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+    </row>
+    <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD4" s="14"/>
+      <c r="AG4" s="23"/>
+    </row>
+    <row r="5" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="AD5" s="14"/>
+      <c r="AG5" s="23"/>
+    </row>
+    <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="75"/>
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP6" s="71"/>
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71"/>
+      <c r="AS6" s="71"/>
+      <c r="AT6" s="71"/>
+      <c r="AU6" s="71"/>
+      <c r="AV6" s="71"/>
+      <c r="AW6" s="71"/>
+      <c r="AX6" s="71"/>
+      <c r="AY6" s="71"/>
+      <c r="AZ6" s="71"/>
+      <c r="BA6" s="71"/>
+      <c r="BB6" s="71"/>
+      <c r="BC6" s="71"/>
+      <c r="BD6" s="71"/>
+      <c r="BE6" s="71"/>
+      <c r="BF6" s="71"/>
+      <c r="BG6" s="71"/>
+      <c r="BH6" s="71"/>
+      <c r="BI6" s="71"/>
+      <c r="BJ6" s="71"/>
+      <c r="BK6" s="71"/>
+      <c r="BL6" s="71"/>
+      <c r="BM6" s="71"/>
+      <c r="BN6" s="71"/>
+      <c r="BO6" s="71"/>
+      <c r="BP6" s="71"/>
+    </row>
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C7" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
+      <c r="AS7" s="71"/>
+      <c r="AT7" s="71"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="71"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="71"/>
+      <c r="AY7" s="71"/>
+      <c r="AZ7" s="71"/>
+      <c r="BA7" s="71"/>
+      <c r="BB7" s="71"/>
+      <c r="BC7" s="71"/>
+      <c r="BD7" s="71"/>
+      <c r="BE7" s="71"/>
+      <c r="BF7" s="71"/>
+      <c r="BG7" s="71"/>
+      <c r="BH7" s="71"/>
+      <c r="BI7" s="71"/>
+      <c r="BJ7" s="71"/>
+      <c r="BK7" s="71"/>
+      <c r="BL7" s="71"/>
+      <c r="BM7" s="71"/>
+      <c r="BN7" s="71"/>
+      <c r="BO7" s="71"/>
+      <c r="BP7" s="71"/>
+    </row>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AD8" s="14"/>
+      <c r="AG8" s="23"/>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD9" s="14"/>
+      <c r="AG9" s="23"/>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="65"/>
+      <c r="BI10" s="65"/>
+      <c r="BJ10" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="65"/>
+      <c r="BL10" s="65"/>
+      <c r="BM10" s="65"/>
+      <c r="BN10" s="65"/>
+      <c r="BO10" s="65"/>
+      <c r="BP10" s="65"/>
+    </row>
+    <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="C11" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="37"/>
+      <c r="BJ11" s="36"/>
+      <c r="BK11" s="35"/>
+      <c r="BL11" s="35"/>
+      <c r="BM11" s="35"/>
+      <c r="BN11" s="35"/>
+      <c r="BO11" s="35"/>
+      <c r="BP11" s="34"/>
+      <c r="BQ11" s="15"/>
+    </row>
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C12" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
+      <c r="AY12" s="38"/>
+      <c r="AZ12" s="38"/>
+      <c r="BA12" s="38"/>
+      <c r="BB12" s="38"/>
+      <c r="BC12" s="38"/>
+      <c r="BD12" s="38"/>
+      <c r="BE12" s="38"/>
+      <c r="BF12" s="38"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="37"/>
+      <c r="BJ12" s="36"/>
+      <c r="BK12" s="35"/>
+      <c r="BL12" s="35"/>
+      <c r="BM12" s="35"/>
+      <c r="BN12" s="35"/>
+      <c r="BO12" s="35"/>
+      <c r="BP12" s="34"/>
+    </row>
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C13" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="38"/>
+      <c r="AJ13" s="38"/>
+      <c r="AK13" s="38"/>
+      <c r="AL13" s="38"/>
+      <c r="AM13" s="38"/>
+      <c r="AN13" s="38"/>
+      <c r="AO13" s="38"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="38"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
+      <c r="BB13" s="38"/>
+      <c r="BC13" s="38"/>
+      <c r="BD13" s="38"/>
+      <c r="BE13" s="38"/>
+      <c r="BF13" s="38"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="38"/>
+      <c r="BI13" s="37"/>
+      <c r="BJ13" s="36"/>
+      <c r="BK13" s="35"/>
+      <c r="BL13" s="35"/>
+      <c r="BM13" s="35"/>
+      <c r="BN13" s="35"/>
+      <c r="BO13" s="35"/>
+      <c r="BP13" s="34"/>
+    </row>
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C14" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="38"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="38"/>
+      <c r="BF14" s="38"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="37"/>
+      <c r="BJ14" s="36"/>
+      <c r="BK14" s="35"/>
+      <c r="BL14" s="35"/>
+      <c r="BM14" s="35"/>
+      <c r="BN14" s="35"/>
+      <c r="BO14" s="35"/>
+      <c r="BP14" s="34"/>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C15" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="38"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="38"/>
+      <c r="BC15" s="38"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="BF15" s="38"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="37"/>
+      <c r="BJ15" s="36"/>
+      <c r="BK15" s="35"/>
+      <c r="BL15" s="35"/>
+      <c r="BM15" s="35"/>
+      <c r="BN15" s="35"/>
+      <c r="BO15" s="35"/>
+      <c r="BP15" s="34"/>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AD16" s="14"/>
+      <c r="AG16" s="23"/>
+    </row>
+    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD17" s="14"/>
+      <c r="AG17" s="23"/>
+    </row>
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="65"/>
+      <c r="BN18" s="65"/>
+      <c r="BO18" s="65"/>
+      <c r="BP18" s="65"/>
+    </row>
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C19" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="37"/>
+      <c r="BJ19" s="36"/>
+      <c r="BK19" s="35"/>
+      <c r="BL19" s="35"/>
+      <c r="BM19" s="35"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="35"/>
+      <c r="BP19" s="34"/>
+    </row>
+    <row r="20" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="AG20" s="23"/>
+      <c r="BQ20" s="15"/>
+    </row>
+    <row r="21" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="13"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="13"/>
+      <c r="BE21" s="13"/>
+      <c r="BF21" s="13"/>
+      <c r="BG21" s="13"/>
+      <c r="BH21" s="13"/>
+      <c r="BI21" s="13"/>
+      <c r="BJ21" s="13"/>
+      <c r="BK21" s="13"/>
+      <c r="BL21" s="13"/>
+      <c r="BM21" s="13"/>
+      <c r="BN21" s="13"/>
+      <c r="BO21" s="13"/>
+      <c r="BP21" s="13"/>
+      <c r="BQ21" s="15"/>
+    </row>
+    <row r="22" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="13"/>
+      <c r="AL22" s="13"/>
+      <c r="AM22" s="13"/>
+      <c r="AN22" s="13"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="13"/>
+      <c r="AT22" s="13"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="13"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="13"/>
+      <c r="AZ22" s="13"/>
+      <c r="BA22" s="13"/>
+      <c r="BB22" s="13"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="13"/>
+      <c r="BE22" s="13"/>
+      <c r="BF22" s="13"/>
+      <c r="BG22" s="13"/>
+      <c r="BH22" s="13"/>
+      <c r="BI22" s="13"/>
+      <c r="BJ22" s="13"/>
+      <c r="BK22" s="13"/>
+      <c r="BL22" s="13"/>
+      <c r="BM22" s="13"/>
+      <c r="BN22" s="13"/>
+      <c r="BO22" s="13"/>
+      <c r="BP22" s="13"/>
+      <c r="BQ22" s="15"/>
+    </row>
+    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C23" s="33"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="31"/>
+      <c r="AO23" s="31"/>
+      <c r="AP23" s="31"/>
+      <c r="AQ23" s="31"/>
+      <c r="AR23" s="31"/>
+      <c r="AS23" s="31"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="31"/>
+      <c r="AW23" s="31"/>
+      <c r="AX23" s="31"/>
+      <c r="AY23" s="31"/>
+      <c r="AZ23" s="31"/>
+      <c r="BA23" s="31"/>
+      <c r="BB23" s="31"/>
+      <c r="BC23" s="31"/>
+      <c r="BD23" s="31"/>
+      <c r="BE23" s="31"/>
+      <c r="BF23" s="31"/>
+      <c r="BG23" s="31"/>
+      <c r="BH23" s="31"/>
+      <c r="BI23" s="31"/>
+      <c r="BJ23" s="31"/>
+      <c r="BK23" s="31"/>
+      <c r="BL23" s="31"/>
+      <c r="BM23" s="31"/>
+      <c r="BN23" s="31"/>
+      <c r="BO23" s="31"/>
+      <c r="BP23" s="30"/>
+    </row>
+    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C24" s="24"/>
+      <c r="D24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD24" s="14"/>
+      <c r="AG24" s="23"/>
+      <c r="BP24" s="22"/>
+    </row>
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C25" s="24"/>
+      <c r="E25" s="28"/>
+      <c r="AD25" s="14"/>
+      <c r="AG25" s="23"/>
+      <c r="BP25" s="22"/>
+    </row>
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C26" s="24"/>
+      <c r="E26" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="68"/>
+      <c r="AF26" s="68"/>
+      <c r="AG26" s="68"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="68"/>
+      <c r="AK26" s="68"/>
+      <c r="AL26" s="68"/>
+      <c r="AM26" s="68"/>
+      <c r="AN26" s="68"/>
+      <c r="AO26" s="68"/>
+      <c r="AP26" s="68"/>
+      <c r="AQ26" s="68"/>
+      <c r="AR26" s="68"/>
+      <c r="AS26" s="68"/>
+      <c r="AT26" s="68"/>
+      <c r="AU26" s="68"/>
+      <c r="AV26" s="68"/>
+      <c r="AW26" s="68"/>
+      <c r="AX26" s="68"/>
+      <c r="AY26" s="68"/>
+      <c r="AZ26" s="68"/>
+      <c r="BA26" s="68"/>
+      <c r="BB26" s="68"/>
+      <c r="BC26" s="68"/>
+      <c r="BD26" s="68"/>
+      <c r="BE26" s="68"/>
+      <c r="BF26" s="68"/>
+      <c r="BG26" s="68"/>
+      <c r="BH26" s="68"/>
+      <c r="BI26" s="68"/>
+      <c r="BJ26" s="68"/>
+      <c r="BK26" s="68"/>
+      <c r="BP26" s="22"/>
+    </row>
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C27" s="24"/>
+      <c r="E27" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="64"/>
+      <c r="AX27" s="64"/>
+      <c r="AY27" s="64"/>
+      <c r="AZ27" s="64"/>
+      <c r="BA27" s="64"/>
+      <c r="BB27" s="64"/>
+      <c r="BC27" s="64"/>
+      <c r="BD27" s="64"/>
+      <c r="BE27" s="64"/>
+      <c r="BF27" s="64"/>
+      <c r="BG27" s="64"/>
+      <c r="BH27" s="64"/>
+      <c r="BI27" s="64"/>
+      <c r="BJ27" s="64"/>
+      <c r="BK27" s="64"/>
+      <c r="BP27" s="22"/>
+    </row>
+    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C28" s="24"/>
+      <c r="E28" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="64"/>
+      <c r="AZ28" s="64"/>
+      <c r="BA28" s="64"/>
+      <c r="BB28" s="64"/>
+      <c r="BC28" s="64"/>
+      <c r="BD28" s="64"/>
+      <c r="BE28" s="64"/>
+      <c r="BF28" s="64"/>
+      <c r="BG28" s="64"/>
+      <c r="BH28" s="64"/>
+      <c r="BI28" s="64"/>
+      <c r="BJ28" s="64"/>
+      <c r="BK28" s="64"/>
+      <c r="BP28" s="22"/>
+    </row>
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C29" s="24"/>
+      <c r="E29" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+      <c r="AT29" s="64"/>
+      <c r="AU29" s="64"/>
+      <c r="AV29" s="64"/>
+      <c r="AW29" s="64"/>
+      <c r="AX29" s="64"/>
+      <c r="AY29" s="64"/>
+      <c r="AZ29" s="64"/>
+      <c r="BA29" s="64"/>
+      <c r="BB29" s="64"/>
+      <c r="BC29" s="64"/>
+      <c r="BD29" s="64"/>
+      <c r="BE29" s="64"/>
+      <c r="BF29" s="64"/>
+      <c r="BG29" s="64"/>
+      <c r="BH29" s="64"/>
+      <c r="BI29" s="64"/>
+      <c r="BJ29" s="64"/>
+      <c r="BK29" s="64"/>
+      <c r="BP29" s="22"/>
+    </row>
+    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C30" s="24"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="29"/>
+      <c r="AS30" s="29"/>
+      <c r="AT30" s="29"/>
+      <c r="AU30" s="29"/>
+      <c r="AV30" s="29"/>
+      <c r="AW30" s="29"/>
+      <c r="AX30" s="29"/>
+      <c r="AY30" s="29"/>
+      <c r="AZ30" s="29"/>
+      <c r="BA30" s="29"/>
+      <c r="BB30" s="29"/>
+      <c r="BC30" s="29"/>
+      <c r="BD30" s="29"/>
+      <c r="BE30" s="29"/>
+      <c r="BF30" s="29"/>
+      <c r="BG30" s="29"/>
+      <c r="BH30" s="29"/>
+      <c r="BI30" s="29"/>
+      <c r="BJ30" s="29"/>
+      <c r="BK30" s="29"/>
+      <c r="BP30" s="22"/>
+    </row>
+    <row r="31" spans="1:69" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="24"/>
+      <c r="AD31" s="14"/>
+      <c r="AG31" s="23"/>
+      <c r="BP31" s="22"/>
+    </row>
+    <row r="32" spans="1:69" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="24"/>
+      <c r="AD32" s="14"/>
+      <c r="AG32" s="23"/>
+      <c r="BP32" s="22"/>
+    </row>
+    <row r="33" spans="3:68" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="24"/>
+      <c r="AD33" s="14"/>
+      <c r="AG33" s="23"/>
+      <c r="BP33" s="22"/>
+    </row>
+    <row r="34" spans="3:68" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="24"/>
+      <c r="AD34" s="14"/>
+      <c r="AG34" s="23"/>
+      <c r="BP34" s="22"/>
+    </row>
+    <row r="35" spans="3:68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="24"/>
+      <c r="AD35" s="14"/>
+      <c r="AG35" s="23"/>
+      <c r="BP35" s="22"/>
+    </row>
+    <row r="36" spans="3:68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="24"/>
+      <c r="AD36" s="14"/>
+      <c r="AG36" s="23"/>
+      <c r="BP36" s="22"/>
+    </row>
+    <row r="37" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C37" s="24"/>
+      <c r="D37" s="25">
+        <v>3</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="28"/>
+      <c r="AK37" s="28"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="28"/>
+      <c r="AN37" s="28"/>
+      <c r="AO37" s="28"/>
+      <c r="AP37" s="28"/>
+      <c r="AQ37" s="28"/>
+      <c r="AR37" s="28"/>
+      <c r="AS37" s="28"/>
+      <c r="AT37" s="28"/>
+      <c r="AU37" s="28"/>
+      <c r="AV37" s="28"/>
+      <c r="AW37" s="28"/>
+      <c r="AX37" s="28"/>
+      <c r="AY37" s="28"/>
+      <c r="AZ37" s="28"/>
+      <c r="BA37" s="28"/>
+      <c r="BB37" s="28"/>
+      <c r="BC37" s="28"/>
+      <c r="BD37" s="28"/>
+      <c r="BE37" s="28"/>
+      <c r="BF37" s="28"/>
+      <c r="BG37" s="28"/>
+      <c r="BH37" s="28"/>
+      <c r="BI37" s="28"/>
+      <c r="BJ37" s="28"/>
+      <c r="BK37" s="28"/>
+      <c r="BP37" s="22"/>
+    </row>
+    <row r="38" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C38" s="24"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="25"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="25"/>
+      <c r="AJ38" s="25"/>
+      <c r="AK38" s="25"/>
+      <c r="AL38" s="25"/>
+      <c r="AM38" s="25"/>
+      <c r="AN38" s="25"/>
+      <c r="AO38" s="25"/>
+      <c r="AP38" s="25"/>
+      <c r="AQ38" s="25"/>
+      <c r="AR38" s="25"/>
+      <c r="AS38" s="25"/>
+      <c r="AT38" s="25"/>
+      <c r="AU38" s="25"/>
+      <c r="AV38" s="25"/>
+      <c r="AW38" s="25"/>
+      <c r="AX38" s="25"/>
+      <c r="AY38" s="25"/>
+      <c r="AZ38" s="25"/>
+      <c r="BA38" s="25"/>
+      <c r="BB38" s="25"/>
+      <c r="BC38" s="25"/>
+      <c r="BD38" s="25"/>
+      <c r="BE38" s="25"/>
+      <c r="BF38" s="25"/>
+      <c r="BG38" s="25"/>
+      <c r="BH38" s="25"/>
+      <c r="BI38" s="25"/>
+      <c r="BJ38" s="25"/>
+      <c r="BK38" s="25"/>
+      <c r="BP38" s="22"/>
+    </row>
+    <row r="39" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="25"/>
+      <c r="AJ39" s="25"/>
+      <c r="AK39" s="25"/>
+      <c r="AL39" s="25"/>
+      <c r="AM39" s="25"/>
+      <c r="AN39" s="25"/>
+      <c r="AO39" s="25"/>
+      <c r="AP39" s="25"/>
+      <c r="AQ39" s="25"/>
+      <c r="AR39" s="25"/>
+      <c r="AS39" s="25"/>
+      <c r="AT39" s="25"/>
+      <c r="AU39" s="25"/>
+      <c r="AV39" s="25"/>
+      <c r="AW39" s="25"/>
+      <c r="AX39" s="25"/>
+      <c r="AY39" s="25"/>
+      <c r="AZ39" s="25"/>
+      <c r="BA39" s="25"/>
+      <c r="BB39" s="25"/>
+      <c r="BC39" s="25"/>
+      <c r="BD39" s="25"/>
+      <c r="BE39" s="25"/>
+      <c r="BF39" s="25"/>
+      <c r="BG39" s="25"/>
+      <c r="BH39" s="25"/>
+      <c r="BI39" s="25"/>
+      <c r="BJ39" s="25"/>
+      <c r="BK39" s="25"/>
+      <c r="BP39" s="22"/>
+    </row>
+    <row r="40" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="25"/>
+      <c r="AH40" s="25"/>
+      <c r="AI40" s="25"/>
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
+      <c r="AL40" s="25"/>
+      <c r="AM40" s="25"/>
+      <c r="AN40" s="25"/>
+      <c r="AO40" s="25"/>
+      <c r="AP40" s="25"/>
+      <c r="AQ40" s="25"/>
+      <c r="AR40" s="25"/>
+      <c r="AS40" s="25"/>
+      <c r="AT40" s="25"/>
+      <c r="AU40" s="25"/>
+      <c r="AV40" s="25"/>
+      <c r="AW40" s="25"/>
+      <c r="AX40" s="25"/>
+      <c r="AY40" s="25"/>
+      <c r="AZ40" s="25"/>
+      <c r="BA40" s="25"/>
+      <c r="BB40" s="25"/>
+      <c r="BC40" s="25"/>
+      <c r="BD40" s="25"/>
+      <c r="BE40" s="25"/>
+      <c r="BF40" s="25"/>
+      <c r="BG40" s="25"/>
+      <c r="BH40" s="25"/>
+      <c r="BI40" s="25"/>
+      <c r="BJ40" s="25"/>
+      <c r="BK40" s="25"/>
+      <c r="BP40" s="22"/>
+    </row>
+    <row r="41" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C41" s="24"/>
+      <c r="AD41" s="14"/>
+      <c r="AG41" s="23"/>
+      <c r="BP41" s="22"/>
+    </row>
+    <row r="42" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C42" s="24"/>
+      <c r="D42" s="13"/>
+      <c r="AD42" s="14"/>
+      <c r="AG42" s="23"/>
+      <c r="BP42" s="22"/>
+    </row>
+    <row r="43" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C43" s="24"/>
+      <c r="AD43" s="14"/>
+      <c r="AG43" s="23"/>
+      <c r="BP43" s="22"/>
+    </row>
+    <row r="44" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C44" s="24"/>
+      <c r="AD44" s="14"/>
+      <c r="AG44" s="23"/>
+      <c r="BP44" s="22"/>
+    </row>
+    <row r="45" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C45" s="24"/>
+      <c r="AD45" s="14"/>
+      <c r="AG45" s="23"/>
+      <c r="BP45" s="22"/>
+    </row>
+    <row r="46" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C46" s="24"/>
+      <c r="AD46" s="14"/>
+      <c r="AG46" s="23"/>
+      <c r="BP46" s="22"/>
+    </row>
+    <row r="47" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C47" s="24"/>
+      <c r="AD47" s="14"/>
+      <c r="AG47" s="23"/>
+      <c r="BP47" s="22"/>
+    </row>
+    <row r="48" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C48" s="24"/>
+      <c r="AD48" s="14"/>
+      <c r="AG48" s="23"/>
+      <c r="BP48" s="22"/>
+    </row>
+    <row r="49" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C49" s="24"/>
+      <c r="AD49" s="14"/>
+      <c r="AG49" s="23"/>
+      <c r="BP49" s="22"/>
+    </row>
+    <row r="50" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C50" s="24"/>
+      <c r="AD50" s="14"/>
+      <c r="AG50" s="23"/>
+      <c r="BP50" s="22"/>
+    </row>
+    <row r="51" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C51" s="24"/>
+      <c r="AD51" s="14"/>
+      <c r="AG51" s="23"/>
+      <c r="BP51" s="22"/>
+    </row>
+    <row r="52" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C52" s="24"/>
+      <c r="AD52" s="14"/>
+      <c r="AG52" s="23"/>
+      <c r="BP52" s="22"/>
+    </row>
+    <row r="53" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C53" s="24"/>
+      <c r="AD53" s="14"/>
+      <c r="AG53" s="23"/>
+      <c r="BP53" s="22"/>
+    </row>
+    <row r="54" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C54" s="21"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+      <c r="AF54" s="19"/>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="19"/>
+      <c r="AL54" s="19"/>
+      <c r="AM54" s="19"/>
+      <c r="AN54" s="19"/>
+      <c r="AO54" s="19"/>
+      <c r="AP54" s="19"/>
+      <c r="AQ54" s="19"/>
+      <c r="AR54" s="19"/>
+      <c r="AS54" s="19"/>
+      <c r="AT54" s="19"/>
+      <c r="AU54" s="19"/>
+      <c r="AV54" s="19"/>
+      <c r="AW54" s="19"/>
+      <c r="AX54" s="19"/>
+      <c r="AY54" s="19"/>
+      <c r="AZ54" s="19"/>
+      <c r="BA54" s="19"/>
+      <c r="BB54" s="19"/>
+      <c r="BC54" s="19"/>
+      <c r="BD54" s="19"/>
+      <c r="BE54" s="19"/>
+      <c r="BF54" s="19"/>
+      <c r="BG54" s="19"/>
+      <c r="BH54" s="19"/>
+      <c r="BI54" s="19"/>
+      <c r="BJ54" s="19"/>
+      <c r="BK54" s="19"/>
+      <c r="BL54" s="19"/>
+      <c r="BM54" s="19"/>
+      <c r="BN54" s="19"/>
+      <c r="BO54" s="19"/>
+      <c r="BP54" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="T11:T15 T19" xr:uid="{C0BCE62B-BECD-4A08-8F45-908EDC9F17FE}">
+      <formula1>"◯,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
+++ b/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67870E2D-9EEE-4025-B86E-EC7FC297EE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC91637F-D9C0-4141-A067-3DEB7D523D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="480" windowWidth="12090" windowHeight="9780" firstSheet="2" activeTab="2" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="7300" yWindow="20" windowWidth="12090" windowHeight="9780" firstSheet="2" activeTab="2" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_プルダウン項目クラス" sheetId="2" r:id="rId1"/>
@@ -1111,6 +1111,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,9 +1165,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1138,76 +1174,14 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1221,11 +1195,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1560,247 +1560,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="44" t="s">
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44"/>
-      <c r="BP1" s="44"/>
-      <c r="BQ1" s="44"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="57"/>
+      <c r="BL1" s="57"/>
+      <c r="BM1" s="57"/>
+      <c r="BN1" s="57"/>
+      <c r="BO1" s="57"/>
+      <c r="BP1" s="57"/>
+      <c r="BQ1" s="57"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="47" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47" t="s">
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47" t="s">
+      <c r="AU2" s="43"/>
+      <c r="AV2" s="43"/>
+      <c r="AW2" s="43"/>
+      <c r="AX2" s="43"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="43"/>
+      <c r="BA2" s="43"/>
+      <c r="BB2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="47"/>
-      <c r="BD2" s="47"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="47"/>
-      <c r="BG2" s="47"/>
-      <c r="BH2" s="47"/>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="48" t="s">
+      <c r="BC2" s="43"/>
+      <c r="BD2" s="43"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="43"/>
+      <c r="BG2" s="43"/>
+      <c r="BH2" s="43"/>
+      <c r="BI2" s="43"/>
+      <c r="BJ2" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="48"/>
-      <c r="BL2" s="48"/>
-      <c r="BM2" s="48"/>
-      <c r="BN2" s="48"/>
-      <c r="BO2" s="48"/>
-      <c r="BP2" s="48"/>
-      <c r="BQ2" s="48"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
+      <c r="BQ2" s="60"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="49">
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="61">
         <v>45519</v>
       </c>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="46" t="s">
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="46"/>
-      <c r="BG3" s="46"/>
-      <c r="BH3" s="46"/>
-      <c r="BI3" s="46"/>
-      <c r="BJ3" s="50">
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="59"/>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59"/>
+      <c r="BJ3" s="62">
         <v>45518</v>
       </c>
-      <c r="BK3" s="50"/>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="50"/>
-      <c r="BO3" s="50"/>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -1867,215 +1867,215 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="51"/>
-      <c r="BA6" s="51"/>
-      <c r="BB6" s="51"/>
-      <c r="BC6" s="51"/>
-      <c r="BD6" s="51"/>
-      <c r="BE6" s="51"/>
-      <c r="BF6" s="51"/>
-      <c r="BG6" s="51"/>
-      <c r="BH6" s="51"/>
-      <c r="BI6" s="51"/>
-      <c r="BJ6" s="51"/>
-      <c r="BK6" s="51"/>
-      <c r="BL6" s="51"/>
-      <c r="BM6" s="51"/>
-      <c r="BN6" s="51"/>
-      <c r="BO6" s="51"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="53"/>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="6"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="51"/>
-      <c r="AK7" s="51"/>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="51"/>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="51"/>
-      <c r="AV7" s="51"/>
-      <c r="AW7" s="51"/>
-      <c r="AX7" s="51"/>
-      <c r="AY7" s="51"/>
-      <c r="AZ7" s="51"/>
-      <c r="BA7" s="51"/>
-      <c r="BB7" s="51"/>
-      <c r="BC7" s="51"/>
-      <c r="BD7" s="51"/>
-      <c r="BE7" s="51"/>
-      <c r="BF7" s="51"/>
-      <c r="BG7" s="51"/>
-      <c r="BH7" s="51"/>
-      <c r="BI7" s="51"/>
-      <c r="BJ7" s="51"/>
-      <c r="BK7" s="51"/>
-      <c r="BL7" s="51"/>
-      <c r="BM7" s="51"/>
-      <c r="BN7" s="51"/>
-      <c r="BO7" s="51"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="53"/>
+      <c r="BA7" s="53"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="53"/>
+      <c r="BD7" s="53"/>
+      <c r="BE7" s="53"/>
+      <c r="BF7" s="53"/>
+      <c r="BG7" s="53"/>
+      <c r="BH7" s="53"/>
+      <c r="BI7" s="53"/>
+      <c r="BJ7" s="53"/>
+      <c r="BK7" s="53"/>
+      <c r="BL7" s="53"/>
+      <c r="BM7" s="53"/>
+      <c r="BN7" s="53"/>
+      <c r="BO7" s="53"/>
       <c r="BP7" s="8"/>
       <c r="BQ7" s="6"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="51"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
-      <c r="AT8" s="51"/>
-      <c r="AU8" s="51"/>
-      <c r="AV8" s="51"/>
-      <c r="AW8" s="51"/>
-      <c r="AX8" s="51"/>
-      <c r="AY8" s="51"/>
-      <c r="AZ8" s="51"/>
-      <c r="BA8" s="51"/>
-      <c r="BB8" s="51"/>
-      <c r="BC8" s="51"/>
-      <c r="BD8" s="51"/>
-      <c r="BE8" s="51"/>
-      <c r="BF8" s="51"/>
-      <c r="BG8" s="51"/>
-      <c r="BH8" s="51"/>
-      <c r="BI8" s="51"/>
-      <c r="BJ8" s="51"/>
-      <c r="BK8" s="51"/>
-      <c r="BL8" s="51"/>
-      <c r="BM8" s="51"/>
-      <c r="BN8" s="51"/>
-      <c r="BO8" s="51"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="53"/>
+      <c r="BC8" s="53"/>
+      <c r="BD8" s="53"/>
+      <c r="BE8" s="53"/>
+      <c r="BF8" s="53"/>
+      <c r="BG8" s="53"/>
+      <c r="BH8" s="53"/>
+      <c r="BI8" s="53"/>
+      <c r="BJ8" s="53"/>
+      <c r="BK8" s="53"/>
+      <c r="BL8" s="53"/>
+      <c r="BM8" s="53"/>
+      <c r="BN8" s="53"/>
+      <c r="BO8" s="53"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="6"/>
     </row>
@@ -2128,787 +2128,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="47" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="53" t="s">
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54" t="s">
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="54"/>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="54"/>
-      <c r="AW11" s="54"/>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="54"/>
-      <c r="BA11" s="54"/>
-      <c r="BB11" s="54"/>
-      <c r="BC11" s="54"/>
-      <c r="BD11" s="54"/>
-      <c r="BE11" s="54"/>
-      <c r="BF11" s="54"/>
-      <c r="BG11" s="54"/>
-      <c r="BH11" s="54"/>
-      <c r="BI11" s="54"/>
-      <c r="BJ11" s="54"/>
-      <c r="BK11" s="54"/>
-      <c r="BL11" s="54"/>
-      <c r="BM11" s="54"/>
-      <c r="BN11" s="54"/>
-      <c r="BO11" s="54"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="44"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="44"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="44"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="44"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="44"/>
+      <c r="BC11" s="44"/>
+      <c r="BD11" s="44"/>
+      <c r="BE11" s="44"/>
+      <c r="BF11" s="44"/>
+      <c r="BG11" s="44"/>
+      <c r="BH11" s="44"/>
+      <c r="BI11" s="44"/>
+      <c r="BJ11" s="44"/>
+      <c r="BK11" s="44"/>
+      <c r="BL11" s="44"/>
+      <c r="BM11" s="44"/>
+      <c r="BN11" s="44"/>
+      <c r="BO11" s="44"/>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="54"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="54"/>
-      <c r="AP12" s="54"/>
-      <c r="AQ12" s="54"/>
-      <c r="AR12" s="54"/>
-      <c r="AS12" s="54"/>
-      <c r="AT12" s="54"/>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="54"/>
-      <c r="AW12" s="54"/>
-      <c r="AX12" s="54"/>
-      <c r="AY12" s="54"/>
-      <c r="AZ12" s="54"/>
-      <c r="BA12" s="54"/>
-      <c r="BB12" s="54"/>
-      <c r="BC12" s="54"/>
-      <c r="BD12" s="54"/>
-      <c r="BE12" s="54"/>
-      <c r="BF12" s="54"/>
-      <c r="BG12" s="54"/>
-      <c r="BH12" s="54"/>
-      <c r="BI12" s="54"/>
-      <c r="BJ12" s="54"/>
-      <c r="BK12" s="54"/>
-      <c r="BL12" s="54"/>
-      <c r="BM12" s="54"/>
-      <c r="BN12" s="54"/>
-      <c r="BO12" s="54"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="44"/>
+      <c r="AR12" s="44"/>
+      <c r="AS12" s="44"/>
+      <c r="AT12" s="44"/>
+      <c r="AU12" s="44"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="44"/>
+      <c r="BC12" s="44"/>
+      <c r="BD12" s="44"/>
+      <c r="BE12" s="44"/>
+      <c r="BF12" s="44"/>
+      <c r="BG12" s="44"/>
+      <c r="BH12" s="44"/>
+      <c r="BI12" s="44"/>
+      <c r="BJ12" s="44"/>
+      <c r="BK12" s="44"/>
+      <c r="BL12" s="44"/>
+      <c r="BM12" s="44"/>
+      <c r="BN12" s="44"/>
+      <c r="BO12" s="44"/>
       <c r="BP12" s="8"/>
       <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="54"/>
-      <c r="AW13" s="54"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="54"/>
-      <c r="BA13" s="54"/>
-      <c r="BB13" s="54"/>
-      <c r="BC13" s="54"/>
-      <c r="BD13" s="54"/>
-      <c r="BE13" s="54"/>
-      <c r="BF13" s="54"/>
-      <c r="BG13" s="54"/>
-      <c r="BH13" s="54"/>
-      <c r="BI13" s="54"/>
-      <c r="BJ13" s="54"/>
-      <c r="BK13" s="54"/>
-      <c r="BL13" s="54"/>
-      <c r="BM13" s="54"/>
-      <c r="BN13" s="54"/>
-      <c r="BO13" s="54"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="44"/>
+      <c r="BD13" s="44"/>
+      <c r="BE13" s="44"/>
+      <c r="BF13" s="44"/>
+      <c r="BG13" s="44"/>
+      <c r="BH13" s="44"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="44"/>
+      <c r="BK13" s="44"/>
+      <c r="BL13" s="44"/>
+      <c r="BM13" s="44"/>
+      <c r="BN13" s="44"/>
+      <c r="BO13" s="44"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="61" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="61"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="61"/>
-      <c r="AN14" s="61"/>
-      <c r="AO14" s="61"/>
-      <c r="AP14" s="61"/>
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="61"/>
-      <c r="AS14" s="61"/>
-      <c r="AT14" s="61"/>
-      <c r="AU14" s="61"/>
-      <c r="AV14" s="61"/>
-      <c r="AW14" s="61"/>
-      <c r="AX14" s="61"/>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="61"/>
-      <c r="BA14" s="61"/>
-      <c r="BB14" s="61"/>
-      <c r="BC14" s="61"/>
-      <c r="BD14" s="61"/>
-      <c r="BE14" s="61"/>
-      <c r="BF14" s="61"/>
-      <c r="BG14" s="61"/>
-      <c r="BH14" s="61"/>
-      <c r="BI14" s="61"/>
-      <c r="BJ14" s="61"/>
-      <c r="BK14" s="61"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="61"/>
-      <c r="BN14" s="61"/>
-      <c r="BO14" s="61"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="51"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="51"/>
+      <c r="BL14" s="51"/>
+      <c r="BM14" s="51"/>
+      <c r="BN14" s="51"/>
+      <c r="BO14" s="51"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="6"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="62"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="62"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="62"/>
-      <c r="BA15" s="62"/>
-      <c r="BB15" s="62"/>
-      <c r="BC15" s="62"/>
-      <c r="BD15" s="62"/>
-      <c r="BE15" s="62"/>
-      <c r="BF15" s="62"/>
-      <c r="BG15" s="62"/>
-      <c r="BH15" s="62"/>
-      <c r="BI15" s="62"/>
-      <c r="BJ15" s="62"/>
-      <c r="BK15" s="62"/>
-      <c r="BL15" s="62"/>
-      <c r="BM15" s="62"/>
-      <c r="BN15" s="62"/>
-      <c r="BO15" s="62"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="52"/>
+      <c r="AP15" s="52"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="52"/>
+      <c r="AS15" s="52"/>
+      <c r="AT15" s="52"/>
+      <c r="AU15" s="52"/>
+      <c r="AV15" s="52"/>
+      <c r="AW15" s="52"/>
+      <c r="AX15" s="52"/>
+      <c r="AY15" s="52"/>
+      <c r="AZ15" s="52"/>
+      <c r="BA15" s="52"/>
+      <c r="BB15" s="52"/>
+      <c r="BC15" s="52"/>
+      <c r="BD15" s="52"/>
+      <c r="BE15" s="52"/>
+      <c r="BF15" s="52"/>
+      <c r="BG15" s="52"/>
+      <c r="BH15" s="52"/>
+      <c r="BI15" s="52"/>
+      <c r="BJ15" s="52"/>
+      <c r="BK15" s="52"/>
+      <c r="BL15" s="52"/>
+      <c r="BM15" s="52"/>
+      <c r="BN15" s="52"/>
+      <c r="BO15" s="52"/>
       <c r="BP15" s="8"/>
       <c r="BQ15" s="6"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="62"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="62"/>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="62"/>
-      <c r="AP16" s="62"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="62"/>
-      <c r="AT16" s="62"/>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="62"/>
-      <c r="AY16" s="62"/>
-      <c r="AZ16" s="62"/>
-      <c r="BA16" s="62"/>
-      <c r="BB16" s="62"/>
-      <c r="BC16" s="62"/>
-      <c r="BD16" s="62"/>
-      <c r="BE16" s="62"/>
-      <c r="BF16" s="62"/>
-      <c r="BG16" s="62"/>
-      <c r="BH16" s="62"/>
-      <c r="BI16" s="62"/>
-      <c r="BJ16" s="62"/>
-      <c r="BK16" s="62"/>
-      <c r="BL16" s="62"/>
-      <c r="BM16" s="62"/>
-      <c r="BN16" s="62"/>
-      <c r="BO16" s="62"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="52"/>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="52"/>
+      <c r="AT16" s="52"/>
+      <c r="AU16" s="52"/>
+      <c r="AV16" s="52"/>
+      <c r="AW16" s="52"/>
+      <c r="AX16" s="52"/>
+      <c r="AY16" s="52"/>
+      <c r="AZ16" s="52"/>
+      <c r="BA16" s="52"/>
+      <c r="BB16" s="52"/>
+      <c r="BC16" s="52"/>
+      <c r="BD16" s="52"/>
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="52"/>
+      <c r="BG16" s="52"/>
+      <c r="BH16" s="52"/>
+      <c r="BI16" s="52"/>
+      <c r="BJ16" s="52"/>
+      <c r="BK16" s="52"/>
+      <c r="BL16" s="52"/>
+      <c r="BM16" s="52"/>
+      <c r="BN16" s="52"/>
+      <c r="BO16" s="52"/>
       <c r="BP16" s="8"/>
       <c r="BQ16" s="6"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="62"/>
-      <c r="AL17" s="62"/>
-      <c r="AM17" s="62"/>
-      <c r="AN17" s="62"/>
-      <c r="AO17" s="62"/>
-      <c r="AP17" s="62"/>
-      <c r="AQ17" s="62"/>
-      <c r="AR17" s="62"/>
-      <c r="AS17" s="62"/>
-      <c r="AT17" s="62"/>
-      <c r="AU17" s="62"/>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="62"/>
-      <c r="AY17" s="62"/>
-      <c r="AZ17" s="62"/>
-      <c r="BA17" s="62"/>
-      <c r="BB17" s="62"/>
-      <c r="BC17" s="62"/>
-      <c r="BD17" s="62"/>
-      <c r="BE17" s="62"/>
-      <c r="BF17" s="62"/>
-      <c r="BG17" s="62"/>
-      <c r="BH17" s="62"/>
-      <c r="BI17" s="62"/>
-      <c r="BJ17" s="62"/>
-      <c r="BK17" s="62"/>
-      <c r="BL17" s="62"/>
-      <c r="BM17" s="62"/>
-      <c r="BN17" s="62"/>
-      <c r="BO17" s="62"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="52"/>
+      <c r="AM17" s="52"/>
+      <c r="AN17" s="52"/>
+      <c r="AO17" s="52"/>
+      <c r="AP17" s="52"/>
+      <c r="AQ17" s="52"/>
+      <c r="AR17" s="52"/>
+      <c r="AS17" s="52"/>
+      <c r="AT17" s="52"/>
+      <c r="AU17" s="52"/>
+      <c r="AV17" s="52"/>
+      <c r="AW17" s="52"/>
+      <c r="AX17" s="52"/>
+      <c r="AY17" s="52"/>
+      <c r="AZ17" s="52"/>
+      <c r="BA17" s="52"/>
+      <c r="BB17" s="52"/>
+      <c r="BC17" s="52"/>
+      <c r="BD17" s="52"/>
+      <c r="BE17" s="52"/>
+      <c r="BF17" s="52"/>
+      <c r="BG17" s="52"/>
+      <c r="BH17" s="52"/>
+      <c r="BI17" s="52"/>
+      <c r="BJ17" s="52"/>
+      <c r="BK17" s="52"/>
+      <c r="BL17" s="52"/>
+      <c r="BM17" s="52"/>
+      <c r="BN17" s="52"/>
+      <c r="BO17" s="52"/>
       <c r="BP17" s="8"/>
       <c r="BQ17" s="6"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="62"/>
-      <c r="AM18" s="62"/>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="62"/>
-      <c r="AX18" s="62"/>
-      <c r="AY18" s="62"/>
-      <c r="AZ18" s="62"/>
-      <c r="BA18" s="62"/>
-      <c r="BB18" s="62"/>
-      <c r="BC18" s="62"/>
-      <c r="BD18" s="62"/>
-      <c r="BE18" s="62"/>
-      <c r="BF18" s="62"/>
-      <c r="BG18" s="62"/>
-      <c r="BH18" s="62"/>
-      <c r="BI18" s="62"/>
-      <c r="BJ18" s="62"/>
-      <c r="BK18" s="62"/>
-      <c r="BL18" s="62"/>
-      <c r="BM18" s="62"/>
-      <c r="BN18" s="62"/>
-      <c r="BO18" s="62"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="52"/>
+      <c r="AQ18" s="52"/>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="52"/>
+      <c r="AT18" s="52"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="52"/>
+      <c r="AW18" s="52"/>
+      <c r="AX18" s="52"/>
+      <c r="AY18" s="52"/>
+      <c r="AZ18" s="52"/>
+      <c r="BA18" s="52"/>
+      <c r="BB18" s="52"/>
+      <c r="BC18" s="52"/>
+      <c r="BD18" s="52"/>
+      <c r="BE18" s="52"/>
+      <c r="BF18" s="52"/>
+      <c r="BG18" s="52"/>
+      <c r="BH18" s="52"/>
+      <c r="BI18" s="52"/>
+      <c r="BJ18" s="52"/>
+      <c r="BK18" s="52"/>
+      <c r="BL18" s="52"/>
+      <c r="BM18" s="52"/>
+      <c r="BN18" s="52"/>
+      <c r="BO18" s="52"/>
       <c r="BP18" s="8"/>
       <c r="BQ18" s="6"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="62"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="62"/>
-      <c r="BA19" s="62"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="62"/>
-      <c r="BE19" s="62"/>
-      <c r="BF19" s="62"/>
-      <c r="BG19" s="62"/>
-      <c r="BH19" s="62"/>
-      <c r="BI19" s="62"/>
-      <c r="BJ19" s="62"/>
-      <c r="BK19" s="62"/>
-      <c r="BL19" s="62"/>
-      <c r="BM19" s="62"/>
-      <c r="BN19" s="62"/>
-      <c r="BO19" s="62"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="52"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="52"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
+      <c r="AT19" s="52"/>
+      <c r="AU19" s="52"/>
+      <c r="AV19" s="52"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="52"/>
+      <c r="AY19" s="52"/>
+      <c r="AZ19" s="52"/>
+      <c r="BA19" s="52"/>
+      <c r="BB19" s="52"/>
+      <c r="BC19" s="52"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="52"/>
+      <c r="BF19" s="52"/>
+      <c r="BG19" s="52"/>
+      <c r="BH19" s="52"/>
+      <c r="BI19" s="52"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="52"/>
+      <c r="BL19" s="52"/>
+      <c r="BM19" s="52"/>
+      <c r="BN19" s="52"/>
+      <c r="BO19" s="52"/>
       <c r="BP19" s="8"/>
       <c r="BQ19" s="6"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="62"/>
-      <c r="AY20" s="62"/>
-      <c r="AZ20" s="62"/>
-      <c r="BA20" s="62"/>
-      <c r="BB20" s="62"/>
-      <c r="BC20" s="62"/>
-      <c r="BD20" s="62"/>
-      <c r="BE20" s="62"/>
-      <c r="BF20" s="62"/>
-      <c r="BG20" s="62"/>
-      <c r="BH20" s="62"/>
-      <c r="BI20" s="62"/>
-      <c r="BJ20" s="62"/>
-      <c r="BK20" s="62"/>
-      <c r="BL20" s="62"/>
-      <c r="BM20" s="62"/>
-      <c r="BN20" s="62"/>
-      <c r="BO20" s="62"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="52"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="52"/>
+      <c r="AT20" s="52"/>
+      <c r="AU20" s="52"/>
+      <c r="AV20" s="52"/>
+      <c r="AW20" s="52"/>
+      <c r="AX20" s="52"/>
+      <c r="AY20" s="52"/>
+      <c r="AZ20" s="52"/>
+      <c r="BA20" s="52"/>
+      <c r="BB20" s="52"/>
+      <c r="BC20" s="52"/>
+      <c r="BD20" s="52"/>
+      <c r="BE20" s="52"/>
+      <c r="BF20" s="52"/>
+      <c r="BG20" s="52"/>
+      <c r="BH20" s="52"/>
+      <c r="BI20" s="52"/>
+      <c r="BJ20" s="52"/>
+      <c r="BK20" s="52"/>
+      <c r="BL20" s="52"/>
+      <c r="BM20" s="52"/>
+      <c r="BN20" s="52"/>
+      <c r="BO20" s="52"/>
       <c r="BP20" s="8"/>
       <c r="BQ20" s="6"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="52"/>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="52"/>
-      <c r="AP21" s="52"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="52"/>
-      <c r="AS21" s="52"/>
-      <c r="AT21" s="52"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="52"/>
-      <c r="AY21" s="52"/>
-      <c r="AZ21" s="52"/>
-      <c r="BA21" s="52"/>
-      <c r="BB21" s="52"/>
-      <c r="BC21" s="52"/>
-      <c r="BD21" s="52"/>
-      <c r="BE21" s="52"/>
-      <c r="BF21" s="52"/>
-      <c r="BG21" s="52"/>
-      <c r="BH21" s="52"/>
-      <c r="BI21" s="52"/>
-      <c r="BJ21" s="52"/>
-      <c r="BK21" s="52"/>
-      <c r="BL21" s="52"/>
-      <c r="BM21" s="52"/>
-      <c r="BN21" s="52"/>
-      <c r="BO21" s="52"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="54"/>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="54"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="54"/>
+      <c r="AV21" s="54"/>
+      <c r="AW21" s="54"/>
+      <c r="AX21" s="54"/>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="54"/>
+      <c r="BA21" s="54"/>
+      <c r="BB21" s="54"/>
+      <c r="BC21" s="54"/>
+      <c r="BD21" s="54"/>
+      <c r="BE21" s="54"/>
+      <c r="BF21" s="54"/>
+      <c r="BG21" s="54"/>
+      <c r="BH21" s="54"/>
+      <c r="BI21" s="54"/>
+      <c r="BJ21" s="54"/>
+      <c r="BK21" s="54"/>
+      <c r="BL21" s="54"/>
+      <c r="BM21" s="54"/>
+      <c r="BN21" s="54"/>
+      <c r="BO21" s="54"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="6"/>
     </row>
@@ -2938,744 +2938,744 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="54" t="s">
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="53" t="s">
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="53"/>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="53"/>
-      <c r="AL25" s="53"/>
-      <c r="AM25" s="53"/>
-      <c r="AN25" s="53"/>
-      <c r="AO25" s="53"/>
-      <c r="AP25" s="53"/>
-      <c r="AQ25" s="53"/>
-      <c r="AR25" s="53"/>
-      <c r="AS25" s="53"/>
-      <c r="AT25" s="53"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
-      <c r="BB25" s="53"/>
-      <c r="BC25" s="53"/>
-      <c r="BD25" s="53" t="s">
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="42"/>
+      <c r="AM25" s="42"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="42"/>
+      <c r="AR25" s="42"/>
+      <c r="AS25" s="42"/>
+      <c r="AT25" s="42"/>
+      <c r="AU25" s="42"/>
+      <c r="AV25" s="42"/>
+      <c r="AW25" s="42"/>
+      <c r="AX25" s="42"/>
+      <c r="AY25" s="42"/>
+      <c r="AZ25" s="42"/>
+      <c r="BA25" s="42"/>
+      <c r="BB25" s="42"/>
+      <c r="BC25" s="42"/>
+      <c r="BD25" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="BE25" s="53"/>
-      <c r="BF25" s="53"/>
-      <c r="BG25" s="53"/>
-      <c r="BH25" s="53"/>
-      <c r="BI25" s="53"/>
-      <c r="BJ25" s="53"/>
-      <c r="BK25" s="53"/>
-      <c r="BL25" s="53"/>
-      <c r="BM25" s="53"/>
-      <c r="BN25" s="53"/>
-      <c r="BO25" s="53"/>
+      <c r="BE25" s="42"/>
+      <c r="BF25" s="42"/>
+      <c r="BG25" s="42"/>
+      <c r="BH25" s="42"/>
+      <c r="BI25" s="42"/>
+      <c r="BJ25" s="42"/>
+      <c r="BK25" s="42"/>
+      <c r="BL25" s="42"/>
+      <c r="BM25" s="42"/>
+      <c r="BN25" s="42"/>
+      <c r="BO25" s="42"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="C26" s="47">
+      <c r="C26" s="43">
         <v>1</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="58" t="s">
+      <c r="D26" s="43"/>
+      <c r="E26" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="55" t="s">
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="58" t="s">
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="59"/>
-      <c r="AV26" s="59"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="59"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="59"/>
-      <c r="BC26" s="60"/>
-      <c r="BD26" s="58"/>
-      <c r="BE26" s="59"/>
-      <c r="BF26" s="59"/>
-      <c r="BG26" s="59"/>
-      <c r="BH26" s="59"/>
-      <c r="BI26" s="59"/>
-      <c r="BJ26" s="59"/>
-      <c r="BK26" s="59"/>
-      <c r="BL26" s="59"/>
-      <c r="BM26" s="59"/>
-      <c r="BN26" s="59"/>
-      <c r="BO26" s="60"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="46"/>
+      <c r="AS26" s="46"/>
+      <c r="AT26" s="46"/>
+      <c r="AU26" s="46"/>
+      <c r="AV26" s="46"/>
+      <c r="AW26" s="46"/>
+      <c r="AX26" s="46"/>
+      <c r="AY26" s="46"/>
+      <c r="AZ26" s="46"/>
+      <c r="BA26" s="46"/>
+      <c r="BB26" s="46"/>
+      <c r="BC26" s="47"/>
+      <c r="BD26" s="45"/>
+      <c r="BE26" s="46"/>
+      <c r="BF26" s="46"/>
+      <c r="BG26" s="46"/>
+      <c r="BH26" s="46"/>
+      <c r="BI26" s="46"/>
+      <c r="BJ26" s="46"/>
+      <c r="BK26" s="46"/>
+      <c r="BL26" s="46"/>
+      <c r="BM26" s="46"/>
+      <c r="BN26" s="46"/>
+      <c r="BO26" s="47"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="C27" s="47">
+      <c r="C27" s="43">
         <v>2</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="58" t="s">
+      <c r="D27" s="43"/>
+      <c r="E27" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="54" t="s">
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="58" t="s">
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="59"/>
-      <c r="AU27" s="59"/>
-      <c r="AV27" s="59"/>
-      <c r="AW27" s="59"/>
-      <c r="AX27" s="59"/>
-      <c r="AY27" s="59"/>
-      <c r="AZ27" s="59"/>
-      <c r="BA27" s="59"/>
-      <c r="BB27" s="59"/>
-      <c r="BC27" s="60"/>
-      <c r="BD27" s="53"/>
-      <c r="BE27" s="53"/>
-      <c r="BF27" s="53"/>
-      <c r="BG27" s="53"/>
-      <c r="BH27" s="53"/>
-      <c r="BI27" s="53"/>
-      <c r="BJ27" s="53"/>
-      <c r="BK27" s="53"/>
-      <c r="BL27" s="53"/>
-      <c r="BM27" s="53"/>
-      <c r="BN27" s="53"/>
-      <c r="BO27" s="53"/>
+      <c r="AF27" s="46"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="46"/>
+      <c r="AL27" s="46"/>
+      <c r="AM27" s="46"/>
+      <c r="AN27" s="46"/>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="46"/>
+      <c r="AQ27" s="46"/>
+      <c r="AR27" s="46"/>
+      <c r="AS27" s="46"/>
+      <c r="AT27" s="46"/>
+      <c r="AU27" s="46"/>
+      <c r="AV27" s="46"/>
+      <c r="AW27" s="46"/>
+      <c r="AX27" s="46"/>
+      <c r="AY27" s="46"/>
+      <c r="AZ27" s="46"/>
+      <c r="BA27" s="46"/>
+      <c r="BB27" s="46"/>
+      <c r="BC27" s="47"/>
+      <c r="BD27" s="42"/>
+      <c r="BE27" s="42"/>
+      <c r="BF27" s="42"/>
+      <c r="BG27" s="42"/>
+      <c r="BH27" s="42"/>
+      <c r="BI27" s="42"/>
+      <c r="BJ27" s="42"/>
+      <c r="BK27" s="42"/>
+      <c r="BL27" s="42"/>
+      <c r="BM27" s="42"/>
+      <c r="BN27" s="42"/>
+      <c r="BO27" s="42"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="C28" s="47">
+      <c r="C28" s="43">
         <v>3</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="53"/>
-      <c r="AF28" s="53"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
-      <c r="AM28" s="53"/>
-      <c r="AN28" s="53"/>
-      <c r="AO28" s="53"/>
-      <c r="AP28" s="53"/>
-      <c r="AQ28" s="53"/>
-      <c r="AR28" s="53"/>
-      <c r="AS28" s="53"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="53"/>
-      <c r="AV28" s="53"/>
-      <c r="AW28" s="53"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="53"/>
-      <c r="AZ28" s="53"/>
-      <c r="BA28" s="53"/>
-      <c r="BB28" s="53"/>
-      <c r="BC28" s="53"/>
-      <c r="BD28" s="53"/>
-      <c r="BE28" s="53"/>
-      <c r="BF28" s="53"/>
-      <c r="BG28" s="53"/>
-      <c r="BH28" s="53"/>
-      <c r="BI28" s="53"/>
-      <c r="BJ28" s="53"/>
-      <c r="BK28" s="53"/>
-      <c r="BL28" s="53"/>
-      <c r="BM28" s="53"/>
-      <c r="BN28" s="53"/>
-      <c r="BO28" s="53"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="42"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="42"/>
+      <c r="AU28" s="42"/>
+      <c r="AV28" s="42"/>
+      <c r="AW28" s="42"/>
+      <c r="AX28" s="42"/>
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="42"/>
+      <c r="BA28" s="42"/>
+      <c r="BB28" s="42"/>
+      <c r="BC28" s="42"/>
+      <c r="BD28" s="42"/>
+      <c r="BE28" s="42"/>
+      <c r="BF28" s="42"/>
+      <c r="BG28" s="42"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="42"/>
+      <c r="BJ28" s="42"/>
+      <c r="BK28" s="42"/>
+      <c r="BL28" s="42"/>
+      <c r="BM28" s="42"/>
+      <c r="BN28" s="42"/>
+      <c r="BO28" s="42"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="6"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="C29" s="47">
+      <c r="C29" s="43">
         <v>4</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="53"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="53"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="53"/>
-      <c r="AN29" s="53"/>
-      <c r="AO29" s="53"/>
-      <c r="AP29" s="53"/>
-      <c r="AQ29" s="53"/>
-      <c r="AR29" s="53"/>
-      <c r="AS29" s="53"/>
-      <c r="AT29" s="53"/>
-      <c r="AU29" s="53"/>
-      <c r="AV29" s="53"/>
-      <c r="AW29" s="53"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="53"/>
-      <c r="AZ29" s="53"/>
-      <c r="BA29" s="53"/>
-      <c r="BB29" s="53"/>
-      <c r="BC29" s="53"/>
-      <c r="BD29" s="53"/>
-      <c r="BE29" s="53"/>
-      <c r="BF29" s="53"/>
-      <c r="BG29" s="53"/>
-      <c r="BH29" s="53"/>
-      <c r="BI29" s="53"/>
-      <c r="BJ29" s="53"/>
-      <c r="BK29" s="53"/>
-      <c r="BL29" s="53"/>
-      <c r="BM29" s="53"/>
-      <c r="BN29" s="53"/>
-      <c r="BO29" s="53"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="42"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="42"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="42"/>
+      <c r="AT29" s="42"/>
+      <c r="AU29" s="42"/>
+      <c r="AV29" s="42"/>
+      <c r="AW29" s="42"/>
+      <c r="AX29" s="42"/>
+      <c r="AY29" s="42"/>
+      <c r="AZ29" s="42"/>
+      <c r="BA29" s="42"/>
+      <c r="BB29" s="42"/>
+      <c r="BC29" s="42"/>
+      <c r="BD29" s="42"/>
+      <c r="BE29" s="42"/>
+      <c r="BF29" s="42"/>
+      <c r="BG29" s="42"/>
+      <c r="BH29" s="42"/>
+      <c r="BI29" s="42"/>
+      <c r="BJ29" s="42"/>
+      <c r="BK29" s="42"/>
+      <c r="BL29" s="42"/>
+      <c r="BM29" s="42"/>
+      <c r="BN29" s="42"/>
+      <c r="BO29" s="42"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="6"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="C30" s="47">
+      <c r="C30" s="43">
         <v>5</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="53"/>
-      <c r="AF30" s="53"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="53"/>
-      <c r="AJ30" s="53"/>
-      <c r="AK30" s="53"/>
-      <c r="AL30" s="53"/>
-      <c r="AM30" s="53"/>
-      <c r="AN30" s="53"/>
-      <c r="AO30" s="53"/>
-      <c r="AP30" s="53"/>
-      <c r="AQ30" s="53"/>
-      <c r="AR30" s="53"/>
-      <c r="AS30" s="53"/>
-      <c r="AT30" s="53"/>
-      <c r="AU30" s="53"/>
-      <c r="AV30" s="53"/>
-      <c r="AW30" s="53"/>
-      <c r="AX30" s="53"/>
-      <c r="AY30" s="53"/>
-      <c r="AZ30" s="53"/>
-      <c r="BA30" s="53"/>
-      <c r="BB30" s="53"/>
-      <c r="BC30" s="53"/>
-      <c r="BD30" s="53"/>
-      <c r="BE30" s="53"/>
-      <c r="BF30" s="53"/>
-      <c r="BG30" s="53"/>
-      <c r="BH30" s="53"/>
-      <c r="BI30" s="53"/>
-      <c r="BJ30" s="53"/>
-      <c r="BK30" s="53"/>
-      <c r="BL30" s="53"/>
-      <c r="BM30" s="53"/>
-      <c r="BN30" s="53"/>
-      <c r="BO30" s="53"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="42"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="42"/>
+      <c r="AT30" s="42"/>
+      <c r="AU30" s="42"/>
+      <c r="AV30" s="42"/>
+      <c r="AW30" s="42"/>
+      <c r="AX30" s="42"/>
+      <c r="AY30" s="42"/>
+      <c r="AZ30" s="42"/>
+      <c r="BA30" s="42"/>
+      <c r="BB30" s="42"/>
+      <c r="BC30" s="42"/>
+      <c r="BD30" s="42"/>
+      <c r="BE30" s="42"/>
+      <c r="BF30" s="42"/>
+      <c r="BG30" s="42"/>
+      <c r="BH30" s="42"/>
+      <c r="BI30" s="42"/>
+      <c r="BJ30" s="42"/>
+      <c r="BK30" s="42"/>
+      <c r="BL30" s="42"/>
+      <c r="BM30" s="42"/>
+      <c r="BN30" s="42"/>
+      <c r="BO30" s="42"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="6"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="C31" s="47">
+      <c r="C31" s="43">
         <v>6</v>
       </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="54"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
-      <c r="AP31" s="53"/>
-      <c r="AQ31" s="53"/>
-      <c r="AR31" s="53"/>
-      <c r="AS31" s="53"/>
-      <c r="AT31" s="53"/>
-      <c r="AU31" s="53"/>
-      <c r="AV31" s="53"/>
-      <c r="AW31" s="53"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="53"/>
-      <c r="AZ31" s="53"/>
-      <c r="BA31" s="53"/>
-      <c r="BB31" s="53"/>
-      <c r="BC31" s="53"/>
-      <c r="BD31" s="53"/>
-      <c r="BE31" s="53"/>
-      <c r="BF31" s="53"/>
-      <c r="BG31" s="53"/>
-      <c r="BH31" s="53"/>
-      <c r="BI31" s="53"/>
-      <c r="BJ31" s="53"/>
-      <c r="BK31" s="53"/>
-      <c r="BL31" s="53"/>
-      <c r="BM31" s="53"/>
-      <c r="BN31" s="53"/>
-      <c r="BO31" s="53"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="42"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="42"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="42"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="42"/>
+      <c r="BA31" s="42"/>
+      <c r="BB31" s="42"/>
+      <c r="BC31" s="42"/>
+      <c r="BD31" s="42"/>
+      <c r="BE31" s="42"/>
+      <c r="BF31" s="42"/>
+      <c r="BG31" s="42"/>
+      <c r="BH31" s="42"/>
+      <c r="BI31" s="42"/>
+      <c r="BJ31" s="42"/>
+      <c r="BK31" s="42"/>
+      <c r="BL31" s="42"/>
+      <c r="BM31" s="42"/>
+      <c r="BN31" s="42"/>
+      <c r="BO31" s="42"/>
       <c r="BP31" s="8"/>
       <c r="BQ31" s="6"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="C32" s="47">
+      <c r="C32" s="43">
         <v>7</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="53"/>
-      <c r="AF32" s="53"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="53"/>
-      <c r="AJ32" s="53"/>
-      <c r="AK32" s="53"/>
-      <c r="AL32" s="53"/>
-      <c r="AM32" s="53"/>
-      <c r="AN32" s="53"/>
-      <c r="AO32" s="53"/>
-      <c r="AP32" s="53"/>
-      <c r="AQ32" s="53"/>
-      <c r="AR32" s="53"/>
-      <c r="AS32" s="53"/>
-      <c r="AT32" s="53"/>
-      <c r="AU32" s="53"/>
-      <c r="AV32" s="53"/>
-      <c r="AW32" s="53"/>
-      <c r="AX32" s="53"/>
-      <c r="AY32" s="53"/>
-      <c r="AZ32" s="53"/>
-      <c r="BA32" s="53"/>
-      <c r="BB32" s="53"/>
-      <c r="BC32" s="53"/>
-      <c r="BD32" s="53"/>
-      <c r="BE32" s="53"/>
-      <c r="BF32" s="53"/>
-      <c r="BG32" s="53"/>
-      <c r="BH32" s="53"/>
-      <c r="BI32" s="53"/>
-      <c r="BJ32" s="53"/>
-      <c r="BK32" s="53"/>
-      <c r="BL32" s="53"/>
-      <c r="BM32" s="53"/>
-      <c r="BN32" s="53"/>
-      <c r="BO32" s="53"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="42"/>
+      <c r="AK32" s="42"/>
+      <c r="AL32" s="42"/>
+      <c r="AM32" s="42"/>
+      <c r="AN32" s="42"/>
+      <c r="AO32" s="42"/>
+      <c r="AP32" s="42"/>
+      <c r="AQ32" s="42"/>
+      <c r="AR32" s="42"/>
+      <c r="AS32" s="42"/>
+      <c r="AT32" s="42"/>
+      <c r="AU32" s="42"/>
+      <c r="AV32" s="42"/>
+      <c r="AW32" s="42"/>
+      <c r="AX32" s="42"/>
+      <c r="AY32" s="42"/>
+      <c r="AZ32" s="42"/>
+      <c r="BA32" s="42"/>
+      <c r="BB32" s="42"/>
+      <c r="BC32" s="42"/>
+      <c r="BD32" s="42"/>
+      <c r="BE32" s="42"/>
+      <c r="BF32" s="42"/>
+      <c r="BG32" s="42"/>
+      <c r="BH32" s="42"/>
+      <c r="BI32" s="42"/>
+      <c r="BJ32" s="42"/>
+      <c r="BK32" s="42"/>
+      <c r="BL32" s="42"/>
+      <c r="BM32" s="42"/>
+      <c r="BN32" s="42"/>
+      <c r="BO32" s="42"/>
       <c r="BP32" s="8"/>
       <c r="BQ32" s="6"/>
     </row>
     <row r="33" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="C33" s="47">
+      <c r="C33" s="43">
         <v>8</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="53"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="53"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="53"/>
-      <c r="AN33" s="53"/>
-      <c r="AO33" s="53"/>
-      <c r="AP33" s="53"/>
-      <c r="AQ33" s="53"/>
-      <c r="AR33" s="53"/>
-      <c r="AS33" s="53"/>
-      <c r="AT33" s="53"/>
-      <c r="AU33" s="53"/>
-      <c r="AV33" s="53"/>
-      <c r="AW33" s="53"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="53"/>
-      <c r="AZ33" s="53"/>
-      <c r="BA33" s="53"/>
-      <c r="BB33" s="53"/>
-      <c r="BC33" s="53"/>
-      <c r="BD33" s="53"/>
-      <c r="BE33" s="53"/>
-      <c r="BF33" s="53"/>
-      <c r="BG33" s="53"/>
-      <c r="BH33" s="53"/>
-      <c r="BI33" s="53"/>
-      <c r="BJ33" s="53"/>
-      <c r="BK33" s="53"/>
-      <c r="BL33" s="53"/>
-      <c r="BM33" s="53"/>
-      <c r="BN33" s="53"/>
-      <c r="BO33" s="53"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="42"/>
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="42"/>
+      <c r="AL33" s="42"/>
+      <c r="AM33" s="42"/>
+      <c r="AN33" s="42"/>
+      <c r="AO33" s="42"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="42"/>
+      <c r="AR33" s="42"/>
+      <c r="AS33" s="42"/>
+      <c r="AT33" s="42"/>
+      <c r="AU33" s="42"/>
+      <c r="AV33" s="42"/>
+      <c r="AW33" s="42"/>
+      <c r="AX33" s="42"/>
+      <c r="AY33" s="42"/>
+      <c r="AZ33" s="42"/>
+      <c r="BA33" s="42"/>
+      <c r="BB33" s="42"/>
+      <c r="BC33" s="42"/>
+      <c r="BD33" s="42"/>
+      <c r="BE33" s="42"/>
+      <c r="BF33" s="42"/>
+      <c r="BG33" s="42"/>
+      <c r="BH33" s="42"/>
+      <c r="BI33" s="42"/>
+      <c r="BJ33" s="42"/>
+      <c r="BK33" s="42"/>
+      <c r="BL33" s="42"/>
+      <c r="BM33" s="42"/>
+      <c r="BN33" s="42"/>
+      <c r="BO33" s="42"/>
       <c r="BP33" s="8"/>
       <c r="BQ33" s="6"/>
     </row>
     <row r="34" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="47">
+      <c r="C34" s="43">
         <v>9</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
-      <c r="AE34" s="53"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="53"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="53"/>
-      <c r="AK34" s="53"/>
-      <c r="AL34" s="53"/>
-      <c r="AM34" s="53"/>
-      <c r="AN34" s="53"/>
-      <c r="AO34" s="53"/>
-      <c r="AP34" s="53"/>
-      <c r="AQ34" s="53"/>
-      <c r="AR34" s="53"/>
-      <c r="AS34" s="53"/>
-      <c r="AT34" s="53"/>
-      <c r="AU34" s="53"/>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
-      <c r="BB34" s="53"/>
-      <c r="BC34" s="53"/>
-      <c r="BD34" s="53"/>
-      <c r="BE34" s="53"/>
-      <c r="BF34" s="53"/>
-      <c r="BG34" s="53"/>
-      <c r="BH34" s="53"/>
-      <c r="BI34" s="53"/>
-      <c r="BJ34" s="53"/>
-      <c r="BK34" s="53"/>
-      <c r="BL34" s="53"/>
-      <c r="BM34" s="53"/>
-      <c r="BN34" s="53"/>
-      <c r="BO34" s="53"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="42"/>
+      <c r="AL34" s="42"/>
+      <c r="AM34" s="42"/>
+      <c r="AN34" s="42"/>
+      <c r="AO34" s="42"/>
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="42"/>
+      <c r="AR34" s="42"/>
+      <c r="AS34" s="42"/>
+      <c r="AT34" s="42"/>
+      <c r="AU34" s="42"/>
+      <c r="AV34" s="42"/>
+      <c r="AW34" s="42"/>
+      <c r="AX34" s="42"/>
+      <c r="AY34" s="42"/>
+      <c r="AZ34" s="42"/>
+      <c r="BA34" s="42"/>
+      <c r="BB34" s="42"/>
+      <c r="BC34" s="42"/>
+      <c r="BD34" s="42"/>
+      <c r="BE34" s="42"/>
+      <c r="BF34" s="42"/>
+      <c r="BG34" s="42"/>
+      <c r="BH34" s="42"/>
+      <c r="BI34" s="42"/>
+      <c r="BJ34" s="42"/>
+      <c r="BK34" s="42"/>
+      <c r="BL34" s="42"/>
+      <c r="BM34" s="42"/>
+      <c r="BN34" s="42"/>
+      <c r="BO34" s="42"/>
       <c r="BP34" s="8"/>
       <c r="BQ34" s="6"/>
     </row>
@@ -4274,42 +4274,48 @@
     <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="BD34:BO34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BO33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD32:BO32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BO31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="BD29:BO29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BO30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="BD25:BO25"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="O28:AD28"/>
     <mergeCell ref="AE28:BC28"/>
     <mergeCell ref="BD26:BO26"/>
@@ -4326,48 +4332,42 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="BD25:BO25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="BD29:BO29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BO30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="BD32:BO32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BO31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD34:BO34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BO33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4406,247 +4406,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="78" t="s">
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="78"/>
-      <c r="BM1" s="78"/>
-      <c r="BN1" s="78"/>
-      <c r="BO1" s="78"/>
-      <c r="BP1" s="78"/>
-      <c r="BQ1" s="78"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="68"/>
+      <c r="BO1" s="68"/>
+      <c r="BP1" s="68"/>
+      <c r="BQ1" s="68"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="67" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67" t="s">
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="67" t="s">
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="67"/>
-      <c r="BH2" s="67"/>
-      <c r="BI2" s="67"/>
-      <c r="BJ2" s="81" t="s">
+      <c r="BC2" s="65"/>
+      <c r="BD2" s="65"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="65"/>
+      <c r="BG2" s="65"/>
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="65"/>
+      <c r="BJ2" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="81"/>
-      <c r="BL2" s="81"/>
-      <c r="BM2" s="81"/>
-      <c r="BN2" s="81"/>
-      <c r="BO2" s="81"/>
-      <c r="BP2" s="81"/>
-      <c r="BQ2" s="81"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="72" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="73">
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="72">
         <v>45510</v>
       </c>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="72" t="s">
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="74">
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="71">
         <v>45533</v>
       </c>
-      <c r="BK3" s="74"/>
-      <c r="BL3" s="74"/>
-      <c r="BM3" s="74"/>
-      <c r="BN3" s="74"/>
-      <c r="BO3" s="74"/>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="74"/>
+      <c r="BK3" s="71"/>
+      <c r="BL3" s="71"/>
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="71"/>
+      <c r="BO3" s="71"/>
+      <c r="BP3" s="71"/>
+      <c r="BQ3" s="71"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4671,94 +4671,94 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="75" t="s">
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="75"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="75"/>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="75"/>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="71" t="s">
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
-      <c r="AS6" s="71"/>
-      <c r="AT6" s="71"/>
-      <c r="AU6" s="71"/>
-      <c r="AV6" s="71"/>
-      <c r="AW6" s="71"/>
-      <c r="AX6" s="71"/>
-      <c r="AY6" s="71"/>
-      <c r="AZ6" s="71"/>
-      <c r="BA6" s="71"/>
-      <c r="BB6" s="71"/>
-      <c r="BC6" s="71"/>
-      <c r="BD6" s="71"/>
-      <c r="BE6" s="71"/>
-      <c r="BF6" s="71"/>
-      <c r="BG6" s="71"/>
-      <c r="BH6" s="71"/>
-      <c r="BI6" s="71"/>
-      <c r="BJ6" s="71"/>
-      <c r="BK6" s="71"/>
-      <c r="BL6" s="71"/>
-      <c r="BM6" s="71"/>
-      <c r="BN6" s="71"/>
-      <c r="BO6" s="71"/>
-      <c r="BP6" s="71"/>
+      <c r="AP6" s="74"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="74"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="74"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="74"/>
+      <c r="BC6" s="74"/>
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="74"/>
+      <c r="BF6" s="74"/>
+      <c r="BG6" s="74"/>
+      <c r="BH6" s="74"/>
+      <c r="BI6" s="74"/>
+      <c r="BJ6" s="74"/>
+      <c r="BK6" s="74"/>
+      <c r="BL6" s="74"/>
+      <c r="BM6" s="74"/>
+      <c r="BN6" s="74"/>
+      <c r="BO6" s="74"/>
+      <c r="BP6" s="74"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
       <c r="M7" s="41" t="s">
         <v>66</v>
       </c>
@@ -4789,34 +4789,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="71"/>
-      <c r="BA7" s="71"/>
-      <c r="BB7" s="71"/>
-      <c r="BC7" s="71"/>
-      <c r="BD7" s="71"/>
-      <c r="BE7" s="71"/>
-      <c r="BF7" s="71"/>
-      <c r="BG7" s="71"/>
-      <c r="BH7" s="71"/>
-      <c r="BI7" s="71"/>
-      <c r="BJ7" s="71"/>
-      <c r="BK7" s="71"/>
-      <c r="BL7" s="71"/>
-      <c r="BM7" s="71"/>
-      <c r="BN7" s="71"/>
-      <c r="BO7" s="71"/>
-      <c r="BP7" s="71"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="74"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="74"/>
+      <c r="BE7" s="74"/>
+      <c r="BF7" s="74"/>
+      <c r="BG7" s="74"/>
+      <c r="BH7" s="74"/>
+      <c r="BI7" s="74"/>
+      <c r="BJ7" s="74"/>
+      <c r="BK7" s="74"/>
+      <c r="BL7" s="74"/>
+      <c r="BM7" s="74"/>
+      <c r="BN7" s="74"/>
+      <c r="BO7" s="74"/>
+      <c r="BP7" s="74"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -4830,89 +4830,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="67" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="65" t="s">
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="65"/>
-      <c r="BJ10" s="65" t="s">
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="76"/>
+      <c r="BB10" s="76"/>
+      <c r="BC10" s="76"/>
+      <c r="BD10" s="76"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="76"/>
+      <c r="BG10" s="76"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="76"/>
+      <c r="BJ10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="65"/>
-      <c r="BL10" s="65"/>
-      <c r="BM10" s="65"/>
-      <c r="BN10" s="65"/>
-      <c r="BO10" s="65"/>
-      <c r="BP10" s="65"/>
+      <c r="BK10" s="76"/>
+      <c r="BL10" s="76"/>
+      <c r="BM10" s="76"/>
+      <c r="BN10" s="76"/>
+      <c r="BO10" s="76"/>
+      <c r="BP10" s="76"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
@@ -4928,11 +4928,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="67" t="s">
+      <c r="T11" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -4982,12 +4982,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -5001,9 +5001,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -5052,12 +5052,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -5071,9 +5071,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -5122,12 +5122,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5141,9 +5141,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -5192,12 +5192,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5211,9 +5211,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -5273,88 +5273,88 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="67" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="65" t="s">
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65" t="s">
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="76"/>
+      <c r="AZ18" s="76"/>
+      <c r="BA18" s="76"/>
+      <c r="BB18" s="76"/>
+      <c r="BC18" s="76"/>
+      <c r="BD18" s="76"/>
+      <c r="BE18" s="76"/>
+      <c r="BF18" s="76"/>
+      <c r="BG18" s="76"/>
+      <c r="BH18" s="76"/>
+      <c r="BI18" s="76"/>
+      <c r="BJ18" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="65"/>
-      <c r="BL18" s="65"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
-      <c r="BO18" s="65"/>
-      <c r="BP18" s="65"/>
+      <c r="BK18" s="76"/>
+      <c r="BL18" s="76"/>
+      <c r="BM18" s="76"/>
+      <c r="BN18" s="76"/>
+      <c r="BO18" s="76"/>
+      <c r="BP18" s="76"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="41" t="s">
         <v>68</v>
       </c>
@@ -5370,9 +5370,9 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
       <c r="W19" s="40" t="s">
         <v>69</v>
       </c>
@@ -5656,270 +5656,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="68" t="s">
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="68"/>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="68"/>
-      <c r="AG26" s="68"/>
-      <c r="AH26" s="68"/>
-      <c r="AI26" s="68"/>
-      <c r="AJ26" s="68"/>
-      <c r="AK26" s="68"/>
-      <c r="AL26" s="68"/>
-      <c r="AM26" s="68"/>
-      <c r="AN26" s="68"/>
-      <c r="AO26" s="68"/>
-      <c r="AP26" s="68"/>
-      <c r="AQ26" s="68"/>
-      <c r="AR26" s="68"/>
-      <c r="AS26" s="68"/>
-      <c r="AT26" s="68"/>
-      <c r="AU26" s="68"/>
-      <c r="AV26" s="68"/>
-      <c r="AW26" s="68"/>
-      <c r="AX26" s="68"/>
-      <c r="AY26" s="68"/>
-      <c r="AZ26" s="68"/>
-      <c r="BA26" s="68"/>
-      <c r="BB26" s="68"/>
-      <c r="BC26" s="68"/>
-      <c r="BD26" s="68"/>
-      <c r="BE26" s="68"/>
-      <c r="BF26" s="68"/>
-      <c r="BG26" s="68"/>
-      <c r="BH26" s="68"/>
-      <c r="BI26" s="68"/>
-      <c r="BJ26" s="68"/>
-      <c r="BK26" s="68"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="81"/>
+      <c r="AH26" s="81"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="81"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="81"/>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="81"/>
+      <c r="AO26" s="81"/>
+      <c r="AP26" s="81"/>
+      <c r="AQ26" s="81"/>
+      <c r="AR26" s="81"/>
+      <c r="AS26" s="81"/>
+      <c r="AT26" s="81"/>
+      <c r="AU26" s="81"/>
+      <c r="AV26" s="81"/>
+      <c r="AW26" s="81"/>
+      <c r="AX26" s="81"/>
+      <c r="AY26" s="81"/>
+      <c r="AZ26" s="81"/>
+      <c r="BA26" s="81"/>
+      <c r="BB26" s="81"/>
+      <c r="BC26" s="81"/>
+      <c r="BD26" s="81"/>
+      <c r="BE26" s="81"/>
+      <c r="BF26" s="81"/>
+      <c r="BG26" s="81"/>
+      <c r="BH26" s="81"/>
+      <c r="BI26" s="81"/>
+      <c r="BJ26" s="81"/>
+      <c r="BK26" s="81"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="64" t="s">
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="64"/>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="64"/>
-      <c r="AH27" s="64"/>
-      <c r="AI27" s="64"/>
-      <c r="AJ27" s="64"/>
-      <c r="AK27" s="64"/>
-      <c r="AL27" s="64"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="64"/>
-      <c r="AO27" s="64"/>
-      <c r="AP27" s="64"/>
-      <c r="AQ27" s="64"/>
-      <c r="AR27" s="64"/>
-      <c r="AS27" s="64"/>
-      <c r="AT27" s="64"/>
-      <c r="AU27" s="64"/>
-      <c r="AV27" s="64"/>
-      <c r="AW27" s="64"/>
-      <c r="AX27" s="64"/>
-      <c r="AY27" s="64"/>
-      <c r="AZ27" s="64"/>
-      <c r="BA27" s="64"/>
-      <c r="BB27" s="64"/>
-      <c r="BC27" s="64"/>
-      <c r="BD27" s="64"/>
-      <c r="BE27" s="64"/>
-      <c r="BF27" s="64"/>
-      <c r="BG27" s="64"/>
-      <c r="BH27" s="64"/>
-      <c r="BI27" s="64"/>
-      <c r="BJ27" s="64"/>
-      <c r="BK27" s="64"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="80"/>
+      <c r="AL27" s="80"/>
+      <c r="AM27" s="80"/>
+      <c r="AN27" s="80"/>
+      <c r="AO27" s="80"/>
+      <c r="AP27" s="80"/>
+      <c r="AQ27" s="80"/>
+      <c r="AR27" s="80"/>
+      <c r="AS27" s="80"/>
+      <c r="AT27" s="80"/>
+      <c r="AU27" s="80"/>
+      <c r="AV27" s="80"/>
+      <c r="AW27" s="80"/>
+      <c r="AX27" s="80"/>
+      <c r="AY27" s="80"/>
+      <c r="AZ27" s="80"/>
+      <c r="BA27" s="80"/>
+      <c r="BB27" s="80"/>
+      <c r="BC27" s="80"/>
+      <c r="BD27" s="80"/>
+      <c r="BE27" s="80"/>
+      <c r="BF27" s="80"/>
+      <c r="BG27" s="80"/>
+      <c r="BH27" s="80"/>
+      <c r="BI27" s="80"/>
+      <c r="BJ27" s="80"/>
+      <c r="BK27" s="80"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="64" t="s">
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="64"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="64"/>
-      <c r="AO28" s="64"/>
-      <c r="AP28" s="64"/>
-      <c r="AQ28" s="64"/>
-      <c r="AR28" s="64"/>
-      <c r="AS28" s="64"/>
-      <c r="AT28" s="64"/>
-      <c r="AU28" s="64"/>
-      <c r="AV28" s="64"/>
-      <c r="AW28" s="64"/>
-      <c r="AX28" s="64"/>
-      <c r="AY28" s="64"/>
-      <c r="AZ28" s="64"/>
-      <c r="BA28" s="64"/>
-      <c r="BB28" s="64"/>
-      <c r="BC28" s="64"/>
-      <c r="BD28" s="64"/>
-      <c r="BE28" s="64"/>
-      <c r="BF28" s="64"/>
-      <c r="BG28" s="64"/>
-      <c r="BH28" s="64"/>
-      <c r="BI28" s="64"/>
-      <c r="BJ28" s="64"/>
-      <c r="BK28" s="64"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="80"/>
+      <c r="AD28" s="80"/>
+      <c r="AE28" s="80"/>
+      <c r="AF28" s="80"/>
+      <c r="AG28" s="80"/>
+      <c r="AH28" s="80"/>
+      <c r="AI28" s="80"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="80"/>
+      <c r="AL28" s="80"/>
+      <c r="AM28" s="80"/>
+      <c r="AN28" s="80"/>
+      <c r="AO28" s="80"/>
+      <c r="AP28" s="80"/>
+      <c r="AQ28" s="80"/>
+      <c r="AR28" s="80"/>
+      <c r="AS28" s="80"/>
+      <c r="AT28" s="80"/>
+      <c r="AU28" s="80"/>
+      <c r="AV28" s="80"/>
+      <c r="AW28" s="80"/>
+      <c r="AX28" s="80"/>
+      <c r="AY28" s="80"/>
+      <c r="AZ28" s="80"/>
+      <c r="BA28" s="80"/>
+      <c r="BB28" s="80"/>
+      <c r="BC28" s="80"/>
+      <c r="BD28" s="80"/>
+      <c r="BE28" s="80"/>
+      <c r="BF28" s="80"/>
+      <c r="BG28" s="80"/>
+      <c r="BH28" s="80"/>
+      <c r="BI28" s="80"/>
+      <c r="BJ28" s="80"/>
+      <c r="BK28" s="80"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="64" t="s">
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="64"/>
-      <c r="AR29" s="64"/>
-      <c r="AS29" s="64"/>
-      <c r="AT29" s="64"/>
-      <c r="AU29" s="64"/>
-      <c r="AV29" s="64"/>
-      <c r="AW29" s="64"/>
-      <c r="AX29" s="64"/>
-      <c r="AY29" s="64"/>
-      <c r="AZ29" s="64"/>
-      <c r="BA29" s="64"/>
-      <c r="BB29" s="64"/>
-      <c r="BC29" s="64"/>
-      <c r="BD29" s="64"/>
-      <c r="BE29" s="64"/>
-      <c r="BF29" s="64"/>
-      <c r="BG29" s="64"/>
-      <c r="BH29" s="64"/>
-      <c r="BI29" s="64"/>
-      <c r="BJ29" s="64"/>
-      <c r="BK29" s="64"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="80"/>
+      <c r="AD29" s="80"/>
+      <c r="AE29" s="80"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="80"/>
+      <c r="AH29" s="80"/>
+      <c r="AI29" s="80"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="80"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="80"/>
+      <c r="AN29" s="80"/>
+      <c r="AO29" s="80"/>
+      <c r="AP29" s="80"/>
+      <c r="AQ29" s="80"/>
+      <c r="AR29" s="80"/>
+      <c r="AS29" s="80"/>
+      <c r="AT29" s="80"/>
+      <c r="AU29" s="80"/>
+      <c r="AV29" s="80"/>
+      <c r="AW29" s="80"/>
+      <c r="AX29" s="80"/>
+      <c r="AY29" s="80"/>
+      <c r="AZ29" s="80"/>
+      <c r="BA29" s="80"/>
+      <c r="BB29" s="80"/>
+      <c r="BC29" s="80"/>
+      <c r="BD29" s="80"/>
+      <c r="BE29" s="80"/>
+      <c r="BF29" s="80"/>
+      <c r="BG29" s="80"/>
+      <c r="BH29" s="80"/>
+      <c r="BI29" s="80"/>
+      <c r="BJ29" s="80"/>
+      <c r="BK29" s="80"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -6443,26 +6443,21 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
     <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="AO6:BP6"/>
     <mergeCell ref="C7:G7"/>
@@ -6479,21 +6474,26 @@
     <mergeCell ref="W10:BI10"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -6515,8 +6515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E6ABAF-D949-47FF-9313-6927E9CF6184}">
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6532,243 +6532,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="77"/>
-      <c r="AK1" s="77" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="78" t="s">
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-      <c r="BC1" s="78"/>
-      <c r="BD1" s="78"/>
-      <c r="BE1" s="78"/>
-      <c r="BF1" s="78"/>
-      <c r="BG1" s="78"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="78"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="78"/>
-      <c r="BM1" s="78"/>
-      <c r="BN1" s="78"/>
-      <c r="BO1" s="78"/>
-      <c r="BP1" s="78"/>
-      <c r="BQ1" s="78"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="68"/>
+      <c r="AZ1" s="68"/>
+      <c r="BA1" s="68"/>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
+      <c r="BG1" s="68"/>
+      <c r="BH1" s="68"/>
+      <c r="BI1" s="68"/>
+      <c r="BJ1" s="68"/>
+      <c r="BK1" s="68"/>
+      <c r="BL1" s="68"/>
+      <c r="BM1" s="68"/>
+      <c r="BN1" s="68"/>
+      <c r="BO1" s="68"/>
+      <c r="BP1" s="68"/>
+      <c r="BQ1" s="68"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="67" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67" t="s">
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="67" t="s">
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="67"/>
-      <c r="BH2" s="67"/>
-      <c r="BI2" s="67"/>
-      <c r="BJ2" s="81"/>
-      <c r="BK2" s="81"/>
-      <c r="BL2" s="81"/>
-      <c r="BM2" s="81"/>
-      <c r="BN2" s="81"/>
-      <c r="BO2" s="81"/>
-      <c r="BP2" s="81"/>
-      <c r="BQ2" s="81"/>
+      <c r="BC2" s="65"/>
+      <c r="BD2" s="65"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="65"/>
+      <c r="BG2" s="65"/>
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="65"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="72" t="s">
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="73">
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="72">
         <v>45553</v>
       </c>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="72" t="s">
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="74"/>
-      <c r="BK3" s="74"/>
-      <c r="BL3" s="74"/>
-      <c r="BM3" s="74"/>
-      <c r="BN3" s="74"/>
-      <c r="BO3" s="74"/>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="74"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="71"/>
+      <c r="BK3" s="71"/>
+      <c r="BL3" s="71"/>
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="71"/>
+      <c r="BO3" s="71"/>
+      <c r="BP3" s="71"/>
+      <c r="BQ3" s="71"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -6793,94 +6793,94 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="75" t="s">
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="75"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="75"/>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="75"/>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="71" t="s">
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="71"/>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71"/>
-      <c r="AS6" s="71"/>
-      <c r="AT6" s="71"/>
-      <c r="AU6" s="71"/>
-      <c r="AV6" s="71"/>
-      <c r="AW6" s="71"/>
-      <c r="AX6" s="71"/>
-      <c r="AY6" s="71"/>
-      <c r="AZ6" s="71"/>
-      <c r="BA6" s="71"/>
-      <c r="BB6" s="71"/>
-      <c r="BC6" s="71"/>
-      <c r="BD6" s="71"/>
-      <c r="BE6" s="71"/>
-      <c r="BF6" s="71"/>
-      <c r="BG6" s="71"/>
-      <c r="BH6" s="71"/>
-      <c r="BI6" s="71"/>
-      <c r="BJ6" s="71"/>
-      <c r="BK6" s="71"/>
-      <c r="BL6" s="71"/>
-      <c r="BM6" s="71"/>
-      <c r="BN6" s="71"/>
-      <c r="BO6" s="71"/>
-      <c r="BP6" s="71"/>
+      <c r="AP6" s="74"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="74"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="74"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="74"/>
+      <c r="BC6" s="74"/>
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="74"/>
+      <c r="BF6" s="74"/>
+      <c r="BG6" s="74"/>
+      <c r="BH6" s="74"/>
+      <c r="BI6" s="74"/>
+      <c r="BJ6" s="74"/>
+      <c r="BK6" s="74"/>
+      <c r="BL6" s="74"/>
+      <c r="BM6" s="74"/>
+      <c r="BN6" s="74"/>
+      <c r="BO6" s="74"/>
+      <c r="BP6" s="74"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
       <c r="M7" s="41" t="s">
         <v>73</v>
       </c>
@@ -6911,34 +6911,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="71"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="71"/>
-      <c r="BA7" s="71"/>
-      <c r="BB7" s="71"/>
-      <c r="BC7" s="71"/>
-      <c r="BD7" s="71"/>
-      <c r="BE7" s="71"/>
-      <c r="BF7" s="71"/>
-      <c r="BG7" s="71"/>
-      <c r="BH7" s="71"/>
-      <c r="BI7" s="71"/>
-      <c r="BJ7" s="71"/>
-      <c r="BK7" s="71"/>
-      <c r="BL7" s="71"/>
-      <c r="BM7" s="71"/>
-      <c r="BN7" s="71"/>
-      <c r="BO7" s="71"/>
-      <c r="BP7" s="71"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="74"/>
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="74"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="74"/>
+      <c r="BE7" s="74"/>
+      <c r="BF7" s="74"/>
+      <c r="BG7" s="74"/>
+      <c r="BH7" s="74"/>
+      <c r="BI7" s="74"/>
+      <c r="BJ7" s="74"/>
+      <c r="BK7" s="74"/>
+      <c r="BL7" s="74"/>
+      <c r="BM7" s="74"/>
+      <c r="BN7" s="74"/>
+      <c r="BO7" s="74"/>
+      <c r="BP7" s="74"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -6952,89 +6952,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="67" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="65" t="s">
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="65"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="65"/>
-      <c r="AN10" s="65"/>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="65"/>
-      <c r="AS10" s="65"/>
-      <c r="AT10" s="65"/>
-      <c r="AU10" s="65"/>
-      <c r="AV10" s="65"/>
-      <c r="AW10" s="65"/>
-      <c r="AX10" s="65"/>
-      <c r="AY10" s="65"/>
-      <c r="AZ10" s="65"/>
-      <c r="BA10" s="65"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="65"/>
-      <c r="BD10" s="65"/>
-      <c r="BE10" s="65"/>
-      <c r="BF10" s="65"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="65"/>
-      <c r="BI10" s="65"/>
-      <c r="BJ10" s="65" t="s">
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="76"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="76"/>
+      <c r="BB10" s="76"/>
+      <c r="BC10" s="76"/>
+      <c r="BD10" s="76"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="76"/>
+      <c r="BG10" s="76"/>
+      <c r="BH10" s="76"/>
+      <c r="BI10" s="76"/>
+      <c r="BJ10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="65"/>
-      <c r="BL10" s="65"/>
-      <c r="BM10" s="65"/>
-      <c r="BN10" s="65"/>
-      <c r="BO10" s="65"/>
-      <c r="BP10" s="65"/>
+      <c r="BK10" s="76"/>
+      <c r="BL10" s="76"/>
+      <c r="BM10" s="76"/>
+      <c r="BN10" s="76"/>
+      <c r="BO10" s="76"/>
+      <c r="BP10" s="76"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
@@ -7050,11 +7050,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="67" t="s">
+      <c r="T11" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -7104,12 +7104,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -7123,9 +7123,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -7174,12 +7174,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -7193,9 +7193,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -7244,12 +7244,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -7263,9 +7263,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -7314,12 +7314,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -7333,9 +7333,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -7395,88 +7395,88 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="67" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="65" t="s">
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65" t="s">
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="76"/>
+      <c r="AZ18" s="76"/>
+      <c r="BA18" s="76"/>
+      <c r="BB18" s="76"/>
+      <c r="BC18" s="76"/>
+      <c r="BD18" s="76"/>
+      <c r="BE18" s="76"/>
+      <c r="BF18" s="76"/>
+      <c r="BG18" s="76"/>
+      <c r="BH18" s="76"/>
+      <c r="BI18" s="76"/>
+      <c r="BJ18" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="65"/>
-      <c r="BL18" s="65"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
-      <c r="BO18" s="65"/>
-      <c r="BP18" s="65"/>
+      <c r="BK18" s="76"/>
+      <c r="BL18" s="76"/>
+      <c r="BM18" s="76"/>
+      <c r="BN18" s="76"/>
+      <c r="BO18" s="76"/>
+      <c r="BP18" s="76"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="41" t="s">
         <v>77</v>
       </c>
@@ -7492,9 +7492,9 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
       <c r="W19" s="40" t="s">
         <v>78</v>
       </c>
@@ -7778,270 +7778,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="68" t="s">
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="68"/>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="68"/>
-      <c r="AG26" s="68"/>
-      <c r="AH26" s="68"/>
-      <c r="AI26" s="68"/>
-      <c r="AJ26" s="68"/>
-      <c r="AK26" s="68"/>
-      <c r="AL26" s="68"/>
-      <c r="AM26" s="68"/>
-      <c r="AN26" s="68"/>
-      <c r="AO26" s="68"/>
-      <c r="AP26" s="68"/>
-      <c r="AQ26" s="68"/>
-      <c r="AR26" s="68"/>
-      <c r="AS26" s="68"/>
-      <c r="AT26" s="68"/>
-      <c r="AU26" s="68"/>
-      <c r="AV26" s="68"/>
-      <c r="AW26" s="68"/>
-      <c r="AX26" s="68"/>
-      <c r="AY26" s="68"/>
-      <c r="AZ26" s="68"/>
-      <c r="BA26" s="68"/>
-      <c r="BB26" s="68"/>
-      <c r="BC26" s="68"/>
-      <c r="BD26" s="68"/>
-      <c r="BE26" s="68"/>
-      <c r="BF26" s="68"/>
-      <c r="BG26" s="68"/>
-      <c r="BH26" s="68"/>
-      <c r="BI26" s="68"/>
-      <c r="BJ26" s="68"/>
-      <c r="BK26" s="68"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="81"/>
+      <c r="AF26" s="81"/>
+      <c r="AG26" s="81"/>
+      <c r="AH26" s="81"/>
+      <c r="AI26" s="81"/>
+      <c r="AJ26" s="81"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="81"/>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="81"/>
+      <c r="AO26" s="81"/>
+      <c r="AP26" s="81"/>
+      <c r="AQ26" s="81"/>
+      <c r="AR26" s="81"/>
+      <c r="AS26" s="81"/>
+      <c r="AT26" s="81"/>
+      <c r="AU26" s="81"/>
+      <c r="AV26" s="81"/>
+      <c r="AW26" s="81"/>
+      <c r="AX26" s="81"/>
+      <c r="AY26" s="81"/>
+      <c r="AZ26" s="81"/>
+      <c r="BA26" s="81"/>
+      <c r="BB26" s="81"/>
+      <c r="BC26" s="81"/>
+      <c r="BD26" s="81"/>
+      <c r="BE26" s="81"/>
+      <c r="BF26" s="81"/>
+      <c r="BG26" s="81"/>
+      <c r="BH26" s="81"/>
+      <c r="BI26" s="81"/>
+      <c r="BJ26" s="81"/>
+      <c r="BK26" s="81"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="64" t="s">
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="64"/>
-      <c r="AC27" s="64"/>
-      <c r="AD27" s="64"/>
-      <c r="AE27" s="64"/>
-      <c r="AF27" s="64"/>
-      <c r="AG27" s="64"/>
-      <c r="AH27" s="64"/>
-      <c r="AI27" s="64"/>
-      <c r="AJ27" s="64"/>
-      <c r="AK27" s="64"/>
-      <c r="AL27" s="64"/>
-      <c r="AM27" s="64"/>
-      <c r="AN27" s="64"/>
-      <c r="AO27" s="64"/>
-      <c r="AP27" s="64"/>
-      <c r="AQ27" s="64"/>
-      <c r="AR27" s="64"/>
-      <c r="AS27" s="64"/>
-      <c r="AT27" s="64"/>
-      <c r="AU27" s="64"/>
-      <c r="AV27" s="64"/>
-      <c r="AW27" s="64"/>
-      <c r="AX27" s="64"/>
-      <c r="AY27" s="64"/>
-      <c r="AZ27" s="64"/>
-      <c r="BA27" s="64"/>
-      <c r="BB27" s="64"/>
-      <c r="BC27" s="64"/>
-      <c r="BD27" s="64"/>
-      <c r="BE27" s="64"/>
-      <c r="BF27" s="64"/>
-      <c r="BG27" s="64"/>
-      <c r="BH27" s="64"/>
-      <c r="BI27" s="64"/>
-      <c r="BJ27" s="64"/>
-      <c r="BK27" s="64"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="80"/>
+      <c r="AL27" s="80"/>
+      <c r="AM27" s="80"/>
+      <c r="AN27" s="80"/>
+      <c r="AO27" s="80"/>
+      <c r="AP27" s="80"/>
+      <c r="AQ27" s="80"/>
+      <c r="AR27" s="80"/>
+      <c r="AS27" s="80"/>
+      <c r="AT27" s="80"/>
+      <c r="AU27" s="80"/>
+      <c r="AV27" s="80"/>
+      <c r="AW27" s="80"/>
+      <c r="AX27" s="80"/>
+      <c r="AY27" s="80"/>
+      <c r="AZ27" s="80"/>
+      <c r="BA27" s="80"/>
+      <c r="BB27" s="80"/>
+      <c r="BC27" s="80"/>
+      <c r="BD27" s="80"/>
+      <c r="BE27" s="80"/>
+      <c r="BF27" s="80"/>
+      <c r="BG27" s="80"/>
+      <c r="BH27" s="80"/>
+      <c r="BI27" s="80"/>
+      <c r="BJ27" s="80"/>
+      <c r="BK27" s="80"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="64" t="s">
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="64"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="64"/>
-      <c r="AO28" s="64"/>
-      <c r="AP28" s="64"/>
-      <c r="AQ28" s="64"/>
-      <c r="AR28" s="64"/>
-      <c r="AS28" s="64"/>
-      <c r="AT28" s="64"/>
-      <c r="AU28" s="64"/>
-      <c r="AV28" s="64"/>
-      <c r="AW28" s="64"/>
-      <c r="AX28" s="64"/>
-      <c r="AY28" s="64"/>
-      <c r="AZ28" s="64"/>
-      <c r="BA28" s="64"/>
-      <c r="BB28" s="64"/>
-      <c r="BC28" s="64"/>
-      <c r="BD28" s="64"/>
-      <c r="BE28" s="64"/>
-      <c r="BF28" s="64"/>
-      <c r="BG28" s="64"/>
-      <c r="BH28" s="64"/>
-      <c r="BI28" s="64"/>
-      <c r="BJ28" s="64"/>
-      <c r="BK28" s="64"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="80"/>
+      <c r="AD28" s="80"/>
+      <c r="AE28" s="80"/>
+      <c r="AF28" s="80"/>
+      <c r="AG28" s="80"/>
+      <c r="AH28" s="80"/>
+      <c r="AI28" s="80"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="80"/>
+      <c r="AL28" s="80"/>
+      <c r="AM28" s="80"/>
+      <c r="AN28" s="80"/>
+      <c r="AO28" s="80"/>
+      <c r="AP28" s="80"/>
+      <c r="AQ28" s="80"/>
+      <c r="AR28" s="80"/>
+      <c r="AS28" s="80"/>
+      <c r="AT28" s="80"/>
+      <c r="AU28" s="80"/>
+      <c r="AV28" s="80"/>
+      <c r="AW28" s="80"/>
+      <c r="AX28" s="80"/>
+      <c r="AY28" s="80"/>
+      <c r="AZ28" s="80"/>
+      <c r="BA28" s="80"/>
+      <c r="BB28" s="80"/>
+      <c r="BC28" s="80"/>
+      <c r="BD28" s="80"/>
+      <c r="BE28" s="80"/>
+      <c r="BF28" s="80"/>
+      <c r="BG28" s="80"/>
+      <c r="BH28" s="80"/>
+      <c r="BI28" s="80"/>
+      <c r="BJ28" s="80"/>
+      <c r="BK28" s="80"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="64" t="s">
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="64"/>
-      <c r="AL29" s="64"/>
-      <c r="AM29" s="64"/>
-      <c r="AN29" s="64"/>
-      <c r="AO29" s="64"/>
-      <c r="AP29" s="64"/>
-      <c r="AQ29" s="64"/>
-      <c r="AR29" s="64"/>
-      <c r="AS29" s="64"/>
-      <c r="AT29" s="64"/>
-      <c r="AU29" s="64"/>
-      <c r="AV29" s="64"/>
-      <c r="AW29" s="64"/>
-      <c r="AX29" s="64"/>
-      <c r="AY29" s="64"/>
-      <c r="AZ29" s="64"/>
-      <c r="BA29" s="64"/>
-      <c r="BB29" s="64"/>
-      <c r="BC29" s="64"/>
-      <c r="BD29" s="64"/>
-      <c r="BE29" s="64"/>
-      <c r="BF29" s="64"/>
-      <c r="BG29" s="64"/>
-      <c r="BH29" s="64"/>
-      <c r="BI29" s="64"/>
-      <c r="BJ29" s="64"/>
-      <c r="BK29" s="64"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="80"/>
+      <c r="AD29" s="80"/>
+      <c r="AE29" s="80"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="80"/>
+      <c r="AH29" s="80"/>
+      <c r="AI29" s="80"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="80"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="80"/>
+      <c r="AN29" s="80"/>
+      <c r="AO29" s="80"/>
+      <c r="AP29" s="80"/>
+      <c r="AQ29" s="80"/>
+      <c r="AR29" s="80"/>
+      <c r="AS29" s="80"/>
+      <c r="AT29" s="80"/>
+      <c r="AU29" s="80"/>
+      <c r="AV29" s="80"/>
+      <c r="AW29" s="80"/>
+      <c r="AX29" s="80"/>
+      <c r="AY29" s="80"/>
+      <c r="AZ29" s="80"/>
+      <c r="BA29" s="80"/>
+      <c r="BB29" s="80"/>
+      <c r="BC29" s="80"/>
+      <c r="BD29" s="80"/>
+      <c r="BE29" s="80"/>
+      <c r="BF29" s="80"/>
+      <c r="BG29" s="80"/>
+      <c r="BH29" s="80"/>
+      <c r="BI29" s="80"/>
+      <c r="BJ29" s="80"/>
+      <c r="BK29" s="80"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -8549,6 +8549,43 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -8563,43 +8600,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
+++ b/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC91637F-D9C0-4141-A067-3DEB7D523D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E0169C-04D9-4407-A5CE-E7638F944FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="20" windowWidth="12090" windowHeight="9780" firstSheet="2" activeTab="2" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="7570" yWindow="190" windowWidth="12090" windowHeight="9780" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_プルダウン項目クラス" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t>public</t>
   </si>
@@ -557,14 +557,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>リスト&lt;全社員ID情報取得クラス&gt;オブジェクト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>リスト&lt;全社員ID情報取得クラス&gt;オブジェクト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>全社員IDのテーブル検索結果</t>
     <rPh sb="0" eb="1">
       <t>ゼン</t>
@@ -578,26 +570,18 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>処理後、リスト&lt;全社員ID情報取得クラス&gt;オブジェクトを戻り値として処理を終了する</t>
+    <t>ユーザマスタ全件取得</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員ID情報リスト&lt;表示用Id名前クラス&gt;オブジェクト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>処理後、社員ID情報リスト&lt;表示用Id名前クラス&gt;オブジェクトを戻り値として処理を終了する</t>
     <rPh sb="0" eb="3">
       <t>ショリゴ</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザマスタ全件取得</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1548,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B701B7-1A2D-4688-A075-62F16DBEF55F}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -3115,7 +3099,7 @@
       <c r="M27" s="42"/>
       <c r="N27" s="42"/>
       <c r="O27" s="44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
@@ -6515,7 +6499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E6ABAF-D949-47FF-9313-6927E9CF6184}">
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -7478,7 +7462,7 @@
       <c r="E19" s="75"/>
       <c r="F19" s="75"/>
       <c r="G19" s="41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -7496,7 +7480,7 @@
       <c r="U19" s="65"/>
       <c r="V19" s="65"/>
       <c r="W19" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -7992,7 +7976,7 @@
       <c r="M29" s="79"/>
       <c r="N29" s="79"/>
       <c r="O29" s="80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P29" s="80"/>
       <c r="Q29" s="80"/>

--- a/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
+++ b/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E0169C-04D9-4407-A5CE-E7638F944FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CD9861-4EC5-4782-9C0F-C3E4330C7170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7570" yWindow="190" windowWidth="12090" windowHeight="9780" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="2480" yWindow="230" windowWidth="13280" windowHeight="10050" firstSheet="1" activeTab="2" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_プルダウン項目クラス" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
   <si>
     <t>public</t>
   </si>
@@ -557,31 +557,48 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>全社員IDのテーブル検索結果</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
+    <t>ユーザマスタ全件取得</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択社員IDリスト&lt;表示用Id名前クラス&gt;オブジェクト</t>
+  </si>
+  <si>
+    <t>処理後、選択社員IDリスト&lt;表示用Id名前クラス&gt;オブジェクトを戻り値として処理を終了する</t>
+    <rPh sb="0" eb="3">
+      <t>ショリゴ</t>
     </rPh>
-    <rPh sb="1" eb="3">
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示対象の社員IDと社員名の検索結果</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>シャイン</t>
     </rPh>
-    <rPh sb="10" eb="14">
+    <rPh sb="10" eb="13">
+      <t>シャインメイ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
       <t>ケンサクケッカ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ユーザマスタ全件取得</t>
+    <t>2.</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>社員ID情報リスト&lt;表示用Id名前クラス&gt;オブジェクト</t>
+    <t>社員IDを引数にデータベースからユーザマスタ検索結果を取得する以下のメソッドを呼び出す</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>処理後、社員ID情報リスト&lt;表示用Id名前クラス&gt;オブジェクトを戻り値として処理を終了する</t>
-    <rPh sb="0" eb="3">
-      <t>ショリゴ</t>
-    </rPh>
+    <t>1.</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1018,7 +1035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1211,6 +1228,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1532,7 +1551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B701B7-1A2D-4688-A075-62F16DBEF55F}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -3099,7 +3118,7 @@
       <c r="M27" s="42"/>
       <c r="N27" s="42"/>
       <c r="O27" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
@@ -6499,7 +6518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E6ABAF-D949-47FF-9313-6927E9CF6184}">
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -7462,7 +7481,7 @@
       <c r="E19" s="75"/>
       <c r="F19" s="75"/>
       <c r="G19" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -7480,7 +7499,7 @@
       <c r="U19" s="65"/>
       <c r="V19" s="65"/>
       <c r="W19" s="40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -7746,8 +7765,11 @@
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C24" s="24"/>
-      <c r="D24" s="14" t="s">
-        <v>57</v>
+      <c r="D24" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="AD24" s="14"/>
       <c r="AG24" s="23"/>
@@ -7976,7 +7998,7 @@
       <c r="M29" s="79"/>
       <c r="N29" s="79"/>
       <c r="O29" s="80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P29" s="80"/>
       <c r="Q29" s="80"/>
@@ -8129,11 +8151,11 @@
     </row>
     <row r="37" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C37" s="24"/>
-      <c r="D37" s="25">
-        <v>3</v>
+      <c r="D37" s="82" t="s">
+        <v>80</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>

--- a/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
+++ b/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CD9861-4EC5-4782-9C0F-C3E4330C7170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAE896B-7E98-4956-A27E-3974E8DC76DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="230" windowWidth="13280" windowHeight="10050" firstSheet="1" activeTab="2" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="1520" yWindow="750" windowWidth="13280" windowHeight="10050" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_プルダウン項目クラス" sheetId="2" r:id="rId1"/>
@@ -671,7 +671,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -741,30 +741,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1035,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,21 +1046,21 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1092,26 +1068,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1121,88 +1099,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1228,8 +1197,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1551,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B701B7-1A2D-4688-A075-62F16DBEF55F}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1563,247 +1530,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="57" t="s">
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="57"/>
-      <c r="BD1" s="57"/>
-      <c r="BE1" s="57"/>
-      <c r="BF1" s="57"/>
-      <c r="BG1" s="57"/>
-      <c r="BH1" s="57"/>
-      <c r="BI1" s="57"/>
-      <c r="BJ1" s="57"/>
-      <c r="BK1" s="57"/>
-      <c r="BL1" s="57"/>
-      <c r="BM1" s="57"/>
-      <c r="BN1" s="57"/>
-      <c r="BO1" s="57"/>
-      <c r="BP1" s="57"/>
-      <c r="BQ1" s="57"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="56"/>
+      <c r="BO1" s="56"/>
+      <c r="BP1" s="56"/>
+      <c r="BQ1" s="56"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="43" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43" t="s">
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43" t="s">
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="60" t="s">
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="60"/>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="60"/>
-      <c r="BP2" s="60"/>
-      <c r="BQ2" s="60"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="59"/>
+      <c r="BO2" s="59"/>
+      <c r="BP2" s="59"/>
+      <c r="BQ2" s="59"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="61">
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="60">
         <v>45519</v>
       </c>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="59" t="s">
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59"/>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="62">
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="58"/>
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="58"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="58"/>
+      <c r="BI3" s="58"/>
+      <c r="BJ3" s="61">
         <v>45518</v>
       </c>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="61"/>
+      <c r="BM3" s="61"/>
+      <c r="BN3" s="61"/>
+      <c r="BO3" s="61"/>
+      <c r="BP3" s="61"/>
+      <c r="BQ3" s="61"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -1870,215 +1837,215 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="44"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="44"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="44"/>
+      <c r="BE6" s="44"/>
+      <c r="BF6" s="44"/>
+      <c r="BG6" s="44"/>
+      <c r="BH6" s="44"/>
+      <c r="BI6" s="44"/>
+      <c r="BJ6" s="44"/>
+      <c r="BK6" s="44"/>
+      <c r="BL6" s="44"/>
+      <c r="BM6" s="44"/>
+      <c r="BN6" s="44"/>
+      <c r="BO6" s="44"/>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="6"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="53"/>
-      <c r="BJ7" s="53"/>
-      <c r="BK7" s="53"/>
-      <c r="BL7" s="53"/>
-      <c r="BM7" s="53"/>
-      <c r="BN7" s="53"/>
-      <c r="BO7" s="53"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="44"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="44"/>
+      <c r="BC7" s="44"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="44"/>
+      <c r="BF7" s="44"/>
+      <c r="BG7" s="44"/>
+      <c r="BH7" s="44"/>
+      <c r="BI7" s="44"/>
+      <c r="BJ7" s="44"/>
+      <c r="BK7" s="44"/>
+      <c r="BL7" s="44"/>
+      <c r="BM7" s="44"/>
+      <c r="BN7" s="44"/>
+      <c r="BO7" s="44"/>
       <c r="BP7" s="8"/>
       <c r="BQ7" s="6"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="53"/>
-      <c r="AQ8" s="53"/>
-      <c r="AR8" s="53"/>
-      <c r="AS8" s="53"/>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="53"/>
-      <c r="AV8" s="53"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="53"/>
-      <c r="BB8" s="53"/>
-      <c r="BC8" s="53"/>
-      <c r="BD8" s="53"/>
-      <c r="BE8" s="53"/>
-      <c r="BF8" s="53"/>
-      <c r="BG8" s="53"/>
-      <c r="BH8" s="53"/>
-      <c r="BI8" s="53"/>
-      <c r="BJ8" s="53"/>
-      <c r="BK8" s="53"/>
-      <c r="BL8" s="53"/>
-      <c r="BM8" s="53"/>
-      <c r="BN8" s="53"/>
-      <c r="BO8" s="53"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="44"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="44"/>
+      <c r="BC8" s="44"/>
+      <c r="BD8" s="44"/>
+      <c r="BE8" s="44"/>
+      <c r="BF8" s="44"/>
+      <c r="BG8" s="44"/>
+      <c r="BH8" s="44"/>
+      <c r="BI8" s="44"/>
+      <c r="BJ8" s="44"/>
+      <c r="BK8" s="44"/>
+      <c r="BL8" s="44"/>
+      <c r="BM8" s="44"/>
+      <c r="BN8" s="44"/>
+      <c r="BO8" s="44"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="6"/>
     </row>
@@ -2131,787 +2098,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="42" t="s">
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="44" t="s">
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44"/>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="44"/>
-      <c r="AX11" s="44"/>
-      <c r="AY11" s="44"/>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="44"/>
-      <c r="BC11" s="44"/>
-      <c r="BD11" s="44"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44"/>
-      <c r="BI11" s="44"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-      <c r="BM11" s="44"/>
-      <c r="BN11" s="44"/>
-      <c r="BO11" s="44"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="46"/>
+      <c r="AR11" s="46"/>
+      <c r="AS11" s="46"/>
+      <c r="AT11" s="46"/>
+      <c r="AU11" s="46"/>
+      <c r="AV11" s="46"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="46"/>
+      <c r="BC11" s="46"/>
+      <c r="BD11" s="46"/>
+      <c r="BE11" s="46"/>
+      <c r="BF11" s="46"/>
+      <c r="BG11" s="46"/>
+      <c r="BH11" s="46"/>
+      <c r="BI11" s="46"/>
+      <c r="BJ11" s="46"/>
+      <c r="BK11" s="46"/>
+      <c r="BL11" s="46"/>
+      <c r="BM11" s="46"/>
+      <c r="BN11" s="46"/>
+      <c r="BO11" s="46"/>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="44"/>
-      <c r="BM12" s="44"/>
-      <c r="BN12" s="44"/>
-      <c r="BO12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="46"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="46"/>
+      <c r="BI12" s="46"/>
+      <c r="BJ12" s="46"/>
+      <c r="BK12" s="46"/>
+      <c r="BL12" s="46"/>
+      <c r="BM12" s="46"/>
+      <c r="BN12" s="46"/>
+      <c r="BO12" s="46"/>
       <c r="BP12" s="8"/>
       <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="44"/>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="44"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="44"/>
-      <c r="BK13" s="44"/>
-      <c r="BL13" s="44"/>
-      <c r="BM13" s="44"/>
-      <c r="BN13" s="44"/>
-      <c r="BO13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="46"/>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="46"/>
+      <c r="BB13" s="46"/>
+      <c r="BC13" s="46"/>
+      <c r="BD13" s="46"/>
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="46"/>
+      <c r="BG13" s="46"/>
+      <c r="BH13" s="46"/>
+      <c r="BI13" s="46"/>
+      <c r="BJ13" s="46"/>
+      <c r="BK13" s="46"/>
+      <c r="BL13" s="46"/>
+      <c r="BM13" s="46"/>
+      <c r="BN13" s="46"/>
+      <c r="BO13" s="46"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="51" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="51"/>
-      <c r="BC14" s="51"/>
-      <c r="BD14" s="51"/>
-      <c r="BE14" s="51"/>
-      <c r="BF14" s="51"/>
-      <c r="BG14" s="51"/>
-      <c r="BH14" s="51"/>
-      <c r="BI14" s="51"/>
-      <c r="BJ14" s="51"/>
-      <c r="BK14" s="51"/>
-      <c r="BL14" s="51"/>
-      <c r="BM14" s="51"/>
-      <c r="BN14" s="51"/>
-      <c r="BO14" s="51"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="53"/>
+      <c r="BB14" s="53"/>
+      <c r="BC14" s="53"/>
+      <c r="BD14" s="53"/>
+      <c r="BE14" s="53"/>
+      <c r="BF14" s="53"/>
+      <c r="BG14" s="53"/>
+      <c r="BH14" s="53"/>
+      <c r="BI14" s="53"/>
+      <c r="BJ14" s="53"/>
+      <c r="BK14" s="53"/>
+      <c r="BL14" s="53"/>
+      <c r="BM14" s="53"/>
+      <c r="BN14" s="53"/>
+      <c r="BO14" s="53"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="6"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="52"/>
-      <c r="AI15" s="52"/>
-      <c r="AJ15" s="52"/>
-      <c r="AK15" s="52"/>
-      <c r="AL15" s="52"/>
-      <c r="AM15" s="52"/>
-      <c r="AN15" s="52"/>
-      <c r="AO15" s="52"/>
-      <c r="AP15" s="52"/>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="52"/>
-      <c r="AV15" s="52"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="52"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="52"/>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="52"/>
-      <c r="BF15" s="52"/>
-      <c r="BG15" s="52"/>
-      <c r="BH15" s="52"/>
-      <c r="BI15" s="52"/>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="52"/>
-      <c r="BL15" s="52"/>
-      <c r="BM15" s="52"/>
-      <c r="BN15" s="52"/>
-      <c r="BO15" s="52"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="46"/>
+      <c r="AT15" s="46"/>
+      <c r="AU15" s="46"/>
+      <c r="AV15" s="46"/>
+      <c r="AW15" s="46"/>
+      <c r="AX15" s="46"/>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="46"/>
+      <c r="BA15" s="46"/>
+      <c r="BB15" s="46"/>
+      <c r="BC15" s="46"/>
+      <c r="BD15" s="46"/>
+      <c r="BE15" s="46"/>
+      <c r="BF15" s="46"/>
+      <c r="BG15" s="46"/>
+      <c r="BH15" s="46"/>
+      <c r="BI15" s="46"/>
+      <c r="BJ15" s="46"/>
+      <c r="BK15" s="46"/>
+      <c r="BL15" s="46"/>
+      <c r="BM15" s="46"/>
+      <c r="BN15" s="46"/>
+      <c r="BO15" s="46"/>
       <c r="BP15" s="8"/>
       <c r="BQ15" s="6"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="52"/>
-      <c r="AI16" s="52"/>
-      <c r="AJ16" s="52"/>
-      <c r="AK16" s="52"/>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="52"/>
-      <c r="AP16" s="52"/>
-      <c r="AQ16" s="52"/>
-      <c r="AR16" s="52"/>
-      <c r="AS16" s="52"/>
-      <c r="AT16" s="52"/>
-      <c r="AU16" s="52"/>
-      <c r="AV16" s="52"/>
-      <c r="AW16" s="52"/>
-      <c r="AX16" s="52"/>
-      <c r="AY16" s="52"/>
-      <c r="AZ16" s="52"/>
-      <c r="BA16" s="52"/>
-      <c r="BB16" s="52"/>
-      <c r="BC16" s="52"/>
-      <c r="BD16" s="52"/>
-      <c r="BE16" s="52"/>
-      <c r="BF16" s="52"/>
-      <c r="BG16" s="52"/>
-      <c r="BH16" s="52"/>
-      <c r="BI16" s="52"/>
-      <c r="BJ16" s="52"/>
-      <c r="BK16" s="52"/>
-      <c r="BL16" s="52"/>
-      <c r="BM16" s="52"/>
-      <c r="BN16" s="52"/>
-      <c r="BO16" s="52"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="46"/>
+      <c r="AV16" s="46"/>
+      <c r="AW16" s="46"/>
+      <c r="AX16" s="46"/>
+      <c r="AY16" s="46"/>
+      <c r="AZ16" s="46"/>
+      <c r="BA16" s="46"/>
+      <c r="BB16" s="46"/>
+      <c r="BC16" s="46"/>
+      <c r="BD16" s="46"/>
+      <c r="BE16" s="46"/>
+      <c r="BF16" s="46"/>
+      <c r="BG16" s="46"/>
+      <c r="BH16" s="46"/>
+      <c r="BI16" s="46"/>
+      <c r="BJ16" s="46"/>
+      <c r="BK16" s="46"/>
+      <c r="BL16" s="46"/>
+      <c r="BM16" s="46"/>
+      <c r="BN16" s="46"/>
+      <c r="BO16" s="46"/>
       <c r="BP16" s="8"/>
       <c r="BQ16" s="6"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="52"/>
-      <c r="AI17" s="52"/>
-      <c r="AJ17" s="52"/>
-      <c r="AK17" s="52"/>
-      <c r="AL17" s="52"/>
-      <c r="AM17" s="52"/>
-      <c r="AN17" s="52"/>
-      <c r="AO17" s="52"/>
-      <c r="AP17" s="52"/>
-      <c r="AQ17" s="52"/>
-      <c r="AR17" s="52"/>
-      <c r="AS17" s="52"/>
-      <c r="AT17" s="52"/>
-      <c r="AU17" s="52"/>
-      <c r="AV17" s="52"/>
-      <c r="AW17" s="52"/>
-      <c r="AX17" s="52"/>
-      <c r="AY17" s="52"/>
-      <c r="AZ17" s="52"/>
-      <c r="BA17" s="52"/>
-      <c r="BB17" s="52"/>
-      <c r="BC17" s="52"/>
-      <c r="BD17" s="52"/>
-      <c r="BE17" s="52"/>
-      <c r="BF17" s="52"/>
-      <c r="BG17" s="52"/>
-      <c r="BH17" s="52"/>
-      <c r="BI17" s="52"/>
-      <c r="BJ17" s="52"/>
-      <c r="BK17" s="52"/>
-      <c r="BL17" s="52"/>
-      <c r="BM17" s="52"/>
-      <c r="BN17" s="52"/>
-      <c r="BO17" s="52"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="46"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="46"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="46"/>
+      <c r="AS17" s="46"/>
+      <c r="AT17" s="46"/>
+      <c r="AU17" s="46"/>
+      <c r="AV17" s="46"/>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="46"/>
+      <c r="AY17" s="46"/>
+      <c r="AZ17" s="46"/>
+      <c r="BA17" s="46"/>
+      <c r="BB17" s="46"/>
+      <c r="BC17" s="46"/>
+      <c r="BD17" s="46"/>
+      <c r="BE17" s="46"/>
+      <c r="BF17" s="46"/>
+      <c r="BG17" s="46"/>
+      <c r="BH17" s="46"/>
+      <c r="BI17" s="46"/>
+      <c r="BJ17" s="46"/>
+      <c r="BK17" s="46"/>
+      <c r="BL17" s="46"/>
+      <c r="BM17" s="46"/>
+      <c r="BN17" s="46"/>
+      <c r="BO17" s="46"/>
       <c r="BP17" s="8"/>
       <c r="BQ17" s="6"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="52"/>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="52"/>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="52"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="52"/>
-      <c r="AQ18" s="52"/>
-      <c r="AR18" s="52"/>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="52"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="52"/>
-      <c r="AZ18" s="52"/>
-      <c r="BA18" s="52"/>
-      <c r="BB18" s="52"/>
-      <c r="BC18" s="52"/>
-      <c r="BD18" s="52"/>
-      <c r="BE18" s="52"/>
-      <c r="BF18" s="52"/>
-      <c r="BG18" s="52"/>
-      <c r="BH18" s="52"/>
-      <c r="BI18" s="52"/>
-      <c r="BJ18" s="52"/>
-      <c r="BK18" s="52"/>
-      <c r="BL18" s="52"/>
-      <c r="BM18" s="52"/>
-      <c r="BN18" s="52"/>
-      <c r="BO18" s="52"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="46"/>
+      <c r="AY18" s="46"/>
+      <c r="AZ18" s="46"/>
+      <c r="BA18" s="46"/>
+      <c r="BB18" s="46"/>
+      <c r="BC18" s="46"/>
+      <c r="BD18" s="46"/>
+      <c r="BE18" s="46"/>
+      <c r="BF18" s="46"/>
+      <c r="BG18" s="46"/>
+      <c r="BH18" s="46"/>
+      <c r="BI18" s="46"/>
+      <c r="BJ18" s="46"/>
+      <c r="BK18" s="46"/>
+      <c r="BL18" s="46"/>
+      <c r="BM18" s="46"/>
+      <c r="BN18" s="46"/>
+      <c r="BO18" s="46"/>
       <c r="BP18" s="8"/>
       <c r="BQ18" s="6"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="52"/>
-      <c r="AK19" s="52"/>
-      <c r="AL19" s="52"/>
-      <c r="AM19" s="52"/>
-      <c r="AN19" s="52"/>
-      <c r="AO19" s="52"/>
-      <c r="AP19" s="52"/>
-      <c r="AQ19" s="52"/>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
-      <c r="AT19" s="52"/>
-      <c r="AU19" s="52"/>
-      <c r="AV19" s="52"/>
-      <c r="AW19" s="52"/>
-      <c r="AX19" s="52"/>
-      <c r="AY19" s="52"/>
-      <c r="AZ19" s="52"/>
-      <c r="BA19" s="52"/>
-      <c r="BB19" s="52"/>
-      <c r="BC19" s="52"/>
-      <c r="BD19" s="52"/>
-      <c r="BE19" s="52"/>
-      <c r="BF19" s="52"/>
-      <c r="BG19" s="52"/>
-      <c r="BH19" s="52"/>
-      <c r="BI19" s="52"/>
-      <c r="BJ19" s="52"/>
-      <c r="BK19" s="52"/>
-      <c r="BL19" s="52"/>
-      <c r="BM19" s="52"/>
-      <c r="BN19" s="52"/>
-      <c r="BO19" s="52"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="46"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
+      <c r="AT19" s="46"/>
+      <c r="AU19" s="46"/>
+      <c r="AV19" s="46"/>
+      <c r="AW19" s="46"/>
+      <c r="AX19" s="46"/>
+      <c r="AY19" s="46"/>
+      <c r="AZ19" s="46"/>
+      <c r="BA19" s="46"/>
+      <c r="BB19" s="46"/>
+      <c r="BC19" s="46"/>
+      <c r="BD19" s="46"/>
+      <c r="BE19" s="46"/>
+      <c r="BF19" s="46"/>
+      <c r="BG19" s="46"/>
+      <c r="BH19" s="46"/>
+      <c r="BI19" s="46"/>
+      <c r="BJ19" s="46"/>
+      <c r="BK19" s="46"/>
+      <c r="BL19" s="46"/>
+      <c r="BM19" s="46"/>
+      <c r="BN19" s="46"/>
+      <c r="BO19" s="46"/>
       <c r="BP19" s="8"/>
       <c r="BQ19" s="6"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
-      <c r="AJ20" s="52"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="52"/>
-      <c r="AO20" s="52"/>
-      <c r="AP20" s="52"/>
-      <c r="AQ20" s="52"/>
-      <c r="AR20" s="52"/>
-      <c r="AS20" s="52"/>
-      <c r="AT20" s="52"/>
-      <c r="AU20" s="52"/>
-      <c r="AV20" s="52"/>
-      <c r="AW20" s="52"/>
-      <c r="AX20" s="52"/>
-      <c r="AY20" s="52"/>
-      <c r="AZ20" s="52"/>
-      <c r="BA20" s="52"/>
-      <c r="BB20" s="52"/>
-      <c r="BC20" s="52"/>
-      <c r="BD20" s="52"/>
-      <c r="BE20" s="52"/>
-      <c r="BF20" s="52"/>
-      <c r="BG20" s="52"/>
-      <c r="BH20" s="52"/>
-      <c r="BI20" s="52"/>
-      <c r="BJ20" s="52"/>
-      <c r="BK20" s="52"/>
-      <c r="BL20" s="52"/>
-      <c r="BM20" s="52"/>
-      <c r="BN20" s="52"/>
-      <c r="BO20" s="52"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="46"/>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="46"/>
+      <c r="AR20" s="46"/>
+      <c r="AS20" s="46"/>
+      <c r="AT20" s="46"/>
+      <c r="AU20" s="46"/>
+      <c r="AV20" s="46"/>
+      <c r="AW20" s="46"/>
+      <c r="AX20" s="46"/>
+      <c r="AY20" s="46"/>
+      <c r="AZ20" s="46"/>
+      <c r="BA20" s="46"/>
+      <c r="BB20" s="46"/>
+      <c r="BC20" s="46"/>
+      <c r="BD20" s="46"/>
+      <c r="BE20" s="46"/>
+      <c r="BF20" s="46"/>
+      <c r="BG20" s="46"/>
+      <c r="BH20" s="46"/>
+      <c r="BI20" s="46"/>
+      <c r="BJ20" s="46"/>
+      <c r="BK20" s="46"/>
+      <c r="BL20" s="46"/>
+      <c r="BM20" s="46"/>
+      <c r="BN20" s="46"/>
+      <c r="BO20" s="46"/>
       <c r="BP20" s="8"/>
       <c r="BQ20" s="6"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="54"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="54"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="54"/>
-      <c r="AU21" s="54"/>
-      <c r="AV21" s="54"/>
-      <c r="AW21" s="54"/>
-      <c r="AX21" s="54"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="54"/>
-      <c r="BA21" s="54"/>
-      <c r="BB21" s="54"/>
-      <c r="BC21" s="54"/>
-      <c r="BD21" s="54"/>
-      <c r="BE21" s="54"/>
-      <c r="BF21" s="54"/>
-      <c r="BG21" s="54"/>
-      <c r="BH21" s="54"/>
-      <c r="BI21" s="54"/>
-      <c r="BJ21" s="54"/>
-      <c r="BK21" s="54"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BO21" s="54"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="46"/>
+      <c r="AT21" s="46"/>
+      <c r="AU21" s="46"/>
+      <c r="AV21" s="46"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="46"/>
+      <c r="AY21" s="46"/>
+      <c r="AZ21" s="46"/>
+      <c r="BA21" s="46"/>
+      <c r="BB21" s="46"/>
+      <c r="BC21" s="46"/>
+      <c r="BD21" s="46"/>
+      <c r="BE21" s="46"/>
+      <c r="BF21" s="46"/>
+      <c r="BG21" s="46"/>
+      <c r="BH21" s="46"/>
+      <c r="BI21" s="46"/>
+      <c r="BJ21" s="46"/>
+      <c r="BK21" s="46"/>
+      <c r="BL21" s="46"/>
+      <c r="BM21" s="46"/>
+      <c r="BN21" s="46"/>
+      <c r="BO21" s="46"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="6"/>
     </row>
@@ -2941,744 +2908,744 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43" t="s">
+      <c r="D25" s="45"/>
+      <c r="E25" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43" t="s">
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="44" t="s">
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="42" t="s">
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="42"/>
-      <c r="AL25" s="42"/>
-      <c r="AM25" s="42"/>
-      <c r="AN25" s="42"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="42"/>
-      <c r="AQ25" s="42"/>
-      <c r="AR25" s="42"/>
-      <c r="AS25" s="42"/>
-      <c r="AT25" s="42"/>
-      <c r="AU25" s="42"/>
-      <c r="AV25" s="42"/>
-      <c r="AW25" s="42"/>
-      <c r="AX25" s="42"/>
-      <c r="AY25" s="42"/>
-      <c r="AZ25" s="42"/>
-      <c r="BA25" s="42"/>
-      <c r="BB25" s="42"/>
-      <c r="BC25" s="42"/>
-      <c r="BD25" s="42" t="s">
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="44"/>
+      <c r="BD25" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="BE25" s="42"/>
-      <c r="BF25" s="42"/>
-      <c r="BG25" s="42"/>
-      <c r="BH25" s="42"/>
-      <c r="BI25" s="42"/>
-      <c r="BJ25" s="42"/>
-      <c r="BK25" s="42"/>
-      <c r="BL25" s="42"/>
-      <c r="BM25" s="42"/>
-      <c r="BN25" s="42"/>
-      <c r="BO25" s="42"/>
+      <c r="BE25" s="44"/>
+      <c r="BF25" s="44"/>
+      <c r="BG25" s="44"/>
+      <c r="BH25" s="44"/>
+      <c r="BI25" s="44"/>
+      <c r="BJ25" s="44"/>
+      <c r="BK25" s="44"/>
+      <c r="BL25" s="44"/>
+      <c r="BM25" s="44"/>
+      <c r="BN25" s="44"/>
+      <c r="BO25" s="44"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="C26" s="43">
+      <c r="C26" s="45">
         <v>1</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="45" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="48" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="45" t="s">
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="46"/>
-      <c r="AN26" s="46"/>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="46"/>
-      <c r="AQ26" s="46"/>
-      <c r="AR26" s="46"/>
-      <c r="AS26" s="46"/>
-      <c r="AT26" s="46"/>
-      <c r="AU26" s="46"/>
-      <c r="AV26" s="46"/>
-      <c r="AW26" s="46"/>
-      <c r="AX26" s="46"/>
-      <c r="AY26" s="46"/>
-      <c r="AZ26" s="46"/>
-      <c r="BA26" s="46"/>
-      <c r="BB26" s="46"/>
-      <c r="BC26" s="47"/>
-      <c r="BD26" s="45"/>
-      <c r="BE26" s="46"/>
-      <c r="BF26" s="46"/>
-      <c r="BG26" s="46"/>
-      <c r="BH26" s="46"/>
-      <c r="BI26" s="46"/>
-      <c r="BJ26" s="46"/>
-      <c r="BK26" s="46"/>
-      <c r="BL26" s="46"/>
-      <c r="BM26" s="46"/>
-      <c r="BN26" s="46"/>
-      <c r="BO26" s="47"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="48"/>
+      <c r="AS26" s="48"/>
+      <c r="AT26" s="48"/>
+      <c r="AU26" s="48"/>
+      <c r="AV26" s="48"/>
+      <c r="AW26" s="48"/>
+      <c r="AX26" s="48"/>
+      <c r="AY26" s="48"/>
+      <c r="AZ26" s="48"/>
+      <c r="BA26" s="48"/>
+      <c r="BB26" s="48"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="47"/>
+      <c r="BE26" s="48"/>
+      <c r="BF26" s="48"/>
+      <c r="BG26" s="48"/>
+      <c r="BH26" s="48"/>
+      <c r="BI26" s="48"/>
+      <c r="BJ26" s="48"/>
+      <c r="BK26" s="48"/>
+      <c r="BL26" s="48"/>
+      <c r="BM26" s="48"/>
+      <c r="BN26" s="48"/>
+      <c r="BO26" s="49"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="C27" s="43">
+      <c r="C27" s="45">
         <v>2</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="45" t="s">
+      <c r="D27" s="45"/>
+      <c r="E27" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="44" t="s">
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="45" t="s">
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="46"/>
-      <c r="AL27" s="46"/>
-      <c r="AM27" s="46"/>
-      <c r="AN27" s="46"/>
-      <c r="AO27" s="46"/>
-      <c r="AP27" s="46"/>
-      <c r="AQ27" s="46"/>
-      <c r="AR27" s="46"/>
-      <c r="AS27" s="46"/>
-      <c r="AT27" s="46"/>
-      <c r="AU27" s="46"/>
-      <c r="AV27" s="46"/>
-      <c r="AW27" s="46"/>
-      <c r="AX27" s="46"/>
-      <c r="AY27" s="46"/>
-      <c r="AZ27" s="46"/>
-      <c r="BA27" s="46"/>
-      <c r="BB27" s="46"/>
-      <c r="BC27" s="47"/>
-      <c r="BD27" s="42"/>
-      <c r="BE27" s="42"/>
-      <c r="BF27" s="42"/>
-      <c r="BG27" s="42"/>
-      <c r="BH27" s="42"/>
-      <c r="BI27" s="42"/>
-      <c r="BJ27" s="42"/>
-      <c r="BK27" s="42"/>
-      <c r="BL27" s="42"/>
-      <c r="BM27" s="42"/>
-      <c r="BN27" s="42"/>
-      <c r="BO27" s="42"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="48"/>
+      <c r="AO27" s="48"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="48"/>
+      <c r="AS27" s="48"/>
+      <c r="AT27" s="48"/>
+      <c r="AU27" s="48"/>
+      <c r="AV27" s="48"/>
+      <c r="AW27" s="48"/>
+      <c r="AX27" s="48"/>
+      <c r="AY27" s="48"/>
+      <c r="AZ27" s="48"/>
+      <c r="BA27" s="48"/>
+      <c r="BB27" s="48"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="44"/>
+      <c r="BE27" s="44"/>
+      <c r="BF27" s="44"/>
+      <c r="BG27" s="44"/>
+      <c r="BH27" s="44"/>
+      <c r="BI27" s="44"/>
+      <c r="BJ27" s="44"/>
+      <c r="BK27" s="44"/>
+      <c r="BL27" s="44"/>
+      <c r="BM27" s="44"/>
+      <c r="BN27" s="44"/>
+      <c r="BO27" s="44"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="C28" s="43">
+      <c r="C28" s="45">
         <v>3</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
-      <c r="AO28" s="42"/>
-      <c r="AP28" s="42"/>
-      <c r="AQ28" s="42"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="42"/>
-      <c r="AU28" s="42"/>
-      <c r="AV28" s="42"/>
-      <c r="AW28" s="42"/>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="42"/>
-      <c r="BA28" s="42"/>
-      <c r="BB28" s="42"/>
-      <c r="BC28" s="42"/>
-      <c r="BD28" s="42"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="42"/>
-      <c r="BG28" s="42"/>
-      <c r="BH28" s="42"/>
-      <c r="BI28" s="42"/>
-      <c r="BJ28" s="42"/>
-      <c r="BK28" s="42"/>
-      <c r="BL28" s="42"/>
-      <c r="BM28" s="42"/>
-      <c r="BN28" s="42"/>
-      <c r="BO28" s="42"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="44"/>
+      <c r="AX28" s="44"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="44"/>
+      <c r="BE28" s="44"/>
+      <c r="BF28" s="44"/>
+      <c r="BG28" s="44"/>
+      <c r="BH28" s="44"/>
+      <c r="BI28" s="44"/>
+      <c r="BJ28" s="44"/>
+      <c r="BK28" s="44"/>
+      <c r="BL28" s="44"/>
+      <c r="BM28" s="44"/>
+      <c r="BN28" s="44"/>
+      <c r="BO28" s="44"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="6"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="C29" s="43">
+      <c r="C29" s="45">
         <v>4</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="42"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="42"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="42"/>
-      <c r="AP29" s="42"/>
-      <c r="AQ29" s="42"/>
-      <c r="AR29" s="42"/>
-      <c r="AS29" s="42"/>
-      <c r="AT29" s="42"/>
-      <c r="AU29" s="42"/>
-      <c r="AV29" s="42"/>
-      <c r="AW29" s="42"/>
-      <c r="AX29" s="42"/>
-      <c r="AY29" s="42"/>
-      <c r="AZ29" s="42"/>
-      <c r="BA29" s="42"/>
-      <c r="BB29" s="42"/>
-      <c r="BC29" s="42"/>
-      <c r="BD29" s="42"/>
-      <c r="BE29" s="42"/>
-      <c r="BF29" s="42"/>
-      <c r="BG29" s="42"/>
-      <c r="BH29" s="42"/>
-      <c r="BI29" s="42"/>
-      <c r="BJ29" s="42"/>
-      <c r="BK29" s="42"/>
-      <c r="BL29" s="42"/>
-      <c r="BM29" s="42"/>
-      <c r="BN29" s="42"/>
-      <c r="BO29" s="42"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="46"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="44"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="44"/>
+      <c r="BC29" s="44"/>
+      <c r="BD29" s="44"/>
+      <c r="BE29" s="44"/>
+      <c r="BF29" s="44"/>
+      <c r="BG29" s="44"/>
+      <c r="BH29" s="44"/>
+      <c r="BI29" s="44"/>
+      <c r="BJ29" s="44"/>
+      <c r="BK29" s="44"/>
+      <c r="BL29" s="44"/>
+      <c r="BM29" s="44"/>
+      <c r="BN29" s="44"/>
+      <c r="BO29" s="44"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="6"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="C30" s="43">
+      <c r="C30" s="45">
         <v>5</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="42"/>
-      <c r="AN30" s="42"/>
-      <c r="AO30" s="42"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
-      <c r="AU30" s="42"/>
-      <c r="AV30" s="42"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="42"/>
-      <c r="BA30" s="42"/>
-      <c r="BB30" s="42"/>
-      <c r="BC30" s="42"/>
-      <c r="BD30" s="42"/>
-      <c r="BE30" s="42"/>
-      <c r="BF30" s="42"/>
-      <c r="BG30" s="42"/>
-      <c r="BH30" s="42"/>
-      <c r="BI30" s="42"/>
-      <c r="BJ30" s="42"/>
-      <c r="BK30" s="42"/>
-      <c r="BL30" s="42"/>
-      <c r="BM30" s="42"/>
-      <c r="BN30" s="42"/>
-      <c r="BO30" s="42"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="44"/>
+      <c r="AQ30" s="44"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="44"/>
+      <c r="AT30" s="44"/>
+      <c r="AU30" s="44"/>
+      <c r="AV30" s="44"/>
+      <c r="AW30" s="44"/>
+      <c r="AX30" s="44"/>
+      <c r="AY30" s="44"/>
+      <c r="AZ30" s="44"/>
+      <c r="BA30" s="44"/>
+      <c r="BB30" s="44"/>
+      <c r="BC30" s="44"/>
+      <c r="BD30" s="44"/>
+      <c r="BE30" s="44"/>
+      <c r="BF30" s="44"/>
+      <c r="BG30" s="44"/>
+      <c r="BH30" s="44"/>
+      <c r="BI30" s="44"/>
+      <c r="BJ30" s="44"/>
+      <c r="BK30" s="44"/>
+      <c r="BL30" s="44"/>
+      <c r="BM30" s="44"/>
+      <c r="BN30" s="44"/>
+      <c r="BO30" s="44"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="6"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="C31" s="43">
+      <c r="C31" s="45">
         <v>6</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="42"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="42"/>
-      <c r="AN31" s="42"/>
-      <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="42"/>
-      <c r="AU31" s="42"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="42"/>
-      <c r="AZ31" s="42"/>
-      <c r="BA31" s="42"/>
-      <c r="BB31" s="42"/>
-      <c r="BC31" s="42"/>
-      <c r="BD31" s="42"/>
-      <c r="BE31" s="42"/>
-      <c r="BF31" s="42"/>
-      <c r="BG31" s="42"/>
-      <c r="BH31" s="42"/>
-      <c r="BI31" s="42"/>
-      <c r="BJ31" s="42"/>
-      <c r="BK31" s="42"/>
-      <c r="BL31" s="42"/>
-      <c r="BM31" s="42"/>
-      <c r="BN31" s="42"/>
-      <c r="BO31" s="42"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="44"/>
+      <c r="AQ31" s="44"/>
+      <c r="AR31" s="44"/>
+      <c r="AS31" s="44"/>
+      <c r="AT31" s="44"/>
+      <c r="AU31" s="44"/>
+      <c r="AV31" s="44"/>
+      <c r="AW31" s="44"/>
+      <c r="AX31" s="44"/>
+      <c r="AY31" s="44"/>
+      <c r="AZ31" s="44"/>
+      <c r="BA31" s="44"/>
+      <c r="BB31" s="44"/>
+      <c r="BC31" s="44"/>
+      <c r="BD31" s="44"/>
+      <c r="BE31" s="44"/>
+      <c r="BF31" s="44"/>
+      <c r="BG31" s="44"/>
+      <c r="BH31" s="44"/>
+      <c r="BI31" s="44"/>
+      <c r="BJ31" s="44"/>
+      <c r="BK31" s="44"/>
+      <c r="BL31" s="44"/>
+      <c r="BM31" s="44"/>
+      <c r="BN31" s="44"/>
+      <c r="BO31" s="44"/>
       <c r="BP31" s="8"/>
       <c r="BQ31" s="6"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="C32" s="43">
+      <c r="C32" s="45">
         <v>7</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="42"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="42"/>
-      <c r="AL32" s="42"/>
-      <c r="AM32" s="42"/>
-      <c r="AN32" s="42"/>
-      <c r="AO32" s="42"/>
-      <c r="AP32" s="42"/>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="42"/>
-      <c r="AS32" s="42"/>
-      <c r="AT32" s="42"/>
-      <c r="AU32" s="42"/>
-      <c r="AV32" s="42"/>
-      <c r="AW32" s="42"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="42"/>
-      <c r="AZ32" s="42"/>
-      <c r="BA32" s="42"/>
-      <c r="BB32" s="42"/>
-      <c r="BC32" s="42"/>
-      <c r="BD32" s="42"/>
-      <c r="BE32" s="42"/>
-      <c r="BF32" s="42"/>
-      <c r="BG32" s="42"/>
-      <c r="BH32" s="42"/>
-      <c r="BI32" s="42"/>
-      <c r="BJ32" s="42"/>
-      <c r="BK32" s="42"/>
-      <c r="BL32" s="42"/>
-      <c r="BM32" s="42"/>
-      <c r="BN32" s="42"/>
-      <c r="BO32" s="42"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="44"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="44"/>
+      <c r="AZ32" s="44"/>
+      <c r="BA32" s="44"/>
+      <c r="BB32" s="44"/>
+      <c r="BC32" s="44"/>
+      <c r="BD32" s="44"/>
+      <c r="BE32" s="44"/>
+      <c r="BF32" s="44"/>
+      <c r="BG32" s="44"/>
+      <c r="BH32" s="44"/>
+      <c r="BI32" s="44"/>
+      <c r="BJ32" s="44"/>
+      <c r="BK32" s="44"/>
+      <c r="BL32" s="44"/>
+      <c r="BM32" s="44"/>
+      <c r="BN32" s="44"/>
+      <c r="BO32" s="44"/>
       <c r="BP32" s="8"/>
       <c r="BQ32" s="6"/>
     </row>
     <row r="33" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="C33" s="43">
+      <c r="C33" s="45">
         <v>8</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="42"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="42"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="42"/>
-      <c r="AN33" s="42"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="42"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="42"/>
-      <c r="AT33" s="42"/>
-      <c r="AU33" s="42"/>
-      <c r="AV33" s="42"/>
-      <c r="AW33" s="42"/>
-      <c r="AX33" s="42"/>
-      <c r="AY33" s="42"/>
-      <c r="AZ33" s="42"/>
-      <c r="BA33" s="42"/>
-      <c r="BB33" s="42"/>
-      <c r="BC33" s="42"/>
-      <c r="BD33" s="42"/>
-      <c r="BE33" s="42"/>
-      <c r="BF33" s="42"/>
-      <c r="BG33" s="42"/>
-      <c r="BH33" s="42"/>
-      <c r="BI33" s="42"/>
-      <c r="BJ33" s="42"/>
-      <c r="BK33" s="42"/>
-      <c r="BL33" s="42"/>
-      <c r="BM33" s="42"/>
-      <c r="BN33" s="42"/>
-      <c r="BO33" s="42"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="44"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="44"/>
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="44"/>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="44"/>
+      <c r="BB33" s="44"/>
+      <c r="BC33" s="44"/>
+      <c r="BD33" s="44"/>
+      <c r="BE33" s="44"/>
+      <c r="BF33" s="44"/>
+      <c r="BG33" s="44"/>
+      <c r="BH33" s="44"/>
+      <c r="BI33" s="44"/>
+      <c r="BJ33" s="44"/>
+      <c r="BK33" s="44"/>
+      <c r="BL33" s="44"/>
+      <c r="BM33" s="44"/>
+      <c r="BN33" s="44"/>
+      <c r="BO33" s="44"/>
       <c r="BP33" s="8"/>
       <c r="BQ33" s="6"/>
     </row>
     <row r="34" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="43">
+      <c r="C34" s="45">
         <v>9</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44"/>
-      <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="42"/>
-      <c r="AJ34" s="42"/>
-      <c r="AK34" s="42"/>
-      <c r="AL34" s="42"/>
-      <c r="AM34" s="42"/>
-      <c r="AN34" s="42"/>
-      <c r="AO34" s="42"/>
-      <c r="AP34" s="42"/>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="42"/>
-      <c r="AS34" s="42"/>
-      <c r="AT34" s="42"/>
-      <c r="AU34" s="42"/>
-      <c r="AV34" s="42"/>
-      <c r="AW34" s="42"/>
-      <c r="AX34" s="42"/>
-      <c r="AY34" s="42"/>
-      <c r="AZ34" s="42"/>
-      <c r="BA34" s="42"/>
-      <c r="BB34" s="42"/>
-      <c r="BC34" s="42"/>
-      <c r="BD34" s="42"/>
-      <c r="BE34" s="42"/>
-      <c r="BF34" s="42"/>
-      <c r="BG34" s="42"/>
-      <c r="BH34" s="42"/>
-      <c r="BI34" s="42"/>
-      <c r="BJ34" s="42"/>
-      <c r="BK34" s="42"/>
-      <c r="BL34" s="42"/>
-      <c r="BM34" s="42"/>
-      <c r="BN34" s="42"/>
-      <c r="BO34" s="42"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="44"/>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="44"/>
+      <c r="AQ34" s="44"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
+      <c r="BB34" s="44"/>
+      <c r="BC34" s="44"/>
+      <c r="BD34" s="44"/>
+      <c r="BE34" s="44"/>
+      <c r="BF34" s="44"/>
+      <c r="BG34" s="44"/>
+      <c r="BH34" s="44"/>
+      <c r="BI34" s="44"/>
+      <c r="BJ34" s="44"/>
+      <c r="BK34" s="44"/>
+      <c r="BL34" s="44"/>
+      <c r="BM34" s="44"/>
+      <c r="BN34" s="44"/>
+      <c r="BO34" s="44"/>
       <c r="BP34" s="8"/>
       <c r="BQ34" s="6"/>
     </row>
@@ -4392,8 +4359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52DE973-A8E6-4741-91B2-5EEB95E5F33A}">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4409,247 +4376,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67" t="s">
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="68" t="s">
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
-      <c r="BG1" s="68"/>
-      <c r="BH1" s="68"/>
-      <c r="BI1" s="68"/>
-      <c r="BJ1" s="68"/>
-      <c r="BK1" s="68"/>
-      <c r="BL1" s="68"/>
-      <c r="BM1" s="68"/>
-      <c r="BN1" s="68"/>
-      <c r="BO1" s="68"/>
-      <c r="BP1" s="68"/>
-      <c r="BQ1" s="68"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="67"/>
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="67"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="64" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="65" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65" t="s">
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65" t="s">
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="65"/>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="65"/>
-      <c r="BG2" s="65"/>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="65"/>
-      <c r="BJ2" s="70" t="s">
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="69"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="63" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="72">
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="71">
         <v>45510</v>
       </c>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="63" t="s">
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="71">
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="70">
         <v>45533</v>
       </c>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="70"/>
+      <c r="BN3" s="70"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4674,94 +4641,94 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="78" t="s">
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
-      <c r="AO6" s="74" t="s">
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="74"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="74"/>
-      <c r="AS6" s="74"/>
-      <c r="AT6" s="74"/>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="74"/>
-      <c r="AW6" s="74"/>
-      <c r="AX6" s="74"/>
-      <c r="AY6" s="74"/>
-      <c r="AZ6" s="74"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="74"/>
-      <c r="BC6" s="74"/>
-      <c r="BD6" s="74"/>
-      <c r="BE6" s="74"/>
-      <c r="BF6" s="74"/>
-      <c r="BG6" s="74"/>
-      <c r="BH6" s="74"/>
-      <c r="BI6" s="74"/>
-      <c r="BJ6" s="74"/>
-      <c r="BK6" s="74"/>
-      <c r="BL6" s="74"/>
-      <c r="BM6" s="74"/>
-      <c r="BN6" s="74"/>
-      <c r="BO6" s="74"/>
-      <c r="BP6" s="74"/>
+      <c r="AP6" s="73"/>
+      <c r="AQ6" s="73"/>
+      <c r="AR6" s="73"/>
+      <c r="AS6" s="73"/>
+      <c r="AT6" s="73"/>
+      <c r="AU6" s="73"/>
+      <c r="AV6" s="73"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="73"/>
+      <c r="AY6" s="73"/>
+      <c r="AZ6" s="73"/>
+      <c r="BA6" s="73"/>
+      <c r="BB6" s="73"/>
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="73"/>
+      <c r="BF6" s="73"/>
+      <c r="BG6" s="73"/>
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="73"/>
+      <c r="BJ6" s="73"/>
+      <c r="BK6" s="73"/>
+      <c r="BL6" s="73"/>
+      <c r="BM6" s="73"/>
+      <c r="BN6" s="73"/>
+      <c r="BO6" s="73"/>
+      <c r="BP6" s="73"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
       <c r="M7" s="41" t="s">
         <v>66</v>
       </c>
@@ -4792,34 +4759,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="74"/>
-      <c r="BA7" s="74"/>
-      <c r="BB7" s="74"/>
-      <c r="BC7" s="74"/>
-      <c r="BD7" s="74"/>
-      <c r="BE7" s="74"/>
-      <c r="BF7" s="74"/>
-      <c r="BG7" s="74"/>
-      <c r="BH7" s="74"/>
-      <c r="BI7" s="74"/>
-      <c r="BJ7" s="74"/>
-      <c r="BK7" s="74"/>
-      <c r="BL7" s="74"/>
-      <c r="BM7" s="74"/>
-      <c r="BN7" s="74"/>
-      <c r="BO7" s="74"/>
-      <c r="BP7" s="74"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="73"/>
+      <c r="AS7" s="73"/>
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="73"/>
+      <c r="AV7" s="73"/>
+      <c r="AW7" s="73"/>
+      <c r="AX7" s="73"/>
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="73"/>
+      <c r="BA7" s="73"/>
+      <c r="BB7" s="73"/>
+      <c r="BC7" s="73"/>
+      <c r="BD7" s="73"/>
+      <c r="BE7" s="73"/>
+      <c r="BF7" s="73"/>
+      <c r="BG7" s="73"/>
+      <c r="BH7" s="73"/>
+      <c r="BI7" s="73"/>
+      <c r="BJ7" s="73"/>
+      <c r="BK7" s="73"/>
+      <c r="BL7" s="73"/>
+      <c r="BM7" s="73"/>
+      <c r="BN7" s="73"/>
+      <c r="BO7" s="73"/>
+      <c r="BP7" s="73"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -4833,89 +4800,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="65" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65" t="s">
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="76" t="s">
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="76"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="76"/>
-      <c r="BB10" s="76"/>
-      <c r="BC10" s="76"/>
-      <c r="BD10" s="76"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="76"/>
-      <c r="BG10" s="76"/>
-      <c r="BH10" s="76"/>
-      <c r="BI10" s="76"/>
-      <c r="BJ10" s="76" t="s">
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="76"/>
-      <c r="BL10" s="76"/>
-      <c r="BM10" s="76"/>
-      <c r="BN10" s="76"/>
-      <c r="BO10" s="76"/>
-      <c r="BP10" s="76"/>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="75"/>
+      <c r="BN10" s="75"/>
+      <c r="BO10" s="75"/>
+      <c r="BP10" s="75"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
@@ -4931,11 +4898,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="65" t="s">
+      <c r="T11" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -4985,12 +4952,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -5004,9 +4971,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -5055,12 +5022,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -5074,9 +5041,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -5125,12 +5092,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5144,9 +5111,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -5195,12 +5162,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5214,9 +5181,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -5276,88 +5243,88 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="65" t="s">
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65" t="s">
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="76" t="s">
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="76"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="76"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="76"/>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="76"/>
-      <c r="AS18" s="76"/>
-      <c r="AT18" s="76"/>
-      <c r="AU18" s="76"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="76"/>
-      <c r="AX18" s="76"/>
-      <c r="AY18" s="76"/>
-      <c r="AZ18" s="76"/>
-      <c r="BA18" s="76"/>
-      <c r="BB18" s="76"/>
-      <c r="BC18" s="76"/>
-      <c r="BD18" s="76"/>
-      <c r="BE18" s="76"/>
-      <c r="BF18" s="76"/>
-      <c r="BG18" s="76"/>
-      <c r="BH18" s="76"/>
-      <c r="BI18" s="76"/>
-      <c r="BJ18" s="76" t="s">
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="75"/>
+      <c r="AQ18" s="75"/>
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="75"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="75"/>
+      <c r="BA18" s="75"/>
+      <c r="BB18" s="75"/>
+      <c r="BC18" s="75"/>
+      <c r="BD18" s="75"/>
+      <c r="BE18" s="75"/>
+      <c r="BF18" s="75"/>
+      <c r="BG18" s="75"/>
+      <c r="BH18" s="75"/>
+      <c r="BI18" s="75"/>
+      <c r="BJ18" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="76"/>
-      <c r="BL18" s="76"/>
-      <c r="BM18" s="76"/>
-      <c r="BN18" s="76"/>
-      <c r="BO18" s="76"/>
-      <c r="BP18" s="76"/>
+      <c r="BK18" s="75"/>
+      <c r="BL18" s="75"/>
+      <c r="BM18" s="75"/>
+      <c r="BN18" s="75"/>
+      <c r="BO18" s="75"/>
+      <c r="BP18" s="75"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="41" t="s">
         <v>68</v>
       </c>
@@ -5373,9 +5340,9 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
       <c r="W19" s="40" t="s">
         <v>69</v>
       </c>
@@ -5659,270 +5626,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="81" t="s">
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="81"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="81"/>
-      <c r="AF26" s="81"/>
-      <c r="AG26" s="81"/>
-      <c r="AH26" s="81"/>
-      <c r="AI26" s="81"/>
-      <c r="AJ26" s="81"/>
-      <c r="AK26" s="81"/>
-      <c r="AL26" s="81"/>
-      <c r="AM26" s="81"/>
-      <c r="AN26" s="81"/>
-      <c r="AO26" s="81"/>
-      <c r="AP26" s="81"/>
-      <c r="AQ26" s="81"/>
-      <c r="AR26" s="81"/>
-      <c r="AS26" s="81"/>
-      <c r="AT26" s="81"/>
-      <c r="AU26" s="81"/>
-      <c r="AV26" s="81"/>
-      <c r="AW26" s="81"/>
-      <c r="AX26" s="81"/>
-      <c r="AY26" s="81"/>
-      <c r="AZ26" s="81"/>
-      <c r="BA26" s="81"/>
-      <c r="BB26" s="81"/>
-      <c r="BC26" s="81"/>
-      <c r="BD26" s="81"/>
-      <c r="BE26" s="81"/>
-      <c r="BF26" s="81"/>
-      <c r="BG26" s="81"/>
-      <c r="BH26" s="81"/>
-      <c r="BI26" s="81"/>
-      <c r="BJ26" s="81"/>
-      <c r="BK26" s="81"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="80"/>
+      <c r="AN26" s="80"/>
+      <c r="AO26" s="80"/>
+      <c r="AP26" s="80"/>
+      <c r="AQ26" s="80"/>
+      <c r="AR26" s="80"/>
+      <c r="AS26" s="80"/>
+      <c r="AT26" s="80"/>
+      <c r="AU26" s="80"/>
+      <c r="AV26" s="80"/>
+      <c r="AW26" s="80"/>
+      <c r="AX26" s="80"/>
+      <c r="AY26" s="80"/>
+      <c r="AZ26" s="80"/>
+      <c r="BA26" s="80"/>
+      <c r="BB26" s="80"/>
+      <c r="BC26" s="80"/>
+      <c r="BD26" s="80"/>
+      <c r="BE26" s="80"/>
+      <c r="BF26" s="80"/>
+      <c r="BG26" s="80"/>
+      <c r="BH26" s="80"/>
+      <c r="BI26" s="80"/>
+      <c r="BJ26" s="80"/>
+      <c r="BK26" s="80"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="79" t="s">
+      <c r="E27" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="80" t="s">
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="80"/>
-      <c r="AB27" s="80"/>
-      <c r="AC27" s="80"/>
-      <c r="AD27" s="80"/>
-      <c r="AE27" s="80"/>
-      <c r="AF27" s="80"/>
-      <c r="AG27" s="80"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="80"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="80"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="80"/>
-      <c r="AN27" s="80"/>
-      <c r="AO27" s="80"/>
-      <c r="AP27" s="80"/>
-      <c r="AQ27" s="80"/>
-      <c r="AR27" s="80"/>
-      <c r="AS27" s="80"/>
-      <c r="AT27" s="80"/>
-      <c r="AU27" s="80"/>
-      <c r="AV27" s="80"/>
-      <c r="AW27" s="80"/>
-      <c r="AX27" s="80"/>
-      <c r="AY27" s="80"/>
-      <c r="AZ27" s="80"/>
-      <c r="BA27" s="80"/>
-      <c r="BB27" s="80"/>
-      <c r="BC27" s="80"/>
-      <c r="BD27" s="80"/>
-      <c r="BE27" s="80"/>
-      <c r="BF27" s="80"/>
-      <c r="BG27" s="80"/>
-      <c r="BH27" s="80"/>
-      <c r="BI27" s="80"/>
-      <c r="BJ27" s="80"/>
-      <c r="BK27" s="80"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="79"/>
+      <c r="AM27" s="79"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="79"/>
+      <c r="AP27" s="79"/>
+      <c r="AQ27" s="79"/>
+      <c r="AR27" s="79"/>
+      <c r="AS27" s="79"/>
+      <c r="AT27" s="79"/>
+      <c r="AU27" s="79"/>
+      <c r="AV27" s="79"/>
+      <c r="AW27" s="79"/>
+      <c r="AX27" s="79"/>
+      <c r="AY27" s="79"/>
+      <c r="AZ27" s="79"/>
+      <c r="BA27" s="79"/>
+      <c r="BB27" s="79"/>
+      <c r="BC27" s="79"/>
+      <c r="BD27" s="79"/>
+      <c r="BE27" s="79"/>
+      <c r="BF27" s="79"/>
+      <c r="BG27" s="79"/>
+      <c r="BH27" s="79"/>
+      <c r="BI27" s="79"/>
+      <c r="BJ27" s="79"/>
+      <c r="BK27" s="79"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="80" t="s">
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="80"/>
-      <c r="AC28" s="80"/>
-      <c r="AD28" s="80"/>
-      <c r="AE28" s="80"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="80"/>
-      <c r="AI28" s="80"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="80"/>
-      <c r="AL28" s="80"/>
-      <c r="AM28" s="80"/>
-      <c r="AN28" s="80"/>
-      <c r="AO28" s="80"/>
-      <c r="AP28" s="80"/>
-      <c r="AQ28" s="80"/>
-      <c r="AR28" s="80"/>
-      <c r="AS28" s="80"/>
-      <c r="AT28" s="80"/>
-      <c r="AU28" s="80"/>
-      <c r="AV28" s="80"/>
-      <c r="AW28" s="80"/>
-      <c r="AX28" s="80"/>
-      <c r="AY28" s="80"/>
-      <c r="AZ28" s="80"/>
-      <c r="BA28" s="80"/>
-      <c r="BB28" s="80"/>
-      <c r="BC28" s="80"/>
-      <c r="BD28" s="80"/>
-      <c r="BE28" s="80"/>
-      <c r="BF28" s="80"/>
-      <c r="BG28" s="80"/>
-      <c r="BH28" s="80"/>
-      <c r="BI28" s="80"/>
-      <c r="BJ28" s="80"/>
-      <c r="BK28" s="80"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="79"/>
+      <c r="AM28" s="79"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="79"/>
+      <c r="AQ28" s="79"/>
+      <c r="AR28" s="79"/>
+      <c r="AS28" s="79"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
+      <c r="AZ28" s="79"/>
+      <c r="BA28" s="79"/>
+      <c r="BB28" s="79"/>
+      <c r="BC28" s="79"/>
+      <c r="BD28" s="79"/>
+      <c r="BE28" s="79"/>
+      <c r="BF28" s="79"/>
+      <c r="BG28" s="79"/>
+      <c r="BH28" s="79"/>
+      <c r="BI28" s="79"/>
+      <c r="BJ28" s="79"/>
+      <c r="BK28" s="79"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="79" t="s">
+      <c r="E29" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="80" t="s">
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="80"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="80"/>
-      <c r="AE29" s="80"/>
-      <c r="AF29" s="80"/>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="80"/>
-      <c r="AI29" s="80"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="80"/>
-      <c r="AL29" s="80"/>
-      <c r="AM29" s="80"/>
-      <c r="AN29" s="80"/>
-      <c r="AO29" s="80"/>
-      <c r="AP29" s="80"/>
-      <c r="AQ29" s="80"/>
-      <c r="AR29" s="80"/>
-      <c r="AS29" s="80"/>
-      <c r="AT29" s="80"/>
-      <c r="AU29" s="80"/>
-      <c r="AV29" s="80"/>
-      <c r="AW29" s="80"/>
-      <c r="AX29" s="80"/>
-      <c r="AY29" s="80"/>
-      <c r="AZ29" s="80"/>
-      <c r="BA29" s="80"/>
-      <c r="BB29" s="80"/>
-      <c r="BC29" s="80"/>
-      <c r="BD29" s="80"/>
-      <c r="BE29" s="80"/>
-      <c r="BF29" s="80"/>
-      <c r="BG29" s="80"/>
-      <c r="BH29" s="80"/>
-      <c r="BI29" s="80"/>
-      <c r="BJ29" s="80"/>
-      <c r="BK29" s="80"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="79"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="79"/>
+      <c r="AQ29" s="79"/>
+      <c r="AR29" s="79"/>
+      <c r="AS29" s="79"/>
+      <c r="AT29" s="79"/>
+      <c r="AU29" s="79"/>
+      <c r="AV29" s="79"/>
+      <c r="AW29" s="79"/>
+      <c r="AX29" s="79"/>
+      <c r="AY29" s="79"/>
+      <c r="AZ29" s="79"/>
+      <c r="BA29" s="79"/>
+      <c r="BB29" s="79"/>
+      <c r="BC29" s="79"/>
+      <c r="BD29" s="79"/>
+      <c r="BE29" s="79"/>
+      <c r="BF29" s="79"/>
+      <c r="BG29" s="79"/>
+      <c r="BH29" s="79"/>
+      <c r="BI29" s="79"/>
+      <c r="BJ29" s="79"/>
+      <c r="BK29" s="79"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -6518,7 +6485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E6ABAF-D949-47FF-9313-6927E9CF6184}">
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6535,243 +6502,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67" t="s">
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="68" t="s">
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="68"/>
-      <c r="AZ1" s="68"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
-      <c r="BG1" s="68"/>
-      <c r="BH1" s="68"/>
-      <c r="BI1" s="68"/>
-      <c r="BJ1" s="68"/>
-      <c r="BK1" s="68"/>
-      <c r="BL1" s="68"/>
-      <c r="BM1" s="68"/>
-      <c r="BN1" s="68"/>
-      <c r="BO1" s="68"/>
-      <c r="BP1" s="68"/>
-      <c r="BQ1" s="68"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="67"/>
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="67"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="64" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="65" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="65"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="65" t="s">
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65" t="s">
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="65"/>
-      <c r="BD2" s="65"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="65"/>
-      <c r="BG2" s="65"/>
-      <c r="BH2" s="65"/>
-      <c r="BI2" s="65"/>
-      <c r="BJ2" s="70"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="70"/>
-      <c r="BP2" s="70"/>
-      <c r="BQ2" s="70"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="69"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="63" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="72">
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="71">
         <v>45553</v>
       </c>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="63" t="s">
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="70"/>
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="70"/>
+      <c r="BN3" s="70"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -6796,94 +6763,94 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="78" t="s">
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
-      <c r="AO6" s="74" t="s">
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="74"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="74"/>
-      <c r="AS6" s="74"/>
-      <c r="AT6" s="74"/>
-      <c r="AU6" s="74"/>
-      <c r="AV6" s="74"/>
-      <c r="AW6" s="74"/>
-      <c r="AX6" s="74"/>
-      <c r="AY6" s="74"/>
-      <c r="AZ6" s="74"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="74"/>
-      <c r="BC6" s="74"/>
-      <c r="BD6" s="74"/>
-      <c r="BE6" s="74"/>
-      <c r="BF6" s="74"/>
-      <c r="BG6" s="74"/>
-      <c r="BH6" s="74"/>
-      <c r="BI6" s="74"/>
-      <c r="BJ6" s="74"/>
-      <c r="BK6" s="74"/>
-      <c r="BL6" s="74"/>
-      <c r="BM6" s="74"/>
-      <c r="BN6" s="74"/>
-      <c r="BO6" s="74"/>
-      <c r="BP6" s="74"/>
+      <c r="AP6" s="73"/>
+      <c r="AQ6" s="73"/>
+      <c r="AR6" s="73"/>
+      <c r="AS6" s="73"/>
+      <c r="AT6" s="73"/>
+      <c r="AU6" s="73"/>
+      <c r="AV6" s="73"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="73"/>
+      <c r="AY6" s="73"/>
+      <c r="AZ6" s="73"/>
+      <c r="BA6" s="73"/>
+      <c r="BB6" s="73"/>
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="73"/>
+      <c r="BF6" s="73"/>
+      <c r="BG6" s="73"/>
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="73"/>
+      <c r="BJ6" s="73"/>
+      <c r="BK6" s="73"/>
+      <c r="BL6" s="73"/>
+      <c r="BM6" s="73"/>
+      <c r="BN6" s="73"/>
+      <c r="BO6" s="73"/>
+      <c r="BP6" s="73"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
       <c r="M7" s="41" t="s">
         <v>73</v>
       </c>
@@ -6914,34 +6881,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="74"/>
-      <c r="AZ7" s="74"/>
-      <c r="BA7" s="74"/>
-      <c r="BB7" s="74"/>
-      <c r="BC7" s="74"/>
-      <c r="BD7" s="74"/>
-      <c r="BE7" s="74"/>
-      <c r="BF7" s="74"/>
-      <c r="BG7" s="74"/>
-      <c r="BH7" s="74"/>
-      <c r="BI7" s="74"/>
-      <c r="BJ7" s="74"/>
-      <c r="BK7" s="74"/>
-      <c r="BL7" s="74"/>
-      <c r="BM7" s="74"/>
-      <c r="BN7" s="74"/>
-      <c r="BO7" s="74"/>
-      <c r="BP7" s="74"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="73"/>
+      <c r="AS7" s="73"/>
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="73"/>
+      <c r="AV7" s="73"/>
+      <c r="AW7" s="73"/>
+      <c r="AX7" s="73"/>
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="73"/>
+      <c r="BA7" s="73"/>
+      <c r="BB7" s="73"/>
+      <c r="BC7" s="73"/>
+      <c r="BD7" s="73"/>
+      <c r="BE7" s="73"/>
+      <c r="BF7" s="73"/>
+      <c r="BG7" s="73"/>
+      <c r="BH7" s="73"/>
+      <c r="BI7" s="73"/>
+      <c r="BJ7" s="73"/>
+      <c r="BK7" s="73"/>
+      <c r="BL7" s="73"/>
+      <c r="BM7" s="73"/>
+      <c r="BN7" s="73"/>
+      <c r="BO7" s="73"/>
+      <c r="BP7" s="73"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -6955,89 +6922,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="65" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65" t="s">
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="76" t="s">
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="76"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="76"/>
-      <c r="BB10" s="76"/>
-      <c r="BC10" s="76"/>
-      <c r="BD10" s="76"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="76"/>
-      <c r="BG10" s="76"/>
-      <c r="BH10" s="76"/>
-      <c r="BI10" s="76"/>
-      <c r="BJ10" s="76" t="s">
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="76"/>
-      <c r="BL10" s="76"/>
-      <c r="BM10" s="76"/>
-      <c r="BN10" s="76"/>
-      <c r="BO10" s="76"/>
-      <c r="BP10" s="76"/>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="75"/>
+      <c r="BN10" s="75"/>
+      <c r="BO10" s="75"/>
+      <c r="BP10" s="75"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
@@ -7053,11 +7020,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="65" t="s">
+      <c r="T11" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -7107,12 +7074,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -7126,9 +7093,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -7177,12 +7144,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -7196,9 +7163,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -7247,12 +7214,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -7266,9 +7233,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -7317,12 +7284,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -7336,9 +7303,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -7398,88 +7365,88 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="65" t="s">
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65" t="s">
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="76" t="s">
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="76"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="76"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="76"/>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="76"/>
-      <c r="AS18" s="76"/>
-      <c r="AT18" s="76"/>
-      <c r="AU18" s="76"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="76"/>
-      <c r="AX18" s="76"/>
-      <c r="AY18" s="76"/>
-      <c r="AZ18" s="76"/>
-      <c r="BA18" s="76"/>
-      <c r="BB18" s="76"/>
-      <c r="BC18" s="76"/>
-      <c r="BD18" s="76"/>
-      <c r="BE18" s="76"/>
-      <c r="BF18" s="76"/>
-      <c r="BG18" s="76"/>
-      <c r="BH18" s="76"/>
-      <c r="BI18" s="76"/>
-      <c r="BJ18" s="76" t="s">
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="75"/>
+      <c r="AQ18" s="75"/>
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="75"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="75"/>
+      <c r="BA18" s="75"/>
+      <c r="BB18" s="75"/>
+      <c r="BC18" s="75"/>
+      <c r="BD18" s="75"/>
+      <c r="BE18" s="75"/>
+      <c r="BF18" s="75"/>
+      <c r="BG18" s="75"/>
+      <c r="BH18" s="75"/>
+      <c r="BI18" s="75"/>
+      <c r="BJ18" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="76"/>
-      <c r="BL18" s="76"/>
-      <c r="BM18" s="76"/>
-      <c r="BN18" s="76"/>
-      <c r="BO18" s="76"/>
-      <c r="BP18" s="76"/>
+      <c r="BK18" s="75"/>
+      <c r="BL18" s="75"/>
+      <c r="BM18" s="75"/>
+      <c r="BN18" s="75"/>
+      <c r="BO18" s="75"/>
+      <c r="BP18" s="75"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="41" t="s">
         <v>77</v>
       </c>
@@ -7495,9 +7462,9 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
       <c r="W19" s="40" t="s">
         <v>79</v>
       </c>
@@ -7765,7 +7732,7 @@
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C24" s="24"/>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="43" t="s">
         <v>82</v>
       </c>
       <c r="E24" s="14" t="s">
@@ -7784,270 +7751,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="81" t="s">
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="81"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="81"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="81"/>
-      <c r="AF26" s="81"/>
-      <c r="AG26" s="81"/>
-      <c r="AH26" s="81"/>
-      <c r="AI26" s="81"/>
-      <c r="AJ26" s="81"/>
-      <c r="AK26" s="81"/>
-      <c r="AL26" s="81"/>
-      <c r="AM26" s="81"/>
-      <c r="AN26" s="81"/>
-      <c r="AO26" s="81"/>
-      <c r="AP26" s="81"/>
-      <c r="AQ26" s="81"/>
-      <c r="AR26" s="81"/>
-      <c r="AS26" s="81"/>
-      <c r="AT26" s="81"/>
-      <c r="AU26" s="81"/>
-      <c r="AV26" s="81"/>
-      <c r="AW26" s="81"/>
-      <c r="AX26" s="81"/>
-      <c r="AY26" s="81"/>
-      <c r="AZ26" s="81"/>
-      <c r="BA26" s="81"/>
-      <c r="BB26" s="81"/>
-      <c r="BC26" s="81"/>
-      <c r="BD26" s="81"/>
-      <c r="BE26" s="81"/>
-      <c r="BF26" s="81"/>
-      <c r="BG26" s="81"/>
-      <c r="BH26" s="81"/>
-      <c r="BI26" s="81"/>
-      <c r="BJ26" s="81"/>
-      <c r="BK26" s="81"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="80"/>
+      <c r="AN26" s="80"/>
+      <c r="AO26" s="80"/>
+      <c r="AP26" s="80"/>
+      <c r="AQ26" s="80"/>
+      <c r="AR26" s="80"/>
+      <c r="AS26" s="80"/>
+      <c r="AT26" s="80"/>
+      <c r="AU26" s="80"/>
+      <c r="AV26" s="80"/>
+      <c r="AW26" s="80"/>
+      <c r="AX26" s="80"/>
+      <c r="AY26" s="80"/>
+      <c r="AZ26" s="80"/>
+      <c r="BA26" s="80"/>
+      <c r="BB26" s="80"/>
+      <c r="BC26" s="80"/>
+      <c r="BD26" s="80"/>
+      <c r="BE26" s="80"/>
+      <c r="BF26" s="80"/>
+      <c r="BG26" s="80"/>
+      <c r="BH26" s="80"/>
+      <c r="BI26" s="80"/>
+      <c r="BJ26" s="80"/>
+      <c r="BK26" s="80"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="79" t="s">
+      <c r="E27" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="80" t="s">
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="80"/>
-      <c r="AB27" s="80"/>
-      <c r="AC27" s="80"/>
-      <c r="AD27" s="80"/>
-      <c r="AE27" s="80"/>
-      <c r="AF27" s="80"/>
-      <c r="AG27" s="80"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="80"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="80"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="80"/>
-      <c r="AN27" s="80"/>
-      <c r="AO27" s="80"/>
-      <c r="AP27" s="80"/>
-      <c r="AQ27" s="80"/>
-      <c r="AR27" s="80"/>
-      <c r="AS27" s="80"/>
-      <c r="AT27" s="80"/>
-      <c r="AU27" s="80"/>
-      <c r="AV27" s="80"/>
-      <c r="AW27" s="80"/>
-      <c r="AX27" s="80"/>
-      <c r="AY27" s="80"/>
-      <c r="AZ27" s="80"/>
-      <c r="BA27" s="80"/>
-      <c r="BB27" s="80"/>
-      <c r="BC27" s="80"/>
-      <c r="BD27" s="80"/>
-      <c r="BE27" s="80"/>
-      <c r="BF27" s="80"/>
-      <c r="BG27" s="80"/>
-      <c r="BH27" s="80"/>
-      <c r="BI27" s="80"/>
-      <c r="BJ27" s="80"/>
-      <c r="BK27" s="80"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="79"/>
+      <c r="AM27" s="79"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="79"/>
+      <c r="AP27" s="79"/>
+      <c r="AQ27" s="79"/>
+      <c r="AR27" s="79"/>
+      <c r="AS27" s="79"/>
+      <c r="AT27" s="79"/>
+      <c r="AU27" s="79"/>
+      <c r="AV27" s="79"/>
+      <c r="AW27" s="79"/>
+      <c r="AX27" s="79"/>
+      <c r="AY27" s="79"/>
+      <c r="AZ27" s="79"/>
+      <c r="BA27" s="79"/>
+      <c r="BB27" s="79"/>
+      <c r="BC27" s="79"/>
+      <c r="BD27" s="79"/>
+      <c r="BE27" s="79"/>
+      <c r="BF27" s="79"/>
+      <c r="BG27" s="79"/>
+      <c r="BH27" s="79"/>
+      <c r="BI27" s="79"/>
+      <c r="BJ27" s="79"/>
+      <c r="BK27" s="79"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="80" t="s">
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="80"/>
-      <c r="AC28" s="80"/>
-      <c r="AD28" s="80"/>
-      <c r="AE28" s="80"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="80"/>
-      <c r="AI28" s="80"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="80"/>
-      <c r="AL28" s="80"/>
-      <c r="AM28" s="80"/>
-      <c r="AN28" s="80"/>
-      <c r="AO28" s="80"/>
-      <c r="AP28" s="80"/>
-      <c r="AQ28" s="80"/>
-      <c r="AR28" s="80"/>
-      <c r="AS28" s="80"/>
-      <c r="AT28" s="80"/>
-      <c r="AU28" s="80"/>
-      <c r="AV28" s="80"/>
-      <c r="AW28" s="80"/>
-      <c r="AX28" s="80"/>
-      <c r="AY28" s="80"/>
-      <c r="AZ28" s="80"/>
-      <c r="BA28" s="80"/>
-      <c r="BB28" s="80"/>
-      <c r="BC28" s="80"/>
-      <c r="BD28" s="80"/>
-      <c r="BE28" s="80"/>
-      <c r="BF28" s="80"/>
-      <c r="BG28" s="80"/>
-      <c r="BH28" s="80"/>
-      <c r="BI28" s="80"/>
-      <c r="BJ28" s="80"/>
-      <c r="BK28" s="80"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="79"/>
+      <c r="AM28" s="79"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="79"/>
+      <c r="AQ28" s="79"/>
+      <c r="AR28" s="79"/>
+      <c r="AS28" s="79"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
+      <c r="AZ28" s="79"/>
+      <c r="BA28" s="79"/>
+      <c r="BB28" s="79"/>
+      <c r="BC28" s="79"/>
+      <c r="BD28" s="79"/>
+      <c r="BE28" s="79"/>
+      <c r="BF28" s="79"/>
+      <c r="BG28" s="79"/>
+      <c r="BH28" s="79"/>
+      <c r="BI28" s="79"/>
+      <c r="BJ28" s="79"/>
+      <c r="BK28" s="79"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="79" t="s">
+      <c r="E29" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="80" t="s">
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="80"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="80"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="80"/>
-      <c r="AE29" s="80"/>
-      <c r="AF29" s="80"/>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="80"/>
-      <c r="AI29" s="80"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="80"/>
-      <c r="AL29" s="80"/>
-      <c r="AM29" s="80"/>
-      <c r="AN29" s="80"/>
-      <c r="AO29" s="80"/>
-      <c r="AP29" s="80"/>
-      <c r="AQ29" s="80"/>
-      <c r="AR29" s="80"/>
-      <c r="AS29" s="80"/>
-      <c r="AT29" s="80"/>
-      <c r="AU29" s="80"/>
-      <c r="AV29" s="80"/>
-      <c r="AW29" s="80"/>
-      <c r="AX29" s="80"/>
-      <c r="AY29" s="80"/>
-      <c r="AZ29" s="80"/>
-      <c r="BA29" s="80"/>
-      <c r="BB29" s="80"/>
-      <c r="BC29" s="80"/>
-      <c r="BD29" s="80"/>
-      <c r="BE29" s="80"/>
-      <c r="BF29" s="80"/>
-      <c r="BG29" s="80"/>
-      <c r="BH29" s="80"/>
-      <c r="BI29" s="80"/>
-      <c r="BJ29" s="80"/>
-      <c r="BK29" s="80"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="79"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="79"/>
+      <c r="AQ29" s="79"/>
+      <c r="AR29" s="79"/>
+      <c r="AS29" s="79"/>
+      <c r="AT29" s="79"/>
+      <c r="AU29" s="79"/>
+      <c r="AV29" s="79"/>
+      <c r="AW29" s="79"/>
+      <c r="AX29" s="79"/>
+      <c r="AY29" s="79"/>
+      <c r="AZ29" s="79"/>
+      <c r="BA29" s="79"/>
+      <c r="BB29" s="79"/>
+      <c r="BC29" s="79"/>
+      <c r="BD29" s="79"/>
+      <c r="BE29" s="79"/>
+      <c r="BF29" s="79"/>
+      <c r="BG29" s="79"/>
+      <c r="BH29" s="79"/>
+      <c r="BI29" s="79"/>
+      <c r="BJ29" s="79"/>
+      <c r="BK29" s="79"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -8151,7 +8118,7 @@
     </row>
     <row r="37" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C37" s="24"/>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="42" t="s">
         <v>80</v>
       </c>
       <c r="E37" s="25" t="s">

--- a/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
+++ b/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAE896B-7E98-4956-A27E-3974E8DC76DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8903AE-A628-41E0-B579-23659A1EDBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="750" windowWidth="13280" windowHeight="10050" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="340" yWindow="760" windowWidth="10870" windowHeight="8900" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_プルダウン項目クラス" sheetId="2" r:id="rId1"/>
@@ -1090,36 +1090,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,6 +1105,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1144,14 +1117,64 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,29 +1196,6 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:AMK48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:H3"/>
+      <selection activeCell="I1" sqref="I1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1530,247 +1530,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="56" t="s">
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="56"/>
-      <c r="BO1" s="56"/>
-      <c r="BP1" s="56"/>
-      <c r="BQ1" s="56"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="46"/>
+      <c r="BL1" s="46"/>
+      <c r="BM1" s="46"/>
+      <c r="BN1" s="46"/>
+      <c r="BO1" s="46"/>
+      <c r="BP1" s="46"/>
+      <c r="BQ1" s="46"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="45" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45" t="s">
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
-      <c r="AY2" s="45"/>
-      <c r="AZ2" s="45"/>
-      <c r="BA2" s="45"/>
-      <c r="BB2" s="45" t="s">
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="45"/>
-      <c r="BD2" s="45"/>
-      <c r="BE2" s="45"/>
-      <c r="BF2" s="45"/>
-      <c r="BG2" s="45"/>
-      <c r="BH2" s="45"/>
-      <c r="BI2" s="45"/>
-      <c r="BJ2" s="59" t="s">
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="59"/>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="59"/>
-      <c r="BN2" s="59"/>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="59"/>
-      <c r="BQ2" s="59"/>
+      <c r="BK2" s="50"/>
+      <c r="BL2" s="50"/>
+      <c r="BM2" s="50"/>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="50"/>
+      <c r="BP2" s="50"/>
+      <c r="BQ2" s="50"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58" t="s">
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="58"/>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="58"/>
-      <c r="AS3" s="58"/>
-      <c r="AT3" s="60">
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48"/>
+      <c r="AT3" s="51">
         <v>45519</v>
       </c>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="58" t="s">
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="58"/>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="58"/>
-      <c r="BG3" s="58"/>
-      <c r="BH3" s="58"/>
-      <c r="BI3" s="58"/>
-      <c r="BJ3" s="61">
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="48"/>
+      <c r="BF3" s="48"/>
+      <c r="BG3" s="48"/>
+      <c r="BH3" s="48"/>
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="52">
         <v>45518</v>
       </c>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="61"/>
-      <c r="BM3" s="61"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="61"/>
-      <c r="BP3" s="61"/>
-      <c r="BQ3" s="61"/>
+      <c r="BK3" s="52"/>
+      <c r="BL3" s="52"/>
+      <c r="BM3" s="52"/>
+      <c r="BN3" s="52"/>
+      <c r="BO3" s="52"/>
+      <c r="BP3" s="52"/>
+      <c r="BQ3" s="52"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -1837,215 +1837,215 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="44"/>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="44"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44"/>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="44"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="44"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="44"/>
-      <c r="BE6" s="44"/>
-      <c r="BF6" s="44"/>
-      <c r="BG6" s="44"/>
-      <c r="BH6" s="44"/>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="44"/>
-      <c r="BK6" s="44"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="44"/>
-      <c r="BN6" s="44"/>
-      <c r="BO6" s="44"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="53"/>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="6"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44"/>
-      <c r="BC7" s="44"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="44"/>
-      <c r="BH7" s="44"/>
-      <c r="BI7" s="44"/>
-      <c r="BJ7" s="44"/>
-      <c r="BK7" s="44"/>
-      <c r="BL7" s="44"/>
-      <c r="BM7" s="44"/>
-      <c r="BN7" s="44"/>
-      <c r="BO7" s="44"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="53"/>
+      <c r="BA7" s="53"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="53"/>
+      <c r="BD7" s="53"/>
+      <c r="BE7" s="53"/>
+      <c r="BF7" s="53"/>
+      <c r="BG7" s="53"/>
+      <c r="BH7" s="53"/>
+      <c r="BI7" s="53"/>
+      <c r="BJ7" s="53"/>
+      <c r="BK7" s="53"/>
+      <c r="BL7" s="53"/>
+      <c r="BM7" s="53"/>
+      <c r="BN7" s="53"/>
+      <c r="BO7" s="53"/>
       <c r="BP7" s="8"/>
       <c r="BQ7" s="6"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
-      <c r="BM8" s="44"/>
-      <c r="BN8" s="44"/>
-      <c r="BO8" s="44"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53"/>
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="53"/>
+      <c r="BC8" s="53"/>
+      <c r="BD8" s="53"/>
+      <c r="BE8" s="53"/>
+      <c r="BF8" s="53"/>
+      <c r="BG8" s="53"/>
+      <c r="BH8" s="53"/>
+      <c r="BI8" s="53"/>
+      <c r="BJ8" s="53"/>
+      <c r="BK8" s="53"/>
+      <c r="BL8" s="53"/>
+      <c r="BM8" s="53"/>
+      <c r="BN8" s="53"/>
+      <c r="BO8" s="53"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="6"/>
     </row>
@@ -2098,787 +2098,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="45" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="44" t="s">
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="46" t="s">
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="AJ11" s="46"/>
-      <c r="AK11" s="46"/>
-      <c r="AL11" s="46"/>
-      <c r="AM11" s="46"/>
-      <c r="AN11" s="46"/>
-      <c r="AO11" s="46"/>
-      <c r="AP11" s="46"/>
-      <c r="AQ11" s="46"/>
-      <c r="AR11" s="46"/>
-      <c r="AS11" s="46"/>
-      <c r="AT11" s="46"/>
-      <c r="AU11" s="46"/>
-      <c r="AV11" s="46"/>
-      <c r="AW11" s="46"/>
-      <c r="AX11" s="46"/>
-      <c r="AY11" s="46"/>
-      <c r="AZ11" s="46"/>
-      <c r="BA11" s="46"/>
-      <c r="BB11" s="46"/>
-      <c r="BC11" s="46"/>
-      <c r="BD11" s="46"/>
-      <c r="BE11" s="46"/>
-      <c r="BF11" s="46"/>
-      <c r="BG11" s="46"/>
-      <c r="BH11" s="46"/>
-      <c r="BI11" s="46"/>
-      <c r="BJ11" s="46"/>
-      <c r="BK11" s="46"/>
-      <c r="BL11" s="46"/>
-      <c r="BM11" s="46"/>
-      <c r="BN11" s="46"/>
-      <c r="BO11" s="46"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="54"/>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="54"/>
+      <c r="AR11" s="54"/>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="54"/>
+      <c r="AU11" s="54"/>
+      <c r="AV11" s="54"/>
+      <c r="AW11" s="54"/>
+      <c r="AX11" s="54"/>
+      <c r="AY11" s="54"/>
+      <c r="AZ11" s="54"/>
+      <c r="BA11" s="54"/>
+      <c r="BB11" s="54"/>
+      <c r="BC11" s="54"/>
+      <c r="BD11" s="54"/>
+      <c r="BE11" s="54"/>
+      <c r="BF11" s="54"/>
+      <c r="BG11" s="54"/>
+      <c r="BH11" s="54"/>
+      <c r="BI11" s="54"/>
+      <c r="BJ11" s="54"/>
+      <c r="BK11" s="54"/>
+      <c r="BL11" s="54"/>
+      <c r="BM11" s="54"/>
+      <c r="BN11" s="54"/>
+      <c r="BO11" s="54"/>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="46"/>
-      <c r="AI12" s="46"/>
-      <c r="AJ12" s="46"/>
-      <c r="AK12" s="46"/>
-      <c r="AL12" s="46"/>
-      <c r="AM12" s="46"/>
-      <c r="AN12" s="46"/>
-      <c r="AO12" s="46"/>
-      <c r="AP12" s="46"/>
-      <c r="AQ12" s="46"/>
-      <c r="AR12" s="46"/>
-      <c r="AS12" s="46"/>
-      <c r="AT12" s="46"/>
-      <c r="AU12" s="46"/>
-      <c r="AV12" s="46"/>
-      <c r="AW12" s="46"/>
-      <c r="AX12" s="46"/>
-      <c r="AY12" s="46"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
-      <c r="BB12" s="46"/>
-      <c r="BC12" s="46"/>
-      <c r="BD12" s="46"/>
-      <c r="BE12" s="46"/>
-      <c r="BF12" s="46"/>
-      <c r="BG12" s="46"/>
-      <c r="BH12" s="46"/>
-      <c r="BI12" s="46"/>
-      <c r="BJ12" s="46"/>
-      <c r="BK12" s="46"/>
-      <c r="BL12" s="46"/>
-      <c r="BM12" s="46"/>
-      <c r="BN12" s="46"/>
-      <c r="BO12" s="46"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="54"/>
+      <c r="AP12" s="54"/>
+      <c r="AQ12" s="54"/>
+      <c r="AR12" s="54"/>
+      <c r="AS12" s="54"/>
+      <c r="AT12" s="54"/>
+      <c r="AU12" s="54"/>
+      <c r="AV12" s="54"/>
+      <c r="AW12" s="54"/>
+      <c r="AX12" s="54"/>
+      <c r="AY12" s="54"/>
+      <c r="AZ12" s="54"/>
+      <c r="BA12" s="54"/>
+      <c r="BB12" s="54"/>
+      <c r="BC12" s="54"/>
+      <c r="BD12" s="54"/>
+      <c r="BE12" s="54"/>
+      <c r="BF12" s="54"/>
+      <c r="BG12" s="54"/>
+      <c r="BH12" s="54"/>
+      <c r="BI12" s="54"/>
+      <c r="BJ12" s="54"/>
+      <c r="BK12" s="54"/>
+      <c r="BL12" s="54"/>
+      <c r="BM12" s="54"/>
+      <c r="BN12" s="54"/>
+      <c r="BO12" s="54"/>
       <c r="BP12" s="8"/>
       <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AF13" s="46"/>
-      <c r="AG13" s="46"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="46"/>
-      <c r="AJ13" s="46"/>
-      <c r="AK13" s="46"/>
-      <c r="AL13" s="46"/>
-      <c r="AM13" s="46"/>
-      <c r="AN13" s="46"/>
-      <c r="AO13" s="46"/>
-      <c r="AP13" s="46"/>
-      <c r="AQ13" s="46"/>
-      <c r="AR13" s="46"/>
-      <c r="AS13" s="46"/>
-      <c r="AT13" s="46"/>
-      <c r="AU13" s="46"/>
-      <c r="AV13" s="46"/>
-      <c r="AW13" s="46"/>
-      <c r="AX13" s="46"/>
-      <c r="AY13" s="46"/>
-      <c r="AZ13" s="46"/>
-      <c r="BA13" s="46"/>
-      <c r="BB13" s="46"/>
-      <c r="BC13" s="46"/>
-      <c r="BD13" s="46"/>
-      <c r="BE13" s="46"/>
-      <c r="BF13" s="46"/>
-      <c r="BG13" s="46"/>
-      <c r="BH13" s="46"/>
-      <c r="BI13" s="46"/>
-      <c r="BJ13" s="46"/>
-      <c r="BK13" s="46"/>
-      <c r="BL13" s="46"/>
-      <c r="BM13" s="46"/>
-      <c r="BN13" s="46"/>
-      <c r="BO13" s="46"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="54"/>
+      <c r="AW13" s="54"/>
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="54"/>
+      <c r="BA13" s="54"/>
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="54"/>
+      <c r="BE13" s="54"/>
+      <c r="BF13" s="54"/>
+      <c r="BG13" s="54"/>
+      <c r="BH13" s="54"/>
+      <c r="BI13" s="54"/>
+      <c r="BJ13" s="54"/>
+      <c r="BK13" s="54"/>
+      <c r="BL13" s="54"/>
+      <c r="BM13" s="54"/>
+      <c r="BN13" s="54"/>
+      <c r="BO13" s="54"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="53" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="53"/>
-      <c r="AK14" s="53"/>
-      <c r="AL14" s="53"/>
-      <c r="AM14" s="53"/>
-      <c r="AN14" s="53"/>
-      <c r="AO14" s="53"/>
-      <c r="AP14" s="53"/>
-      <c r="AQ14" s="53"/>
-      <c r="AR14" s="53"/>
-      <c r="AS14" s="53"/>
-      <c r="AT14" s="53"/>
-      <c r="AU14" s="53"/>
-      <c r="AV14" s="53"/>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="53"/>
-      <c r="AZ14" s="53"/>
-      <c r="BA14" s="53"/>
-      <c r="BB14" s="53"/>
-      <c r="BC14" s="53"/>
-      <c r="BD14" s="53"/>
-      <c r="BE14" s="53"/>
-      <c r="BF14" s="53"/>
-      <c r="BG14" s="53"/>
-      <c r="BH14" s="53"/>
-      <c r="BI14" s="53"/>
-      <c r="BJ14" s="53"/>
-      <c r="BK14" s="53"/>
-      <c r="BL14" s="53"/>
-      <c r="BM14" s="53"/>
-      <c r="BN14" s="53"/>
-      <c r="BO14" s="53"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="61"/>
+      <c r="AK14" s="61"/>
+      <c r="AL14" s="61"/>
+      <c r="AM14" s="61"/>
+      <c r="AN14" s="61"/>
+      <c r="AO14" s="61"/>
+      <c r="AP14" s="61"/>
+      <c r="AQ14" s="61"/>
+      <c r="AR14" s="61"/>
+      <c r="AS14" s="61"/>
+      <c r="AT14" s="61"/>
+      <c r="AU14" s="61"/>
+      <c r="AV14" s="61"/>
+      <c r="AW14" s="61"/>
+      <c r="AX14" s="61"/>
+      <c r="AY14" s="61"/>
+      <c r="AZ14" s="61"/>
+      <c r="BA14" s="61"/>
+      <c r="BB14" s="61"/>
+      <c r="BC14" s="61"/>
+      <c r="BD14" s="61"/>
+      <c r="BE14" s="61"/>
+      <c r="BF14" s="61"/>
+      <c r="BG14" s="61"/>
+      <c r="BH14" s="61"/>
+      <c r="BI14" s="61"/>
+      <c r="BJ14" s="61"/>
+      <c r="BK14" s="61"/>
+      <c r="BL14" s="61"/>
+      <c r="BM14" s="61"/>
+      <c r="BN14" s="61"/>
+      <c r="BO14" s="61"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="6"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AF15" s="46"/>
-      <c r="AG15" s="46"/>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="46"/>
-      <c r="AJ15" s="46"/>
-      <c r="AK15" s="46"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="46"/>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="46"/>
-      <c r="AQ15" s="46"/>
-      <c r="AR15" s="46"/>
-      <c r="AS15" s="46"/>
-      <c r="AT15" s="46"/>
-      <c r="AU15" s="46"/>
-      <c r="AV15" s="46"/>
-      <c r="AW15" s="46"/>
-      <c r="AX15" s="46"/>
-      <c r="AY15" s="46"/>
-      <c r="AZ15" s="46"/>
-      <c r="BA15" s="46"/>
-      <c r="BB15" s="46"/>
-      <c r="BC15" s="46"/>
-      <c r="BD15" s="46"/>
-      <c r="BE15" s="46"/>
-      <c r="BF15" s="46"/>
-      <c r="BG15" s="46"/>
-      <c r="BH15" s="46"/>
-      <c r="BI15" s="46"/>
-      <c r="BJ15" s="46"/>
-      <c r="BK15" s="46"/>
-      <c r="BL15" s="46"/>
-      <c r="BM15" s="46"/>
-      <c r="BN15" s="46"/>
-      <c r="BO15" s="46"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="54"/>
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="54"/>
+      <c r="AW15" s="54"/>
+      <c r="AX15" s="54"/>
+      <c r="AY15" s="54"/>
+      <c r="AZ15" s="54"/>
+      <c r="BA15" s="54"/>
+      <c r="BB15" s="54"/>
+      <c r="BC15" s="54"/>
+      <c r="BD15" s="54"/>
+      <c r="BE15" s="54"/>
+      <c r="BF15" s="54"/>
+      <c r="BG15" s="54"/>
+      <c r="BH15" s="54"/>
+      <c r="BI15" s="54"/>
+      <c r="BJ15" s="54"/>
+      <c r="BK15" s="54"/>
+      <c r="BL15" s="54"/>
+      <c r="BM15" s="54"/>
+      <c r="BN15" s="54"/>
+      <c r="BO15" s="54"/>
       <c r="BP15" s="8"/>
       <c r="BQ15" s="6"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="46"/>
-      <c r="AK16" s="46"/>
-      <c r="AL16" s="46"/>
-      <c r="AM16" s="46"/>
-      <c r="AN16" s="46"/>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="46"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="46"/>
-      <c r="AS16" s="46"/>
-      <c r="AT16" s="46"/>
-      <c r="AU16" s="46"/>
-      <c r="AV16" s="46"/>
-      <c r="AW16" s="46"/>
-      <c r="AX16" s="46"/>
-      <c r="AY16" s="46"/>
-      <c r="AZ16" s="46"/>
-      <c r="BA16" s="46"/>
-      <c r="BB16" s="46"/>
-      <c r="BC16" s="46"/>
-      <c r="BD16" s="46"/>
-      <c r="BE16" s="46"/>
-      <c r="BF16" s="46"/>
-      <c r="BG16" s="46"/>
-      <c r="BH16" s="46"/>
-      <c r="BI16" s="46"/>
-      <c r="BJ16" s="46"/>
-      <c r="BK16" s="46"/>
-      <c r="BL16" s="46"/>
-      <c r="BM16" s="46"/>
-      <c r="BN16" s="46"/>
-      <c r="BO16" s="46"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="54"/>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="54"/>
+      <c r="AO16" s="54"/>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="54"/>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="54"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="54"/>
+      <c r="AX16" s="54"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="54"/>
+      <c r="BA16" s="54"/>
+      <c r="BB16" s="54"/>
+      <c r="BC16" s="54"/>
+      <c r="BD16" s="54"/>
+      <c r="BE16" s="54"/>
+      <c r="BF16" s="54"/>
+      <c r="BG16" s="54"/>
+      <c r="BH16" s="54"/>
+      <c r="BI16" s="54"/>
+      <c r="BJ16" s="54"/>
+      <c r="BK16" s="54"/>
+      <c r="BL16" s="54"/>
+      <c r="BM16" s="54"/>
+      <c r="BN16" s="54"/>
+      <c r="BO16" s="54"/>
       <c r="BP16" s="8"/>
       <c r="BQ16" s="6"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="46"/>
-      <c r="AN17" s="46"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="46"/>
-      <c r="AS17" s="46"/>
-      <c r="AT17" s="46"/>
-      <c r="AU17" s="46"/>
-      <c r="AV17" s="46"/>
-      <c r="AW17" s="46"/>
-      <c r="AX17" s="46"/>
-      <c r="AY17" s="46"/>
-      <c r="AZ17" s="46"/>
-      <c r="BA17" s="46"/>
-      <c r="BB17" s="46"/>
-      <c r="BC17" s="46"/>
-      <c r="BD17" s="46"/>
-      <c r="BE17" s="46"/>
-      <c r="BF17" s="46"/>
-      <c r="BG17" s="46"/>
-      <c r="BH17" s="46"/>
-      <c r="BI17" s="46"/>
-      <c r="BJ17" s="46"/>
-      <c r="BK17" s="46"/>
-      <c r="BL17" s="46"/>
-      <c r="BM17" s="46"/>
-      <c r="BN17" s="46"/>
-      <c r="BO17" s="46"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
+      <c r="AY17" s="54"/>
+      <c r="AZ17" s="54"/>
+      <c r="BA17" s="54"/>
+      <c r="BB17" s="54"/>
+      <c r="BC17" s="54"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="54"/>
+      <c r="BF17" s="54"/>
+      <c r="BG17" s="54"/>
+      <c r="BH17" s="54"/>
+      <c r="BI17" s="54"/>
+      <c r="BJ17" s="54"/>
+      <c r="BK17" s="54"/>
+      <c r="BL17" s="54"/>
+      <c r="BM17" s="54"/>
+      <c r="BN17" s="54"/>
+      <c r="BO17" s="54"/>
       <c r="BP17" s="8"/>
       <c r="BQ17" s="6"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="46"/>
-      <c r="AR18" s="46"/>
-      <c r="AS18" s="46"/>
-      <c r="AT18" s="46"/>
-      <c r="AU18" s="46"/>
-      <c r="AV18" s="46"/>
-      <c r="AW18" s="46"/>
-      <c r="AX18" s="46"/>
-      <c r="AY18" s="46"/>
-      <c r="AZ18" s="46"/>
-      <c r="BA18" s="46"/>
-      <c r="BB18" s="46"/>
-      <c r="BC18" s="46"/>
-      <c r="BD18" s="46"/>
-      <c r="BE18" s="46"/>
-      <c r="BF18" s="46"/>
-      <c r="BG18" s="46"/>
-      <c r="BH18" s="46"/>
-      <c r="BI18" s="46"/>
-      <c r="BJ18" s="46"/>
-      <c r="BK18" s="46"/>
-      <c r="BL18" s="46"/>
-      <c r="BM18" s="46"/>
-      <c r="BN18" s="46"/>
-      <c r="BO18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="54"/>
+      <c r="BJ18" s="54"/>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="54"/>
+      <c r="BM18" s="54"/>
+      <c r="BN18" s="54"/>
+      <c r="BO18" s="54"/>
       <c r="BP18" s="8"/>
       <c r="BQ18" s="6"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="46"/>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="46"/>
-      <c r="AI19" s="46"/>
-      <c r="AJ19" s="46"/>
-      <c r="AK19" s="46"/>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="46"/>
-      <c r="AN19" s="46"/>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="46"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="46"/>
-      <c r="AT19" s="46"/>
-      <c r="AU19" s="46"/>
-      <c r="AV19" s="46"/>
-      <c r="AW19" s="46"/>
-      <c r="AX19" s="46"/>
-      <c r="AY19" s="46"/>
-      <c r="AZ19" s="46"/>
-      <c r="BA19" s="46"/>
-      <c r="BB19" s="46"/>
-      <c r="BC19" s="46"/>
-      <c r="BD19" s="46"/>
-      <c r="BE19" s="46"/>
-      <c r="BF19" s="46"/>
-      <c r="BG19" s="46"/>
-      <c r="BH19" s="46"/>
-      <c r="BI19" s="46"/>
-      <c r="BJ19" s="46"/>
-      <c r="BK19" s="46"/>
-      <c r="BL19" s="46"/>
-      <c r="BM19" s="46"/>
-      <c r="BN19" s="46"/>
-      <c r="BO19" s="46"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="54"/>
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="54"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="54"/>
+      <c r="AV19" s="54"/>
+      <c r="AW19" s="54"/>
+      <c r="AX19" s="54"/>
+      <c r="AY19" s="54"/>
+      <c r="AZ19" s="54"/>
+      <c r="BA19" s="54"/>
+      <c r="BB19" s="54"/>
+      <c r="BC19" s="54"/>
+      <c r="BD19" s="54"/>
+      <c r="BE19" s="54"/>
+      <c r="BF19" s="54"/>
+      <c r="BG19" s="54"/>
+      <c r="BH19" s="54"/>
+      <c r="BI19" s="54"/>
+      <c r="BJ19" s="54"/>
+      <c r="BK19" s="54"/>
+      <c r="BL19" s="54"/>
+      <c r="BM19" s="54"/>
+      <c r="BN19" s="54"/>
+      <c r="BO19" s="54"/>
       <c r="BP19" s="8"/>
       <c r="BQ19" s="6"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="46"/>
-      <c r="AL20" s="46"/>
-      <c r="AM20" s="46"/>
-      <c r="AN20" s="46"/>
-      <c r="AO20" s="46"/>
-      <c r="AP20" s="46"/>
-      <c r="AQ20" s="46"/>
-      <c r="AR20" s="46"/>
-      <c r="AS20" s="46"/>
-      <c r="AT20" s="46"/>
-      <c r="AU20" s="46"/>
-      <c r="AV20" s="46"/>
-      <c r="AW20" s="46"/>
-      <c r="AX20" s="46"/>
-      <c r="AY20" s="46"/>
-      <c r="AZ20" s="46"/>
-      <c r="BA20" s="46"/>
-      <c r="BB20" s="46"/>
-      <c r="BC20" s="46"/>
-      <c r="BD20" s="46"/>
-      <c r="BE20" s="46"/>
-      <c r="BF20" s="46"/>
-      <c r="BG20" s="46"/>
-      <c r="BH20" s="46"/>
-      <c r="BI20" s="46"/>
-      <c r="BJ20" s="46"/>
-      <c r="BK20" s="46"/>
-      <c r="BL20" s="46"/>
-      <c r="BM20" s="46"/>
-      <c r="BN20" s="46"/>
-      <c r="BO20" s="46"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="54"/>
+      <c r="AP20" s="54"/>
+      <c r="AQ20" s="54"/>
+      <c r="AR20" s="54"/>
+      <c r="AS20" s="54"/>
+      <c r="AT20" s="54"/>
+      <c r="AU20" s="54"/>
+      <c r="AV20" s="54"/>
+      <c r="AW20" s="54"/>
+      <c r="AX20" s="54"/>
+      <c r="AY20" s="54"/>
+      <c r="AZ20" s="54"/>
+      <c r="BA20" s="54"/>
+      <c r="BB20" s="54"/>
+      <c r="BC20" s="54"/>
+      <c r="BD20" s="54"/>
+      <c r="BE20" s="54"/>
+      <c r="BF20" s="54"/>
+      <c r="BG20" s="54"/>
+      <c r="BH20" s="54"/>
+      <c r="BI20" s="54"/>
+      <c r="BJ20" s="54"/>
+      <c r="BK20" s="54"/>
+      <c r="BL20" s="54"/>
+      <c r="BM20" s="54"/>
+      <c r="BN20" s="54"/>
+      <c r="BO20" s="54"/>
       <c r="BP20" s="8"/>
       <c r="BQ20" s="6"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
-      <c r="AM21" s="46"/>
-      <c r="AN21" s="46"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="46"/>
-      <c r="AR21" s="46"/>
-      <c r="AS21" s="46"/>
-      <c r="AT21" s="46"/>
-      <c r="AU21" s="46"/>
-      <c r="AV21" s="46"/>
-      <c r="AW21" s="46"/>
-      <c r="AX21" s="46"/>
-      <c r="AY21" s="46"/>
-      <c r="AZ21" s="46"/>
-      <c r="BA21" s="46"/>
-      <c r="BB21" s="46"/>
-      <c r="BC21" s="46"/>
-      <c r="BD21" s="46"/>
-      <c r="BE21" s="46"/>
-      <c r="BF21" s="46"/>
-      <c r="BG21" s="46"/>
-      <c r="BH21" s="46"/>
-      <c r="BI21" s="46"/>
-      <c r="BJ21" s="46"/>
-      <c r="BK21" s="46"/>
-      <c r="BL21" s="46"/>
-      <c r="BM21" s="46"/>
-      <c r="BN21" s="46"/>
-      <c r="BO21" s="46"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="54"/>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="54"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="54"/>
+      <c r="AV21" s="54"/>
+      <c r="AW21" s="54"/>
+      <c r="AX21" s="54"/>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="54"/>
+      <c r="BA21" s="54"/>
+      <c r="BB21" s="54"/>
+      <c r="BC21" s="54"/>
+      <c r="BD21" s="54"/>
+      <c r="BE21" s="54"/>
+      <c r="BF21" s="54"/>
+      <c r="BG21" s="54"/>
+      <c r="BH21" s="54"/>
+      <c r="BI21" s="54"/>
+      <c r="BJ21" s="54"/>
+      <c r="BK21" s="54"/>
+      <c r="BL21" s="54"/>
+      <c r="BM21" s="54"/>
+      <c r="BN21" s="54"/>
+      <c r="BO21" s="54"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="6"/>
     </row>
@@ -2908,744 +2908,744 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45" t="s">
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46" t="s">
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="44" t="s">
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="44"/>
-      <c r="AL25" s="44"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
-      <c r="BB25" s="44"/>
-      <c r="BC25" s="44"/>
-      <c r="BD25" s="44" t="s">
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="53"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="53"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="53"/>
+      <c r="BA25" s="53"/>
+      <c r="BB25" s="53"/>
+      <c r="BC25" s="53"/>
+      <c r="BD25" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="BE25" s="44"/>
-      <c r="BF25" s="44"/>
-      <c r="BG25" s="44"/>
-      <c r="BH25" s="44"/>
-      <c r="BI25" s="44"/>
-      <c r="BJ25" s="44"/>
-      <c r="BK25" s="44"/>
-      <c r="BL25" s="44"/>
-      <c r="BM25" s="44"/>
-      <c r="BN25" s="44"/>
-      <c r="BO25" s="44"/>
+      <c r="BE25" s="53"/>
+      <c r="BF25" s="53"/>
+      <c r="BG25" s="53"/>
+      <c r="BH25" s="53"/>
+      <c r="BI25" s="53"/>
+      <c r="BJ25" s="53"/>
+      <c r="BK25" s="53"/>
+      <c r="BL25" s="53"/>
+      <c r="BM25" s="53"/>
+      <c r="BN25" s="53"/>
+      <c r="BO25" s="53"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="C26" s="45">
+      <c r="C26" s="49">
         <v>1</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="47" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="50" t="s">
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="47" t="s">
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
-      <c r="AJ26" s="48"/>
-      <c r="AK26" s="48"/>
-      <c r="AL26" s="48"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="48"/>
-      <c r="AO26" s="48"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="48"/>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="48"/>
-      <c r="AU26" s="48"/>
-      <c r="AV26" s="48"/>
-      <c r="AW26" s="48"/>
-      <c r="AX26" s="48"/>
-      <c r="AY26" s="48"/>
-      <c r="AZ26" s="48"/>
-      <c r="BA26" s="48"/>
-      <c r="BB26" s="48"/>
-      <c r="BC26" s="49"/>
-      <c r="BD26" s="47"/>
-      <c r="BE26" s="48"/>
-      <c r="BF26" s="48"/>
-      <c r="BG26" s="48"/>
-      <c r="BH26" s="48"/>
-      <c r="BI26" s="48"/>
-      <c r="BJ26" s="48"/>
-      <c r="BK26" s="48"/>
-      <c r="BL26" s="48"/>
-      <c r="BM26" s="48"/>
-      <c r="BN26" s="48"/>
-      <c r="BO26" s="49"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="59"/>
+      <c r="AS26" s="59"/>
+      <c r="AT26" s="59"/>
+      <c r="AU26" s="59"/>
+      <c r="AV26" s="59"/>
+      <c r="AW26" s="59"/>
+      <c r="AX26" s="59"/>
+      <c r="AY26" s="59"/>
+      <c r="AZ26" s="59"/>
+      <c r="BA26" s="59"/>
+      <c r="BB26" s="59"/>
+      <c r="BC26" s="60"/>
+      <c r="BD26" s="58"/>
+      <c r="BE26" s="59"/>
+      <c r="BF26" s="59"/>
+      <c r="BG26" s="59"/>
+      <c r="BH26" s="59"/>
+      <c r="BI26" s="59"/>
+      <c r="BJ26" s="59"/>
+      <c r="BK26" s="59"/>
+      <c r="BL26" s="59"/>
+      <c r="BM26" s="59"/>
+      <c r="BN26" s="59"/>
+      <c r="BO26" s="60"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="C27" s="45">
+      <c r="C27" s="49">
         <v>2</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="47" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="46" t="s">
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="47" t="s">
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
-      <c r="AJ27" s="48"/>
-      <c r="AK27" s="48"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AT27" s="48"/>
-      <c r="AU27" s="48"/>
-      <c r="AV27" s="48"/>
-      <c r="AW27" s="48"/>
-      <c r="AX27" s="48"/>
-      <c r="AY27" s="48"/>
-      <c r="AZ27" s="48"/>
-      <c r="BA27" s="48"/>
-      <c r="BB27" s="48"/>
-      <c r="BC27" s="49"/>
-      <c r="BD27" s="44"/>
-      <c r="BE27" s="44"/>
-      <c r="BF27" s="44"/>
-      <c r="BG27" s="44"/>
-      <c r="BH27" s="44"/>
-      <c r="BI27" s="44"/>
-      <c r="BJ27" s="44"/>
-      <c r="BK27" s="44"/>
-      <c r="BL27" s="44"/>
-      <c r="BM27" s="44"/>
-      <c r="BN27" s="44"/>
-      <c r="BO27" s="44"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="59"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="59"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="59"/>
+      <c r="AU27" s="59"/>
+      <c r="AV27" s="59"/>
+      <c r="AW27" s="59"/>
+      <c r="AX27" s="59"/>
+      <c r="AY27" s="59"/>
+      <c r="AZ27" s="59"/>
+      <c r="BA27" s="59"/>
+      <c r="BB27" s="59"/>
+      <c r="BC27" s="60"/>
+      <c r="BD27" s="53"/>
+      <c r="BE27" s="53"/>
+      <c r="BF27" s="53"/>
+      <c r="BG27" s="53"/>
+      <c r="BH27" s="53"/>
+      <c r="BI27" s="53"/>
+      <c r="BJ27" s="53"/>
+      <c r="BK27" s="53"/>
+      <c r="BL27" s="53"/>
+      <c r="BM27" s="53"/>
+      <c r="BN27" s="53"/>
+      <c r="BO27" s="53"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="C28" s="45">
+      <c r="C28" s="49">
         <v>3</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="46"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
-      <c r="AU28" s="44"/>
-      <c r="AV28" s="44"/>
-      <c r="AW28" s="44"/>
-      <c r="AX28" s="44"/>
-      <c r="AY28" s="44"/>
-      <c r="AZ28" s="44"/>
-      <c r="BA28" s="44"/>
-      <c r="BB28" s="44"/>
-      <c r="BC28" s="44"/>
-      <c r="BD28" s="44"/>
-      <c r="BE28" s="44"/>
-      <c r="BF28" s="44"/>
-      <c r="BG28" s="44"/>
-      <c r="BH28" s="44"/>
-      <c r="BI28" s="44"/>
-      <c r="BJ28" s="44"/>
-      <c r="BK28" s="44"/>
-      <c r="BL28" s="44"/>
-      <c r="BM28" s="44"/>
-      <c r="BN28" s="44"/>
-      <c r="BO28" s="44"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="53"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="53"/>
+      <c r="AS28" s="53"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="53"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="53"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="53"/>
+      <c r="AZ28" s="53"/>
+      <c r="BA28" s="53"/>
+      <c r="BB28" s="53"/>
+      <c r="BC28" s="53"/>
+      <c r="BD28" s="53"/>
+      <c r="BE28" s="53"/>
+      <c r="BF28" s="53"/>
+      <c r="BG28" s="53"/>
+      <c r="BH28" s="53"/>
+      <c r="BI28" s="53"/>
+      <c r="BJ28" s="53"/>
+      <c r="BK28" s="53"/>
+      <c r="BL28" s="53"/>
+      <c r="BM28" s="53"/>
+      <c r="BN28" s="53"/>
+      <c r="BO28" s="53"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="6"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="C29" s="45">
+      <c r="C29" s="49">
         <v>4</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="44"/>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
-      <c r="AU29" s="44"/>
-      <c r="AV29" s="44"/>
-      <c r="AW29" s="44"/>
-      <c r="AX29" s="44"/>
-      <c r="AY29" s="44"/>
-      <c r="AZ29" s="44"/>
-      <c r="BA29" s="44"/>
-      <c r="BB29" s="44"/>
-      <c r="BC29" s="44"/>
-      <c r="BD29" s="44"/>
-      <c r="BE29" s="44"/>
-      <c r="BF29" s="44"/>
-      <c r="BG29" s="44"/>
-      <c r="BH29" s="44"/>
-      <c r="BI29" s="44"/>
-      <c r="BJ29" s="44"/>
-      <c r="BK29" s="44"/>
-      <c r="BL29" s="44"/>
-      <c r="BM29" s="44"/>
-      <c r="BN29" s="44"/>
-      <c r="BO29" s="44"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
+      <c r="AO29" s="53"/>
+      <c r="AP29" s="53"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="53"/>
+      <c r="AS29" s="53"/>
+      <c r="AT29" s="53"/>
+      <c r="AU29" s="53"/>
+      <c r="AV29" s="53"/>
+      <c r="AW29" s="53"/>
+      <c r="AX29" s="53"/>
+      <c r="AY29" s="53"/>
+      <c r="AZ29" s="53"/>
+      <c r="BA29" s="53"/>
+      <c r="BB29" s="53"/>
+      <c r="BC29" s="53"/>
+      <c r="BD29" s="53"/>
+      <c r="BE29" s="53"/>
+      <c r="BF29" s="53"/>
+      <c r="BG29" s="53"/>
+      <c r="BH29" s="53"/>
+      <c r="BI29" s="53"/>
+      <c r="BJ29" s="53"/>
+      <c r="BK29" s="53"/>
+      <c r="BL29" s="53"/>
+      <c r="BM29" s="53"/>
+      <c r="BN29" s="53"/>
+      <c r="BO29" s="53"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="6"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="C30" s="45">
+      <c r="C30" s="49">
         <v>5</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="44"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="44"/>
-      <c r="AH30" s="44"/>
-      <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="44"/>
-      <c r="AL30" s="44"/>
-      <c r="AM30" s="44"/>
-      <c r="AN30" s="44"/>
-      <c r="AO30" s="44"/>
-      <c r="AP30" s="44"/>
-      <c r="AQ30" s="44"/>
-      <c r="AR30" s="44"/>
-      <c r="AS30" s="44"/>
-      <c r="AT30" s="44"/>
-      <c r="AU30" s="44"/>
-      <c r="AV30" s="44"/>
-      <c r="AW30" s="44"/>
-      <c r="AX30" s="44"/>
-      <c r="AY30" s="44"/>
-      <c r="AZ30" s="44"/>
-      <c r="BA30" s="44"/>
-      <c r="BB30" s="44"/>
-      <c r="BC30" s="44"/>
-      <c r="BD30" s="44"/>
-      <c r="BE30" s="44"/>
-      <c r="BF30" s="44"/>
-      <c r="BG30" s="44"/>
-      <c r="BH30" s="44"/>
-      <c r="BI30" s="44"/>
-      <c r="BJ30" s="44"/>
-      <c r="BK30" s="44"/>
-      <c r="BL30" s="44"/>
-      <c r="BM30" s="44"/>
-      <c r="BN30" s="44"/>
-      <c r="BO30" s="44"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
+      <c r="AO30" s="53"/>
+      <c r="AP30" s="53"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="53"/>
+      <c r="AS30" s="53"/>
+      <c r="AT30" s="53"/>
+      <c r="AU30" s="53"/>
+      <c r="AV30" s="53"/>
+      <c r="AW30" s="53"/>
+      <c r="AX30" s="53"/>
+      <c r="AY30" s="53"/>
+      <c r="AZ30" s="53"/>
+      <c r="BA30" s="53"/>
+      <c r="BB30" s="53"/>
+      <c r="BC30" s="53"/>
+      <c r="BD30" s="53"/>
+      <c r="BE30" s="53"/>
+      <c r="BF30" s="53"/>
+      <c r="BG30" s="53"/>
+      <c r="BH30" s="53"/>
+      <c r="BI30" s="53"/>
+      <c r="BJ30" s="53"/>
+      <c r="BK30" s="53"/>
+      <c r="BL30" s="53"/>
+      <c r="BM30" s="53"/>
+      <c r="BN30" s="53"/>
+      <c r="BO30" s="53"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="6"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="C31" s="45">
+      <c r="C31" s="49">
         <v>6</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="46"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44"/>
-      <c r="AT31" s="44"/>
-      <c r="AU31" s="44"/>
-      <c r="AV31" s="44"/>
-      <c r="AW31" s="44"/>
-      <c r="AX31" s="44"/>
-      <c r="AY31" s="44"/>
-      <c r="AZ31" s="44"/>
-      <c r="BA31" s="44"/>
-      <c r="BB31" s="44"/>
-      <c r="BC31" s="44"/>
-      <c r="BD31" s="44"/>
-      <c r="BE31" s="44"/>
-      <c r="BF31" s="44"/>
-      <c r="BG31" s="44"/>
-      <c r="BH31" s="44"/>
-      <c r="BI31" s="44"/>
-      <c r="BJ31" s="44"/>
-      <c r="BK31" s="44"/>
-      <c r="BL31" s="44"/>
-      <c r="BM31" s="44"/>
-      <c r="BN31" s="44"/>
-      <c r="BO31" s="44"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="54"/>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="53"/>
+      <c r="AS31" s="53"/>
+      <c r="AT31" s="53"/>
+      <c r="AU31" s="53"/>
+      <c r="AV31" s="53"/>
+      <c r="AW31" s="53"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="53"/>
+      <c r="AZ31" s="53"/>
+      <c r="BA31" s="53"/>
+      <c r="BB31" s="53"/>
+      <c r="BC31" s="53"/>
+      <c r="BD31" s="53"/>
+      <c r="BE31" s="53"/>
+      <c r="BF31" s="53"/>
+      <c r="BG31" s="53"/>
+      <c r="BH31" s="53"/>
+      <c r="BI31" s="53"/>
+      <c r="BJ31" s="53"/>
+      <c r="BK31" s="53"/>
+      <c r="BL31" s="53"/>
+      <c r="BM31" s="53"/>
+      <c r="BN31" s="53"/>
+      <c r="BO31" s="53"/>
       <c r="BP31" s="8"/>
       <c r="BQ31" s="6"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="C32" s="45">
+      <c r="C32" s="49">
         <v>7</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="46"/>
-      <c r="W32" s="46"/>
-      <c r="X32" s="46"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="46"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="44"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="44"/>
-      <c r="AN32" s="44"/>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44"/>
-      <c r="AW32" s="44"/>
-      <c r="AX32" s="44"/>
-      <c r="AY32" s="44"/>
-      <c r="AZ32" s="44"/>
-      <c r="BA32" s="44"/>
-      <c r="BB32" s="44"/>
-      <c r="BC32" s="44"/>
-      <c r="BD32" s="44"/>
-      <c r="BE32" s="44"/>
-      <c r="BF32" s="44"/>
-      <c r="BG32" s="44"/>
-      <c r="BH32" s="44"/>
-      <c r="BI32" s="44"/>
-      <c r="BJ32" s="44"/>
-      <c r="BK32" s="44"/>
-      <c r="BL32" s="44"/>
-      <c r="BM32" s="44"/>
-      <c r="BN32" s="44"/>
-      <c r="BO32" s="44"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="53"/>
+      <c r="AJ32" s="53"/>
+      <c r="AK32" s="53"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="53"/>
+      <c r="AN32" s="53"/>
+      <c r="AO32" s="53"/>
+      <c r="AP32" s="53"/>
+      <c r="AQ32" s="53"/>
+      <c r="AR32" s="53"/>
+      <c r="AS32" s="53"/>
+      <c r="AT32" s="53"/>
+      <c r="AU32" s="53"/>
+      <c r="AV32" s="53"/>
+      <c r="AW32" s="53"/>
+      <c r="AX32" s="53"/>
+      <c r="AY32" s="53"/>
+      <c r="AZ32" s="53"/>
+      <c r="BA32" s="53"/>
+      <c r="BB32" s="53"/>
+      <c r="BC32" s="53"/>
+      <c r="BD32" s="53"/>
+      <c r="BE32" s="53"/>
+      <c r="BF32" s="53"/>
+      <c r="BG32" s="53"/>
+      <c r="BH32" s="53"/>
+      <c r="BI32" s="53"/>
+      <c r="BJ32" s="53"/>
+      <c r="BK32" s="53"/>
+      <c r="BL32" s="53"/>
+      <c r="BM32" s="53"/>
+      <c r="BN32" s="53"/>
+      <c r="BO32" s="53"/>
       <c r="BP32" s="8"/>
       <c r="BQ32" s="6"/>
     </row>
     <row r="33" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="C33" s="45">
+      <c r="C33" s="49">
         <v>8</v>
       </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="46"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="46"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="46"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="44"/>
-      <c r="AH33" s="44"/>
-      <c r="AI33" s="44"/>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="44"/>
-      <c r="AL33" s="44"/>
-      <c r="AM33" s="44"/>
-      <c r="AN33" s="44"/>
-      <c r="AO33" s="44"/>
-      <c r="AP33" s="44"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="44"/>
-      <c r="AS33" s="44"/>
-      <c r="AT33" s="44"/>
-      <c r="AU33" s="44"/>
-      <c r="AV33" s="44"/>
-      <c r="AW33" s="44"/>
-      <c r="AX33" s="44"/>
-      <c r="AY33" s="44"/>
-      <c r="AZ33" s="44"/>
-      <c r="BA33" s="44"/>
-      <c r="BB33" s="44"/>
-      <c r="BC33" s="44"/>
-      <c r="BD33" s="44"/>
-      <c r="BE33" s="44"/>
-      <c r="BF33" s="44"/>
-      <c r="BG33" s="44"/>
-      <c r="BH33" s="44"/>
-      <c r="BI33" s="44"/>
-      <c r="BJ33" s="44"/>
-      <c r="BK33" s="44"/>
-      <c r="BL33" s="44"/>
-      <c r="BM33" s="44"/>
-      <c r="BN33" s="44"/>
-      <c r="BO33" s="44"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="53"/>
+      <c r="AJ33" s="53"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="53"/>
+      <c r="AN33" s="53"/>
+      <c r="AO33" s="53"/>
+      <c r="AP33" s="53"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="53"/>
+      <c r="AS33" s="53"/>
+      <c r="AT33" s="53"/>
+      <c r="AU33" s="53"/>
+      <c r="AV33" s="53"/>
+      <c r="AW33" s="53"/>
+      <c r="AX33" s="53"/>
+      <c r="AY33" s="53"/>
+      <c r="AZ33" s="53"/>
+      <c r="BA33" s="53"/>
+      <c r="BB33" s="53"/>
+      <c r="BC33" s="53"/>
+      <c r="BD33" s="53"/>
+      <c r="BE33" s="53"/>
+      <c r="BF33" s="53"/>
+      <c r="BG33" s="53"/>
+      <c r="BH33" s="53"/>
+      <c r="BI33" s="53"/>
+      <c r="BJ33" s="53"/>
+      <c r="BK33" s="53"/>
+      <c r="BL33" s="53"/>
+      <c r="BM33" s="53"/>
+      <c r="BN33" s="53"/>
+      <c r="BO33" s="53"/>
       <c r="BP33" s="8"/>
       <c r="BQ33" s="6"/>
     </row>
     <row r="34" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="45">
+      <c r="C34" s="49">
         <v>9</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="46"/>
-      <c r="W34" s="46"/>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="46"/>
-      <c r="Z34" s="46"/>
-      <c r="AA34" s="46"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="46"/>
-      <c r="AE34" s="44"/>
-      <c r="AF34" s="44"/>
-      <c r="AG34" s="44"/>
-      <c r="AH34" s="44"/>
-      <c r="AI34" s="44"/>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="44"/>
-      <c r="AL34" s="44"/>
-      <c r="AM34" s="44"/>
-      <c r="AN34" s="44"/>
-      <c r="AO34" s="44"/>
-      <c r="AP34" s="44"/>
-      <c r="AQ34" s="44"/>
-      <c r="AR34" s="44"/>
-      <c r="AS34" s="44"/>
-      <c r="AT34" s="44"/>
-      <c r="AU34" s="44"/>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
-      <c r="BB34" s="44"/>
-      <c r="BC34" s="44"/>
-      <c r="BD34" s="44"/>
-      <c r="BE34" s="44"/>
-      <c r="BF34" s="44"/>
-      <c r="BG34" s="44"/>
-      <c r="BH34" s="44"/>
-      <c r="BI34" s="44"/>
-      <c r="BJ34" s="44"/>
-      <c r="BK34" s="44"/>
-      <c r="BL34" s="44"/>
-      <c r="BM34" s="44"/>
-      <c r="BN34" s="44"/>
-      <c r="BO34" s="44"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="53"/>
+      <c r="AF34" s="53"/>
+      <c r="AG34" s="53"/>
+      <c r="AH34" s="53"/>
+      <c r="AI34" s="53"/>
+      <c r="AJ34" s="53"/>
+      <c r="AK34" s="53"/>
+      <c r="AL34" s="53"/>
+      <c r="AM34" s="53"/>
+      <c r="AN34" s="53"/>
+      <c r="AO34" s="53"/>
+      <c r="AP34" s="53"/>
+      <c r="AQ34" s="53"/>
+      <c r="AR34" s="53"/>
+      <c r="AS34" s="53"/>
+      <c r="AT34" s="53"/>
+      <c r="AU34" s="53"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="53"/>
+      <c r="BA34" s="53"/>
+      <c r="BB34" s="53"/>
+      <c r="BC34" s="53"/>
+      <c r="BD34" s="53"/>
+      <c r="BE34" s="53"/>
+      <c r="BF34" s="53"/>
+      <c r="BG34" s="53"/>
+      <c r="BH34" s="53"/>
+      <c r="BI34" s="53"/>
+      <c r="BJ34" s="53"/>
+      <c r="BK34" s="53"/>
+      <c r="BL34" s="53"/>
+      <c r="BM34" s="53"/>
+      <c r="BN34" s="53"/>
+      <c r="BO34" s="53"/>
       <c r="BP34" s="8"/>
       <c r="BQ34" s="6"/>
     </row>
@@ -4244,32 +4244,58 @@
     <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="BD34:BO34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BO33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD32:BO32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BO31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="BD29:BO29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BO30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="O28:AD28"/>
+    <mergeCell ref="AE28:BC28"/>
+    <mergeCell ref="BD26:BO26"/>
+    <mergeCell ref="BD28:BO28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="O27:AD27"/>
+    <mergeCell ref="AE27:BC27"/>
+    <mergeCell ref="BD27:BO27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:N26"/>
     <mergeCell ref="O26:AD26"/>
     <mergeCell ref="AE26:BC26"/>
     <mergeCell ref="O25:AD25"/>
@@ -4286,58 +4312,32 @@
     <mergeCell ref="H20:BO20"/>
     <mergeCell ref="BD25:BO25"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="O28:AD28"/>
-    <mergeCell ref="AE28:BC28"/>
-    <mergeCell ref="BD26:BO26"/>
-    <mergeCell ref="BD28:BO28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="O27:AD27"/>
-    <mergeCell ref="AE27:BC27"/>
-    <mergeCell ref="BD27:BO27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="BD29:BO29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BO30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:AD29"/>
-    <mergeCell ref="BD32:BO32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BO31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD34:BO34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BO33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4376,247 +4376,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66" t="s">
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="67" t="s">
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="76"/>
+      <c r="BK1" s="76"/>
+      <c r="BL1" s="76"/>
+      <c r="BM1" s="76"/>
+      <c r="BN1" s="76"/>
+      <c r="BO1" s="76"/>
+      <c r="BP1" s="76"/>
+      <c r="BQ1" s="76"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="63" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="64" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64" t="s">
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64" t="s">
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="64"/>
-      <c r="BF2" s="64"/>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="69" t="s">
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="66"/>
+      <c r="BI2" s="66"/>
+      <c r="BJ2" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="69"/>
-      <c r="BL2" s="69"/>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="69"/>
-      <c r="BP2" s="69"/>
-      <c r="BQ2" s="69"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="62" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="71">
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="80">
         <v>45510</v>
       </c>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="62" t="s">
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="70">
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="79">
         <v>45533</v>
       </c>
-      <c r="BK3" s="70"/>
-      <c r="BL3" s="70"/>
-      <c r="BM3" s="70"/>
-      <c r="BN3" s="70"/>
-      <c r="BO3" s="70"/>
-      <c r="BP3" s="70"/>
-      <c r="BQ3" s="70"/>
+      <c r="BK3" s="79"/>
+      <c r="BL3" s="79"/>
+      <c r="BM3" s="79"/>
+      <c r="BN3" s="79"/>
+      <c r="BO3" s="79"/>
+      <c r="BP3" s="79"/>
+      <c r="BQ3" s="79"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4641,94 +4641,94 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="77" t="s">
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="73" t="s">
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="73"/>
-      <c r="AQ6" s="73"/>
-      <c r="AR6" s="73"/>
-      <c r="AS6" s="73"/>
-      <c r="AT6" s="73"/>
-      <c r="AU6" s="73"/>
-      <c r="AV6" s="73"/>
-      <c r="AW6" s="73"/>
-      <c r="AX6" s="73"/>
-      <c r="AY6" s="73"/>
-      <c r="AZ6" s="73"/>
-      <c r="BA6" s="73"/>
-      <c r="BB6" s="73"/>
-      <c r="BC6" s="73"/>
-      <c r="BD6" s="73"/>
-      <c r="BE6" s="73"/>
-      <c r="BF6" s="73"/>
-      <c r="BG6" s="73"/>
-      <c r="BH6" s="73"/>
-      <c r="BI6" s="73"/>
-      <c r="BJ6" s="73"/>
-      <c r="BK6" s="73"/>
-      <c r="BL6" s="73"/>
-      <c r="BM6" s="73"/>
-      <c r="BN6" s="73"/>
-      <c r="BO6" s="73"/>
-      <c r="BP6" s="73"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+      <c r="BF6" s="69"/>
+      <c r="BG6" s="69"/>
+      <c r="BH6" s="69"/>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="69"/>
+      <c r="BK6" s="69"/>
+      <c r="BL6" s="69"/>
+      <c r="BM6" s="69"/>
+      <c r="BN6" s="69"/>
+      <c r="BO6" s="69"/>
+      <c r="BP6" s="69"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
       <c r="M7" s="41" t="s">
         <v>66</v>
       </c>
@@ -4759,34 +4759,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="73"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="73"/>
-      <c r="AS7" s="73"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="73"/>
-      <c r="AV7" s="73"/>
-      <c r="AW7" s="73"/>
-      <c r="AX7" s="73"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="73"/>
-      <c r="BA7" s="73"/>
-      <c r="BB7" s="73"/>
-      <c r="BC7" s="73"/>
-      <c r="BD7" s="73"/>
-      <c r="BE7" s="73"/>
-      <c r="BF7" s="73"/>
-      <c r="BG7" s="73"/>
-      <c r="BH7" s="73"/>
-      <c r="BI7" s="73"/>
-      <c r="BJ7" s="73"/>
-      <c r="BK7" s="73"/>
-      <c r="BL7" s="73"/>
-      <c r="BM7" s="73"/>
-      <c r="BN7" s="73"/>
-      <c r="BO7" s="73"/>
-      <c r="BP7" s="73"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
+      <c r="BC7" s="69"/>
+      <c r="BD7" s="69"/>
+      <c r="BE7" s="69"/>
+      <c r="BF7" s="69"/>
+      <c r="BG7" s="69"/>
+      <c r="BH7" s="69"/>
+      <c r="BI7" s="69"/>
+      <c r="BJ7" s="69"/>
+      <c r="BK7" s="69"/>
+      <c r="BL7" s="69"/>
+      <c r="BM7" s="69"/>
+      <c r="BN7" s="69"/>
+      <c r="BO7" s="69"/>
+      <c r="BP7" s="69"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -4800,89 +4800,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="64" t="s">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64" t="s">
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="75" t="s">
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="75"/>
-      <c r="BA10" s="75"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="75"/>
-      <c r="BF10" s="75"/>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="75" t="s">
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="64"/>
+      <c r="AZ10" s="64"/>
+      <c r="BA10" s="64"/>
+      <c r="BB10" s="64"/>
+      <c r="BC10" s="64"/>
+      <c r="BD10" s="64"/>
+      <c r="BE10" s="64"/>
+      <c r="BF10" s="64"/>
+      <c r="BG10" s="64"/>
+      <c r="BH10" s="64"/>
+      <c r="BI10" s="64"/>
+      <c r="BJ10" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="75"/>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="75"/>
-      <c r="BN10" s="75"/>
-      <c r="BO10" s="75"/>
-      <c r="BP10" s="75"/>
+      <c r="BK10" s="64"/>
+      <c r="BL10" s="64"/>
+      <c r="BM10" s="64"/>
+      <c r="BN10" s="64"/>
+      <c r="BO10" s="64"/>
+      <c r="BP10" s="64"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
@@ -4898,11 +4898,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="64" t="s">
+      <c r="T11" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -4952,12 +4952,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -4971,9 +4971,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -5022,12 +5022,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -5041,9 +5041,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -5092,12 +5092,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5111,9 +5111,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -5162,12 +5162,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5181,9 +5181,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -5243,88 +5243,88 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="64" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64" t="s">
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="75" t="s">
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="75"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="75"/>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="75"/>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="75"/>
-      <c r="AL18" s="75"/>
-      <c r="AM18" s="75"/>
-      <c r="AN18" s="75"/>
-      <c r="AO18" s="75"/>
-      <c r="AP18" s="75"/>
-      <c r="AQ18" s="75"/>
-      <c r="AR18" s="75"/>
-      <c r="AS18" s="75"/>
-      <c r="AT18" s="75"/>
-      <c r="AU18" s="75"/>
-      <c r="AV18" s="75"/>
-      <c r="AW18" s="75"/>
-      <c r="AX18" s="75"/>
-      <c r="AY18" s="75"/>
-      <c r="AZ18" s="75"/>
-      <c r="BA18" s="75"/>
-      <c r="BB18" s="75"/>
-      <c r="BC18" s="75"/>
-      <c r="BD18" s="75"/>
-      <c r="BE18" s="75"/>
-      <c r="BF18" s="75"/>
-      <c r="BG18" s="75"/>
-      <c r="BH18" s="75"/>
-      <c r="BI18" s="75"/>
-      <c r="BJ18" s="75" t="s">
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="64"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="64"/>
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="64"/>
+      <c r="AO18" s="64"/>
+      <c r="AP18" s="64"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="64"/>
+      <c r="AU18" s="64"/>
+      <c r="AV18" s="64"/>
+      <c r="AW18" s="64"/>
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="64"/>
+      <c r="AZ18" s="64"/>
+      <c r="BA18" s="64"/>
+      <c r="BB18" s="64"/>
+      <c r="BC18" s="64"/>
+      <c r="BD18" s="64"/>
+      <c r="BE18" s="64"/>
+      <c r="BF18" s="64"/>
+      <c r="BG18" s="64"/>
+      <c r="BH18" s="64"/>
+      <c r="BI18" s="64"/>
+      <c r="BJ18" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="75"/>
-      <c r="BL18" s="75"/>
-      <c r="BM18" s="75"/>
-      <c r="BN18" s="75"/>
-      <c r="BO18" s="75"/>
-      <c r="BP18" s="75"/>
+      <c r="BK18" s="64"/>
+      <c r="BL18" s="64"/>
+      <c r="BM18" s="64"/>
+      <c r="BN18" s="64"/>
+      <c r="BO18" s="64"/>
+      <c r="BP18" s="64"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="41" t="s">
         <v>68</v>
       </c>
@@ -5340,9 +5340,9 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
       <c r="W19" s="40" t="s">
         <v>69</v>
       </c>
@@ -5626,270 +5626,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="80" t="s">
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="80"/>
-      <c r="AA26" s="80"/>
-      <c r="AB26" s="80"/>
-      <c r="AC26" s="80"/>
-      <c r="AD26" s="80"/>
-      <c r="AE26" s="80"/>
-      <c r="AF26" s="80"/>
-      <c r="AG26" s="80"/>
-      <c r="AH26" s="80"/>
-      <c r="AI26" s="80"/>
-      <c r="AJ26" s="80"/>
-      <c r="AK26" s="80"/>
-      <c r="AL26" s="80"/>
-      <c r="AM26" s="80"/>
-      <c r="AN26" s="80"/>
-      <c r="AO26" s="80"/>
-      <c r="AP26" s="80"/>
-      <c r="AQ26" s="80"/>
-      <c r="AR26" s="80"/>
-      <c r="AS26" s="80"/>
-      <c r="AT26" s="80"/>
-      <c r="AU26" s="80"/>
-      <c r="AV26" s="80"/>
-      <c r="AW26" s="80"/>
-      <c r="AX26" s="80"/>
-      <c r="AY26" s="80"/>
-      <c r="AZ26" s="80"/>
-      <c r="BA26" s="80"/>
-      <c r="BB26" s="80"/>
-      <c r="BC26" s="80"/>
-      <c r="BD26" s="80"/>
-      <c r="BE26" s="80"/>
-      <c r="BF26" s="80"/>
-      <c r="BG26" s="80"/>
-      <c r="BH26" s="80"/>
-      <c r="BI26" s="80"/>
-      <c r="BJ26" s="80"/>
-      <c r="BK26" s="80"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="67"/>
+      <c r="AI26" s="67"/>
+      <c r="AJ26" s="67"/>
+      <c r="AK26" s="67"/>
+      <c r="AL26" s="67"/>
+      <c r="AM26" s="67"/>
+      <c r="AN26" s="67"/>
+      <c r="AO26" s="67"/>
+      <c r="AP26" s="67"/>
+      <c r="AQ26" s="67"/>
+      <c r="AR26" s="67"/>
+      <c r="AS26" s="67"/>
+      <c r="AT26" s="67"/>
+      <c r="AU26" s="67"/>
+      <c r="AV26" s="67"/>
+      <c r="AW26" s="67"/>
+      <c r="AX26" s="67"/>
+      <c r="AY26" s="67"/>
+      <c r="AZ26" s="67"/>
+      <c r="BA26" s="67"/>
+      <c r="BB26" s="67"/>
+      <c r="BC26" s="67"/>
+      <c r="BD26" s="67"/>
+      <c r="BE26" s="67"/>
+      <c r="BF26" s="67"/>
+      <c r="BG26" s="67"/>
+      <c r="BH26" s="67"/>
+      <c r="BI26" s="67"/>
+      <c r="BJ26" s="67"/>
+      <c r="BK26" s="67"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="79" t="s">
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="79"/>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
-      <c r="AP27" s="79"/>
-      <c r="AQ27" s="79"/>
-      <c r="AR27" s="79"/>
-      <c r="AS27" s="79"/>
-      <c r="AT27" s="79"/>
-      <c r="AU27" s="79"/>
-      <c r="AV27" s="79"/>
-      <c r="AW27" s="79"/>
-      <c r="AX27" s="79"/>
-      <c r="AY27" s="79"/>
-      <c r="AZ27" s="79"/>
-      <c r="BA27" s="79"/>
-      <c r="BB27" s="79"/>
-      <c r="BC27" s="79"/>
-      <c r="BD27" s="79"/>
-      <c r="BE27" s="79"/>
-      <c r="BF27" s="79"/>
-      <c r="BG27" s="79"/>
-      <c r="BH27" s="79"/>
-      <c r="BI27" s="79"/>
-      <c r="BJ27" s="79"/>
-      <c r="BK27" s="79"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="63"/>
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="63"/>
+      <c r="AV27" s="63"/>
+      <c r="AW27" s="63"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="63"/>
+      <c r="AZ27" s="63"/>
+      <c r="BA27" s="63"/>
+      <c r="BB27" s="63"/>
+      <c r="BC27" s="63"/>
+      <c r="BD27" s="63"/>
+      <c r="BE27" s="63"/>
+      <c r="BF27" s="63"/>
+      <c r="BG27" s="63"/>
+      <c r="BH27" s="63"/>
+      <c r="BI27" s="63"/>
+      <c r="BJ27" s="63"/>
+      <c r="BK27" s="63"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="79" t="s">
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-      <c r="AP28" s="79"/>
-      <c r="AQ28" s="79"/>
-      <c r="AR28" s="79"/>
-      <c r="AS28" s="79"/>
-      <c r="AT28" s="79"/>
-      <c r="AU28" s="79"/>
-      <c r="AV28" s="79"/>
-      <c r="AW28" s="79"/>
-      <c r="AX28" s="79"/>
-      <c r="AY28" s="79"/>
-      <c r="AZ28" s="79"/>
-      <c r="BA28" s="79"/>
-      <c r="BB28" s="79"/>
-      <c r="BC28" s="79"/>
-      <c r="BD28" s="79"/>
-      <c r="BE28" s="79"/>
-      <c r="BF28" s="79"/>
-      <c r="BG28" s="79"/>
-      <c r="BH28" s="79"/>
-      <c r="BI28" s="79"/>
-      <c r="BJ28" s="79"/>
-      <c r="BK28" s="79"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="63"/>
+      <c r="AU28" s="63"/>
+      <c r="AV28" s="63"/>
+      <c r="AW28" s="63"/>
+      <c r="AX28" s="63"/>
+      <c r="AY28" s="63"/>
+      <c r="AZ28" s="63"/>
+      <c r="BA28" s="63"/>
+      <c r="BB28" s="63"/>
+      <c r="BC28" s="63"/>
+      <c r="BD28" s="63"/>
+      <c r="BE28" s="63"/>
+      <c r="BF28" s="63"/>
+      <c r="BG28" s="63"/>
+      <c r="BH28" s="63"/>
+      <c r="BI28" s="63"/>
+      <c r="BJ28" s="63"/>
+      <c r="BK28" s="63"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="79" t="s">
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="79"/>
-      <c r="AM29" s="79"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="79"/>
-      <c r="AP29" s="79"/>
-      <c r="AQ29" s="79"/>
-      <c r="AR29" s="79"/>
-      <c r="AS29" s="79"/>
-      <c r="AT29" s="79"/>
-      <c r="AU29" s="79"/>
-      <c r="AV29" s="79"/>
-      <c r="AW29" s="79"/>
-      <c r="AX29" s="79"/>
-      <c r="AY29" s="79"/>
-      <c r="AZ29" s="79"/>
-      <c r="BA29" s="79"/>
-      <c r="BB29" s="79"/>
-      <c r="BC29" s="79"/>
-      <c r="BD29" s="79"/>
-      <c r="BE29" s="79"/>
-      <c r="BF29" s="79"/>
-      <c r="BG29" s="79"/>
-      <c r="BH29" s="79"/>
-      <c r="BI29" s="79"/>
-      <c r="BJ29" s="79"/>
-      <c r="BK29" s="79"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="63"/>
+      <c r="AV29" s="63"/>
+      <c r="AW29" s="63"/>
+      <c r="AX29" s="63"/>
+      <c r="AY29" s="63"/>
+      <c r="AZ29" s="63"/>
+      <c r="BA29" s="63"/>
+      <c r="BB29" s="63"/>
+      <c r="BC29" s="63"/>
+      <c r="BD29" s="63"/>
+      <c r="BE29" s="63"/>
+      <c r="BF29" s="63"/>
+      <c r="BG29" s="63"/>
+      <c r="BH29" s="63"/>
+      <c r="BI29" s="63"/>
+      <c r="BJ29" s="63"/>
+      <c r="BK29" s="63"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -6413,21 +6413,26 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="AO6:BP6"/>
     <mergeCell ref="C7:G7"/>
@@ -6444,26 +6449,21 @@
     <mergeCell ref="W10:BI10"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -6502,243 +6502,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66" t="s">
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="67" t="s">
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="76"/>
+      <c r="BK1" s="76"/>
+      <c r="BL1" s="76"/>
+      <c r="BM1" s="76"/>
+      <c r="BN1" s="76"/>
+      <c r="BO1" s="76"/>
+      <c r="BP1" s="76"/>
+      <c r="BQ1" s="76"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="63" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="64" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64" t="s">
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="66"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64" t="s">
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="66"/>
+      <c r="BB2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="64"/>
-      <c r="BF2" s="64"/>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="69"/>
-      <c r="BK2" s="69"/>
-      <c r="BL2" s="69"/>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="69"/>
-      <c r="BP2" s="69"/>
-      <c r="BQ2" s="69"/>
+      <c r="BC2" s="66"/>
+      <c r="BD2" s="66"/>
+      <c r="BE2" s="66"/>
+      <c r="BF2" s="66"/>
+      <c r="BG2" s="66"/>
+      <c r="BH2" s="66"/>
+      <c r="BI2" s="66"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="78"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="78"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="78"/>
+      <c r="BQ2" s="78"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="62" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="71">
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="80">
         <v>45553</v>
       </c>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="62" t="s">
+      <c r="AU3" s="80"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="80"/>
+      <c r="AZ3" s="80"/>
+      <c r="BA3" s="80"/>
+      <c r="BB3" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="70"/>
-      <c r="BK3" s="70"/>
-      <c r="BL3" s="70"/>
-      <c r="BM3" s="70"/>
-      <c r="BN3" s="70"/>
-      <c r="BO3" s="70"/>
-      <c r="BP3" s="70"/>
-      <c r="BQ3" s="70"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="79"/>
+      <c r="BK3" s="79"/>
+      <c r="BL3" s="79"/>
+      <c r="BM3" s="79"/>
+      <c r="BN3" s="79"/>
+      <c r="BO3" s="79"/>
+      <c r="BP3" s="79"/>
+      <c r="BQ3" s="79"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -6763,94 +6763,94 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="77" t="s">
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="73" t="s">
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="73"/>
-      <c r="AQ6" s="73"/>
-      <c r="AR6" s="73"/>
-      <c r="AS6" s="73"/>
-      <c r="AT6" s="73"/>
-      <c r="AU6" s="73"/>
-      <c r="AV6" s="73"/>
-      <c r="AW6" s="73"/>
-      <c r="AX6" s="73"/>
-      <c r="AY6" s="73"/>
-      <c r="AZ6" s="73"/>
-      <c r="BA6" s="73"/>
-      <c r="BB6" s="73"/>
-      <c r="BC6" s="73"/>
-      <c r="BD6" s="73"/>
-      <c r="BE6" s="73"/>
-      <c r="BF6" s="73"/>
-      <c r="BG6" s="73"/>
-      <c r="BH6" s="73"/>
-      <c r="BI6" s="73"/>
-      <c r="BJ6" s="73"/>
-      <c r="BK6" s="73"/>
-      <c r="BL6" s="73"/>
-      <c r="BM6" s="73"/>
-      <c r="BN6" s="73"/>
-      <c r="BO6" s="73"/>
-      <c r="BP6" s="73"/>
+      <c r="AP6" s="69"/>
+      <c r="AQ6" s="69"/>
+      <c r="AR6" s="69"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+      <c r="BF6" s="69"/>
+      <c r="BG6" s="69"/>
+      <c r="BH6" s="69"/>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="69"/>
+      <c r="BK6" s="69"/>
+      <c r="BL6" s="69"/>
+      <c r="BM6" s="69"/>
+      <c r="BN6" s="69"/>
+      <c r="BO6" s="69"/>
+      <c r="BP6" s="69"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
       <c r="M7" s="41" t="s">
         <v>73</v>
       </c>
@@ -6881,34 +6881,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="73"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="73"/>
-      <c r="AS7" s="73"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="73"/>
-      <c r="AV7" s="73"/>
-      <c r="AW7" s="73"/>
-      <c r="AX7" s="73"/>
-      <c r="AY7" s="73"/>
-      <c r="AZ7" s="73"/>
-      <c r="BA7" s="73"/>
-      <c r="BB7" s="73"/>
-      <c r="BC7" s="73"/>
-      <c r="BD7" s="73"/>
-      <c r="BE7" s="73"/>
-      <c r="BF7" s="73"/>
-      <c r="BG7" s="73"/>
-      <c r="BH7" s="73"/>
-      <c r="BI7" s="73"/>
-      <c r="BJ7" s="73"/>
-      <c r="BK7" s="73"/>
-      <c r="BL7" s="73"/>
-      <c r="BM7" s="73"/>
-      <c r="BN7" s="73"/>
-      <c r="BO7" s="73"/>
-      <c r="BP7" s="73"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
+      <c r="BC7" s="69"/>
+      <c r="BD7" s="69"/>
+      <c r="BE7" s="69"/>
+      <c r="BF7" s="69"/>
+      <c r="BG7" s="69"/>
+      <c r="BH7" s="69"/>
+      <c r="BI7" s="69"/>
+      <c r="BJ7" s="69"/>
+      <c r="BK7" s="69"/>
+      <c r="BL7" s="69"/>
+      <c r="BM7" s="69"/>
+      <c r="BN7" s="69"/>
+      <c r="BO7" s="69"/>
+      <c r="BP7" s="69"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -6922,89 +6922,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="64" t="s">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64" t="s">
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="75" t="s">
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="75"/>
-      <c r="BA10" s="75"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="75"/>
-      <c r="BF10" s="75"/>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="75" t="s">
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="64"/>
+      <c r="AZ10" s="64"/>
+      <c r="BA10" s="64"/>
+      <c r="BB10" s="64"/>
+      <c r="BC10" s="64"/>
+      <c r="BD10" s="64"/>
+      <c r="BE10" s="64"/>
+      <c r="BF10" s="64"/>
+      <c r="BG10" s="64"/>
+      <c r="BH10" s="64"/>
+      <c r="BI10" s="64"/>
+      <c r="BJ10" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="75"/>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="75"/>
-      <c r="BN10" s="75"/>
-      <c r="BO10" s="75"/>
-      <c r="BP10" s="75"/>
+      <c r="BK10" s="64"/>
+      <c r="BL10" s="64"/>
+      <c r="BM10" s="64"/>
+      <c r="BN10" s="64"/>
+      <c r="BO10" s="64"/>
+      <c r="BP10" s="64"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
@@ -7020,11 +7020,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="64" t="s">
+      <c r="T11" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -7074,12 +7074,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -7093,9 +7093,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -7144,12 +7144,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -7163,9 +7163,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -7214,12 +7214,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -7233,9 +7233,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -7284,12 +7284,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -7303,9 +7303,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -7365,88 +7365,88 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="64" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64" t="s">
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="75" t="s">
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="75"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="75"/>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="75"/>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="75"/>
-      <c r="AL18" s="75"/>
-      <c r="AM18" s="75"/>
-      <c r="AN18" s="75"/>
-      <c r="AO18" s="75"/>
-      <c r="AP18" s="75"/>
-      <c r="AQ18" s="75"/>
-      <c r="AR18" s="75"/>
-      <c r="AS18" s="75"/>
-      <c r="AT18" s="75"/>
-      <c r="AU18" s="75"/>
-      <c r="AV18" s="75"/>
-      <c r="AW18" s="75"/>
-      <c r="AX18" s="75"/>
-      <c r="AY18" s="75"/>
-      <c r="AZ18" s="75"/>
-      <c r="BA18" s="75"/>
-      <c r="BB18" s="75"/>
-      <c r="BC18" s="75"/>
-      <c r="BD18" s="75"/>
-      <c r="BE18" s="75"/>
-      <c r="BF18" s="75"/>
-      <c r="BG18" s="75"/>
-      <c r="BH18" s="75"/>
-      <c r="BI18" s="75"/>
-      <c r="BJ18" s="75" t="s">
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="64"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="64"/>
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="64"/>
+      <c r="AO18" s="64"/>
+      <c r="AP18" s="64"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="64"/>
+      <c r="AU18" s="64"/>
+      <c r="AV18" s="64"/>
+      <c r="AW18" s="64"/>
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="64"/>
+      <c r="AZ18" s="64"/>
+      <c r="BA18" s="64"/>
+      <c r="BB18" s="64"/>
+      <c r="BC18" s="64"/>
+      <c r="BD18" s="64"/>
+      <c r="BE18" s="64"/>
+      <c r="BF18" s="64"/>
+      <c r="BG18" s="64"/>
+      <c r="BH18" s="64"/>
+      <c r="BI18" s="64"/>
+      <c r="BJ18" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="75"/>
-      <c r="BL18" s="75"/>
-      <c r="BM18" s="75"/>
-      <c r="BN18" s="75"/>
-      <c r="BO18" s="75"/>
-      <c r="BP18" s="75"/>
+      <c r="BK18" s="64"/>
+      <c r="BL18" s="64"/>
+      <c r="BM18" s="64"/>
+      <c r="BN18" s="64"/>
+      <c r="BO18" s="64"/>
+      <c r="BP18" s="64"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="41" t="s">
         <v>77</v>
       </c>
@@ -7462,9 +7462,9 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
       <c r="W19" s="40" t="s">
         <v>79</v>
       </c>
@@ -7751,270 +7751,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="80" t="s">
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="80"/>
-      <c r="AA26" s="80"/>
-      <c r="AB26" s="80"/>
-      <c r="AC26" s="80"/>
-      <c r="AD26" s="80"/>
-      <c r="AE26" s="80"/>
-      <c r="AF26" s="80"/>
-      <c r="AG26" s="80"/>
-      <c r="AH26" s="80"/>
-      <c r="AI26" s="80"/>
-      <c r="AJ26" s="80"/>
-      <c r="AK26" s="80"/>
-      <c r="AL26" s="80"/>
-      <c r="AM26" s="80"/>
-      <c r="AN26" s="80"/>
-      <c r="AO26" s="80"/>
-      <c r="AP26" s="80"/>
-      <c r="AQ26" s="80"/>
-      <c r="AR26" s="80"/>
-      <c r="AS26" s="80"/>
-      <c r="AT26" s="80"/>
-      <c r="AU26" s="80"/>
-      <c r="AV26" s="80"/>
-      <c r="AW26" s="80"/>
-      <c r="AX26" s="80"/>
-      <c r="AY26" s="80"/>
-      <c r="AZ26" s="80"/>
-      <c r="BA26" s="80"/>
-      <c r="BB26" s="80"/>
-      <c r="BC26" s="80"/>
-      <c r="BD26" s="80"/>
-      <c r="BE26" s="80"/>
-      <c r="BF26" s="80"/>
-      <c r="BG26" s="80"/>
-      <c r="BH26" s="80"/>
-      <c r="BI26" s="80"/>
-      <c r="BJ26" s="80"/>
-      <c r="BK26" s="80"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="67"/>
+      <c r="AI26" s="67"/>
+      <c r="AJ26" s="67"/>
+      <c r="AK26" s="67"/>
+      <c r="AL26" s="67"/>
+      <c r="AM26" s="67"/>
+      <c r="AN26" s="67"/>
+      <c r="AO26" s="67"/>
+      <c r="AP26" s="67"/>
+      <c r="AQ26" s="67"/>
+      <c r="AR26" s="67"/>
+      <c r="AS26" s="67"/>
+      <c r="AT26" s="67"/>
+      <c r="AU26" s="67"/>
+      <c r="AV26" s="67"/>
+      <c r="AW26" s="67"/>
+      <c r="AX26" s="67"/>
+      <c r="AY26" s="67"/>
+      <c r="AZ26" s="67"/>
+      <c r="BA26" s="67"/>
+      <c r="BB26" s="67"/>
+      <c r="BC26" s="67"/>
+      <c r="BD26" s="67"/>
+      <c r="BE26" s="67"/>
+      <c r="BF26" s="67"/>
+      <c r="BG26" s="67"/>
+      <c r="BH26" s="67"/>
+      <c r="BI26" s="67"/>
+      <c r="BJ26" s="67"/>
+      <c r="BK26" s="67"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="79" t="s">
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="79"/>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
-      <c r="AP27" s="79"/>
-      <c r="AQ27" s="79"/>
-      <c r="AR27" s="79"/>
-      <c r="AS27" s="79"/>
-      <c r="AT27" s="79"/>
-      <c r="AU27" s="79"/>
-      <c r="AV27" s="79"/>
-      <c r="AW27" s="79"/>
-      <c r="AX27" s="79"/>
-      <c r="AY27" s="79"/>
-      <c r="AZ27" s="79"/>
-      <c r="BA27" s="79"/>
-      <c r="BB27" s="79"/>
-      <c r="BC27" s="79"/>
-      <c r="BD27" s="79"/>
-      <c r="BE27" s="79"/>
-      <c r="BF27" s="79"/>
-      <c r="BG27" s="79"/>
-      <c r="BH27" s="79"/>
-      <c r="BI27" s="79"/>
-      <c r="BJ27" s="79"/>
-      <c r="BK27" s="79"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="63"/>
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="63"/>
+      <c r="AV27" s="63"/>
+      <c r="AW27" s="63"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="63"/>
+      <c r="AZ27" s="63"/>
+      <c r="BA27" s="63"/>
+      <c r="BB27" s="63"/>
+      <c r="BC27" s="63"/>
+      <c r="BD27" s="63"/>
+      <c r="BE27" s="63"/>
+      <c r="BF27" s="63"/>
+      <c r="BG27" s="63"/>
+      <c r="BH27" s="63"/>
+      <c r="BI27" s="63"/>
+      <c r="BJ27" s="63"/>
+      <c r="BK27" s="63"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="78" t="s">
+      <c r="E28" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="79" t="s">
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="79"/>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-      <c r="AP28" s="79"/>
-      <c r="AQ28" s="79"/>
-      <c r="AR28" s="79"/>
-      <c r="AS28" s="79"/>
-      <c r="AT28" s="79"/>
-      <c r="AU28" s="79"/>
-      <c r="AV28" s="79"/>
-      <c r="AW28" s="79"/>
-      <c r="AX28" s="79"/>
-      <c r="AY28" s="79"/>
-      <c r="AZ28" s="79"/>
-      <c r="BA28" s="79"/>
-      <c r="BB28" s="79"/>
-      <c r="BC28" s="79"/>
-      <c r="BD28" s="79"/>
-      <c r="BE28" s="79"/>
-      <c r="BF28" s="79"/>
-      <c r="BG28" s="79"/>
-      <c r="BH28" s="79"/>
-      <c r="BI28" s="79"/>
-      <c r="BJ28" s="79"/>
-      <c r="BK28" s="79"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="63"/>
+      <c r="AU28" s="63"/>
+      <c r="AV28" s="63"/>
+      <c r="AW28" s="63"/>
+      <c r="AX28" s="63"/>
+      <c r="AY28" s="63"/>
+      <c r="AZ28" s="63"/>
+      <c r="BA28" s="63"/>
+      <c r="BB28" s="63"/>
+      <c r="BC28" s="63"/>
+      <c r="BD28" s="63"/>
+      <c r="BE28" s="63"/>
+      <c r="BF28" s="63"/>
+      <c r="BG28" s="63"/>
+      <c r="BH28" s="63"/>
+      <c r="BI28" s="63"/>
+      <c r="BJ28" s="63"/>
+      <c r="BK28" s="63"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="79" t="s">
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="79"/>
-      <c r="AM29" s="79"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="79"/>
-      <c r="AP29" s="79"/>
-      <c r="AQ29" s="79"/>
-      <c r="AR29" s="79"/>
-      <c r="AS29" s="79"/>
-      <c r="AT29" s="79"/>
-      <c r="AU29" s="79"/>
-      <c r="AV29" s="79"/>
-      <c r="AW29" s="79"/>
-      <c r="AX29" s="79"/>
-      <c r="AY29" s="79"/>
-      <c r="AZ29" s="79"/>
-      <c r="BA29" s="79"/>
-      <c r="BB29" s="79"/>
-      <c r="BC29" s="79"/>
-      <c r="BD29" s="79"/>
-      <c r="BE29" s="79"/>
-      <c r="BF29" s="79"/>
-      <c r="BG29" s="79"/>
-      <c r="BH29" s="79"/>
-      <c r="BI29" s="79"/>
-      <c r="BJ29" s="79"/>
-      <c r="BK29" s="79"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="63"/>
+      <c r="AV29" s="63"/>
+      <c r="AW29" s="63"/>
+      <c r="AX29" s="63"/>
+      <c r="AY29" s="63"/>
+      <c r="AZ29" s="63"/>
+      <c r="BA29" s="63"/>
+      <c r="BB29" s="63"/>
+      <c r="BC29" s="63"/>
+      <c r="BD29" s="63"/>
+      <c r="BE29" s="63"/>
+      <c r="BF29" s="63"/>
+      <c r="BG29" s="63"/>
+      <c r="BH29" s="63"/>
+      <c r="BI29" s="63"/>
+      <c r="BJ29" s="63"/>
+      <c r="BK29" s="63"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -8522,43 +8522,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -8573,6 +8536,43 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
+++ b/交通費申請一覧機能/設計書/コントローラ基底クラス_設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8903AE-A628-41E0-B579-23659A1EDBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A7443F-A141-4DD9-A52C-8B9D75336038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="760" windowWidth="10870" windowHeight="8900" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
+    <workbookView xWindow="1090" yWindow="240" windowWidth="13340" windowHeight="10050" xr2:uid="{DC656FB9-D739-4D51-A887-0D5FF2981BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_プルダウン項目クラス" sheetId="2" r:id="rId1"/>
@@ -387,51 +387,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>2表示用Id名前クラスのオブジェクトを作成する。</t>
-    <rPh sb="1" eb="4">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3.項目1の処理結果から社員IDと社員名を取り出し、項目2で作成した表示用Id名前クラスオブジェクトに格納する。</t>
-    <rPh sb="21" eb="22">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>処理後、表示用Id名前クラスオブジェクトを戻り値として処理を終了する</t>
-    <rPh sb="0" eb="3">
-      <t>ショリゴ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>コントローラ基底クラス設計書</t>
     <rPh sb="6" eb="8">
       <t>キテイ</t>
@@ -495,16 +450,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>表示用Id名前クラスオブジェクト</t>
-    <rPh sb="0" eb="3">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>社員IDのテーブル検索結果</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -561,16 +506,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>選択社員IDリスト&lt;表示用Id名前クラス&gt;オブジェクト</t>
-  </si>
-  <si>
-    <t>処理後、選択社員IDリスト&lt;表示用Id名前クラス&gt;オブジェクトを戻り値として処理を終了する</t>
-    <rPh sb="0" eb="3">
-      <t>ショリゴ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>表示対象の社員IDと社員名の検索結果</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -599,6 +534,72 @@
   </si>
   <si>
     <t>1.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>表示用Id名前DTO</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2表示用Id名前DTOクラスのインスタンスを作成する。</t>
+    <rPh sb="1" eb="4">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>処理後、表示用Id名前DTOを戻り値として処理を終了する</t>
+    <rPh sb="0" eb="3">
+      <t>ショリゴ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3.項目1の処理結果から社員IDと社員名を取り出し、項目2で作成した表示用Id名前DTOに格納する。</t>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>処理後、選択社員IDリスト&lt;表示用Id名前DTOクラス&gt;を戻り値として処理を終了する</t>
+    <rPh sb="0" eb="3">
+      <t>ショリゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択社員IDリスト&lt;表示用Id名前DTOクラス&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1090,6 +1091,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,9 +1136,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,64 +1145,14 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1196,6 +1174,29 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1530,247 +1531,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="46" t="s">
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46"/>
-      <c r="BI1" s="46"/>
-      <c r="BJ1" s="46"/>
-      <c r="BK1" s="46"/>
-      <c r="BL1" s="46"/>
-      <c r="BM1" s="46"/>
-      <c r="BN1" s="46"/>
-      <c r="BO1" s="46"/>
-      <c r="BP1" s="46"/>
-      <c r="BQ1" s="46"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="56"/>
+      <c r="BO1" s="56"/>
+      <c r="BP1" s="56"/>
+      <c r="BQ1" s="56"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="49" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49" t="s">
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49" t="s">
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="49"/>
-      <c r="BH2" s="49"/>
-      <c r="BI2" s="49"/>
-      <c r="BJ2" s="50" t="s">
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="50"/>
-      <c r="BL2" s="50"/>
-      <c r="BM2" s="50"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="50"/>
-      <c r="BQ2" s="50"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="59"/>
+      <c r="BO2" s="59"/>
+      <c r="BP2" s="59"/>
+      <c r="BQ2" s="59"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="51">
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="60">
         <v>45519</v>
       </c>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
-      <c r="BB3" s="48" t="s">
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="48"/>
-      <c r="BD3" s="48"/>
-      <c r="BE3" s="48"/>
-      <c r="BF3" s="48"/>
-      <c r="BG3" s="48"/>
-      <c r="BH3" s="48"/>
-      <c r="BI3" s="48"/>
-      <c r="BJ3" s="52">
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="58"/>
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="58"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="58"/>
+      <c r="BI3" s="58"/>
+      <c r="BJ3" s="61">
         <v>45518</v>
       </c>
-      <c r="BK3" s="52"/>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="52"/>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="52"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="61"/>
+      <c r="BM3" s="61"/>
+      <c r="BN3" s="61"/>
+      <c r="BO3" s="61"/>
+      <c r="BP3" s="61"/>
+      <c r="BQ3" s="61"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
@@ -1837,215 +1838,215 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="C6" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
+      <c r="C6" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="44"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="44"/>
+      <c r="AU6" s="44"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="44"/>
+      <c r="AX6" s="44"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="44"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="44"/>
+      <c r="BE6" s="44"/>
+      <c r="BF6" s="44"/>
+      <c r="BG6" s="44"/>
+      <c r="BH6" s="44"/>
+      <c r="BI6" s="44"/>
+      <c r="BJ6" s="44"/>
+      <c r="BK6" s="44"/>
+      <c r="BL6" s="44"/>
+      <c r="BM6" s="44"/>
+      <c r="BN6" s="44"/>
+      <c r="BO6" s="44"/>
       <c r="BP6" s="8"/>
       <c r="BQ6" s="6"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="C7" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="53"/>
-      <c r="BJ7" s="53"/>
-      <c r="BK7" s="53"/>
-      <c r="BL7" s="53"/>
-      <c r="BM7" s="53"/>
-      <c r="BN7" s="53"/>
-      <c r="BO7" s="53"/>
+      <c r="C7" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="44"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="44"/>
+      <c r="BC7" s="44"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="44"/>
+      <c r="BF7" s="44"/>
+      <c r="BG7" s="44"/>
+      <c r="BH7" s="44"/>
+      <c r="BI7" s="44"/>
+      <c r="BJ7" s="44"/>
+      <c r="BK7" s="44"/>
+      <c r="BL7" s="44"/>
+      <c r="BM7" s="44"/>
+      <c r="BN7" s="44"/>
+      <c r="BO7" s="44"/>
       <c r="BP7" s="8"/>
       <c r="BQ7" s="6"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53"/>
-      <c r="AP8" s="53"/>
-      <c r="AQ8" s="53"/>
-      <c r="AR8" s="53"/>
-      <c r="AS8" s="53"/>
-      <c r="AT8" s="53"/>
-      <c r="AU8" s="53"/>
-      <c r="AV8" s="53"/>
-      <c r="AW8" s="53"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="53"/>
-      <c r="BB8" s="53"/>
-      <c r="BC8" s="53"/>
-      <c r="BD8" s="53"/>
-      <c r="BE8" s="53"/>
-      <c r="BF8" s="53"/>
-      <c r="BG8" s="53"/>
-      <c r="BH8" s="53"/>
-      <c r="BI8" s="53"/>
-      <c r="BJ8" s="53"/>
-      <c r="BK8" s="53"/>
-      <c r="BL8" s="53"/>
-      <c r="BM8" s="53"/>
-      <c r="BN8" s="53"/>
-      <c r="BO8" s="53"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="44"/>
+      <c r="AW8" s="44"/>
+      <c r="AX8" s="44"/>
+      <c r="AY8" s="44"/>
+      <c r="AZ8" s="44"/>
+      <c r="BA8" s="44"/>
+      <c r="BB8" s="44"/>
+      <c r="BC8" s="44"/>
+      <c r="BD8" s="44"/>
+      <c r="BE8" s="44"/>
+      <c r="BF8" s="44"/>
+      <c r="BG8" s="44"/>
+      <c r="BH8" s="44"/>
+      <c r="BI8" s="44"/>
+      <c r="BJ8" s="44"/>
+      <c r="BK8" s="44"/>
+      <c r="BL8" s="44"/>
+      <c r="BM8" s="44"/>
+      <c r="BN8" s="44"/>
+      <c r="BO8" s="44"/>
       <c r="BP8" s="8"/>
       <c r="BQ8" s="6"/>
     </row>
@@ -2098,787 +2099,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="53" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="54"/>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="54"/>
-      <c r="AW11" s="54"/>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="54"/>
-      <c r="BA11" s="54"/>
-      <c r="BB11" s="54"/>
-      <c r="BC11" s="54"/>
-      <c r="BD11" s="54"/>
-      <c r="BE11" s="54"/>
-      <c r="BF11" s="54"/>
-      <c r="BG11" s="54"/>
-      <c r="BH11" s="54"/>
-      <c r="BI11" s="54"/>
-      <c r="BJ11" s="54"/>
-      <c r="BK11" s="54"/>
-      <c r="BL11" s="54"/>
-      <c r="BM11" s="54"/>
-      <c r="BN11" s="54"/>
-      <c r="BO11" s="54"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="46"/>
+      <c r="AR11" s="46"/>
+      <c r="AS11" s="46"/>
+      <c r="AT11" s="46"/>
+      <c r="AU11" s="46"/>
+      <c r="AV11" s="46"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="46"/>
+      <c r="BC11" s="46"/>
+      <c r="BD11" s="46"/>
+      <c r="BE11" s="46"/>
+      <c r="BF11" s="46"/>
+      <c r="BG11" s="46"/>
+      <c r="BH11" s="46"/>
+      <c r="BI11" s="46"/>
+      <c r="BJ11" s="46"/>
+      <c r="BK11" s="46"/>
+      <c r="BL11" s="46"/>
+      <c r="BM11" s="46"/>
+      <c r="BN11" s="46"/>
+      <c r="BO11" s="46"/>
       <c r="BP11" s="8"/>
       <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="54"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="54"/>
-      <c r="AP12" s="54"/>
-      <c r="AQ12" s="54"/>
-      <c r="AR12" s="54"/>
-      <c r="AS12" s="54"/>
-      <c r="AT12" s="54"/>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="54"/>
-      <c r="AW12" s="54"/>
-      <c r="AX12" s="54"/>
-      <c r="AY12" s="54"/>
-      <c r="AZ12" s="54"/>
-      <c r="BA12" s="54"/>
-      <c r="BB12" s="54"/>
-      <c r="BC12" s="54"/>
-      <c r="BD12" s="54"/>
-      <c r="BE12" s="54"/>
-      <c r="BF12" s="54"/>
-      <c r="BG12" s="54"/>
-      <c r="BH12" s="54"/>
-      <c r="BI12" s="54"/>
-      <c r="BJ12" s="54"/>
-      <c r="BK12" s="54"/>
-      <c r="BL12" s="54"/>
-      <c r="BM12" s="54"/>
-      <c r="BN12" s="54"/>
-      <c r="BO12" s="54"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="46"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="46"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="46"/>
+      <c r="BI12" s="46"/>
+      <c r="BJ12" s="46"/>
+      <c r="BK12" s="46"/>
+      <c r="BL12" s="46"/>
+      <c r="BM12" s="46"/>
+      <c r="BN12" s="46"/>
+      <c r="BO12" s="46"/>
       <c r="BP12" s="8"/>
       <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="54"/>
-      <c r="AW13" s="54"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="54"/>
-      <c r="BA13" s="54"/>
-      <c r="BB13" s="54"/>
-      <c r="BC13" s="54"/>
-      <c r="BD13" s="54"/>
-      <c r="BE13" s="54"/>
-      <c r="BF13" s="54"/>
-      <c r="BG13" s="54"/>
-      <c r="BH13" s="54"/>
-      <c r="BI13" s="54"/>
-      <c r="BJ13" s="54"/>
-      <c r="BK13" s="54"/>
-      <c r="BL13" s="54"/>
-      <c r="BM13" s="54"/>
-      <c r="BN13" s="54"/>
-      <c r="BO13" s="54"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="46"/>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="46"/>
+      <c r="BB13" s="46"/>
+      <c r="BC13" s="46"/>
+      <c r="BD13" s="46"/>
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="46"/>
+      <c r="BG13" s="46"/>
+      <c r="BH13" s="46"/>
+      <c r="BI13" s="46"/>
+      <c r="BJ13" s="46"/>
+      <c r="BK13" s="46"/>
+      <c r="BL13" s="46"/>
+      <c r="BM13" s="46"/>
+      <c r="BN13" s="46"/>
+      <c r="BO13" s="46"/>
       <c r="BP13" s="8"/>
       <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="61" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="61"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="61"/>
-      <c r="AN14" s="61"/>
-      <c r="AO14" s="61"/>
-      <c r="AP14" s="61"/>
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="61"/>
-      <c r="AS14" s="61"/>
-      <c r="AT14" s="61"/>
-      <c r="AU14" s="61"/>
-      <c r="AV14" s="61"/>
-      <c r="AW14" s="61"/>
-      <c r="AX14" s="61"/>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="61"/>
-      <c r="BA14" s="61"/>
-      <c r="BB14" s="61"/>
-      <c r="BC14" s="61"/>
-      <c r="BD14" s="61"/>
-      <c r="BE14" s="61"/>
-      <c r="BF14" s="61"/>
-      <c r="BG14" s="61"/>
-      <c r="BH14" s="61"/>
-      <c r="BI14" s="61"/>
-      <c r="BJ14" s="61"/>
-      <c r="BK14" s="61"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="61"/>
-      <c r="BN14" s="61"/>
-      <c r="BO14" s="61"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
+      <c r="AL14" s="53"/>
+      <c r="AM14" s="53"/>
+      <c r="AN14" s="53"/>
+      <c r="AO14" s="53"/>
+      <c r="AP14" s="53"/>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53"/>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53"/>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="53"/>
+      <c r="BB14" s="53"/>
+      <c r="BC14" s="53"/>
+      <c r="BD14" s="53"/>
+      <c r="BE14" s="53"/>
+      <c r="BF14" s="53"/>
+      <c r="BG14" s="53"/>
+      <c r="BH14" s="53"/>
+      <c r="BI14" s="53"/>
+      <c r="BJ14" s="53"/>
+      <c r="BK14" s="53"/>
+      <c r="BL14" s="53"/>
+      <c r="BM14" s="53"/>
+      <c r="BN14" s="53"/>
+      <c r="BO14" s="53"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="6"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="54"/>
-      <c r="AS15" s="54"/>
-      <c r="AT15" s="54"/>
-      <c r="AU15" s="54"/>
-      <c r="AV15" s="54"/>
-      <c r="AW15" s="54"/>
-      <c r="AX15" s="54"/>
-      <c r="AY15" s="54"/>
-      <c r="AZ15" s="54"/>
-      <c r="BA15" s="54"/>
-      <c r="BB15" s="54"/>
-      <c r="BC15" s="54"/>
-      <c r="BD15" s="54"/>
-      <c r="BE15" s="54"/>
-      <c r="BF15" s="54"/>
-      <c r="BG15" s="54"/>
-      <c r="BH15" s="54"/>
-      <c r="BI15" s="54"/>
-      <c r="BJ15" s="54"/>
-      <c r="BK15" s="54"/>
-      <c r="BL15" s="54"/>
-      <c r="BM15" s="54"/>
-      <c r="BN15" s="54"/>
-      <c r="BO15" s="54"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="46"/>
+      <c r="AT15" s="46"/>
+      <c r="AU15" s="46"/>
+      <c r="AV15" s="46"/>
+      <c r="AW15" s="46"/>
+      <c r="AX15" s="46"/>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="46"/>
+      <c r="BA15" s="46"/>
+      <c r="BB15" s="46"/>
+      <c r="BC15" s="46"/>
+      <c r="BD15" s="46"/>
+      <c r="BE15" s="46"/>
+      <c r="BF15" s="46"/>
+      <c r="BG15" s="46"/>
+      <c r="BH15" s="46"/>
+      <c r="BI15" s="46"/>
+      <c r="BJ15" s="46"/>
+      <c r="BK15" s="46"/>
+      <c r="BL15" s="46"/>
+      <c r="BM15" s="46"/>
+      <c r="BN15" s="46"/>
+      <c r="BO15" s="46"/>
       <c r="BP15" s="8"/>
       <c r="BQ15" s="6"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="54"/>
-      <c r="AL16" s="54"/>
-      <c r="AM16" s="54"/>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="54"/>
-      <c r="AQ16" s="54"/>
-      <c r="AR16" s="54"/>
-      <c r="AS16" s="54"/>
-      <c r="AT16" s="54"/>
-      <c r="AU16" s="54"/>
-      <c r="AV16" s="54"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="54"/>
-      <c r="BA16" s="54"/>
-      <c r="BB16" s="54"/>
-      <c r="BC16" s="54"/>
-      <c r="BD16" s="54"/>
-      <c r="BE16" s="54"/>
-      <c r="BF16" s="54"/>
-      <c r="BG16" s="54"/>
-      <c r="BH16" s="54"/>
-      <c r="BI16" s="54"/>
-      <c r="BJ16" s="54"/>
-      <c r="BK16" s="54"/>
-      <c r="BL16" s="54"/>
-      <c r="BM16" s="54"/>
-      <c r="BN16" s="54"/>
-      <c r="BO16" s="54"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="46"/>
+      <c r="AV16" s="46"/>
+      <c r="AW16" s="46"/>
+      <c r="AX16" s="46"/>
+      <c r="AY16" s="46"/>
+      <c r="AZ16" s="46"/>
+      <c r="BA16" s="46"/>
+      <c r="BB16" s="46"/>
+      <c r="BC16" s="46"/>
+      <c r="BD16" s="46"/>
+      <c r="BE16" s="46"/>
+      <c r="BF16" s="46"/>
+      <c r="BG16" s="46"/>
+      <c r="BH16" s="46"/>
+      <c r="BI16" s="46"/>
+      <c r="BJ16" s="46"/>
+      <c r="BK16" s="46"/>
+      <c r="BL16" s="46"/>
+      <c r="BM16" s="46"/>
+      <c r="BN16" s="46"/>
+      <c r="BO16" s="46"/>
       <c r="BP16" s="8"/>
       <c r="BQ16" s="6"/>
     </row>
     <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="54"/>
-      <c r="AR17" s="54"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="54"/>
-      <c r="AU17" s="54"/>
-      <c r="AV17" s="54"/>
-      <c r="AW17" s="54"/>
-      <c r="AX17" s="54"/>
-      <c r="AY17" s="54"/>
-      <c r="AZ17" s="54"/>
-      <c r="BA17" s="54"/>
-      <c r="BB17" s="54"/>
-      <c r="BC17" s="54"/>
-      <c r="BD17" s="54"/>
-      <c r="BE17" s="54"/>
-      <c r="BF17" s="54"/>
-      <c r="BG17" s="54"/>
-      <c r="BH17" s="54"/>
-      <c r="BI17" s="54"/>
-      <c r="BJ17" s="54"/>
-      <c r="BK17" s="54"/>
-      <c r="BL17" s="54"/>
-      <c r="BM17" s="54"/>
-      <c r="BN17" s="54"/>
-      <c r="BO17" s="54"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="46"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="46"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="46"/>
+      <c r="AS17" s="46"/>
+      <c r="AT17" s="46"/>
+      <c r="AU17" s="46"/>
+      <c r="AV17" s="46"/>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="46"/>
+      <c r="AY17" s="46"/>
+      <c r="AZ17" s="46"/>
+      <c r="BA17" s="46"/>
+      <c r="BB17" s="46"/>
+      <c r="BC17" s="46"/>
+      <c r="BD17" s="46"/>
+      <c r="BE17" s="46"/>
+      <c r="BF17" s="46"/>
+      <c r="BG17" s="46"/>
+      <c r="BH17" s="46"/>
+      <c r="BI17" s="46"/>
+      <c r="BJ17" s="46"/>
+      <c r="BK17" s="46"/>
+      <c r="BL17" s="46"/>
+      <c r="BM17" s="46"/>
+      <c r="BN17" s="46"/>
+      <c r="BO17" s="46"/>
       <c r="BP17" s="8"/>
       <c r="BQ17" s="6"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="54"/>
-      <c r="BA18" s="54"/>
-      <c r="BB18" s="54"/>
-      <c r="BC18" s="54"/>
-      <c r="BD18" s="54"/>
-      <c r="BE18" s="54"/>
-      <c r="BF18" s="54"/>
-      <c r="BG18" s="54"/>
-      <c r="BH18" s="54"/>
-      <c r="BI18" s="54"/>
-      <c r="BJ18" s="54"/>
-      <c r="BK18" s="54"/>
-      <c r="BL18" s="54"/>
-      <c r="BM18" s="54"/>
-      <c r="BN18" s="54"/>
-      <c r="BO18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="46"/>
+      <c r="AY18" s="46"/>
+      <c r="AZ18" s="46"/>
+      <c r="BA18" s="46"/>
+      <c r="BB18" s="46"/>
+      <c r="BC18" s="46"/>
+      <c r="BD18" s="46"/>
+      <c r="BE18" s="46"/>
+      <c r="BF18" s="46"/>
+      <c r="BG18" s="46"/>
+      <c r="BH18" s="46"/>
+      <c r="BI18" s="46"/>
+      <c r="BJ18" s="46"/>
+      <c r="BK18" s="46"/>
+      <c r="BL18" s="46"/>
+      <c r="BM18" s="46"/>
+      <c r="BN18" s="46"/>
+      <c r="BO18" s="46"/>
       <c r="BP18" s="8"/>
       <c r="BQ18" s="6"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
-      <c r="AT19" s="54"/>
-      <c r="AU19" s="54"/>
-      <c r="AV19" s="54"/>
-      <c r="AW19" s="54"/>
-      <c r="AX19" s="54"/>
-      <c r="AY19" s="54"/>
-      <c r="AZ19" s="54"/>
-      <c r="BA19" s="54"/>
-      <c r="BB19" s="54"/>
-      <c r="BC19" s="54"/>
-      <c r="BD19" s="54"/>
-      <c r="BE19" s="54"/>
-      <c r="BF19" s="54"/>
-      <c r="BG19" s="54"/>
-      <c r="BH19" s="54"/>
-      <c r="BI19" s="54"/>
-      <c r="BJ19" s="54"/>
-      <c r="BK19" s="54"/>
-      <c r="BL19" s="54"/>
-      <c r="BM19" s="54"/>
-      <c r="BN19" s="54"/>
-      <c r="BO19" s="54"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="46"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
+      <c r="AT19" s="46"/>
+      <c r="AU19" s="46"/>
+      <c r="AV19" s="46"/>
+      <c r="AW19" s="46"/>
+      <c r="AX19" s="46"/>
+      <c r="AY19" s="46"/>
+      <c r="AZ19" s="46"/>
+      <c r="BA19" s="46"/>
+      <c r="BB19" s="46"/>
+      <c r="BC19" s="46"/>
+      <c r="BD19" s="46"/>
+      <c r="BE19" s="46"/>
+      <c r="BF19" s="46"/>
+      <c r="BG19" s="46"/>
+      <c r="BH19" s="46"/>
+      <c r="BI19" s="46"/>
+      <c r="BJ19" s="46"/>
+      <c r="BK19" s="46"/>
+      <c r="BL19" s="46"/>
+      <c r="BM19" s="46"/>
+      <c r="BN19" s="46"/>
+      <c r="BO19" s="46"/>
       <c r="BP19" s="8"/>
       <c r="BQ19" s="6"/>
     </row>
     <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="54"/>
-      <c r="AL20" s="54"/>
-      <c r="AM20" s="54"/>
-      <c r="AN20" s="54"/>
-      <c r="AO20" s="54"/>
-      <c r="AP20" s="54"/>
-      <c r="AQ20" s="54"/>
-      <c r="AR20" s="54"/>
-      <c r="AS20" s="54"/>
-      <c r="AT20" s="54"/>
-      <c r="AU20" s="54"/>
-      <c r="AV20" s="54"/>
-      <c r="AW20" s="54"/>
-      <c r="AX20" s="54"/>
-      <c r="AY20" s="54"/>
-      <c r="AZ20" s="54"/>
-      <c r="BA20" s="54"/>
-      <c r="BB20" s="54"/>
-      <c r="BC20" s="54"/>
-      <c r="BD20" s="54"/>
-      <c r="BE20" s="54"/>
-      <c r="BF20" s="54"/>
-      <c r="BG20" s="54"/>
-      <c r="BH20" s="54"/>
-      <c r="BI20" s="54"/>
-      <c r="BJ20" s="54"/>
-      <c r="BK20" s="54"/>
-      <c r="BL20" s="54"/>
-      <c r="BM20" s="54"/>
-      <c r="BN20" s="54"/>
-      <c r="BO20" s="54"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="46"/>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="46"/>
+      <c r="AR20" s="46"/>
+      <c r="AS20" s="46"/>
+      <c r="AT20" s="46"/>
+      <c r="AU20" s="46"/>
+      <c r="AV20" s="46"/>
+      <c r="AW20" s="46"/>
+      <c r="AX20" s="46"/>
+      <c r="AY20" s="46"/>
+      <c r="AZ20" s="46"/>
+      <c r="BA20" s="46"/>
+      <c r="BB20" s="46"/>
+      <c r="BC20" s="46"/>
+      <c r="BD20" s="46"/>
+      <c r="BE20" s="46"/>
+      <c r="BF20" s="46"/>
+      <c r="BG20" s="46"/>
+      <c r="BH20" s="46"/>
+      <c r="BI20" s="46"/>
+      <c r="BJ20" s="46"/>
+      <c r="BK20" s="46"/>
+      <c r="BL20" s="46"/>
+      <c r="BM20" s="46"/>
+      <c r="BN20" s="46"/>
+      <c r="BO20" s="46"/>
       <c r="BP20" s="8"/>
       <c r="BQ20" s="6"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="54"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="54"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="54"/>
-      <c r="AU21" s="54"/>
-      <c r="AV21" s="54"/>
-      <c r="AW21" s="54"/>
-      <c r="AX21" s="54"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="54"/>
-      <c r="BA21" s="54"/>
-      <c r="BB21" s="54"/>
-      <c r="BC21" s="54"/>
-      <c r="BD21" s="54"/>
-      <c r="BE21" s="54"/>
-      <c r="BF21" s="54"/>
-      <c r="BG21" s="54"/>
-      <c r="BH21" s="54"/>
-      <c r="BI21" s="54"/>
-      <c r="BJ21" s="54"/>
-      <c r="BK21" s="54"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BO21" s="54"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="46"/>
+      <c r="AT21" s="46"/>
+      <c r="AU21" s="46"/>
+      <c r="AV21" s="46"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="46"/>
+      <c r="AY21" s="46"/>
+      <c r="AZ21" s="46"/>
+      <c r="BA21" s="46"/>
+      <c r="BB21" s="46"/>
+      <c r="BC21" s="46"/>
+      <c r="BD21" s="46"/>
+      <c r="BE21" s="46"/>
+      <c r="BF21" s="46"/>
+      <c r="BG21" s="46"/>
+      <c r="BH21" s="46"/>
+      <c r="BI21" s="46"/>
+      <c r="BJ21" s="46"/>
+      <c r="BK21" s="46"/>
+      <c r="BL21" s="46"/>
+      <c r="BM21" s="46"/>
+      <c r="BN21" s="46"/>
+      <c r="BO21" s="46"/>
       <c r="BP21" s="8"/>
       <c r="BQ21" s="6"/>
     </row>
@@ -2908,744 +2909,744 @@
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49" t="s">
+      <c r="D25" s="45"/>
+      <c r="E25" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49" t="s">
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="54" t="s">
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="53" t="s">
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="53"/>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="53"/>
-      <c r="AL25" s="53"/>
-      <c r="AM25" s="53"/>
-      <c r="AN25" s="53"/>
-      <c r="AO25" s="53"/>
-      <c r="AP25" s="53"/>
-      <c r="AQ25" s="53"/>
-      <c r="AR25" s="53"/>
-      <c r="AS25" s="53"/>
-      <c r="AT25" s="53"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="53"/>
-      <c r="BB25" s="53"/>
-      <c r="BC25" s="53"/>
-      <c r="BD25" s="53" t="s">
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="44"/>
+      <c r="BD25" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="BE25" s="53"/>
-      <c r="BF25" s="53"/>
-      <c r="BG25" s="53"/>
-      <c r="BH25" s="53"/>
-      <c r="BI25" s="53"/>
-      <c r="BJ25" s="53"/>
-      <c r="BK25" s="53"/>
-      <c r="BL25" s="53"/>
-      <c r="BM25" s="53"/>
-      <c r="BN25" s="53"/>
-      <c r="BO25" s="53"/>
+      <c r="BE25" s="44"/>
+      <c r="BF25" s="44"/>
+      <c r="BG25" s="44"/>
+      <c r="BH25" s="44"/>
+      <c r="BI25" s="44"/>
+      <c r="BJ25" s="44"/>
+      <c r="BK25" s="44"/>
+      <c r="BL25" s="44"/>
+      <c r="BM25" s="44"/>
+      <c r="BN25" s="44"/>
+      <c r="BO25" s="44"/>
       <c r="BP25" s="8"/>
       <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="C26" s="49">
+      <c r="C26" s="45">
         <v>1</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="58" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="59"/>
-      <c r="AV26" s="59"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="59"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="59"/>
-      <c r="BC26" s="60"/>
-      <c r="BD26" s="58"/>
-      <c r="BE26" s="59"/>
-      <c r="BF26" s="59"/>
-      <c r="BG26" s="59"/>
-      <c r="BH26" s="59"/>
-      <c r="BI26" s="59"/>
-      <c r="BJ26" s="59"/>
-      <c r="BK26" s="59"/>
-      <c r="BL26" s="59"/>
-      <c r="BM26" s="59"/>
-      <c r="BN26" s="59"/>
-      <c r="BO26" s="60"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="48"/>
+      <c r="AS26" s="48"/>
+      <c r="AT26" s="48"/>
+      <c r="AU26" s="48"/>
+      <c r="AV26" s="48"/>
+      <c r="AW26" s="48"/>
+      <c r="AX26" s="48"/>
+      <c r="AY26" s="48"/>
+      <c r="AZ26" s="48"/>
+      <c r="BA26" s="48"/>
+      <c r="BB26" s="48"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="47"/>
+      <c r="BE26" s="48"/>
+      <c r="BF26" s="48"/>
+      <c r="BG26" s="48"/>
+      <c r="BH26" s="48"/>
+      <c r="BI26" s="48"/>
+      <c r="BJ26" s="48"/>
+      <c r="BK26" s="48"/>
+      <c r="BL26" s="48"/>
+      <c r="BM26" s="48"/>
+      <c r="BN26" s="48"/>
+      <c r="BO26" s="49"/>
       <c r="BP26" s="8"/>
       <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="C27" s="49">
+      <c r="C27" s="45">
         <v>2</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="58" t="s">
+      <c r="D27" s="45"/>
+      <c r="E27" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="59"/>
-      <c r="AU27" s="59"/>
-      <c r="AV27" s="59"/>
-      <c r="AW27" s="59"/>
-      <c r="AX27" s="59"/>
-      <c r="AY27" s="59"/>
-      <c r="AZ27" s="59"/>
-      <c r="BA27" s="59"/>
-      <c r="BB27" s="59"/>
-      <c r="BC27" s="60"/>
-      <c r="BD27" s="53"/>
-      <c r="BE27" s="53"/>
-      <c r="BF27" s="53"/>
-      <c r="BG27" s="53"/>
-      <c r="BH27" s="53"/>
-      <c r="BI27" s="53"/>
-      <c r="BJ27" s="53"/>
-      <c r="BK27" s="53"/>
-      <c r="BL27" s="53"/>
-      <c r="BM27" s="53"/>
-      <c r="BN27" s="53"/>
-      <c r="BO27" s="53"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
+      <c r="AE27" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="48"/>
+      <c r="AO27" s="48"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="48"/>
+      <c r="AS27" s="48"/>
+      <c r="AT27" s="48"/>
+      <c r="AU27" s="48"/>
+      <c r="AV27" s="48"/>
+      <c r="AW27" s="48"/>
+      <c r="AX27" s="48"/>
+      <c r="AY27" s="48"/>
+      <c r="AZ27" s="48"/>
+      <c r="BA27" s="48"/>
+      <c r="BB27" s="48"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="44"/>
+      <c r="BE27" s="44"/>
+      <c r="BF27" s="44"/>
+      <c r="BG27" s="44"/>
+      <c r="BH27" s="44"/>
+      <c r="BI27" s="44"/>
+      <c r="BJ27" s="44"/>
+      <c r="BK27" s="44"/>
+      <c r="BL27" s="44"/>
+      <c r="BM27" s="44"/>
+      <c r="BN27" s="44"/>
+      <c r="BO27" s="44"/>
       <c r="BP27" s="8"/>
       <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="C28" s="49">
+      <c r="C28" s="45">
         <v>3</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="53"/>
-      <c r="AF28" s="53"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
-      <c r="AM28" s="53"/>
-      <c r="AN28" s="53"/>
-      <c r="AO28" s="53"/>
-      <c r="AP28" s="53"/>
-      <c r="AQ28" s="53"/>
-      <c r="AR28" s="53"/>
-      <c r="AS28" s="53"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="53"/>
-      <c r="AV28" s="53"/>
-      <c r="AW28" s="53"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="53"/>
-      <c r="AZ28" s="53"/>
-      <c r="BA28" s="53"/>
-      <c r="BB28" s="53"/>
-      <c r="BC28" s="53"/>
-      <c r="BD28" s="53"/>
-      <c r="BE28" s="53"/>
-      <c r="BF28" s="53"/>
-      <c r="BG28" s="53"/>
-      <c r="BH28" s="53"/>
-      <c r="BI28" s="53"/>
-      <c r="BJ28" s="53"/>
-      <c r="BK28" s="53"/>
-      <c r="BL28" s="53"/>
-      <c r="BM28" s="53"/>
-      <c r="BN28" s="53"/>
-      <c r="BO28" s="53"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="44"/>
+      <c r="AX28" s="44"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="44"/>
+      <c r="BA28" s="44"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="44"/>
+      <c r="BD28" s="44"/>
+      <c r="BE28" s="44"/>
+      <c r="BF28" s="44"/>
+      <c r="BG28" s="44"/>
+      <c r="BH28" s="44"/>
+      <c r="BI28" s="44"/>
+      <c r="BJ28" s="44"/>
+      <c r="BK28" s="44"/>
+      <c r="BL28" s="44"/>
+      <c r="BM28" s="44"/>
+      <c r="BN28" s="44"/>
+      <c r="BO28" s="44"/>
       <c r="BP28" s="8"/>
       <c r="BQ28" s="6"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="C29" s="49">
+      <c r="C29" s="45">
         <v>4</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="53"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="53"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="53"/>
-      <c r="AN29" s="53"/>
-      <c r="AO29" s="53"/>
-      <c r="AP29" s="53"/>
-      <c r="AQ29" s="53"/>
-      <c r="AR29" s="53"/>
-      <c r="AS29" s="53"/>
-      <c r="AT29" s="53"/>
-      <c r="AU29" s="53"/>
-      <c r="AV29" s="53"/>
-      <c r="AW29" s="53"/>
-      <c r="AX29" s="53"/>
-      <c r="AY29" s="53"/>
-      <c r="AZ29" s="53"/>
-      <c r="BA29" s="53"/>
-      <c r="BB29" s="53"/>
-      <c r="BC29" s="53"/>
-      <c r="BD29" s="53"/>
-      <c r="BE29" s="53"/>
-      <c r="BF29" s="53"/>
-      <c r="BG29" s="53"/>
-      <c r="BH29" s="53"/>
-      <c r="BI29" s="53"/>
-      <c r="BJ29" s="53"/>
-      <c r="BK29" s="53"/>
-      <c r="BL29" s="53"/>
-      <c r="BM29" s="53"/>
-      <c r="BN29" s="53"/>
-      <c r="BO29" s="53"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="46"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="44"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="44"/>
+      <c r="BA29" s="44"/>
+      <c r="BB29" s="44"/>
+      <c r="BC29" s="44"/>
+      <c r="BD29" s="44"/>
+      <c r="BE29" s="44"/>
+      <c r="BF29" s="44"/>
+      <c r="BG29" s="44"/>
+      <c r="BH29" s="44"/>
+      <c r="BI29" s="44"/>
+      <c r="BJ29" s="44"/>
+      <c r="BK29" s="44"/>
+      <c r="BL29" s="44"/>
+      <c r="BM29" s="44"/>
+      <c r="BN29" s="44"/>
+      <c r="BO29" s="44"/>
       <c r="BP29" s="8"/>
       <c r="BQ29" s="6"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="C30" s="49">
+      <c r="C30" s="45">
         <v>5</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="53"/>
-      <c r="AF30" s="53"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="53"/>
-      <c r="AJ30" s="53"/>
-      <c r="AK30" s="53"/>
-      <c r="AL30" s="53"/>
-      <c r="AM30" s="53"/>
-      <c r="AN30" s="53"/>
-      <c r="AO30" s="53"/>
-      <c r="AP30" s="53"/>
-      <c r="AQ30" s="53"/>
-      <c r="AR30" s="53"/>
-      <c r="AS30" s="53"/>
-      <c r="AT30" s="53"/>
-      <c r="AU30" s="53"/>
-      <c r="AV30" s="53"/>
-      <c r="AW30" s="53"/>
-      <c r="AX30" s="53"/>
-      <c r="AY30" s="53"/>
-      <c r="AZ30" s="53"/>
-      <c r="BA30" s="53"/>
-      <c r="BB30" s="53"/>
-      <c r="BC30" s="53"/>
-      <c r="BD30" s="53"/>
-      <c r="BE30" s="53"/>
-      <c r="BF30" s="53"/>
-      <c r="BG30" s="53"/>
-      <c r="BH30" s="53"/>
-      <c r="BI30" s="53"/>
-      <c r="BJ30" s="53"/>
-      <c r="BK30" s="53"/>
-      <c r="BL30" s="53"/>
-      <c r="BM30" s="53"/>
-      <c r="BN30" s="53"/>
-      <c r="BO30" s="53"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="44"/>
+      <c r="AQ30" s="44"/>
+      <c r="AR30" s="44"/>
+      <c r="AS30" s="44"/>
+      <c r="AT30" s="44"/>
+      <c r="AU30" s="44"/>
+      <c r="AV30" s="44"/>
+      <c r="AW30" s="44"/>
+      <c r="AX30" s="44"/>
+      <c r="AY30" s="44"/>
+      <c r="AZ30" s="44"/>
+      <c r="BA30" s="44"/>
+      <c r="BB30" s="44"/>
+      <c r="BC30" s="44"/>
+      <c r="BD30" s="44"/>
+      <c r="BE30" s="44"/>
+      <c r="BF30" s="44"/>
+      <c r="BG30" s="44"/>
+      <c r="BH30" s="44"/>
+      <c r="BI30" s="44"/>
+      <c r="BJ30" s="44"/>
+      <c r="BK30" s="44"/>
+      <c r="BL30" s="44"/>
+      <c r="BM30" s="44"/>
+      <c r="BN30" s="44"/>
+      <c r="BO30" s="44"/>
       <c r="BP30" s="8"/>
       <c r="BQ30" s="6"/>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="C31" s="49">
+      <c r="C31" s="45">
         <v>6</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="54"/>
-      <c r="W31" s="54"/>
-      <c r="X31" s="54"/>
-      <c r="Y31" s="54"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="54"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
-      <c r="AP31" s="53"/>
-      <c r="AQ31" s="53"/>
-      <c r="AR31" s="53"/>
-      <c r="AS31" s="53"/>
-      <c r="AT31" s="53"/>
-      <c r="AU31" s="53"/>
-      <c r="AV31" s="53"/>
-      <c r="AW31" s="53"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="53"/>
-      <c r="AZ31" s="53"/>
-      <c r="BA31" s="53"/>
-      <c r="BB31" s="53"/>
-      <c r="BC31" s="53"/>
-      <c r="BD31" s="53"/>
-      <c r="BE31" s="53"/>
-      <c r="BF31" s="53"/>
-      <c r="BG31" s="53"/>
-      <c r="BH31" s="53"/>
-      <c r="BI31" s="53"/>
-      <c r="BJ31" s="53"/>
-      <c r="BK31" s="53"/>
-      <c r="BL31" s="53"/>
-      <c r="BM31" s="53"/>
-      <c r="BN31" s="53"/>
-      <c r="BO31" s="53"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="44"/>
+      <c r="AQ31" s="44"/>
+      <c r="AR31" s="44"/>
+      <c r="AS31" s="44"/>
+      <c r="AT31" s="44"/>
+      <c r="AU31" s="44"/>
+      <c r="AV31" s="44"/>
+      <c r="AW31" s="44"/>
+      <c r="AX31" s="44"/>
+      <c r="AY31" s="44"/>
+      <c r="AZ31" s="44"/>
+      <c r="BA31" s="44"/>
+      <c r="BB31" s="44"/>
+      <c r="BC31" s="44"/>
+      <c r="BD31" s="44"/>
+      <c r="BE31" s="44"/>
+      <c r="BF31" s="44"/>
+      <c r="BG31" s="44"/>
+      <c r="BH31" s="44"/>
+      <c r="BI31" s="44"/>
+      <c r="BJ31" s="44"/>
+      <c r="BK31" s="44"/>
+      <c r="BL31" s="44"/>
+      <c r="BM31" s="44"/>
+      <c r="BN31" s="44"/>
+      <c r="BO31" s="44"/>
       <c r="BP31" s="8"/>
       <c r="BQ31" s="6"/>
     </row>
     <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="C32" s="49">
+      <c r="C32" s="45">
         <v>7</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
-      <c r="AE32" s="53"/>
-      <c r="AF32" s="53"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="53"/>
-      <c r="AJ32" s="53"/>
-      <c r="AK32" s="53"/>
-      <c r="AL32" s="53"/>
-      <c r="AM32" s="53"/>
-      <c r="AN32" s="53"/>
-      <c r="AO32" s="53"/>
-      <c r="AP32" s="53"/>
-      <c r="AQ32" s="53"/>
-      <c r="AR32" s="53"/>
-      <c r="AS32" s="53"/>
-      <c r="AT32" s="53"/>
-      <c r="AU32" s="53"/>
-      <c r="AV32" s="53"/>
-      <c r="AW32" s="53"/>
-      <c r="AX32" s="53"/>
-      <c r="AY32" s="53"/>
-      <c r="AZ32" s="53"/>
-      <c r="BA32" s="53"/>
-      <c r="BB32" s="53"/>
-      <c r="BC32" s="53"/>
-      <c r="BD32" s="53"/>
-      <c r="BE32" s="53"/>
-      <c r="BF32" s="53"/>
-      <c r="BG32" s="53"/>
-      <c r="BH32" s="53"/>
-      <c r="BI32" s="53"/>
-      <c r="BJ32" s="53"/>
-      <c r="BK32" s="53"/>
-      <c r="BL32" s="53"/>
-      <c r="BM32" s="53"/>
-      <c r="BN32" s="53"/>
-      <c r="BO32" s="53"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="46"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="44"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="44"/>
+      <c r="AZ32" s="44"/>
+      <c r="BA32" s="44"/>
+      <c r="BB32" s="44"/>
+      <c r="BC32" s="44"/>
+      <c r="BD32" s="44"/>
+      <c r="BE32" s="44"/>
+      <c r="BF32" s="44"/>
+      <c r="BG32" s="44"/>
+      <c r="BH32" s="44"/>
+      <c r="BI32" s="44"/>
+      <c r="BJ32" s="44"/>
+      <c r="BK32" s="44"/>
+      <c r="BL32" s="44"/>
+      <c r="BM32" s="44"/>
+      <c r="BN32" s="44"/>
+      <c r="BO32" s="44"/>
       <c r="BP32" s="8"/>
       <c r="BQ32" s="6"/>
     </row>
     <row r="33" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="C33" s="49">
+      <c r="C33" s="45">
         <v>8</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
-      <c r="Y33" s="54"/>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="53"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="53"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="53"/>
-      <c r="AN33" s="53"/>
-      <c r="AO33" s="53"/>
-      <c r="AP33" s="53"/>
-      <c r="AQ33" s="53"/>
-      <c r="AR33" s="53"/>
-      <c r="AS33" s="53"/>
-      <c r="AT33" s="53"/>
-      <c r="AU33" s="53"/>
-      <c r="AV33" s="53"/>
-      <c r="AW33" s="53"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="53"/>
-      <c r="AZ33" s="53"/>
-      <c r="BA33" s="53"/>
-      <c r="BB33" s="53"/>
-      <c r="BC33" s="53"/>
-      <c r="BD33" s="53"/>
-      <c r="BE33" s="53"/>
-      <c r="BF33" s="53"/>
-      <c r="BG33" s="53"/>
-      <c r="BH33" s="53"/>
-      <c r="BI33" s="53"/>
-      <c r="BJ33" s="53"/>
-      <c r="BK33" s="53"/>
-      <c r="BL33" s="53"/>
-      <c r="BM33" s="53"/>
-      <c r="BN33" s="53"/>
-      <c r="BO33" s="53"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="44"/>
+      <c r="AQ33" s="44"/>
+      <c r="AR33" s="44"/>
+      <c r="AS33" s="44"/>
+      <c r="AT33" s="44"/>
+      <c r="AU33" s="44"/>
+      <c r="AV33" s="44"/>
+      <c r="AW33" s="44"/>
+      <c r="AX33" s="44"/>
+      <c r="AY33" s="44"/>
+      <c r="AZ33" s="44"/>
+      <c r="BA33" s="44"/>
+      <c r="BB33" s="44"/>
+      <c r="BC33" s="44"/>
+      <c r="BD33" s="44"/>
+      <c r="BE33" s="44"/>
+      <c r="BF33" s="44"/>
+      <c r="BG33" s="44"/>
+      <c r="BH33" s="44"/>
+      <c r="BI33" s="44"/>
+      <c r="BJ33" s="44"/>
+      <c r="BK33" s="44"/>
+      <c r="BL33" s="44"/>
+      <c r="BM33" s="44"/>
+      <c r="BN33" s="44"/>
+      <c r="BO33" s="44"/>
       <c r="BP33" s="8"/>
       <c r="BQ33" s="6"/>
     </row>
     <row r="34" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="49">
+      <c r="C34" s="45">
         <v>9</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54"/>
-      <c r="W34" s="54"/>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
-      <c r="AE34" s="53"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="53"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="53"/>
-      <c r="AK34" s="53"/>
-      <c r="AL34" s="53"/>
-      <c r="AM34" s="53"/>
-      <c r="AN34" s="53"/>
-      <c r="AO34" s="53"/>
-      <c r="AP34" s="53"/>
-      <c r="AQ34" s="53"/>
-      <c r="AR34" s="53"/>
-      <c r="AS34" s="53"/>
-      <c r="AT34" s="53"/>
-      <c r="AU34" s="53"/>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
-      <c r="BB34" s="53"/>
-      <c r="BC34" s="53"/>
-      <c r="BD34" s="53"/>
-      <c r="BE34" s="53"/>
-      <c r="BF34" s="53"/>
-      <c r="BG34" s="53"/>
-      <c r="BH34" s="53"/>
-      <c r="BI34" s="53"/>
-      <c r="BJ34" s="53"/>
-      <c r="BK34" s="53"/>
-      <c r="BL34" s="53"/>
-      <c r="BM34" s="53"/>
-      <c r="BN34" s="53"/>
-      <c r="BO34" s="53"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="46"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="44"/>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="44"/>
+      <c r="AQ34" s="44"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
+      <c r="BB34" s="44"/>
+      <c r="BC34" s="44"/>
+      <c r="BD34" s="44"/>
+      <c r="BE34" s="44"/>
+      <c r="BF34" s="44"/>
+      <c r="BG34" s="44"/>
+      <c r="BH34" s="44"/>
+      <c r="BI34" s="44"/>
+      <c r="BJ34" s="44"/>
+      <c r="BK34" s="44"/>
+      <c r="BL34" s="44"/>
+      <c r="BM34" s="44"/>
+      <c r="BN34" s="44"/>
+      <c r="BO34" s="44"/>
       <c r="BP34" s="8"/>
       <c r="BQ34" s="6"/>
     </row>
@@ -4244,42 +4245,48 @@
     <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="BD34:BO34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BO33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD32:BO32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BO31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="AE29:BC29"/>
-    <mergeCell ref="BD29:BO29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BO30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="BD25:BO25"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="O28:AD28"/>
     <mergeCell ref="AE28:BC28"/>
     <mergeCell ref="BD26:BO26"/>
@@ -4296,48 +4303,42 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="BD25:BO25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="AE29:BC29"/>
+    <mergeCell ref="BD29:BO29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BO30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="O29:AD29"/>
+    <mergeCell ref="BD32:BO32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BO31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD34:BO34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BO33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4376,247 +4377,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75" t="s">
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="76" t="s">
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="76"/>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="76"/>
-      <c r="BG1" s="76"/>
-      <c r="BH1" s="76"/>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="76"/>
-      <c r="BK1" s="76"/>
-      <c r="BL1" s="76"/>
-      <c r="BM1" s="76"/>
-      <c r="BN1" s="76"/>
-      <c r="BO1" s="76"/>
-      <c r="BP1" s="76"/>
-      <c r="BQ1" s="76"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="67"/>
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="67"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="73" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="66" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66" t="s">
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="78" t="s">
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="78"/>
-      <c r="BL2" s="78"/>
-      <c r="BM2" s="78"/>
-      <c r="BN2" s="78"/>
-      <c r="BO2" s="78"/>
-      <c r="BP2" s="78"/>
-      <c r="BQ2" s="78"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="69"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="72" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="80">
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="71">
         <v>45510</v>
       </c>
-      <c r="AU3" s="80"/>
-      <c r="AV3" s="80"/>
-      <c r="AW3" s="80"/>
-      <c r="AX3" s="80"/>
-      <c r="AY3" s="80"/>
-      <c r="AZ3" s="80"/>
-      <c r="BA3" s="80"/>
-      <c r="BB3" s="72" t="s">
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="79">
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="70">
         <v>45533</v>
       </c>
-      <c r="BK3" s="79"/>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="79"/>
-      <c r="BN3" s="79"/>
-      <c r="BO3" s="79"/>
-      <c r="BP3" s="79"/>
-      <c r="BQ3" s="79"/>
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="70"/>
+      <c r="BN3" s="70"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -4641,96 +4642,96 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="71" t="s">
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="69" t="s">
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="69"/>
-      <c r="AR6" s="69"/>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="69"/>
-      <c r="AU6" s="69"/>
-      <c r="AV6" s="69"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69"/>
-      <c r="AZ6" s="69"/>
-      <c r="BA6" s="69"/>
-      <c r="BB6" s="69"/>
-      <c r="BC6" s="69"/>
-      <c r="BD6" s="69"/>
-      <c r="BE6" s="69"/>
-      <c r="BF6" s="69"/>
-      <c r="BG6" s="69"/>
-      <c r="BH6" s="69"/>
-      <c r="BI6" s="69"/>
-      <c r="BJ6" s="69"/>
-      <c r="BK6" s="69"/>
-      <c r="BL6" s="69"/>
-      <c r="BM6" s="69"/>
-      <c r="BN6" s="69"/>
-      <c r="BO6" s="69"/>
-      <c r="BP6" s="69"/>
+      <c r="AP6" s="73"/>
+      <c r="AQ6" s="73"/>
+      <c r="AR6" s="73"/>
+      <c r="AS6" s="73"/>
+      <c r="AT6" s="73"/>
+      <c r="AU6" s="73"/>
+      <c r="AV6" s="73"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="73"/>
+      <c r="AY6" s="73"/>
+      <c r="AZ6" s="73"/>
+      <c r="BA6" s="73"/>
+      <c r="BB6" s="73"/>
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="73"/>
+      <c r="BF6" s="73"/>
+      <c r="BG6" s="73"/>
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="73"/>
+      <c r="BJ6" s="73"/>
+      <c r="BK6" s="73"/>
+      <c r="BL6" s="73"/>
+      <c r="BM6" s="73"/>
+      <c r="BN6" s="73"/>
+      <c r="BO6" s="73"/>
+      <c r="BP6" s="73"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
+      <c r="C7" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
       <c r="M7" s="41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
@@ -4759,34 +4760,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="69"/>
-      <c r="AS7" s="69"/>
-      <c r="AT7" s="69"/>
-      <c r="AU7" s="69"/>
-      <c r="AV7" s="69"/>
-      <c r="AW7" s="69"/>
-      <c r="AX7" s="69"/>
-      <c r="AY7" s="69"/>
-      <c r="AZ7" s="69"/>
-      <c r="BA7" s="69"/>
-      <c r="BB7" s="69"/>
-      <c r="BC7" s="69"/>
-      <c r="BD7" s="69"/>
-      <c r="BE7" s="69"/>
-      <c r="BF7" s="69"/>
-      <c r="BG7" s="69"/>
-      <c r="BH7" s="69"/>
-      <c r="BI7" s="69"/>
-      <c r="BJ7" s="69"/>
-      <c r="BK7" s="69"/>
-      <c r="BL7" s="69"/>
-      <c r="BM7" s="69"/>
-      <c r="BN7" s="69"/>
-      <c r="BO7" s="69"/>
-      <c r="BP7" s="69"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="73"/>
+      <c r="AS7" s="73"/>
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="73"/>
+      <c r="AV7" s="73"/>
+      <c r="AW7" s="73"/>
+      <c r="AX7" s="73"/>
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="73"/>
+      <c r="BA7" s="73"/>
+      <c r="BB7" s="73"/>
+      <c r="BC7" s="73"/>
+      <c r="BD7" s="73"/>
+      <c r="BE7" s="73"/>
+      <c r="BF7" s="73"/>
+      <c r="BG7" s="73"/>
+      <c r="BH7" s="73"/>
+      <c r="BI7" s="73"/>
+      <c r="BJ7" s="73"/>
+      <c r="BK7" s="73"/>
+      <c r="BL7" s="73"/>
+      <c r="BM7" s="73"/>
+      <c r="BN7" s="73"/>
+      <c r="BO7" s="73"/>
+      <c r="BP7" s="73"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -4800,89 +4801,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="66" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66" t="s">
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="64" t="s">
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="64"/>
-      <c r="AX10" s="64"/>
-      <c r="AY10" s="64"/>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="64"/>
-      <c r="BD10" s="64"/>
-      <c r="BE10" s="64"/>
-      <c r="BF10" s="64"/>
-      <c r="BG10" s="64"/>
-      <c r="BH10" s="64"/>
-      <c r="BI10" s="64"/>
-      <c r="BJ10" s="64" t="s">
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="64"/>
-      <c r="BL10" s="64"/>
-      <c r="BM10" s="64"/>
-      <c r="BN10" s="64"/>
-      <c r="BO10" s="64"/>
-      <c r="BP10" s="64"/>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="75"/>
+      <c r="BN10" s="75"/>
+      <c r="BO10" s="75"/>
+      <c r="BP10" s="75"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
@@ -4898,11 +4899,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="66" t="s">
+      <c r="T11" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -4952,12 +4953,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -4971,9 +4972,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -5022,12 +5023,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -5041,9 +5042,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -5092,12 +5093,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -5111,9 +5112,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -5162,12 +5163,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -5181,9 +5182,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -5243,90 +5244,90 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="66" t="s">
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66" t="s">
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="64" t="s">
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="64"/>
-      <c r="AH18" s="64"/>
-      <c r="AI18" s="64"/>
-      <c r="AJ18" s="64"/>
-      <c r="AK18" s="64"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="64"/>
-      <c r="AO18" s="64"/>
-      <c r="AP18" s="64"/>
-      <c r="AQ18" s="64"/>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="64"/>
-      <c r="AU18" s="64"/>
-      <c r="AV18" s="64"/>
-      <c r="AW18" s="64"/>
-      <c r="AX18" s="64"/>
-      <c r="AY18" s="64"/>
-      <c r="AZ18" s="64"/>
-      <c r="BA18" s="64"/>
-      <c r="BB18" s="64"/>
-      <c r="BC18" s="64"/>
-      <c r="BD18" s="64"/>
-      <c r="BE18" s="64"/>
-      <c r="BF18" s="64"/>
-      <c r="BG18" s="64"/>
-      <c r="BH18" s="64"/>
-      <c r="BI18" s="64"/>
-      <c r="BJ18" s="64" t="s">
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="75"/>
+      <c r="AQ18" s="75"/>
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="75"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="75"/>
+      <c r="BA18" s="75"/>
+      <c r="BB18" s="75"/>
+      <c r="BC18" s="75"/>
+      <c r="BD18" s="75"/>
+      <c r="BE18" s="75"/>
+      <c r="BF18" s="75"/>
+      <c r="BG18" s="75"/>
+      <c r="BH18" s="75"/>
+      <c r="BI18" s="75"/>
+      <c r="BJ18" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="64"/>
-      <c r="BL18" s="64"/>
-      <c r="BM18" s="64"/>
-      <c r="BN18" s="64"/>
-      <c r="BO18" s="64"/>
-      <c r="BP18" s="64"/>
+      <c r="BK18" s="75"/>
+      <c r="BL18" s="75"/>
+      <c r="BM18" s="75"/>
+      <c r="BN18" s="75"/>
+      <c r="BO18" s="75"/>
+      <c r="BP18" s="75"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="41" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -5340,11 +5341,11 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
       <c r="W19" s="40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -5626,270 +5627,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="67" t="s">
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="67"/>
-      <c r="AD26" s="67"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="67"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="67"/>
-      <c r="AM26" s="67"/>
-      <c r="AN26" s="67"/>
-      <c r="AO26" s="67"/>
-      <c r="AP26" s="67"/>
-      <c r="AQ26" s="67"/>
-      <c r="AR26" s="67"/>
-      <c r="AS26" s="67"/>
-      <c r="AT26" s="67"/>
-      <c r="AU26" s="67"/>
-      <c r="AV26" s="67"/>
-      <c r="AW26" s="67"/>
-      <c r="AX26" s="67"/>
-      <c r="AY26" s="67"/>
-      <c r="AZ26" s="67"/>
-      <c r="BA26" s="67"/>
-      <c r="BB26" s="67"/>
-      <c r="BC26" s="67"/>
-      <c r="BD26" s="67"/>
-      <c r="BE26" s="67"/>
-      <c r="BF26" s="67"/>
-      <c r="BG26" s="67"/>
-      <c r="BH26" s="67"/>
-      <c r="BI26" s="67"/>
-      <c r="BJ26" s="67"/>
-      <c r="BK26" s="67"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="80"/>
+      <c r="AN26" s="80"/>
+      <c r="AO26" s="80"/>
+      <c r="AP26" s="80"/>
+      <c r="AQ26" s="80"/>
+      <c r="AR26" s="80"/>
+      <c r="AS26" s="80"/>
+      <c r="AT26" s="80"/>
+      <c r="AU26" s="80"/>
+      <c r="AV26" s="80"/>
+      <c r="AW26" s="80"/>
+      <c r="AX26" s="80"/>
+      <c r="AY26" s="80"/>
+      <c r="AZ26" s="80"/>
+      <c r="BA26" s="80"/>
+      <c r="BB26" s="80"/>
+      <c r="BC26" s="80"/>
+      <c r="BD26" s="80"/>
+      <c r="BE26" s="80"/>
+      <c r="BF26" s="80"/>
+      <c r="BG26" s="80"/>
+      <c r="BH26" s="80"/>
+      <c r="BI26" s="80"/>
+      <c r="BJ26" s="80"/>
+      <c r="BK26" s="80"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="63" t="s">
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="63"/>
-      <c r="AN27" s="63"/>
-      <c r="AO27" s="63"/>
-      <c r="AP27" s="63"/>
-      <c r="AQ27" s="63"/>
-      <c r="AR27" s="63"/>
-      <c r="AS27" s="63"/>
-      <c r="AT27" s="63"/>
-      <c r="AU27" s="63"/>
-      <c r="AV27" s="63"/>
-      <c r="AW27" s="63"/>
-      <c r="AX27" s="63"/>
-      <c r="AY27" s="63"/>
-      <c r="AZ27" s="63"/>
-      <c r="BA27" s="63"/>
-      <c r="BB27" s="63"/>
-      <c r="BC27" s="63"/>
-      <c r="BD27" s="63"/>
-      <c r="BE27" s="63"/>
-      <c r="BF27" s="63"/>
-      <c r="BG27" s="63"/>
-      <c r="BH27" s="63"/>
-      <c r="BI27" s="63"/>
-      <c r="BJ27" s="63"/>
-      <c r="BK27" s="63"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="79"/>
+      <c r="AM27" s="79"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="79"/>
+      <c r="AP27" s="79"/>
+      <c r="AQ27" s="79"/>
+      <c r="AR27" s="79"/>
+      <c r="AS27" s="79"/>
+      <c r="AT27" s="79"/>
+      <c r="AU27" s="79"/>
+      <c r="AV27" s="79"/>
+      <c r="AW27" s="79"/>
+      <c r="AX27" s="79"/>
+      <c r="AY27" s="79"/>
+      <c r="AZ27" s="79"/>
+      <c r="BA27" s="79"/>
+      <c r="BB27" s="79"/>
+      <c r="BC27" s="79"/>
+      <c r="BD27" s="79"/>
+      <c r="BE27" s="79"/>
+      <c r="BF27" s="79"/>
+      <c r="BG27" s="79"/>
+      <c r="BH27" s="79"/>
+      <c r="BI27" s="79"/>
+      <c r="BJ27" s="79"/>
+      <c r="BK27" s="79"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="63"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
-      <c r="AN28" s="63"/>
-      <c r="AO28" s="63"/>
-      <c r="AP28" s="63"/>
-      <c r="AQ28" s="63"/>
-      <c r="AR28" s="63"/>
-      <c r="AS28" s="63"/>
-      <c r="AT28" s="63"/>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="63"/>
-      <c r="AW28" s="63"/>
-      <c r="AX28" s="63"/>
-      <c r="AY28" s="63"/>
-      <c r="AZ28" s="63"/>
-      <c r="BA28" s="63"/>
-      <c r="BB28" s="63"/>
-      <c r="BC28" s="63"/>
-      <c r="BD28" s="63"/>
-      <c r="BE28" s="63"/>
-      <c r="BF28" s="63"/>
-      <c r="BG28" s="63"/>
-      <c r="BH28" s="63"/>
-      <c r="BI28" s="63"/>
-      <c r="BJ28" s="63"/>
-      <c r="BK28" s="63"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="79"/>
+      <c r="AM28" s="79"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="79"/>
+      <c r="AQ28" s="79"/>
+      <c r="AR28" s="79"/>
+      <c r="AS28" s="79"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
+      <c r="AZ28" s="79"/>
+      <c r="BA28" s="79"/>
+      <c r="BB28" s="79"/>
+      <c r="BC28" s="79"/>
+      <c r="BD28" s="79"/>
+      <c r="BE28" s="79"/>
+      <c r="BF28" s="79"/>
+      <c r="BG28" s="79"/>
+      <c r="BH28" s="79"/>
+      <c r="BI28" s="79"/>
+      <c r="BJ28" s="79"/>
+      <c r="BK28" s="79"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="63" t="s">
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="63"/>
-      <c r="AC29" s="63"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63"/>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="63"/>
-      <c r="AK29" s="63"/>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="63"/>
-      <c r="AN29" s="63"/>
-      <c r="AO29" s="63"/>
-      <c r="AP29" s="63"/>
-      <c r="AQ29" s="63"/>
-      <c r="AR29" s="63"/>
-      <c r="AS29" s="63"/>
-      <c r="AT29" s="63"/>
-      <c r="AU29" s="63"/>
-      <c r="AV29" s="63"/>
-      <c r="AW29" s="63"/>
-      <c r="AX29" s="63"/>
-      <c r="AY29" s="63"/>
-      <c r="AZ29" s="63"/>
-      <c r="BA29" s="63"/>
-      <c r="BB29" s="63"/>
-      <c r="BC29" s="63"/>
-      <c r="BD29" s="63"/>
-      <c r="BE29" s="63"/>
-      <c r="BF29" s="63"/>
-      <c r="BG29" s="63"/>
-      <c r="BH29" s="63"/>
-      <c r="BI29" s="63"/>
-      <c r="BJ29" s="63"/>
-      <c r="BK29" s="63"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="79"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="79"/>
+      <c r="AQ29" s="79"/>
+      <c r="AR29" s="79"/>
+      <c r="AS29" s="79"/>
+      <c r="AT29" s="79"/>
+      <c r="AU29" s="79"/>
+      <c r="AV29" s="79"/>
+      <c r="AW29" s="79"/>
+      <c r="AX29" s="79"/>
+      <c r="AY29" s="79"/>
+      <c r="AZ29" s="79"/>
+      <c r="BA29" s="79"/>
+      <c r="BB29" s="79"/>
+      <c r="BC29" s="79"/>
+      <c r="BD29" s="79"/>
+      <c r="BE29" s="79"/>
+      <c r="BF29" s="79"/>
+      <c r="BG29" s="79"/>
+      <c r="BH29" s="79"/>
+      <c r="BI29" s="79"/>
+      <c r="BJ29" s="79"/>
+      <c r="BK29" s="79"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -5958,7 +5959,7 @@
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C31" s="24"/>
       <c r="D31" s="14" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AD31" s="14"/>
       <c r="BP31" s="22"/>
@@ -6010,7 +6011,7 @@
     <row r="39" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C39" s="24"/>
       <c r="D39" s="25" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
@@ -6076,7 +6077,7 @@
     <row r="40" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C40" s="24"/>
       <c r="E40" s="25" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
@@ -6413,26 +6414,21 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
     <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="AO6:BP6"/>
     <mergeCell ref="C7:G7"/>
@@ -6449,21 +6445,26 @@
     <mergeCell ref="W10:BI10"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -6502,243 +6503,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75" t="s">
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="76" t="s">
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="76"/>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="76"/>
-      <c r="BG1" s="76"/>
-      <c r="BH1" s="76"/>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="76"/>
-      <c r="BK1" s="76"/>
-      <c r="BL1" s="76"/>
-      <c r="BM1" s="76"/>
-      <c r="BN1" s="76"/>
-      <c r="BO1" s="76"/>
-      <c r="BP1" s="76"/>
-      <c r="BQ1" s="76"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
+      <c r="BG1" s="67"/>
+      <c r="BH1" s="67"/>
+      <c r="BI1" s="67"/>
+      <c r="BJ1" s="67"/>
+      <c r="BK1" s="67"/>
+      <c r="BL1" s="67"/>
+      <c r="BM1" s="67"/>
+      <c r="BN1" s="67"/>
+      <c r="BO1" s="67"/>
+      <c r="BP1" s="67"/>
+      <c r="BQ1" s="67"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="66" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
-      <c r="BB2" s="66" t="s">
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="64"/>
+      <c r="AW2" s="64"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="66"/>
-      <c r="BD2" s="66"/>
-      <c r="BE2" s="66"/>
-      <c r="BF2" s="66"/>
-      <c r="BG2" s="66"/>
-      <c r="BH2" s="66"/>
-      <c r="BI2" s="66"/>
-      <c r="BJ2" s="78"/>
-      <c r="BK2" s="78"/>
-      <c r="BL2" s="78"/>
-      <c r="BM2" s="78"/>
-      <c r="BN2" s="78"/>
-      <c r="BO2" s="78"/>
-      <c r="BP2" s="78"/>
-      <c r="BQ2" s="78"/>
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="69"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="72" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="80">
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="71">
         <v>45553</v>
       </c>
-      <c r="AU3" s="80"/>
-      <c r="AV3" s="80"/>
-      <c r="AW3" s="80"/>
-      <c r="AX3" s="80"/>
-      <c r="AY3" s="80"/>
-      <c r="AZ3" s="80"/>
-      <c r="BA3" s="80"/>
-      <c r="BB3" s="72" t="s">
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="79"/>
-      <c r="BK3" s="79"/>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="79"/>
-      <c r="BN3" s="79"/>
-      <c r="BO3" s="79"/>
-      <c r="BP3" s="79"/>
-      <c r="BQ3" s="79"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="70"/>
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="70"/>
+      <c r="BN3" s="70"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="14"/>
@@ -6763,96 +6764,96 @@
       <c r="AG5" s="23"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="71" t="s">
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="69" t="s">
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="69"/>
-      <c r="AR6" s="69"/>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="69"/>
-      <c r="AU6" s="69"/>
-      <c r="AV6" s="69"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69"/>
-      <c r="AZ6" s="69"/>
-      <c r="BA6" s="69"/>
-      <c r="BB6" s="69"/>
-      <c r="BC6" s="69"/>
-      <c r="BD6" s="69"/>
-      <c r="BE6" s="69"/>
-      <c r="BF6" s="69"/>
-      <c r="BG6" s="69"/>
-      <c r="BH6" s="69"/>
-      <c r="BI6" s="69"/>
-      <c r="BJ6" s="69"/>
-      <c r="BK6" s="69"/>
-      <c r="BL6" s="69"/>
-      <c r="BM6" s="69"/>
-      <c r="BN6" s="69"/>
-      <c r="BO6" s="69"/>
-      <c r="BP6" s="69"/>
+      <c r="AP6" s="73"/>
+      <c r="AQ6" s="73"/>
+      <c r="AR6" s="73"/>
+      <c r="AS6" s="73"/>
+      <c r="AT6" s="73"/>
+      <c r="AU6" s="73"/>
+      <c r="AV6" s="73"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="73"/>
+      <c r="AY6" s="73"/>
+      <c r="AZ6" s="73"/>
+      <c r="BA6" s="73"/>
+      <c r="BB6" s="73"/>
+      <c r="BC6" s="73"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="73"/>
+      <c r="BF6" s="73"/>
+      <c r="BG6" s="73"/>
+      <c r="BH6" s="73"/>
+      <c r="BI6" s="73"/>
+      <c r="BJ6" s="73"/>
+      <c r="BK6" s="73"/>
+      <c r="BL6" s="73"/>
+      <c r="BM6" s="73"/>
+      <c r="BN6" s="73"/>
+      <c r="BO6" s="73"/>
+      <c r="BP6" s="73"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
+      <c r="C7" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
       <c r="M7" s="41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
@@ -6881,34 +6882,34 @@
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="37"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="69"/>
-      <c r="AS7" s="69"/>
-      <c r="AT7" s="69"/>
-      <c r="AU7" s="69"/>
-      <c r="AV7" s="69"/>
-      <c r="AW7" s="69"/>
-      <c r="AX7" s="69"/>
-      <c r="AY7" s="69"/>
-      <c r="AZ7" s="69"/>
-      <c r="BA7" s="69"/>
-      <c r="BB7" s="69"/>
-      <c r="BC7" s="69"/>
-      <c r="BD7" s="69"/>
-      <c r="BE7" s="69"/>
-      <c r="BF7" s="69"/>
-      <c r="BG7" s="69"/>
-      <c r="BH7" s="69"/>
-      <c r="BI7" s="69"/>
-      <c r="BJ7" s="69"/>
-      <c r="BK7" s="69"/>
-      <c r="BL7" s="69"/>
-      <c r="BM7" s="69"/>
-      <c r="BN7" s="69"/>
-      <c r="BO7" s="69"/>
-      <c r="BP7" s="69"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="73"/>
+      <c r="AS7" s="73"/>
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="73"/>
+      <c r="AV7" s="73"/>
+      <c r="AW7" s="73"/>
+      <c r="AX7" s="73"/>
+      <c r="AY7" s="73"/>
+      <c r="AZ7" s="73"/>
+      <c r="BA7" s="73"/>
+      <c r="BB7" s="73"/>
+      <c r="BC7" s="73"/>
+      <c r="BD7" s="73"/>
+      <c r="BE7" s="73"/>
+      <c r="BF7" s="73"/>
+      <c r="BG7" s="73"/>
+      <c r="BH7" s="73"/>
+      <c r="BI7" s="73"/>
+      <c r="BJ7" s="73"/>
+      <c r="BK7" s="73"/>
+      <c r="BL7" s="73"/>
+      <c r="BM7" s="73"/>
+      <c r="BN7" s="73"/>
+      <c r="BO7" s="73"/>
+      <c r="BP7" s="73"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="14"/>
@@ -6922,89 +6923,89 @@
       <c r="AG9" s="23"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="66" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66" t="s">
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="64" t="s">
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="64"/>
-      <c r="AX10" s="64"/>
-      <c r="AY10" s="64"/>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="64"/>
-      <c r="BD10" s="64"/>
-      <c r="BE10" s="64"/>
-      <c r="BF10" s="64"/>
-      <c r="BG10" s="64"/>
-      <c r="BH10" s="64"/>
-      <c r="BI10" s="64"/>
-      <c r="BJ10" s="64" t="s">
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="BK10" s="64"/>
-      <c r="BL10" s="64"/>
-      <c r="BM10" s="64"/>
-      <c r="BN10" s="64"/>
-      <c r="BO10" s="64"/>
-      <c r="BP10" s="64"/>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="75"/>
+      <c r="BN10" s="75"/>
+      <c r="BO10" s="75"/>
+      <c r="BP10" s="75"/>
     </row>
     <row r="11" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="41" t="s">
         <v>56</v>
       </c>
@@ -7020,11 +7021,11 @@
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="37"/>
-      <c r="T11" s="66" t="s">
+      <c r="T11" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
       <c r="W11" s="40"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
@@ -7074,12 +7075,12 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -7093,9 +7094,9 @@
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="37"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
       <c r="W12" s="40"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -7144,12 +7145,12 @@
       <c r="BP12" s="34"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -7163,9 +7164,9 @@
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="37"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
       <c r="W13" s="40"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -7214,12 +7215,12 @@
       <c r="BP13" s="34"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -7233,9 +7234,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="37"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
       <c r="W14" s="40"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -7284,12 +7285,12 @@
       <c r="BP14" s="34"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
@@ -7303,9 +7304,9 @@
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="37"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
       <c r="W15" s="40"/>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
@@ -7365,90 +7366,90 @@
       <c r="AG17" s="23"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="66" t="s">
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66" t="s">
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="64" t="s">
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="64"/>
-      <c r="AH18" s="64"/>
-      <c r="AI18" s="64"/>
-      <c r="AJ18" s="64"/>
-      <c r="AK18" s="64"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="64"/>
-      <c r="AO18" s="64"/>
-      <c r="AP18" s="64"/>
-      <c r="AQ18" s="64"/>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="64"/>
-      <c r="AU18" s="64"/>
-      <c r="AV18" s="64"/>
-      <c r="AW18" s="64"/>
-      <c r="AX18" s="64"/>
-      <c r="AY18" s="64"/>
-      <c r="AZ18" s="64"/>
-      <c r="BA18" s="64"/>
-      <c r="BB18" s="64"/>
-      <c r="BC18" s="64"/>
-      <c r="BD18" s="64"/>
-      <c r="BE18" s="64"/>
-      <c r="BF18" s="64"/>
-      <c r="BG18" s="64"/>
-      <c r="BH18" s="64"/>
-      <c r="BI18" s="64"/>
-      <c r="BJ18" s="64" t="s">
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="75"/>
+      <c r="AQ18" s="75"/>
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="75"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="75"/>
+      <c r="BA18" s="75"/>
+      <c r="BB18" s="75"/>
+      <c r="BC18" s="75"/>
+      <c r="BD18" s="75"/>
+      <c r="BE18" s="75"/>
+      <c r="BF18" s="75"/>
+      <c r="BG18" s="75"/>
+      <c r="BH18" s="75"/>
+      <c r="BI18" s="75"/>
+      <c r="BJ18" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="BK18" s="64"/>
-      <c r="BL18" s="64"/>
-      <c r="BM18" s="64"/>
-      <c r="BN18" s="64"/>
-      <c r="BO18" s="64"/>
-      <c r="BP18" s="64"/>
+      <c r="BK18" s="75"/>
+      <c r="BL18" s="75"/>
+      <c r="BM18" s="75"/>
+      <c r="BN18" s="75"/>
+      <c r="BO18" s="75"/>
+      <c r="BP18" s="75"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="41" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
@@ -7462,11 +7463,11 @@
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="37"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
       <c r="W19" s="40" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
@@ -7733,10 +7734,10 @@
     <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C24" s="24"/>
       <c r="D24" s="43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD24" s="14"/>
       <c r="AG24" s="23"/>
@@ -7751,270 +7752,270 @@
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="67" t="s">
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="67"/>
-      <c r="AD26" s="67"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="67"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="67"/>
-      <c r="AM26" s="67"/>
-      <c r="AN26" s="67"/>
-      <c r="AO26" s="67"/>
-      <c r="AP26" s="67"/>
-      <c r="AQ26" s="67"/>
-      <c r="AR26" s="67"/>
-      <c r="AS26" s="67"/>
-      <c r="AT26" s="67"/>
-      <c r="AU26" s="67"/>
-      <c r="AV26" s="67"/>
-      <c r="AW26" s="67"/>
-      <c r="AX26" s="67"/>
-      <c r="AY26" s="67"/>
-      <c r="AZ26" s="67"/>
-      <c r="BA26" s="67"/>
-      <c r="BB26" s="67"/>
-      <c r="BC26" s="67"/>
-      <c r="BD26" s="67"/>
-      <c r="BE26" s="67"/>
-      <c r="BF26" s="67"/>
-      <c r="BG26" s="67"/>
-      <c r="BH26" s="67"/>
-      <c r="BI26" s="67"/>
-      <c r="BJ26" s="67"/>
-      <c r="BK26" s="67"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="80"/>
+      <c r="AN26" s="80"/>
+      <c r="AO26" s="80"/>
+      <c r="AP26" s="80"/>
+      <c r="AQ26" s="80"/>
+      <c r="AR26" s="80"/>
+      <c r="AS26" s="80"/>
+      <c r="AT26" s="80"/>
+      <c r="AU26" s="80"/>
+      <c r="AV26" s="80"/>
+      <c r="AW26" s="80"/>
+      <c r="AX26" s="80"/>
+      <c r="AY26" s="80"/>
+      <c r="AZ26" s="80"/>
+      <c r="BA26" s="80"/>
+      <c r="BB26" s="80"/>
+      <c r="BC26" s="80"/>
+      <c r="BD26" s="80"/>
+      <c r="BE26" s="80"/>
+      <c r="BF26" s="80"/>
+      <c r="BG26" s="80"/>
+      <c r="BH26" s="80"/>
+      <c r="BI26" s="80"/>
+      <c r="BJ26" s="80"/>
+      <c r="BK26" s="80"/>
       <c r="BP26" s="22"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="63"/>
-      <c r="AH27" s="63"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="63"/>
-      <c r="AK27" s="63"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="63"/>
-      <c r="AN27" s="63"/>
-      <c r="AO27" s="63"/>
-      <c r="AP27" s="63"/>
-      <c r="AQ27" s="63"/>
-      <c r="AR27" s="63"/>
-      <c r="AS27" s="63"/>
-      <c r="AT27" s="63"/>
-      <c r="AU27" s="63"/>
-      <c r="AV27" s="63"/>
-      <c r="AW27" s="63"/>
-      <c r="AX27" s="63"/>
-      <c r="AY27" s="63"/>
-      <c r="AZ27" s="63"/>
-      <c r="BA27" s="63"/>
-      <c r="BB27" s="63"/>
-      <c r="BC27" s="63"/>
-      <c r="BD27" s="63"/>
-      <c r="BE27" s="63"/>
-      <c r="BF27" s="63"/>
-      <c r="BG27" s="63"/>
-      <c r="BH27" s="63"/>
-      <c r="BI27" s="63"/>
-      <c r="BJ27" s="63"/>
-      <c r="BK27" s="63"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="79"/>
+      <c r="AM27" s="79"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="79"/>
+      <c r="AP27" s="79"/>
+      <c r="AQ27" s="79"/>
+      <c r="AR27" s="79"/>
+      <c r="AS27" s="79"/>
+      <c r="AT27" s="79"/>
+      <c r="AU27" s="79"/>
+      <c r="AV27" s="79"/>
+      <c r="AW27" s="79"/>
+      <c r="AX27" s="79"/>
+      <c r="AY27" s="79"/>
+      <c r="AZ27" s="79"/>
+      <c r="BA27" s="79"/>
+      <c r="BB27" s="79"/>
+      <c r="BC27" s="79"/>
+      <c r="BD27" s="79"/>
+      <c r="BE27" s="79"/>
+      <c r="BF27" s="79"/>
+      <c r="BG27" s="79"/>
+      <c r="BH27" s="79"/>
+      <c r="BI27" s="79"/>
+      <c r="BJ27" s="79"/>
+      <c r="BK27" s="79"/>
       <c r="BP27" s="22"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="63"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
-      <c r="AN28" s="63"/>
-      <c r="AO28" s="63"/>
-      <c r="AP28" s="63"/>
-      <c r="AQ28" s="63"/>
-      <c r="AR28" s="63"/>
-      <c r="AS28" s="63"/>
-      <c r="AT28" s="63"/>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="63"/>
-      <c r="AW28" s="63"/>
-      <c r="AX28" s="63"/>
-      <c r="AY28" s="63"/>
-      <c r="AZ28" s="63"/>
-      <c r="BA28" s="63"/>
-      <c r="BB28" s="63"/>
-      <c r="BC28" s="63"/>
-      <c r="BD28" s="63"/>
-      <c r="BE28" s="63"/>
-      <c r="BF28" s="63"/>
-      <c r="BG28" s="63"/>
-      <c r="BH28" s="63"/>
-      <c r="BI28" s="63"/>
-      <c r="BJ28" s="63"/>
-      <c r="BK28" s="63"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="79"/>
+      <c r="AM28" s="79"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="79"/>
+      <c r="AP28" s="79"/>
+      <c r="AQ28" s="79"/>
+      <c r="AR28" s="79"/>
+      <c r="AS28" s="79"/>
+      <c r="AT28" s="79"/>
+      <c r="AU28" s="79"/>
+      <c r="AV28" s="79"/>
+      <c r="AW28" s="79"/>
+      <c r="AX28" s="79"/>
+      <c r="AY28" s="79"/>
+      <c r="AZ28" s="79"/>
+      <c r="BA28" s="79"/>
+      <c r="BB28" s="79"/>
+      <c r="BC28" s="79"/>
+      <c r="BD28" s="79"/>
+      <c r="BE28" s="79"/>
+      <c r="BF28" s="79"/>
+      <c r="BG28" s="79"/>
+      <c r="BH28" s="79"/>
+      <c r="BI28" s="79"/>
+      <c r="BJ28" s="79"/>
+      <c r="BK28" s="79"/>
       <c r="BP28" s="22"/>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="63"/>
-      <c r="AC29" s="63"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="63"/>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="63"/>
-      <c r="AK29" s="63"/>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="63"/>
-      <c r="AN29" s="63"/>
-      <c r="AO29" s="63"/>
-      <c r="AP29" s="63"/>
-      <c r="AQ29" s="63"/>
-      <c r="AR29" s="63"/>
-      <c r="AS29" s="63"/>
-      <c r="AT29" s="63"/>
-      <c r="AU29" s="63"/>
-      <c r="AV29" s="63"/>
-      <c r="AW29" s="63"/>
-      <c r="AX29" s="63"/>
-      <c r="AY29" s="63"/>
-      <c r="AZ29" s="63"/>
-      <c r="BA29" s="63"/>
-      <c r="BB29" s="63"/>
-      <c r="BC29" s="63"/>
-      <c r="BD29" s="63"/>
-      <c r="BE29" s="63"/>
-      <c r="BF29" s="63"/>
-      <c r="BG29" s="63"/>
-      <c r="BH29" s="63"/>
-      <c r="BI29" s="63"/>
-      <c r="BJ29" s="63"/>
-      <c r="BK29" s="63"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="79"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="79"/>
+      <c r="AP29" s="79"/>
+      <c r="AQ29" s="79"/>
+      <c r="AR29" s="79"/>
+      <c r="AS29" s="79"/>
+      <c r="AT29" s="79"/>
+      <c r="AU29" s="79"/>
+      <c r="AV29" s="79"/>
+      <c r="AW29" s="79"/>
+      <c r="AX29" s="79"/>
+      <c r="AY29" s="79"/>
+      <c r="AZ29" s="79"/>
+      <c r="BA29" s="79"/>
+      <c r="BB29" s="79"/>
+      <c r="BC29" s="79"/>
+      <c r="BD29" s="79"/>
+      <c r="BE29" s="79"/>
+      <c r="BF29" s="79"/>
+      <c r="BG29" s="79"/>
+      <c r="BH29" s="79"/>
+      <c r="BI29" s="79"/>
+      <c r="BJ29" s="79"/>
+      <c r="BK29" s="79"/>
       <c r="BP29" s="22"/>
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
@@ -8119,10 +8120,10 @@
     <row r="37" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C37" s="24"/>
       <c r="D37" s="42" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
@@ -8522,6 +8523,43 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="O27:BK27"/>
+    <mergeCell ref="E28:N28"/>
+    <mergeCell ref="O28:BK28"/>
+    <mergeCell ref="E29:N29"/>
+    <mergeCell ref="O29:BK29"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="E26:N26"/>
+    <mergeCell ref="O26:BK26"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:BP7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -8536,43 +8574,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="E26:N26"/>
-    <mergeCell ref="O26:BK26"/>
-    <mergeCell ref="E27:N27"/>
-    <mergeCell ref="O27:BK27"/>
-    <mergeCell ref="E28:N28"/>
-    <mergeCell ref="O28:BK28"/>
-    <mergeCell ref="E29:N29"/>
-    <mergeCell ref="O29:BK29"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
